--- a/Grade 2018/HomeAssignment/HA_Summary_YC_2018.xlsx
+++ b/Grade 2018/HomeAssignment/HA_Summary_YC_2018.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repository\Sept 2020 - Jan 2021\Grade 2018\HomeAssignment\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85035903-EA6A-48FB-92A1-7AEEB28FD29F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CS1" sheetId="2" r:id="rId1"/>
@@ -19,12 +13,12 @@
     <sheet name="NE" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'CS1'!$A$2:$P$48</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'CS2'!$A$2:$P$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'CS1'!$A$2:$P$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'CS2'!$A$2:$P$51</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">NE!$A$2:$P$45</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">SE!$A$2:$P$45</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="392">
   <si>
     <t>No</t>
   </si>
@@ -1220,23 +1214,23 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="[$-804]d\-mmm"/>
-    <numFmt numFmtId="165" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="[$-804]d\-mmm"/>
+    <numFmt numFmtId="177" formatCode="0.00_);\(0.00\)"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1251,14 +1245,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri Light"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri Light"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
@@ -1266,7 +1260,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1287,7 +1281,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1429,13 +1423,13 @@
     <xf numFmtId="1" fontId="6" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1464,10 +1458,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="常规 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="常规 4" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2 3" xfId="1"/>
+    <cellStyle name="常规 3" xfId="3"/>
+    <cellStyle name="常规 4" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1737,29 +1731,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.44140625" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" customWidth="1"/>
     <col min="7" max="8" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
@@ -1769,7 +1763,7 @@
     <col min="27" max="27" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>10</v>
       </c>
@@ -1791,7 +1785,7 @@
       <c r="O1" s="19"/>
       <c r="P1" s="19"/>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -1841,14 +1835,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
       <c r="D3" s="18"/>
       <c r="E3" s="21"/>
-      <c r="F3" s="3" t="s">
-        <v>22</v>
+      <c r="F3" s="3">
+        <v>43728</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>22</v>
@@ -1879,7 +1873,7 @@
       </c>
       <c r="P3" s="15"/>
     </row>
-    <row r="4" spans="1:16" ht="15.6">
+    <row r="4" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -1895,7 +1889,9 @@
       <c r="E4" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="F4" s="8"/>
+      <c r="F4" s="8">
+        <v>5</v>
+      </c>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
@@ -1905,12 +1901,12 @@
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
-      <c r="P4" s="7" t="e">
+      <c r="P4" s="7">
         <f t="shared" ref="P4:P48" si="0">AVERAGE(F4:O4)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="15.6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -1926,7 +1922,9 @@
       <c r="E5" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="F5" s="8"/>
+      <c r="F5" s="8">
+        <v>8</v>
+      </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
@@ -1936,12 +1934,12 @@
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
-      <c r="P5" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="15.6">
+      <c r="P5" s="7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -1957,7 +1955,9 @@
       <c r="E6" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="F6" s="8"/>
+      <c r="F6" s="8">
+        <v>9</v>
+      </c>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
@@ -1967,12 +1967,12 @@
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
-      <c r="P6" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="15.6">
+      <c r="P6" s="7">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -1988,7 +1988,9 @@
       <c r="E7" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="F7" s="8"/>
+      <c r="F7" s="8">
+        <v>8</v>
+      </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -1998,12 +2000,12 @@
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
-      <c r="P7" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="15.6">
+      <c r="P7" s="7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -2019,7 +2021,9 @@
       <c r="E8" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="F8" s="8"/>
+      <c r="F8" s="8">
+        <v>10</v>
+      </c>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -2029,12 +2033,12 @@
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
-      <c r="P8" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="15.6">
+      <c r="P8" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -2050,7 +2054,9 @@
       <c r="E9" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="F9" s="8"/>
+      <c r="F9" s="8">
+        <v>7</v>
+      </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
@@ -2060,12 +2066,12 @@
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
       <c r="O9" s="8"/>
-      <c r="P9" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="15.6">
+      <c r="P9" s="7">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -2081,7 +2087,9 @@
       <c r="E10" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="F10" s="8"/>
+      <c r="F10" s="8">
+        <v>9</v>
+      </c>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
@@ -2091,12 +2099,12 @@
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
       <c r="O10" s="8"/>
-      <c r="P10" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="15.6">
+      <c r="P10" s="7">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -2112,7 +2120,9 @@
       <c r="E11" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="F11" s="8"/>
+      <c r="F11" s="8">
+        <v>9</v>
+      </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
@@ -2122,12 +2132,12 @@
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
       <c r="O11" s="8"/>
-      <c r="P11" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="15.6">
+      <c r="P11" s="7">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -2143,7 +2153,9 @@
       <c r="E12" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="F12" s="8"/>
+      <c r="F12" s="8">
+        <v>8</v>
+      </c>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
@@ -2153,12 +2165,12 @@
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
       <c r="O12" s="8"/>
-      <c r="P12" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="15.6">
+      <c r="P12" s="7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -2174,7 +2186,9 @@
       <c r="E13" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="8"/>
+      <c r="F13" s="8">
+        <v>10</v>
+      </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
@@ -2184,12 +2198,12 @@
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
       <c r="O13" s="8"/>
-      <c r="P13" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="15.6">
+      <c r="P13" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -2205,7 +2219,9 @@
       <c r="E14" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="8"/>
+      <c r="F14" s="8">
+        <v>9</v>
+      </c>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
@@ -2215,12 +2231,12 @@
       <c r="M14" s="8"/>
       <c r="N14" s="8"/>
       <c r="O14" s="8"/>
-      <c r="P14" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="15.6">
+      <c r="P14" s="7">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -2236,7 +2252,9 @@
       <c r="E15" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="F15" s="8"/>
+      <c r="F15" s="8">
+        <v>10</v>
+      </c>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
@@ -2246,12 +2264,12 @@
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
       <c r="O15" s="8"/>
-      <c r="P15" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="15.6">
+      <c r="P15" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -2267,7 +2285,9 @@
       <c r="E16" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="F16" s="8"/>
+      <c r="F16" s="8">
+        <v>7</v>
+      </c>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
@@ -2277,12 +2297,12 @@
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
       <c r="O16" s="8"/>
-      <c r="P16" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="15.6">
+      <c r="P16" s="7">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -2298,7 +2318,9 @@
       <c r="E17" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="F17" s="8"/>
+      <c r="F17" s="8">
+        <v>8</v>
+      </c>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
@@ -2308,12 +2330,12 @@
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
       <c r="O17" s="8"/>
-      <c r="P17" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="15.6">
+      <c r="P17" s="7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -2329,7 +2351,9 @@
       <c r="E18" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="F18" s="8"/>
+      <c r="F18" s="8">
+        <v>10</v>
+      </c>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
@@ -2339,12 +2363,12 @@
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
       <c r="O18" s="8"/>
-      <c r="P18" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="15.6">
+      <c r="P18" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -2360,7 +2384,9 @@
       <c r="E19" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="F19" s="8"/>
+      <c r="F19" s="8">
+        <v>6</v>
+      </c>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -2370,12 +2396,12 @@
       <c r="M19" s="8"/>
       <c r="N19" s="8"/>
       <c r="O19" s="8"/>
-      <c r="P19" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="15.6">
+      <c r="P19" s="7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -2391,7 +2417,9 @@
       <c r="E20" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="F20" s="8"/>
+      <c r="F20" s="8">
+        <v>10</v>
+      </c>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
@@ -2401,12 +2429,12 @@
       <c r="M20" s="8"/>
       <c r="N20" s="8"/>
       <c r="O20" s="8"/>
-      <c r="P20" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="15.6">
+      <c r="P20" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -2422,7 +2450,9 @@
       <c r="E21" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="F21" s="8"/>
+      <c r="F21" s="8">
+        <v>10</v>
+      </c>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
@@ -2432,12 +2462,12 @@
       <c r="M21" s="8"/>
       <c r="N21" s="8"/>
       <c r="O21" s="8"/>
-      <c r="P21" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="15.6">
+      <c r="P21" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -2453,7 +2483,9 @@
       <c r="E22" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="F22" s="8"/>
+      <c r="F22" s="8">
+        <v>8</v>
+      </c>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
@@ -2463,12 +2495,12 @@
       <c r="M22" s="8"/>
       <c r="N22" s="8"/>
       <c r="O22" s="8"/>
-      <c r="P22" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" ht="15.6">
+      <c r="P22" s="7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -2484,7 +2516,9 @@
       <c r="E23" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="F23" s="8"/>
+      <c r="F23" s="8">
+        <v>10</v>
+      </c>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -2494,12 +2528,12 @@
       <c r="M23" s="8"/>
       <c r="N23" s="8"/>
       <c r="O23" s="8"/>
-      <c r="P23" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="15.6">
+      <c r="P23" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -2515,7 +2549,9 @@
       <c r="E24" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="F24" s="8"/>
+      <c r="F24" s="8">
+        <v>9</v>
+      </c>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
@@ -2525,12 +2561,12 @@
       <c r="M24" s="8"/>
       <c r="N24" s="8"/>
       <c r="O24" s="8"/>
-      <c r="P24" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" ht="15.6">
+      <c r="P24" s="7">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -2546,7 +2582,9 @@
       <c r="E25" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="F25" s="8"/>
+      <c r="F25" s="8">
+        <v>10</v>
+      </c>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
@@ -2556,12 +2594,12 @@
       <c r="M25" s="8"/>
       <c r="N25" s="8"/>
       <c r="O25" s="8"/>
-      <c r="P25" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" ht="15.6">
+      <c r="P25" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -2577,7 +2615,9 @@
       <c r="E26" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F26" s="8"/>
+      <c r="F26" s="8">
+        <v>10</v>
+      </c>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
@@ -2587,12 +2627,12 @@
       <c r="M26" s="8"/>
       <c r="N26" s="8"/>
       <c r="O26" s="8"/>
-      <c r="P26" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" ht="15.6">
+      <c r="P26" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -2608,7 +2648,9 @@
       <c r="E27" s="10" t="s">
         <v>367</v>
       </c>
-      <c r="F27" s="8"/>
+      <c r="F27" s="8">
+        <v>10</v>
+      </c>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
@@ -2618,12 +2660,12 @@
       <c r="M27" s="8"/>
       <c r="N27" s="8"/>
       <c r="O27" s="8"/>
-      <c r="P27" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" ht="15.6">
+      <c r="P27" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -2639,7 +2681,9 @@
       <c r="E28" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F28" s="8"/>
+      <c r="F28" s="8">
+        <v>8</v>
+      </c>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
@@ -2649,12 +2693,12 @@
       <c r="M28" s="8"/>
       <c r="N28" s="8"/>
       <c r="O28" s="8"/>
-      <c r="P28" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" ht="15.6">
+      <c r="P28" s="7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -2670,7 +2714,9 @@
       <c r="E29" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="F29" s="8"/>
+      <c r="F29" s="8">
+        <v>8</v>
+      </c>
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
@@ -2680,12 +2726,12 @@
       <c r="M29" s="8"/>
       <c r="N29" s="8"/>
       <c r="O29" s="8"/>
-      <c r="P29" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" ht="15.6">
+      <c r="P29" s="7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -2701,7 +2747,9 @@
       <c r="E30" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="F30" s="8"/>
+      <c r="F30" s="8">
+        <v>8</v>
+      </c>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
@@ -2711,12 +2759,12 @@
       <c r="M30" s="8"/>
       <c r="N30" s="8"/>
       <c r="O30" s="8"/>
-      <c r="P30" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" ht="15.6">
+      <c r="P30" s="7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>28</v>
       </c>
@@ -2732,7 +2780,9 @@
       <c r="E31" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="F31" s="8"/>
+      <c r="F31" s="8">
+        <v>9</v>
+      </c>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
@@ -2742,12 +2792,12 @@
       <c r="M31" s="8"/>
       <c r="N31" s="8"/>
       <c r="O31" s="8"/>
-      <c r="P31" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" ht="15.6">
+      <c r="P31" s="7">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>29</v>
       </c>
@@ -2763,7 +2813,9 @@
       <c r="E32" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="F32" s="8"/>
+      <c r="F32" s="8">
+        <v>10</v>
+      </c>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
@@ -2773,12 +2825,12 @@
       <c r="M32" s="8"/>
       <c r="N32" s="8"/>
       <c r="O32" s="8"/>
-      <c r="P32" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" ht="15.6">
+      <c r="P32" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>30</v>
       </c>
@@ -2794,7 +2846,9 @@
       <c r="E33" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F33" s="8"/>
+      <c r="F33" s="8">
+        <v>9</v>
+      </c>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
@@ -2804,12 +2858,12 @@
       <c r="M33" s="8"/>
       <c r="N33" s="8"/>
       <c r="O33" s="8"/>
-      <c r="P33" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" ht="15.6">
+      <c r="P33" s="7">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>31</v>
       </c>
@@ -2825,7 +2879,9 @@
       <c r="E34" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="F34" s="8"/>
+      <c r="F34" s="8">
+        <v>9</v>
+      </c>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
@@ -2835,12 +2891,12 @@
       <c r="M34" s="8"/>
       <c r="N34" s="8"/>
       <c r="O34" s="8"/>
-      <c r="P34" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" ht="15.6">
+      <c r="P34" s="7">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>32</v>
       </c>
@@ -2856,7 +2912,9 @@
       <c r="E35" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F35" s="8"/>
+      <c r="F35" s="8">
+        <v>7</v>
+      </c>
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
@@ -2866,12 +2924,12 @@
       <c r="M35" s="8"/>
       <c r="N35" s="8"/>
       <c r="O35" s="8"/>
-      <c r="P35" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" ht="15.6">
+      <c r="P35" s="7">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>33</v>
       </c>
@@ -2887,7 +2945,9 @@
       <c r="E36" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F36" s="8"/>
+      <c r="F36" s="8">
+        <v>10</v>
+      </c>
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
@@ -2897,12 +2957,12 @@
       <c r="M36" s="8"/>
       <c r="N36" s="8"/>
       <c r="O36" s="8"/>
-      <c r="P36" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" ht="15.6">
+      <c r="P36" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>34</v>
       </c>
@@ -2918,7 +2978,9 @@
       <c r="E37" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F37" s="8"/>
+      <c r="F37" s="8">
+        <v>10</v>
+      </c>
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
@@ -2928,12 +2990,12 @@
       <c r="M37" s="8"/>
       <c r="N37" s="8"/>
       <c r="O37" s="8"/>
-      <c r="P37" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" ht="15.6">
+      <c r="P37" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>35</v>
       </c>
@@ -2949,7 +3011,9 @@
       <c r="E38" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="F38" s="8"/>
+      <c r="F38" s="8">
+        <v>9</v>
+      </c>
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
       <c r="I38" s="8"/>
@@ -2959,12 +3023,12 @@
       <c r="M38" s="8"/>
       <c r="N38" s="8"/>
       <c r="O38" s="8"/>
-      <c r="P38" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" ht="15.6">
+      <c r="P38" s="7">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>36</v>
       </c>
@@ -2980,7 +3044,9 @@
       <c r="E39" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="F39" s="8"/>
+      <c r="F39" s="8">
+        <v>9</v>
+      </c>
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
       <c r="I39" s="8"/>
@@ -2990,12 +3056,12 @@
       <c r="M39" s="8"/>
       <c r="N39" s="8"/>
       <c r="O39" s="8"/>
-      <c r="P39" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" ht="15.6">
+      <c r="P39" s="7">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>37</v>
       </c>
@@ -3011,7 +3077,9 @@
       <c r="E40" s="10" t="s">
         <v>369</v>
       </c>
-      <c r="F40" s="8"/>
+      <c r="F40" s="8">
+        <v>10</v>
+      </c>
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
       <c r="I40" s="8"/>
@@ -3021,12 +3089,12 @@
       <c r="M40" s="8"/>
       <c r="N40" s="8"/>
       <c r="O40" s="8"/>
-      <c r="P40" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" ht="15.6">
+      <c r="P40" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>38</v>
       </c>
@@ -3042,7 +3110,9 @@
       <c r="E41" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="F41" s="8"/>
+      <c r="F41" s="8">
+        <v>10</v>
+      </c>
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
       <c r="I41" s="8"/>
@@ -3052,12 +3122,12 @@
       <c r="M41" s="8"/>
       <c r="N41" s="8"/>
       <c r="O41" s="8"/>
-      <c r="P41" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" ht="15.6">
+      <c r="P41" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>39</v>
       </c>
@@ -3073,7 +3143,9 @@
       <c r="E42" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="F42" s="8"/>
+      <c r="F42" s="8">
+        <v>9</v>
+      </c>
       <c r="G42" s="8"/>
       <c r="H42" s="8"/>
       <c r="I42" s="8"/>
@@ -3083,12 +3155,12 @@
       <c r="M42" s="8"/>
       <c r="N42" s="8"/>
       <c r="O42" s="8"/>
-      <c r="P42" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" ht="15.6">
+      <c r="P42" s="7">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>40</v>
       </c>
@@ -3104,7 +3176,9 @@
       <c r="E43" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="F43" s="8"/>
+      <c r="F43" s="8">
+        <v>9</v>
+      </c>
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
       <c r="I43" s="8"/>
@@ -3114,12 +3188,12 @@
       <c r="M43" s="8"/>
       <c r="N43" s="8"/>
       <c r="O43" s="8"/>
-      <c r="P43" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" ht="15.6">
+      <c r="P43" s="7">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>41</v>
       </c>
@@ -3135,7 +3209,9 @@
       <c r="E44" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="F44" s="8"/>
+      <c r="F44" s="8">
+        <v>10</v>
+      </c>
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
       <c r="I44" s="8"/>
@@ -3145,12 +3221,12 @@
       <c r="M44" s="8"/>
       <c r="N44" s="8"/>
       <c r="O44" s="8"/>
-      <c r="P44" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" ht="15.6">
+      <c r="P44" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>42</v>
       </c>
@@ -3166,7 +3242,9 @@
       <c r="E45" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="F45" s="8"/>
+      <c r="F45" s="8">
+        <v>9</v>
+      </c>
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
       <c r="I45" s="8"/>
@@ -3176,12 +3254,12 @@
       <c r="M45" s="8"/>
       <c r="N45" s="8"/>
       <c r="O45" s="8"/>
-      <c r="P45" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" ht="15.6">
+      <c r="P45" s="7">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>43</v>
       </c>
@@ -3197,7 +3275,9 @@
       <c r="E46" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="F46" s="8"/>
+      <c r="F46" s="8">
+        <v>10</v>
+      </c>
       <c r="G46" s="8"/>
       <c r="H46" s="8"/>
       <c r="I46" s="8"/>
@@ -3207,12 +3287,12 @@
       <c r="M46" s="8"/>
       <c r="N46" s="8"/>
       <c r="O46" s="8"/>
-      <c r="P46" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" ht="15.6">
+      <c r="P46" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>44</v>
       </c>
@@ -3228,7 +3308,9 @@
       <c r="E47" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="F47" s="8"/>
+      <c r="F47" s="8">
+        <v>8</v>
+      </c>
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
       <c r="I47" s="8"/>
@@ -3238,12 +3320,12 @@
       <c r="M47" s="8"/>
       <c r="N47" s="8"/>
       <c r="O47" s="8"/>
-      <c r="P47" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" ht="15.6">
+      <c r="P47" s="7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>45</v>
       </c>
@@ -3259,7 +3341,9 @@
       <c r="E48" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="F48" s="8"/>
+      <c r="F48" s="8">
+        <v>9</v>
+      </c>
       <c r="G48" s="8"/>
       <c r="H48" s="8"/>
       <c r="I48" s="8"/>
@@ -3269,12 +3353,12 @@
       <c r="M48" s="8"/>
       <c r="N48" s="8"/>
       <c r="O48" s="8"/>
-      <c r="P48" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" ht="15.6">
+      <c r="P48" s="7">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>46</v>
       </c>
@@ -3290,7 +3374,9 @@
       <c r="E49" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="F49" s="8"/>
+      <c r="F49" s="8">
+        <v>10</v>
+      </c>
       <c r="G49" s="8"/>
       <c r="H49" s="8"/>
       <c r="I49" s="8"/>
@@ -3300,12 +3386,12 @@
       <c r="M49" s="8"/>
       <c r="N49" s="8"/>
       <c r="O49" s="8"/>
-      <c r="P49" s="7" t="e">
+      <c r="P49" s="7">
         <f t="shared" ref="P49:P50" si="1">AVERAGE(F49:O49)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" ht="15.6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>47</v>
       </c>
@@ -3321,7 +3407,9 @@
       <c r="E50" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F50" s="8"/>
+      <c r="F50" s="8">
+        <v>10</v>
+      </c>
       <c r="G50" s="8"/>
       <c r="H50" s="8"/>
       <c r="I50" s="8"/>
@@ -3331,14 +3419,14 @@
       <c r="M50" s="8"/>
       <c r="N50" s="8"/>
       <c r="O50" s="8"/>
-      <c r="P50" s="7" t="e">
+      <c r="P50" s="7">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:P48" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:R44">
+  <autoFilter ref="A2:P50">
+    <sortState ref="A5:R44">
       <sortCondition ref="C2:C3"/>
     </sortState>
   </autoFilter>
@@ -3354,9 +3442,9 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations xWindow="519" yWindow="339" count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Input Score" sqref="N4:O50 K4:K50" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Assignment Number" sqref="F2:O2" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:O3" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Input Score" sqref="N4:O50 K4:K50"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Assignment Number" sqref="F2:O2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:O3"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3364,15 +3452,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.5546875" bestFit="1" customWidth="1"/>
@@ -3389,7 +3477,7 @@
     <col min="27" max="27" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>10</v>
       </c>
@@ -3411,7 +3499,7 @@
       <c r="O1" s="19"/>
       <c r="P1" s="19"/>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -3461,14 +3549,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
       <c r="D3" s="18"/>
       <c r="E3" s="21"/>
-      <c r="F3" s="3" t="s">
-        <v>22</v>
+      <c r="F3" s="3">
+        <v>43728</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>22</v>
@@ -3499,7 +3587,7 @@
       </c>
       <c r="P3" s="15"/>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -3515,7 +3603,9 @@
       <c r="E4" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="F4" s="8"/>
+      <c r="F4" s="8">
+        <v>7</v>
+      </c>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
@@ -3525,12 +3615,12 @@
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
-      <c r="P4" s="7" t="e">
+      <c r="P4" s="7">
         <f t="shared" ref="P4:P50" si="0">AVERAGE(F4:O4)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -3546,7 +3636,9 @@
       <c r="E5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="8"/>
+      <c r="F5" s="8">
+        <v>10</v>
+      </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
@@ -3556,12 +3648,12 @@
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
-      <c r="P5" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="P5" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -3577,7 +3669,9 @@
       <c r="E6" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="F6" s="8"/>
+      <c r="F6" s="8">
+        <v>6</v>
+      </c>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
@@ -3587,12 +3681,12 @@
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
-      <c r="P6" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="P6" s="7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -3608,7 +3702,9 @@
       <c r="E7" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="F7" s="8"/>
+      <c r="F7" s="8">
+        <v>10</v>
+      </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -3618,12 +3714,12 @@
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
-      <c r="P7" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="P7" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -3639,7 +3735,9 @@
       <c r="E8" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="F8" s="8"/>
+      <c r="F8" s="8">
+        <v>10</v>
+      </c>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -3649,12 +3747,12 @@
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
-      <c r="P8" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="P8" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -3670,7 +3768,9 @@
       <c r="E9" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="F9" s="8"/>
+      <c r="F9" s="8">
+        <v>10</v>
+      </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
@@ -3680,12 +3780,12 @@
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
       <c r="O9" s="8"/>
-      <c r="P9" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="P9" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -3701,7 +3801,9 @@
       <c r="E10" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="F10" s="8"/>
+      <c r="F10" s="8">
+        <v>6</v>
+      </c>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
@@ -3711,12 +3813,12 @@
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
       <c r="O10" s="8"/>
-      <c r="P10" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="P10" s="7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -3732,7 +3834,9 @@
       <c r="E11" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="F11" s="8"/>
+      <c r="F11" s="8">
+        <v>10</v>
+      </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
@@ -3742,12 +3846,12 @@
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
       <c r="O11" s="8"/>
-      <c r="P11" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="P11" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -3763,7 +3867,9 @@
       <c r="E12" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="F12" s="8"/>
+      <c r="F12" s="8">
+        <v>10</v>
+      </c>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
@@ -3773,12 +3879,12 @@
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
       <c r="O12" s="8"/>
-      <c r="P12" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="P12" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -3794,7 +3900,9 @@
       <c r="E13" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="F13" s="8"/>
+      <c r="F13" s="8">
+        <v>10</v>
+      </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
@@ -3804,12 +3912,12 @@
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
       <c r="O13" s="8"/>
-      <c r="P13" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="P13" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -3825,7 +3933,9 @@
       <c r="E14" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="F14" s="8"/>
+      <c r="F14" s="8">
+        <v>10</v>
+      </c>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
@@ -3835,12 +3945,12 @@
       <c r="M14" s="8"/>
       <c r="N14" s="8"/>
       <c r="O14" s="8"/>
-      <c r="P14" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="P14" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -3856,7 +3966,9 @@
       <c r="E15" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="F15" s="8"/>
+      <c r="F15" s="8">
+        <v>10</v>
+      </c>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
@@ -3866,12 +3978,12 @@
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
       <c r="O15" s="8"/>
-      <c r="P15" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="P15" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -3887,7 +3999,9 @@
       <c r="E16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="8"/>
+      <c r="F16" s="8">
+        <v>9</v>
+      </c>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
@@ -3897,12 +4011,12 @@
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
       <c r="O16" s="8"/>
-      <c r="P16" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
+      <c r="P16" s="7">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -3918,7 +4032,9 @@
       <c r="E17" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="F17" s="8"/>
+      <c r="F17" s="8">
+        <v>10</v>
+      </c>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
@@ -3928,12 +4044,12 @@
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
       <c r="O17" s="8"/>
-      <c r="P17" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
+      <c r="P17" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -3949,7 +4065,9 @@
       <c r="E18" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="8"/>
+      <c r="F18" s="8">
+        <v>10</v>
+      </c>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
@@ -3959,12 +4077,12 @@
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
       <c r="O18" s="8"/>
-      <c r="P18" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
+      <c r="P18" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -3980,7 +4098,9 @@
       <c r="E19" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="F19" s="8"/>
+      <c r="F19" s="8">
+        <v>10</v>
+      </c>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -3990,12 +4110,12 @@
       <c r="M19" s="8"/>
       <c r="N19" s="8"/>
       <c r="O19" s="8"/>
-      <c r="P19" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
+      <c r="P19" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -4011,7 +4131,9 @@
       <c r="E20" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F20" s="8"/>
+      <c r="F20" s="8">
+        <v>10</v>
+      </c>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
@@ -4021,12 +4143,12 @@
       <c r="M20" s="8"/>
       <c r="N20" s="8"/>
       <c r="O20" s="8"/>
-      <c r="P20" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+      <c r="P20" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -4042,7 +4164,9 @@
       <c r="E21" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="F21" s="8"/>
+      <c r="F21" s="8">
+        <v>10</v>
+      </c>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
@@ -4052,12 +4176,12 @@
       <c r="M21" s="8"/>
       <c r="N21" s="8"/>
       <c r="O21" s="8"/>
-      <c r="P21" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
+      <c r="P21" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -4073,7 +4197,9 @@
       <c r="E22" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F22" s="8"/>
+      <c r="F22" s="8">
+        <v>9</v>
+      </c>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
@@ -4083,12 +4209,12 @@
       <c r="M22" s="8"/>
       <c r="N22" s="8"/>
       <c r="O22" s="8"/>
-      <c r="P22" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
+      <c r="P22" s="7">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -4104,7 +4230,9 @@
       <c r="E23" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F23" s="8"/>
+      <c r="F23" s="8">
+        <v>10</v>
+      </c>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -4114,12 +4242,12 @@
       <c r="M23" s="8"/>
       <c r="N23" s="8"/>
       <c r="O23" s="8"/>
-      <c r="P23" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
+      <c r="P23" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -4135,7 +4263,9 @@
       <c r="E24" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="F24" s="8"/>
+      <c r="F24" s="8">
+        <v>10</v>
+      </c>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
@@ -4145,12 +4275,12 @@
       <c r="M24" s="8"/>
       <c r="N24" s="8"/>
       <c r="O24" s="8"/>
-      <c r="P24" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
+      <c r="P24" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -4166,7 +4296,9 @@
       <c r="E25" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="F25" s="8"/>
+      <c r="F25" s="8">
+        <v>9</v>
+      </c>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
@@ -4176,12 +4308,12 @@
       <c r="M25" s="8"/>
       <c r="N25" s="8"/>
       <c r="O25" s="8"/>
-      <c r="P25" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16">
+      <c r="P25" s="7">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -4197,7 +4329,9 @@
       <c r="E26" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="F26" s="8"/>
+      <c r="F26" s="8">
+        <v>10</v>
+      </c>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
@@ -4207,12 +4341,12 @@
       <c r="M26" s="8"/>
       <c r="N26" s="8"/>
       <c r="O26" s="8"/>
-      <c r="P26" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16">
+      <c r="P26" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -4228,7 +4362,9 @@
       <c r="E27" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="F27" s="8"/>
+      <c r="F27" s="8">
+        <v>10</v>
+      </c>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
@@ -4238,12 +4374,12 @@
       <c r="M27" s="8"/>
       <c r="N27" s="8"/>
       <c r="O27" s="8"/>
-      <c r="P27" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16">
+      <c r="P27" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -4259,7 +4395,9 @@
       <c r="E28" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="F28" s="8"/>
+      <c r="F28" s="8">
+        <v>10</v>
+      </c>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
@@ -4269,12 +4407,12 @@
       <c r="M28" s="8"/>
       <c r="N28" s="8"/>
       <c r="O28" s="8"/>
-      <c r="P28" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16">
+      <c r="P28" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -4305,7 +4443,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -4321,7 +4459,9 @@
       <c r="E30" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="F30" s="8"/>
+      <c r="F30" s="8">
+        <v>10</v>
+      </c>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
@@ -4331,12 +4471,12 @@
       <c r="M30" s="8"/>
       <c r="N30" s="8"/>
       <c r="O30" s="8"/>
-      <c r="P30" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16">
+      <c r="P30" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>28</v>
       </c>
@@ -4352,7 +4492,9 @@
       <c r="E31" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="F31" s="8"/>
+      <c r="F31" s="8">
+        <v>10</v>
+      </c>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
@@ -4362,12 +4504,12 @@
       <c r="M31" s="8"/>
       <c r="N31" s="8"/>
       <c r="O31" s="8"/>
-      <c r="P31" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16">
+      <c r="P31" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>29</v>
       </c>
@@ -4383,7 +4525,9 @@
       <c r="E32" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="F32" s="8"/>
+      <c r="F32" s="8">
+        <v>6</v>
+      </c>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
@@ -4393,12 +4537,12 @@
       <c r="M32" s="8"/>
       <c r="N32" s="8"/>
       <c r="O32" s="8"/>
-      <c r="P32" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16">
+      <c r="P32" s="7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>30</v>
       </c>
@@ -4414,7 +4558,9 @@
       <c r="E33" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="F33" s="8"/>
+      <c r="F33" s="8">
+        <v>7</v>
+      </c>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
@@ -4424,12 +4570,12 @@
       <c r="M33" s="8"/>
       <c r="N33" s="8"/>
       <c r="O33" s="8"/>
-      <c r="P33" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16">
+      <c r="P33" s="7">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>31</v>
       </c>
@@ -4445,7 +4591,9 @@
       <c r="E34" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="F34" s="8"/>
+      <c r="F34" s="8">
+        <v>10</v>
+      </c>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
@@ -4455,12 +4603,12 @@
       <c r="M34" s="8"/>
       <c r="N34" s="8"/>
       <c r="O34" s="8"/>
-      <c r="P34" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16">
+      <c r="P34" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>32</v>
       </c>
@@ -4476,7 +4624,9 @@
       <c r="E35" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="F35" s="8"/>
+      <c r="F35" s="8">
+        <v>10</v>
+      </c>
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
@@ -4486,12 +4636,12 @@
       <c r="M35" s="8"/>
       <c r="N35" s="8"/>
       <c r="O35" s="8"/>
-      <c r="P35" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16">
+      <c r="P35" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>33</v>
       </c>
@@ -4507,7 +4657,9 @@
       <c r="E36" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="F36" s="8"/>
+      <c r="F36" s="8">
+        <v>5</v>
+      </c>
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
@@ -4517,12 +4669,12 @@
       <c r="M36" s="8"/>
       <c r="N36" s="8"/>
       <c r="O36" s="8"/>
-      <c r="P36" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16">
+      <c r="P36" s="7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>34</v>
       </c>
@@ -4538,7 +4690,9 @@
       <c r="E37" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="F37" s="8"/>
+      <c r="F37" s="8">
+        <v>9</v>
+      </c>
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
@@ -4548,12 +4702,12 @@
       <c r="M37" s="8"/>
       <c r="N37" s="8"/>
       <c r="O37" s="8"/>
-      <c r="P37" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16">
+      <c r="P37" s="7">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>35</v>
       </c>
@@ -4569,7 +4723,9 @@
       <c r="E38" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="F38" s="8"/>
+      <c r="F38" s="8">
+        <v>8</v>
+      </c>
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
       <c r="I38" s="8"/>
@@ -4579,12 +4735,12 @@
       <c r="M38" s="8"/>
       <c r="N38" s="8"/>
       <c r="O38" s="8"/>
-      <c r="P38" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16">
+      <c r="P38" s="7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>36</v>
       </c>
@@ -4600,7 +4756,9 @@
       <c r="E39" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="F39" s="8"/>
+      <c r="F39" s="8">
+        <v>7</v>
+      </c>
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
       <c r="I39" s="8"/>
@@ -4610,12 +4768,12 @@
       <c r="M39" s="8"/>
       <c r="N39" s="8"/>
       <c r="O39" s="8"/>
-      <c r="P39" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16">
+      <c r="P39" s="7">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>37</v>
       </c>
@@ -4631,7 +4789,9 @@
       <c r="E40" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="F40" s="8"/>
+      <c r="F40" s="8">
+        <v>10</v>
+      </c>
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
       <c r="I40" s="8"/>
@@ -4641,12 +4801,12 @@
       <c r="M40" s="8"/>
       <c r="N40" s="8"/>
       <c r="O40" s="8"/>
-      <c r="P40" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16">
+      <c r="P40" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>38</v>
       </c>
@@ -4662,7 +4822,9 @@
       <c r="E41" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="F41" s="8"/>
+      <c r="F41" s="8">
+        <v>9</v>
+      </c>
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
       <c r="I41" s="8"/>
@@ -4672,12 +4834,12 @@
       <c r="M41" s="8"/>
       <c r="N41" s="8"/>
       <c r="O41" s="8"/>
-      <c r="P41" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16">
+      <c r="P41" s="7">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>39</v>
       </c>
@@ -4693,7 +4855,9 @@
       <c r="E42" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="F42" s="8"/>
+      <c r="F42" s="8">
+        <v>10</v>
+      </c>
       <c r="G42" s="8"/>
       <c r="H42" s="8"/>
       <c r="I42" s="8"/>
@@ -4703,12 +4867,12 @@
       <c r="M42" s="8"/>
       <c r="N42" s="8"/>
       <c r="O42" s="8"/>
-      <c r="P42" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16">
+      <c r="P42" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>40</v>
       </c>
@@ -4724,7 +4888,9 @@
       <c r="E43" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="F43" s="8"/>
+      <c r="F43" s="8">
+        <v>10</v>
+      </c>
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
       <c r="I43" s="8"/>
@@ -4734,12 +4900,12 @@
       <c r="M43" s="8"/>
       <c r="N43" s="8"/>
       <c r="O43" s="8"/>
-      <c r="P43" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16">
+      <c r="P43" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>41</v>
       </c>
@@ -4755,7 +4921,9 @@
       <c r="E44" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F44" s="8"/>
+      <c r="F44" s="8">
+        <v>10</v>
+      </c>
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
       <c r="I44" s="8"/>
@@ -4765,12 +4933,12 @@
       <c r="M44" s="8"/>
       <c r="N44" s="8"/>
       <c r="O44" s="8"/>
-      <c r="P44" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16">
+      <c r="P44" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>42</v>
       </c>
@@ -4786,7 +4954,9 @@
       <c r="E45" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="F45" s="8"/>
+      <c r="F45" s="8">
+        <v>9</v>
+      </c>
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
       <c r="I45" s="8"/>
@@ -4796,12 +4966,12 @@
       <c r="M45" s="8"/>
       <c r="N45" s="8"/>
       <c r="O45" s="8"/>
-      <c r="P45" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16">
+      <c r="P45" s="7">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>43</v>
       </c>
@@ -4817,7 +4987,9 @@
       <c r="E46" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="F46" s="8"/>
+      <c r="F46" s="8">
+        <v>10</v>
+      </c>
       <c r="G46" s="8"/>
       <c r="H46" s="8"/>
       <c r="I46" s="8"/>
@@ -4827,12 +4999,12 @@
       <c r="M46" s="8"/>
       <c r="N46" s="8"/>
       <c r="O46" s="8"/>
-      <c r="P46" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16">
+      <c r="P46" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>44</v>
       </c>
@@ -4848,7 +5020,9 @@
       <c r="E47" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="F47" s="8"/>
+      <c r="F47" s="8">
+        <v>10</v>
+      </c>
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
       <c r="I47" s="8"/>
@@ -4858,12 +5032,12 @@
       <c r="M47" s="8"/>
       <c r="N47" s="8"/>
       <c r="O47" s="8"/>
-      <c r="P47" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16">
+      <c r="P47" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>45</v>
       </c>
@@ -4879,7 +5053,9 @@
       <c r="E48" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="F48" s="8"/>
+      <c r="F48" s="8">
+        <v>9</v>
+      </c>
       <c r="G48" s="8"/>
       <c r="H48" s="8"/>
       <c r="I48" s="8"/>
@@ -4889,12 +5065,12 @@
       <c r="M48" s="8"/>
       <c r="N48" s="8"/>
       <c r="O48" s="8"/>
-      <c r="P48" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16">
+      <c r="P48" s="7">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>46</v>
       </c>
@@ -4910,7 +5086,9 @@
       <c r="E49" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="F49" s="8"/>
+      <c r="F49" s="8">
+        <v>9</v>
+      </c>
       <c r="G49" s="8"/>
       <c r="H49" s="8"/>
       <c r="I49" s="8"/>
@@ -4920,12 +5098,12 @@
       <c r="M49" s="8"/>
       <c r="N49" s="8"/>
       <c r="O49" s="8"/>
-      <c r="P49" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16">
+      <c r="P49" s="7">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>47</v>
       </c>
@@ -4941,7 +5119,9 @@
       <c r="E50" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="F50" s="8"/>
+      <c r="F50" s="8">
+        <v>10</v>
+      </c>
       <c r="G50" s="8"/>
       <c r="H50" s="8"/>
       <c r="I50" s="8"/>
@@ -4951,12 +5131,12 @@
       <c r="M50" s="8"/>
       <c r="N50" s="8"/>
       <c r="O50" s="8"/>
-      <c r="P50" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16">
+      <c r="P50" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>48</v>
       </c>
@@ -4972,7 +5152,9 @@
       <c r="E51" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="F51" s="8"/>
+      <c r="F51" s="8">
+        <v>9</v>
+      </c>
       <c r="G51" s="8"/>
       <c r="H51" s="8"/>
       <c r="I51" s="8"/>
@@ -4982,14 +5164,14 @@
       <c r="M51" s="8"/>
       <c r="N51" s="8"/>
       <c r="O51" s="8"/>
-      <c r="P51" s="7" t="e">
+      <c r="P51" s="7">
         <f t="shared" ref="P51" si="1">AVERAGE(F51:O51)</f>
-        <v>#DIV/0!</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:P47" xr:uid="{00000000-0009-0000-0000-000001000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:R44">
+  <autoFilter ref="A2:P51">
+    <sortState ref="A5:R44">
       <sortCondition ref="C2:C3"/>
     </sortState>
   </autoFilter>
@@ -5005,9 +5187,9 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Input Score" sqref="F4:O51" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:O3" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Assignment Number" sqref="F2:O2" xr:uid="{00000000-0002-0000-0100-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Input Score" sqref="F4:O51"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:O3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Assignment Number" sqref="F2:O2"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5015,7 +5197,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:P51"/>
   <sheetViews>
@@ -5023,7 +5205,7 @@
       <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
@@ -5039,7 +5221,7 @@
     <col min="27" max="27" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>10</v>
       </c>
@@ -5061,7 +5243,7 @@
       <c r="O1" s="19"/>
       <c r="P1" s="19"/>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -5111,7 +5293,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
@@ -5149,7 +5331,7 @@
       </c>
       <c r="P3" s="15"/>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -5180,7 +5362,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -5211,7 +5393,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -5242,7 +5424,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -5273,7 +5455,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -5304,7 +5486,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -5335,7 +5517,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -5366,7 +5548,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -5397,7 +5579,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -5428,7 +5610,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -5459,7 +5641,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -5490,7 +5672,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -5521,7 +5703,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -5552,7 +5734,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -5583,7 +5765,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -5614,7 +5796,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -5645,7 +5827,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -5676,7 +5858,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -5707,7 +5889,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -5738,7 +5920,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -5769,7 +5951,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -5800,7 +5982,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -5831,7 +6013,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -5862,7 +6044,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -5893,7 +6075,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -5924,7 +6106,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -5955,7 +6137,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -5986,7 +6168,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>28</v>
       </c>
@@ -6017,7 +6199,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>29</v>
       </c>
@@ -6048,7 +6230,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>30</v>
       </c>
@@ -6079,7 +6261,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>31</v>
       </c>
@@ -6110,7 +6292,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>32</v>
       </c>
@@ -6141,7 +6323,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>33</v>
       </c>
@@ -6172,7 +6354,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>34</v>
       </c>
@@ -6203,7 +6385,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>35</v>
       </c>
@@ -6234,7 +6416,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>36</v>
       </c>
@@ -6265,7 +6447,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>37</v>
       </c>
@@ -6296,7 +6478,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>38</v>
       </c>
@@ -6327,7 +6509,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>39</v>
       </c>
@@ -6358,7 +6540,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>40</v>
       </c>
@@ -6389,7 +6571,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>41</v>
       </c>
@@ -6420,7 +6602,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>42</v>
       </c>
@@ -6451,7 +6633,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>43</v>
       </c>
@@ -6482,7 +6664,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>44</v>
       </c>
@@ -6513,7 +6695,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="48" spans="1:16">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>45</v>
       </c>
@@ -6544,7 +6726,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>46</v>
       </c>
@@ -6575,7 +6757,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>47</v>
       </c>
@@ -6606,7 +6788,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="51" spans="1:16">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>48</v>
       </c>
@@ -6638,8 +6820,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:P45" xr:uid="{00000000-0009-0000-0000-000002000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:R44">
+  <autoFilter ref="A2:P45">
+    <sortState ref="A5:R44">
       <sortCondition ref="C2:C3"/>
     </sortState>
   </autoFilter>
@@ -6655,9 +6837,9 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Input Score" sqref="F4:O51" xr:uid="{00000000-0002-0000-0200-000000000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:O3" xr:uid="{00000000-0002-0000-0200-000001000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Assignment Number" sqref="F2:O2" xr:uid="{00000000-0002-0000-0200-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Input Score" sqref="F4:O51"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:O3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Assignment Number" sqref="F2:O2"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6665,15 +6847,15 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.5546875" bestFit="1" customWidth="1"/>
@@ -6688,11 +6870,11 @@
     <col min="12" max="12" width="9.88671875" style="4" customWidth="1"/>
     <col min="13" max="14" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17" style="4" customWidth="1"/>
+    <col min="16" max="16" width="25" style="4" customWidth="1"/>
     <col min="27" max="27" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>10</v>
       </c>
@@ -6714,7 +6896,7 @@
       <c r="O1" s="19"/>
       <c r="P1" s="19"/>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -6764,7 +6946,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
@@ -6802,7 +6984,7 @@
       </c>
       <c r="P3" s="15"/>
     </row>
-    <row r="4" spans="1:16" ht="16.2">
+    <row r="4" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -6833,7 +7015,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="16.2">
+    <row r="5" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -6864,7 +7046,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="16.2">
+    <row r="6" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -6895,7 +7077,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="16.2">
+    <row r="7" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -6926,7 +7108,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="16.2">
+    <row r="8" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -6957,7 +7139,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="16.2">
+    <row r="9" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -6988,7 +7170,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="16.2">
+    <row r="10" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -7019,7 +7201,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="16.2">
+    <row r="11" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -7050,7 +7232,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="16.2">
+    <row r="12" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -7081,7 +7263,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="16.2">
+    <row r="13" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -7112,7 +7294,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="16.2">
+    <row r="14" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -7143,7 +7325,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="16.2">
+    <row r="15" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -7174,7 +7356,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="16.2">
+    <row r="16" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -7205,7 +7387,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="16.2">
+    <row r="17" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -7236,7 +7418,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="16.2">
+    <row r="18" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -7267,7 +7449,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="16.2">
+    <row r="19" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -7298,7 +7480,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="16.2">
+    <row r="20" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -7329,7 +7511,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="16.2">
+    <row r="21" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -7360,7 +7542,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="16.2">
+    <row r="22" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -7391,7 +7573,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="16.2">
+    <row r="23" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -7422,7 +7604,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="16.2">
+    <row r="24" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -7453,7 +7635,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="16.2">
+    <row r="25" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -7484,7 +7666,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="16.2">
+    <row r="26" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -7515,7 +7697,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="16.2">
+    <row r="27" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -7546,7 +7728,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="16.2">
+    <row r="28" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -7577,7 +7759,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="16.2">
+    <row r="29" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -7608,7 +7790,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="16.2">
+    <row r="30" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -7639,7 +7821,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="16.2">
+    <row r="31" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>28</v>
       </c>
@@ -7670,7 +7852,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="16.2">
+    <row r="32" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>29</v>
       </c>
@@ -7701,7 +7883,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="16.2">
+    <row r="33" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>30</v>
       </c>
@@ -7732,7 +7914,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="16.2">
+    <row r="34" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>31</v>
       </c>
@@ -7763,7 +7945,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="16.2">
+    <row r="35" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>32</v>
       </c>
@@ -7794,7 +7976,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="16.2">
+    <row r="36" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>33</v>
       </c>
@@ -7825,7 +8007,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="16.2">
+    <row r="37" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>34</v>
       </c>
@@ -7856,7 +8038,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="16.2">
+    <row r="38" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>35</v>
       </c>
@@ -7887,7 +8069,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="16.2">
+    <row r="39" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>36</v>
       </c>
@@ -7918,7 +8100,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="16.2">
+    <row r="40" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>37</v>
       </c>
@@ -7949,7 +8131,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="16.2">
+    <row r="41" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>38</v>
       </c>
@@ -7980,7 +8162,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="16.2">
+    <row r="42" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>39</v>
       </c>
@@ -8011,7 +8193,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="16.2">
+    <row r="43" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>40</v>
       </c>
@@ -8042,7 +8224,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="16.2">
+    <row r="44" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>41</v>
       </c>
@@ -8073,7 +8255,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="16.2">
+    <row r="45" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>42</v>
       </c>
@@ -8104,7 +8286,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="16.2">
+    <row r="46" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>43</v>
       </c>
@@ -8135,7 +8317,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="16.2">
+    <row r="47" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>44</v>
       </c>
@@ -8166,7 +8348,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="16.2">
+    <row r="48" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>45</v>
       </c>
@@ -8197,7 +8379,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="16.2">
+    <row r="49" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>46</v>
       </c>
@@ -8228,7 +8410,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="16.2">
+    <row r="50" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>47</v>
       </c>
@@ -8259,7 +8441,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="16.2">
+    <row r="51" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>48</v>
       </c>
@@ -8291,8 +8473,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:P45" xr:uid="{00000000-0009-0000-0000-000003000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:T44">
+  <autoFilter ref="A2:P45">
+    <sortState ref="A5:T44">
       <sortCondition ref="C2:C3"/>
     </sortState>
   </autoFilter>
@@ -8308,9 +8490,9 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Assignment Number" sqref="F2:O2" xr:uid="{00000000-0002-0000-0300-000000000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:O3" xr:uid="{00000000-0002-0000-0300-000001000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Input Score" sqref="F4:O51" xr:uid="{00000000-0002-0000-0300-000002000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Assignment Number" sqref="F2:O2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:O3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Input Score" sqref="F4:O51">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/Grade 2018/HomeAssignment/HA_Summary_YC_2018.xlsx
+++ b/Grade 2018/HomeAssignment/HA_Summary_YC_2018.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NIIT\NIIT教案\Sept-2020---Jan-2021\Grade 2018\HomeAssignment\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6590F26B-BBDE-4149-9A8C-18BB96ED8B49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CS1" sheetId="2" r:id="rId1"/>
@@ -18,7 +24,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">NE!$A$2:$P$45</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">SE!$A$2:$P$45</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="392">
   <si>
     <t>No</t>
   </si>
@@ -1214,7 +1220,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="[$-804]d\-mmm"/>
     <numFmt numFmtId="177" formatCode="0.00_);\(0.00\)"/>
@@ -1459,9 +1465,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2 3" xfId="1"/>
-    <cellStyle name="常规 3" xfId="3"/>
-    <cellStyle name="常规 4" xfId="2"/>
+    <cellStyle name="常规 2 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="常规 4" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1731,14 +1737,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P50"/>
   <sheetViews>
@@ -1746,24 +1752,24 @@
       <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" customWidth="1"/>
-    <col min="7" max="8" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.625" customWidth="1"/>
+    <col min="7" max="8" width="15.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="15.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="15.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" s="16" t="s">
         <v>10</v>
       </c>
@@ -1785,7 +1791,7 @@
       <c r="O1" s="19"/>
       <c r="P1" s="19"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -1835,7 +1841,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="15"/>
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
@@ -1873,7 +1879,7 @@
       </c>
       <c r="P3" s="15"/>
     </row>
-    <row r="4" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -1906,7 +1912,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -1939,7 +1945,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -1972,7 +1978,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -2005,7 +2011,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -2038,7 +2044,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -2071,7 +2077,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -2104,7 +2110,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -2137,7 +2143,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -2170,7 +2176,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -2203,7 +2209,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -2236,7 +2242,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -2269,7 +2275,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -2302,7 +2308,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -2335,7 +2341,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -2368,7 +2374,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -2401,7 +2407,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -2434,7 +2440,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -2467,7 +2473,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -2500,7 +2506,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -2533,7 +2539,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -2566,7 +2572,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -2599,7 +2605,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -2632,7 +2638,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -2665,7 +2671,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -2698,7 +2704,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -2731,7 +2737,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -2764,7 +2770,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>28</v>
       </c>
@@ -2797,7 +2803,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>29</v>
       </c>
@@ -2830,7 +2836,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>30</v>
       </c>
@@ -2863,7 +2869,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
         <v>31</v>
       </c>
@@ -2896,7 +2902,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
         <v>32</v>
       </c>
@@ -2929,7 +2935,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
         <v>33</v>
       </c>
@@ -2962,7 +2968,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
         <v>34</v>
       </c>
@@ -2995,7 +3001,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
         <v>35</v>
       </c>
@@ -3028,7 +3034,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
         <v>36</v>
       </c>
@@ -3061,7 +3067,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
         <v>37</v>
       </c>
@@ -3094,7 +3100,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
         <v>38</v>
       </c>
@@ -3127,7 +3133,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A42" s="2">
         <v>39</v>
       </c>
@@ -3160,7 +3166,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
         <v>40</v>
       </c>
@@ -3193,7 +3199,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A44" s="2">
         <v>41</v>
       </c>
@@ -3226,7 +3232,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
         <v>42</v>
       </c>
@@ -3259,7 +3265,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A46" s="2">
         <v>43</v>
       </c>
@@ -3292,7 +3298,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
         <v>44</v>
       </c>
@@ -3325,7 +3331,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A48" s="2">
         <v>45</v>
       </c>
@@ -3358,7 +3364,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
         <v>46</v>
       </c>
@@ -3391,7 +3397,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A50" s="2">
         <v>47</v>
       </c>
@@ -3425,8 +3431,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:P50">
-    <sortState ref="A5:R44">
+  <autoFilter ref="A2:P50" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:R44">
       <sortCondition ref="C2:C3"/>
     </sortState>
   </autoFilter>
@@ -3442,9 +3448,9 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations xWindow="519" yWindow="339" count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Input Score" sqref="N4:O50 K4:K50"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Assignment Number" sqref="F2:O2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:O3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Input Score" sqref="N4:O50 K4:K50" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Assignment Number" sqref="F2:O2" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:O3" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3452,32 +3458,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="15.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="15.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="15.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" s="16" t="s">
         <v>10</v>
       </c>
@@ -3499,7 +3505,7 @@
       <c r="O1" s="19"/>
       <c r="P1" s="19"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -3549,7 +3555,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="15"/>
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
@@ -3587,7 +3593,7 @@
       </c>
       <c r="P3" s="15"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -3620,7 +3626,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -3653,7 +3659,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -3686,7 +3692,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -3719,7 +3725,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -3752,7 +3758,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -3785,7 +3791,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -3818,7 +3824,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -3851,7 +3857,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -3884,7 +3890,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -3917,7 +3923,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -3950,7 +3956,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -3983,7 +3989,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -4016,7 +4022,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -4049,7 +4055,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -4082,7 +4088,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -4115,7 +4121,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -4148,7 +4154,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -4181,7 +4187,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -4214,7 +4220,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -4247,7 +4253,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -4280,7 +4286,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -4313,7 +4319,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -4346,7 +4352,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -4379,7 +4385,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -4412,7 +4418,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -4443,7 +4449,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -4476,7 +4482,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>28</v>
       </c>
@@ -4509,7 +4515,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>29</v>
       </c>
@@ -4542,7 +4548,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>30</v>
       </c>
@@ -4575,7 +4581,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
         <v>31</v>
       </c>
@@ -4608,7 +4614,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
         <v>32</v>
       </c>
@@ -4641,7 +4647,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
         <v>33</v>
       </c>
@@ -4674,7 +4680,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
         <v>34</v>
       </c>
@@ -4707,7 +4713,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
         <v>35</v>
       </c>
@@ -4740,7 +4746,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
         <v>36</v>
       </c>
@@ -4773,7 +4779,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
         <v>37</v>
       </c>
@@ -4806,7 +4812,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
         <v>38</v>
       </c>
@@ -4839,7 +4845,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A42" s="2">
         <v>39</v>
       </c>
@@ -4872,7 +4878,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
         <v>40</v>
       </c>
@@ -4905,7 +4911,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A44" s="2">
         <v>41</v>
       </c>
@@ -4938,7 +4944,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
         <v>42</v>
       </c>
@@ -4971,7 +4977,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A46" s="2">
         <v>43</v>
       </c>
@@ -5004,7 +5010,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
         <v>44</v>
       </c>
@@ -5037,7 +5043,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A48" s="2">
         <v>45</v>
       </c>
@@ -5070,7 +5076,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
         <v>46</v>
       </c>
@@ -5103,7 +5109,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A50" s="2">
         <v>47</v>
       </c>
@@ -5136,7 +5142,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A51" s="2">
         <v>48</v>
       </c>
@@ -5170,8 +5176,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:P51">
-    <sortState ref="A5:R44">
+  <autoFilter ref="A2:P51" xr:uid="{00000000-0009-0000-0000-000001000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:R44">
       <sortCondition ref="C2:C3"/>
     </sortState>
   </autoFilter>
@@ -5187,9 +5193,9 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Input Score" sqref="F4:O51"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:O3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Assignment Number" sqref="F2:O2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Input Score" sqref="F4:O51" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:O3" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Assignment Number" sqref="F2:O2" xr:uid="{00000000-0002-0000-0100-000002000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5197,31 +5203,31 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="11.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="11.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.77734375" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="11.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="11.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" s="16" t="s">
         <v>10</v>
       </c>
@@ -5243,7 +5249,7 @@
       <c r="O1" s="19"/>
       <c r="P1" s="19"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -5293,14 +5299,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="15"/>
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
       <c r="D3" s="18"/>
       <c r="E3" s="21"/>
-      <c r="F3" s="3" t="s">
-        <v>22</v>
+      <c r="F3" s="3">
+        <v>44095</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>22</v>
@@ -5331,7 +5337,7 @@
       </c>
       <c r="P3" s="15"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -5347,7 +5353,9 @@
       <c r="E4" s="3" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F4" s="8"/>
+      <c r="F4" s="8">
+        <v>0</v>
+      </c>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
@@ -5357,12 +5365,12 @@
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
-      <c r="P4" s="7" t="e">
+      <c r="P4" s="7">
         <f t="shared" ref="P4:P45" si="0">AVERAGE(F4:O4)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -5378,7 +5386,9 @@
       <c r="E5" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="F5" s="8"/>
+      <c r="F5" s="8">
+        <v>10</v>
+      </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
@@ -5388,12 +5398,12 @@
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
-      <c r="P5" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P5" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -5409,7 +5419,9 @@
       <c r="E6" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="F6" s="8"/>
+      <c r="F6" s="8">
+        <v>8</v>
+      </c>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
@@ -5419,12 +5431,12 @@
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
-      <c r="P6" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P6" s="7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -5440,7 +5452,9 @@
       <c r="E7" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="F7" s="8"/>
+      <c r="F7" s="8">
+        <v>10</v>
+      </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -5450,12 +5464,12 @@
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
-      <c r="P7" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P7" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -5471,7 +5485,9 @@
       <c r="E8" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="F8" s="8"/>
+      <c r="F8" s="8">
+        <v>10</v>
+      </c>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -5481,12 +5497,12 @@
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
-      <c r="P8" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P8" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -5502,7 +5518,9 @@
       <c r="E9" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="F9" s="8"/>
+      <c r="F9" s="8">
+        <v>6</v>
+      </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
@@ -5512,12 +5530,12 @@
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
       <c r="O9" s="8"/>
-      <c r="P9" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P9" s="7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -5533,7 +5551,9 @@
       <c r="E10" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="F10" s="8"/>
+      <c r="F10" s="8">
+        <v>6</v>
+      </c>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
@@ -5543,12 +5563,12 @@
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
       <c r="O10" s="8"/>
-      <c r="P10" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P10" s="7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -5564,7 +5584,9 @@
       <c r="E11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="8"/>
+      <c r="F11" s="8">
+        <v>9</v>
+      </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
@@ -5574,12 +5596,12 @@
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
       <c r="O11" s="8"/>
-      <c r="P11" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P11" s="7">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -5595,7 +5617,9 @@
       <c r="E12" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="F12" s="8"/>
+      <c r="F12" s="8">
+        <v>8</v>
+      </c>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
@@ -5605,12 +5629,12 @@
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
       <c r="O12" s="8"/>
-      <c r="P12" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P12" s="7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -5626,7 +5650,9 @@
       <c r="E13" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="F13" s="8"/>
+      <c r="F13" s="8">
+        <v>6</v>
+      </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
@@ -5636,12 +5662,12 @@
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
       <c r="O13" s="8"/>
-      <c r="P13" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P13" s="7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -5657,7 +5683,9 @@
       <c r="E14" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="F14" s="8"/>
+      <c r="F14" s="8">
+        <v>9</v>
+      </c>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
@@ -5667,12 +5695,12 @@
       <c r="M14" s="8"/>
       <c r="N14" s="8"/>
       <c r="O14" s="8"/>
-      <c r="P14" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P14" s="7">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -5688,7 +5716,9 @@
       <c r="E15" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="F15" s="8"/>
+      <c r="F15" s="8">
+        <v>10</v>
+      </c>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
@@ -5698,12 +5728,12 @@
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
       <c r="O15" s="8"/>
-      <c r="P15" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P15" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -5719,7 +5749,9 @@
       <c r="E16" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="F16" s="8"/>
+      <c r="F16" s="8">
+        <v>10</v>
+      </c>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
@@ -5729,12 +5761,12 @@
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
       <c r="O16" s="8"/>
-      <c r="P16" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P16" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -5750,7 +5782,9 @@
       <c r="E17" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="F17" s="8"/>
+      <c r="F17" s="8">
+        <v>9</v>
+      </c>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
@@ -5760,12 +5794,12 @@
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
       <c r="O17" s="8"/>
-      <c r="P17" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P17" s="7">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -5781,7 +5815,9 @@
       <c r="E18" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="F18" s="8"/>
+      <c r="F18" s="8">
+        <v>6</v>
+      </c>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
@@ -5791,12 +5827,12 @@
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
       <c r="O18" s="8"/>
-      <c r="P18" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P18" s="7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -5812,7 +5848,9 @@
       <c r="E19" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="F19" s="8"/>
+      <c r="F19" s="8">
+        <v>10</v>
+      </c>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -5822,12 +5860,12 @@
       <c r="M19" s="8"/>
       <c r="N19" s="8"/>
       <c r="O19" s="8"/>
-      <c r="P19" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P19" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -5843,7 +5881,9 @@
       <c r="E20" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="F20" s="8"/>
+      <c r="F20" s="8">
+        <v>8</v>
+      </c>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
@@ -5853,12 +5893,12 @@
       <c r="M20" s="8"/>
       <c r="N20" s="8"/>
       <c r="O20" s="8"/>
-      <c r="P20" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P20" s="7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -5874,7 +5914,9 @@
       <c r="E21" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="F21" s="8"/>
+      <c r="F21" s="8">
+        <v>6</v>
+      </c>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
@@ -5884,12 +5926,12 @@
       <c r="M21" s="8"/>
       <c r="N21" s="8"/>
       <c r="O21" s="8"/>
-      <c r="P21" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P21" s="7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -5905,7 +5947,9 @@
       <c r="E22" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="F22" s="8"/>
+      <c r="F22" s="8">
+        <v>6</v>
+      </c>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
@@ -5915,12 +5959,12 @@
       <c r="M22" s="8"/>
       <c r="N22" s="8"/>
       <c r="O22" s="8"/>
-      <c r="P22" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P22" s="7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -5936,7 +5980,9 @@
       <c r="E23" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="F23" s="8"/>
+      <c r="F23" s="8">
+        <v>8</v>
+      </c>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -5946,12 +5992,12 @@
       <c r="M23" s="8"/>
       <c r="N23" s="8"/>
       <c r="O23" s="8"/>
-      <c r="P23" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P23" s="7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -5967,7 +6013,9 @@
       <c r="E24" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="F24" s="8"/>
+      <c r="F24" s="8">
+        <v>10</v>
+      </c>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
@@ -5977,12 +6025,12 @@
       <c r="M24" s="8"/>
       <c r="N24" s="8"/>
       <c r="O24" s="8"/>
-      <c r="P24" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P24" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -5998,7 +6046,9 @@
       <c r="E25" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="F25" s="8"/>
+      <c r="F25" s="8">
+        <v>6</v>
+      </c>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
@@ -6008,12 +6058,12 @@
       <c r="M25" s="8"/>
       <c r="N25" s="8"/>
       <c r="O25" s="8"/>
-      <c r="P25" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P25" s="7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -6029,7 +6079,9 @@
       <c r="E26" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F26" s="8"/>
+      <c r="F26" s="8">
+        <v>8</v>
+      </c>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
@@ -6039,12 +6091,12 @@
       <c r="M26" s="8"/>
       <c r="N26" s="8"/>
       <c r="O26" s="8"/>
-      <c r="P26" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P26" s="7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -6060,7 +6112,9 @@
       <c r="E27" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F27" s="8"/>
+      <c r="F27" s="8">
+        <v>10</v>
+      </c>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
@@ -6070,12 +6124,12 @@
       <c r="M27" s="8"/>
       <c r="N27" s="8"/>
       <c r="O27" s="8"/>
-      <c r="P27" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P27" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -6091,7 +6145,9 @@
       <c r="E28" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="F28" s="8"/>
+      <c r="F28" s="8">
+        <v>10</v>
+      </c>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
@@ -6101,12 +6157,12 @@
       <c r="M28" s="8"/>
       <c r="N28" s="8"/>
       <c r="O28" s="8"/>
-      <c r="P28" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P28" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -6122,7 +6178,9 @@
       <c r="E29" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="F29" s="8"/>
+      <c r="F29" s="8">
+        <v>10</v>
+      </c>
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
@@ -6132,12 +6190,12 @@
       <c r="M29" s="8"/>
       <c r="N29" s="8"/>
       <c r="O29" s="8"/>
-      <c r="P29" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P29" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -6153,7 +6211,9 @@
       <c r="E30" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="F30" s="8"/>
+      <c r="F30" s="8">
+        <v>8</v>
+      </c>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
@@ -6163,12 +6223,12 @@
       <c r="M30" s="8"/>
       <c r="N30" s="8"/>
       <c r="O30" s="8"/>
-      <c r="P30" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P30" s="7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>28</v>
       </c>
@@ -6184,7 +6244,9 @@
       <c r="E31" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="F31" s="8"/>
+      <c r="F31" s="8">
+        <v>6</v>
+      </c>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
@@ -6194,12 +6256,12 @@
       <c r="M31" s="8"/>
       <c r="N31" s="8"/>
       <c r="O31" s="8"/>
-      <c r="P31" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P31" s="7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>29</v>
       </c>
@@ -6215,7 +6277,9 @@
       <c r="E32" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="F32" s="8"/>
+      <c r="F32" s="8">
+        <v>9</v>
+      </c>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
@@ -6225,12 +6289,12 @@
       <c r="M32" s="8"/>
       <c r="N32" s="8"/>
       <c r="O32" s="8"/>
-      <c r="P32" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P32" s="7">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>30</v>
       </c>
@@ -6246,7 +6310,9 @@
       <c r="E33" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="F33" s="8"/>
+      <c r="F33" s="8">
+        <v>6</v>
+      </c>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
@@ -6256,12 +6322,12 @@
       <c r="M33" s="8"/>
       <c r="N33" s="8"/>
       <c r="O33" s="8"/>
-      <c r="P33" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P33" s="7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
         <v>31</v>
       </c>
@@ -6277,7 +6343,9 @@
       <c r="E34" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="F34" s="8"/>
+      <c r="F34" s="8">
+        <v>8</v>
+      </c>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
@@ -6287,12 +6355,12 @@
       <c r="M34" s="8"/>
       <c r="N34" s="8"/>
       <c r="O34" s="8"/>
-      <c r="P34" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P34" s="7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
         <v>32</v>
       </c>
@@ -6308,7 +6376,9 @@
       <c r="E35" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="F35" s="8"/>
+      <c r="F35" s="8">
+        <v>6</v>
+      </c>
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
@@ -6318,12 +6388,12 @@
       <c r="M35" s="8"/>
       <c r="N35" s="8"/>
       <c r="O35" s="8"/>
-      <c r="P35" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P35" s="7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
         <v>33</v>
       </c>
@@ -6339,7 +6409,9 @@
       <c r="E36" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F36" s="8"/>
+      <c r="F36" s="8">
+        <v>10</v>
+      </c>
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
@@ -6349,12 +6421,12 @@
       <c r="M36" s="8"/>
       <c r="N36" s="8"/>
       <c r="O36" s="8"/>
-      <c r="P36" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P36" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
         <v>34</v>
       </c>
@@ -6370,7 +6442,9 @@
       <c r="E37" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="F37" s="8"/>
+      <c r="F37" s="8">
+        <v>10</v>
+      </c>
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
@@ -6380,12 +6454,12 @@
       <c r="M37" s="8"/>
       <c r="N37" s="8"/>
       <c r="O37" s="8"/>
-      <c r="P37" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P37" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
         <v>35</v>
       </c>
@@ -6401,7 +6475,9 @@
       <c r="E38" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="F38" s="8"/>
+      <c r="F38" s="8">
+        <v>6</v>
+      </c>
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
       <c r="I38" s="8"/>
@@ -6411,12 +6487,12 @@
       <c r="M38" s="8"/>
       <c r="N38" s="8"/>
       <c r="O38" s="8"/>
-      <c r="P38" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P38" s="7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
         <v>36</v>
       </c>
@@ -6432,7 +6508,9 @@
       <c r="E39" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="F39" s="8"/>
+      <c r="F39" s="8">
+        <v>10</v>
+      </c>
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
       <c r="I39" s="8"/>
@@ -6442,12 +6520,12 @@
       <c r="M39" s="8"/>
       <c r="N39" s="8"/>
       <c r="O39" s="8"/>
-      <c r="P39" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P39" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
         <v>37</v>
       </c>
@@ -6463,7 +6541,9 @@
       <c r="E40" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="F40" s="8"/>
+      <c r="F40" s="8">
+        <v>10</v>
+      </c>
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
       <c r="I40" s="8"/>
@@ -6473,12 +6553,12 @@
       <c r="M40" s="8"/>
       <c r="N40" s="8"/>
       <c r="O40" s="8"/>
-      <c r="P40" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P40" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
         <v>38</v>
       </c>
@@ -6494,7 +6574,9 @@
       <c r="E41" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="F41" s="8"/>
+      <c r="F41" s="8">
+        <v>10</v>
+      </c>
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
       <c r="I41" s="8"/>
@@ -6504,12 +6586,12 @@
       <c r="M41" s="8"/>
       <c r="N41" s="8"/>
       <c r="O41" s="8"/>
-      <c r="P41" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P41" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A42" s="2">
         <v>39</v>
       </c>
@@ -6525,7 +6607,9 @@
       <c r="E42" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="F42" s="8"/>
+      <c r="F42" s="8">
+        <v>9</v>
+      </c>
       <c r="G42" s="8"/>
       <c r="H42" s="8"/>
       <c r="I42" s="8"/>
@@ -6535,12 +6619,12 @@
       <c r="M42" s="8"/>
       <c r="N42" s="8"/>
       <c r="O42" s="8"/>
-      <c r="P42" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P42" s="7">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
         <v>40</v>
       </c>
@@ -6556,7 +6640,9 @@
       <c r="E43" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F43" s="8"/>
+      <c r="F43" s="8">
+        <v>6</v>
+      </c>
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
       <c r="I43" s="8"/>
@@ -6566,12 +6652,12 @@
       <c r="M43" s="8"/>
       <c r="N43" s="8"/>
       <c r="O43" s="8"/>
-      <c r="P43" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P43" s="7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A44" s="2">
         <v>41</v>
       </c>
@@ -6587,7 +6673,9 @@
       <c r="E44" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="F44" s="8"/>
+      <c r="F44" s="8">
+        <v>8</v>
+      </c>
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
       <c r="I44" s="8"/>
@@ -6597,12 +6685,12 @@
       <c r="M44" s="8"/>
       <c r="N44" s="8"/>
       <c r="O44" s="8"/>
-      <c r="P44" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P44" s="7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
         <v>42</v>
       </c>
@@ -6618,7 +6706,9 @@
       <c r="E45" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="F45" s="8"/>
+      <c r="F45" s="8">
+        <v>9</v>
+      </c>
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
       <c r="I45" s="8"/>
@@ -6628,12 +6718,12 @@
       <c r="M45" s="8"/>
       <c r="N45" s="8"/>
       <c r="O45" s="8"/>
-      <c r="P45" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P45" s="7">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A46" s="2">
         <v>43</v>
       </c>
@@ -6649,7 +6739,9 @@
       <c r="E46" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="F46" s="8"/>
+      <c r="F46" s="8">
+        <v>7</v>
+      </c>
       <c r="G46" s="8"/>
       <c r="H46" s="8"/>
       <c r="I46" s="8"/>
@@ -6659,12 +6751,12 @@
       <c r="M46" s="8"/>
       <c r="N46" s="8"/>
       <c r="O46" s="8"/>
-      <c r="P46" s="7" t="e">
+      <c r="P46" s="7">
         <f t="shared" ref="P46:P51" si="1">AVERAGE(F46:O46)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
         <v>44</v>
       </c>
@@ -6680,7 +6772,9 @@
       <c r="E47" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="F47" s="8"/>
+      <c r="F47" s="8">
+        <v>9</v>
+      </c>
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
       <c r="I47" s="8"/>
@@ -6690,12 +6784,12 @@
       <c r="M47" s="8"/>
       <c r="N47" s="8"/>
       <c r="O47" s="8"/>
-      <c r="P47" s="7" t="e">
+      <c r="P47" s="7">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A48" s="2">
         <v>45</v>
       </c>
@@ -6711,7 +6805,9 @@
       <c r="E48" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F48" s="8"/>
+      <c r="F48" s="8">
+        <v>10</v>
+      </c>
       <c r="G48" s="8"/>
       <c r="H48" s="8"/>
       <c r="I48" s="8"/>
@@ -6721,12 +6817,12 @@
       <c r="M48" s="8"/>
       <c r="N48" s="8"/>
       <c r="O48" s="8"/>
-      <c r="P48" s="7" t="e">
+      <c r="P48" s="7">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
         <v>46</v>
       </c>
@@ -6742,7 +6838,9 @@
       <c r="E49" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="F49" s="8"/>
+      <c r="F49" s="8">
+        <v>6</v>
+      </c>
       <c r="G49" s="8"/>
       <c r="H49" s="8"/>
       <c r="I49" s="8"/>
@@ -6752,12 +6850,12 @@
       <c r="M49" s="8"/>
       <c r="N49" s="8"/>
       <c r="O49" s="8"/>
-      <c r="P49" s="7" t="e">
+      <c r="P49" s="7">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A50" s="2">
         <v>47</v>
       </c>
@@ -6773,7 +6871,9 @@
       <c r="E50" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="F50" s="8"/>
+      <c r="F50" s="8">
+        <v>10</v>
+      </c>
       <c r="G50" s="8"/>
       <c r="H50" s="8"/>
       <c r="I50" s="8"/>
@@ -6783,12 +6883,12 @@
       <c r="M50" s="8"/>
       <c r="N50" s="8"/>
       <c r="O50" s="8"/>
-      <c r="P50" s="7" t="e">
+      <c r="P50" s="7">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A51" s="2">
         <v>48</v>
       </c>
@@ -6804,7 +6904,9 @@
       <c r="E51" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="F51" s="8"/>
+      <c r="F51" s="8">
+        <v>9</v>
+      </c>
       <c r="G51" s="8"/>
       <c r="H51" s="8"/>
       <c r="I51" s="8"/>
@@ -6814,14 +6916,14 @@
       <c r="M51" s="8"/>
       <c r="N51" s="8"/>
       <c r="O51" s="8"/>
-      <c r="P51" s="7" t="e">
+      <c r="P51" s="7">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:P45">
-    <sortState ref="A5:R44">
+  <autoFilter ref="A2:P45" xr:uid="{00000000-0009-0000-0000-000002000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:R44">
       <sortCondition ref="C2:C3"/>
     </sortState>
   </autoFilter>
@@ -6837,9 +6939,9 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Input Score" sqref="F4:O51"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:O3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Assignment Number" sqref="F2:O2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Input Score" sqref="F4:O51" xr:uid="{00000000-0002-0000-0200-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:O3" xr:uid="{00000000-0002-0000-0200-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Assignment Number" sqref="F2:O2" xr:uid="{00000000-0002-0000-0200-000002000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6847,7 +6949,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:P51"/>
   <sheetViews>
@@ -6855,26 +6957,26 @@
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="9.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.88671875" style="4" customWidth="1"/>
-    <col min="13" max="14" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.875" style="4" customWidth="1"/>
+    <col min="13" max="14" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.875" style="4" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="25" style="4" customWidth="1"/>
-    <col min="27" max="27" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" s="16" t="s">
         <v>10</v>
       </c>
@@ -6896,7 +6998,7 @@
       <c r="O1" s="19"/>
       <c r="P1" s="19"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -6946,7 +7048,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="15"/>
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
@@ -6984,7 +7086,7 @@
       </c>
       <c r="P3" s="15"/>
     </row>
-    <row r="4" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -7015,7 +7117,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -7046,7 +7148,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -7077,7 +7179,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -7108,7 +7210,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -7139,7 +7241,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -7170,7 +7272,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -7201,7 +7303,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -7232,7 +7334,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -7263,7 +7365,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -7294,7 +7396,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -7325,7 +7427,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -7356,7 +7458,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -7387,7 +7489,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -7418,7 +7520,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -7449,7 +7551,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -7480,7 +7582,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -7511,7 +7613,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -7542,7 +7644,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -7573,7 +7675,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -7604,7 +7706,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -7635,7 +7737,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -7666,7 +7768,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -7697,7 +7799,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -7728,7 +7830,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -7759,7 +7861,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -7790,7 +7892,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -7821,7 +7923,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>28</v>
       </c>
@@ -7852,7 +7954,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>29</v>
       </c>
@@ -7883,7 +7985,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>30</v>
       </c>
@@ -7914,7 +8016,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
         <v>31</v>
       </c>
@@ -7945,7 +8047,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
         <v>32</v>
       </c>
@@ -7976,7 +8078,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
         <v>33</v>
       </c>
@@ -8007,7 +8109,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
         <v>34</v>
       </c>
@@ -8038,7 +8140,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
         <v>35</v>
       </c>
@@ -8069,7 +8171,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
         <v>36</v>
       </c>
@@ -8100,7 +8202,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
         <v>37</v>
       </c>
@@ -8131,7 +8233,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
         <v>38</v>
       </c>
@@ -8162,7 +8264,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A42" s="2">
         <v>39</v>
       </c>
@@ -8193,7 +8295,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
         <v>40</v>
       </c>
@@ -8224,7 +8326,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A44" s="2">
         <v>41</v>
       </c>
@@ -8255,7 +8357,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
         <v>42</v>
       </c>
@@ -8286,7 +8388,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A46" s="2">
         <v>43</v>
       </c>
@@ -8317,7 +8419,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
         <v>44</v>
       </c>
@@ -8348,7 +8450,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A48" s="2">
         <v>45</v>
       </c>
@@ -8379,7 +8481,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
         <v>46</v>
       </c>
@@ -8410,7 +8512,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A50" s="2">
         <v>47</v>
       </c>
@@ -8441,7 +8543,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A51" s="2">
         <v>48</v>
       </c>
@@ -8473,8 +8575,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:P45">
-    <sortState ref="A5:T44">
+  <autoFilter ref="A2:P45" xr:uid="{00000000-0009-0000-0000-000003000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:T44">
       <sortCondition ref="C2:C3"/>
     </sortState>
   </autoFilter>
@@ -8490,9 +8592,9 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Assignment Number" sqref="F2:O2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:O3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Input Score" sqref="F4:O51">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Assignment Number" sqref="F2:O2" xr:uid="{00000000-0002-0000-0300-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:O3" xr:uid="{00000000-0002-0000-0300-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Input Score" sqref="F4:O51" xr:uid="{00000000-0002-0000-0300-000002000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/Grade 2018/HomeAssignment/HA_Summary_YC_2018.xlsx
+++ b/Grade 2018/HomeAssignment/HA_Summary_YC_2018.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NIIT\NIIT教案\Sept-2020---Jan-2021\Grade 2018\HomeAssignment\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6590F26B-BBDE-4149-9A8C-18BB96ED8B49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CS1" sheetId="2" r:id="rId1"/>
@@ -24,7 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">NE!$A$2:$P$45</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">SE!$A$2:$P$45</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1220,7 +1214,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="[$-804]d\-mmm"/>
     <numFmt numFmtId="177" formatCode="0.00_);\(0.00\)"/>
@@ -1465,9 +1459,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="常规 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="常规 4" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="常规 2 3" xfId="1"/>
+    <cellStyle name="常规 3" xfId="3"/>
+    <cellStyle name="常规 4" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1737,39 +1731,39 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C23" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.625" customWidth="1"/>
-    <col min="7" max="8" width="15.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="15.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="15.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" customWidth="1"/>
+    <col min="7" max="8" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>10</v>
       </c>
@@ -1791,7 +1785,7 @@
       <c r="O1" s="19"/>
       <c r="P1" s="19"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -1841,7 +1835,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
@@ -1879,7 +1873,7 @@
       </c>
       <c r="P3" s="15"/>
     </row>
-    <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -1896,7 +1890,7 @@
         <v>366</v>
       </c>
       <c r="F4" s="8">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
@@ -1909,10 +1903,10 @@
       <c r="O4" s="8"/>
       <c r="P4" s="7">
         <f t="shared" ref="P4:P48" si="0">AVERAGE(F4:O4)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -1929,7 +1923,7 @@
         <v>205</v>
       </c>
       <c r="F5" s="8">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
@@ -1942,10 +1936,10 @@
       <c r="O5" s="8"/>
       <c r="P5" s="7">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -1962,7 +1956,7 @@
         <v>90</v>
       </c>
       <c r="F6" s="8">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
@@ -1975,10 +1969,10 @@
       <c r="O6" s="8"/>
       <c r="P6" s="7">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -1995,7 +1989,7 @@
         <v>91</v>
       </c>
       <c r="F7" s="8">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
@@ -2008,10 +2002,10 @@
       <c r="O7" s="8"/>
       <c r="P7" s="7">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -2028,7 +2022,7 @@
         <v>169</v>
       </c>
       <c r="F8" s="8">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
@@ -2041,10 +2035,10 @@
       <c r="O8" s="8"/>
       <c r="P8" s="7">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -2061,7 +2055,7 @@
         <v>92</v>
       </c>
       <c r="F9" s="8">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
@@ -2074,10 +2068,10 @@
       <c r="O9" s="8"/>
       <c r="P9" s="7">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -2094,7 +2088,7 @@
         <v>173</v>
       </c>
       <c r="F10" s="8">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
@@ -2107,10 +2101,10 @@
       <c r="O10" s="8"/>
       <c r="P10" s="7">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -2127,7 +2121,7 @@
         <v>174</v>
       </c>
       <c r="F11" s="8">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
@@ -2140,10 +2134,10 @@
       <c r="O11" s="8"/>
       <c r="P11" s="7">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -2160,7 +2154,7 @@
         <v>96</v>
       </c>
       <c r="F12" s="8">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
@@ -2173,10 +2167,10 @@
       <c r="O12" s="8"/>
       <c r="P12" s="7">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -2193,7 +2187,7 @@
         <v>24</v>
       </c>
       <c r="F13" s="8">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
@@ -2206,10 +2200,10 @@
       <c r="O13" s="8"/>
       <c r="P13" s="7">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -2226,7 +2220,7 @@
         <v>33</v>
       </c>
       <c r="F14" s="8">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
@@ -2239,10 +2233,10 @@
       <c r="O14" s="8"/>
       <c r="P14" s="7">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -2259,7 +2253,7 @@
         <v>176</v>
       </c>
       <c r="F15" s="8">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
@@ -2272,10 +2266,10 @@
       <c r="O15" s="8"/>
       <c r="P15" s="7">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -2292,7 +2286,7 @@
         <v>100</v>
       </c>
       <c r="F16" s="8">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
@@ -2305,10 +2299,10 @@
       <c r="O16" s="8"/>
       <c r="P16" s="7">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -2325,7 +2319,7 @@
         <v>101</v>
       </c>
       <c r="F17" s="8">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
@@ -2338,10 +2332,10 @@
       <c r="O17" s="8"/>
       <c r="P17" s="7">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -2358,7 +2352,7 @@
         <v>178</v>
       </c>
       <c r="F18" s="8">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
@@ -2371,10 +2365,10 @@
       <c r="O18" s="8"/>
       <c r="P18" s="7">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -2391,7 +2385,7 @@
         <v>102</v>
       </c>
       <c r="F19" s="8">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
@@ -2404,10 +2398,10 @@
       <c r="O19" s="8"/>
       <c r="P19" s="7">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -2424,7 +2418,7 @@
         <v>180</v>
       </c>
       <c r="F20" s="8">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
@@ -2437,10 +2431,10 @@
       <c r="O20" s="8"/>
       <c r="P20" s="7">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -2457,7 +2451,7 @@
         <v>106</v>
       </c>
       <c r="F21" s="8">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
@@ -2470,10 +2464,10 @@
       <c r="O21" s="8"/>
       <c r="P21" s="7">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -2490,7 +2484,7 @@
         <v>107</v>
       </c>
       <c r="F22" s="8">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
@@ -2503,10 +2497,10 @@
       <c r="O22" s="8"/>
       <c r="P22" s="7">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -2523,7 +2517,7 @@
         <v>108</v>
       </c>
       <c r="F23" s="8">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
@@ -2536,10 +2530,10 @@
       <c r="O23" s="8"/>
       <c r="P23" s="7">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -2556,7 +2550,7 @@
         <v>185</v>
       </c>
       <c r="F24" s="8">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
@@ -2569,10 +2563,10 @@
       <c r="O24" s="8"/>
       <c r="P24" s="7">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -2589,7 +2583,7 @@
         <v>187</v>
       </c>
       <c r="F25" s="8">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
@@ -2602,10 +2596,10 @@
       <c r="O25" s="8"/>
       <c r="P25" s="7">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -2622,7 +2616,7 @@
         <v>43</v>
       </c>
       <c r="F26" s="8">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
@@ -2635,10 +2629,10 @@
       <c r="O26" s="8"/>
       <c r="P26" s="7">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -2655,7 +2649,7 @@
         <v>367</v>
       </c>
       <c r="F27" s="8">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
@@ -2668,10 +2662,10 @@
       <c r="O27" s="8"/>
       <c r="P27" s="7">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -2688,7 +2682,7 @@
         <v>41</v>
       </c>
       <c r="F28" s="8">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
@@ -2701,10 +2695,10 @@
       <c r="O28" s="8"/>
       <c r="P28" s="7">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -2721,7 +2715,7 @@
         <v>111</v>
       </c>
       <c r="F29" s="8">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
@@ -2734,10 +2728,10 @@
       <c r="O29" s="8"/>
       <c r="P29" s="7">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -2754,7 +2748,7 @@
         <v>112</v>
       </c>
       <c r="F30" s="8">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
@@ -2767,10 +2761,10 @@
       <c r="O30" s="8"/>
       <c r="P30" s="7">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>28</v>
       </c>
@@ -2787,7 +2781,7 @@
         <v>113</v>
       </c>
       <c r="F31" s="8">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
@@ -2800,10 +2794,10 @@
       <c r="O31" s="8"/>
       <c r="P31" s="7">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>29</v>
       </c>
@@ -2820,7 +2814,7 @@
         <v>114</v>
       </c>
       <c r="F32" s="8">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
@@ -2833,10 +2827,10 @@
       <c r="O32" s="8"/>
       <c r="P32" s="7">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>30</v>
       </c>
@@ -2853,7 +2847,7 @@
         <v>20</v>
       </c>
       <c r="F33" s="8">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
@@ -2866,10 +2860,10 @@
       <c r="O33" s="8"/>
       <c r="P33" s="7">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>31</v>
       </c>
@@ -2886,7 +2880,7 @@
         <v>190</v>
       </c>
       <c r="F34" s="8">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
@@ -2899,10 +2893,10 @@
       <c r="O34" s="8"/>
       <c r="P34" s="7">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>32</v>
       </c>
@@ -2919,7 +2913,7 @@
         <v>34</v>
       </c>
       <c r="F35" s="8">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
@@ -2932,10 +2926,10 @@
       <c r="O35" s="8"/>
       <c r="P35" s="7">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>33</v>
       </c>
@@ -2952,7 +2946,7 @@
         <v>38</v>
       </c>
       <c r="F36" s="8">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
@@ -2965,10 +2959,10 @@
       <c r="O36" s="8"/>
       <c r="P36" s="7">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>34</v>
       </c>
@@ -2985,7 +2979,7 @@
         <v>21</v>
       </c>
       <c r="F37" s="8">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
@@ -2998,10 +2992,10 @@
       <c r="O37" s="8"/>
       <c r="P37" s="7">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>35</v>
       </c>
@@ -3018,7 +3012,7 @@
         <v>193</v>
       </c>
       <c r="F38" s="8">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
@@ -3031,10 +3025,10 @@
       <c r="O38" s="8"/>
       <c r="P38" s="7">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>36</v>
       </c>
@@ -3051,7 +3045,7 @@
         <v>194</v>
       </c>
       <c r="F39" s="8">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
@@ -3064,10 +3058,10 @@
       <c r="O39" s="8"/>
       <c r="P39" s="7">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>37</v>
       </c>
@@ -3084,7 +3078,7 @@
         <v>369</v>
       </c>
       <c r="F40" s="8">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
@@ -3097,10 +3091,10 @@
       <c r="O40" s="8"/>
       <c r="P40" s="7">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>38</v>
       </c>
@@ -3117,7 +3111,7 @@
         <v>198</v>
       </c>
       <c r="F41" s="8">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
@@ -3130,10 +3124,10 @@
       <c r="O41" s="8"/>
       <c r="P41" s="7">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>39</v>
       </c>
@@ -3150,7 +3144,7 @@
         <v>199</v>
       </c>
       <c r="F42" s="8">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="G42" s="8"/>
       <c r="H42" s="8"/>
@@ -3163,10 +3157,10 @@
       <c r="O42" s="8"/>
       <c r="P42" s="7">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>40</v>
       </c>
@@ -3183,7 +3177,7 @@
         <v>200</v>
       </c>
       <c r="F43" s="8">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
@@ -3196,10 +3190,10 @@
       <c r="O43" s="8"/>
       <c r="P43" s="7">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>41</v>
       </c>
@@ -3216,7 +3210,7 @@
         <v>118</v>
       </c>
       <c r="F44" s="8">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
@@ -3229,10 +3223,10 @@
       <c r="O44" s="8"/>
       <c r="P44" s="7">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>42</v>
       </c>
@@ -3249,7 +3243,7 @@
         <v>202</v>
       </c>
       <c r="F45" s="8">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
@@ -3262,10 +3256,10 @@
       <c r="O45" s="8"/>
       <c r="P45" s="7">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>43</v>
       </c>
@@ -3282,7 +3276,7 @@
         <v>203</v>
       </c>
       <c r="F46" s="8">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G46" s="8"/>
       <c r="H46" s="8"/>
@@ -3295,10 +3289,10 @@
       <c r="O46" s="8"/>
       <c r="P46" s="7">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>44</v>
       </c>
@@ -3315,7 +3309,7 @@
         <v>120</v>
       </c>
       <c r="F47" s="8">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
@@ -3328,10 +3322,10 @@
       <c r="O47" s="8"/>
       <c r="P47" s="7">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>45</v>
       </c>
@@ -3348,7 +3342,7 @@
         <v>121</v>
       </c>
       <c r="F48" s="8">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="G48" s="8"/>
       <c r="H48" s="8"/>
@@ -3361,10 +3355,10 @@
       <c r="O48" s="8"/>
       <c r="P48" s="7">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>46</v>
       </c>
@@ -3381,7 +3375,7 @@
         <v>204</v>
       </c>
       <c r="F49" s="8">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G49" s="8"/>
       <c r="H49" s="8"/>
@@ -3394,10 +3388,10 @@
       <c r="O49" s="8"/>
       <c r="P49" s="7">
         <f t="shared" ref="P49:P50" si="1">AVERAGE(F49:O49)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>47</v>
       </c>
@@ -3414,7 +3408,7 @@
         <v>33</v>
       </c>
       <c r="F50" s="8">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G50" s="8"/>
       <c r="H50" s="8"/>
@@ -3427,12 +3421,12 @@
       <c r="O50" s="8"/>
       <c r="P50" s="7">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:P50" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:R44">
+  <autoFilter ref="A2:P50">
+    <sortState ref="A5:R44">
       <sortCondition ref="C2:C3"/>
     </sortState>
   </autoFilter>
@@ -3448,9 +3442,9 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations xWindow="519" yWindow="339" count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Input Score" sqref="N4:O50 K4:K50" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Assignment Number" sqref="F2:O2" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:O3" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Input Score" sqref="N4:O50 K4:K50"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Assignment Number" sqref="F2:O2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:O3"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3458,32 +3452,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="15.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="15.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="15.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>10</v>
       </c>
@@ -3505,7 +3499,7 @@
       <c r="O1" s="19"/>
       <c r="P1" s="19"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -3555,7 +3549,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
@@ -3593,7 +3587,7 @@
       </c>
       <c r="P3" s="15"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -3610,7 +3604,7 @@
         <v>280</v>
       </c>
       <c r="F4" s="8">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
@@ -3623,10 +3617,10 @@
       <c r="O4" s="8"/>
       <c r="P4" s="7">
         <f t="shared" ref="P4:P50" si="0">AVERAGE(F4:O4)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -3643,7 +3637,7 @@
         <v>25</v>
       </c>
       <c r="F5" s="8">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
@@ -3656,10 +3650,10 @@
       <c r="O5" s="8"/>
       <c r="P5" s="7">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -3676,7 +3670,7 @@
         <v>277</v>
       </c>
       <c r="F6" s="8">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
@@ -3689,10 +3683,10 @@
       <c r="O6" s="8"/>
       <c r="P6" s="7">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -3709,7 +3703,7 @@
         <v>326</v>
       </c>
       <c r="F7" s="8">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
@@ -3722,10 +3716,10 @@
       <c r="O7" s="8"/>
       <c r="P7" s="7">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -3742,7 +3736,7 @@
         <v>327</v>
       </c>
       <c r="F8" s="8">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
@@ -3755,10 +3749,10 @@
       <c r="O8" s="8"/>
       <c r="P8" s="7">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -3775,7 +3769,7 @@
         <v>328</v>
       </c>
       <c r="F9" s="8">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
@@ -3788,10 +3782,10 @@
       <c r="O9" s="8"/>
       <c r="P9" s="7">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -3808,7 +3802,7 @@
         <v>251</v>
       </c>
       <c r="F10" s="8">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
@@ -3821,10 +3815,10 @@
       <c r="O10" s="8"/>
       <c r="P10" s="7">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -3841,7 +3835,7 @@
         <v>122</v>
       </c>
       <c r="F11" s="8">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
@@ -3854,10 +3848,10 @@
       <c r="O11" s="8"/>
       <c r="P11" s="7">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -3874,7 +3868,7 @@
         <v>331</v>
       </c>
       <c r="F12" s="8">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
@@ -3887,10 +3881,10 @@
       <c r="O12" s="8"/>
       <c r="P12" s="7">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -3907,7 +3901,7 @@
         <v>372</v>
       </c>
       <c r="F13" s="8">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
@@ -3920,10 +3914,10 @@
       <c r="O13" s="8"/>
       <c r="P13" s="7">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -3940,7 +3934,7 @@
         <v>332</v>
       </c>
       <c r="F14" s="8">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
@@ -3953,10 +3947,10 @@
       <c r="O14" s="8"/>
       <c r="P14" s="7">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -3973,7 +3967,7 @@
         <v>254</v>
       </c>
       <c r="F15" s="8">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
@@ -3986,10 +3980,10 @@
       <c r="O15" s="8"/>
       <c r="P15" s="7">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -4006,7 +4000,7 @@
         <v>29</v>
       </c>
       <c r="F16" s="8">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
@@ -4019,10 +4013,10 @@
       <c r="O16" s="8"/>
       <c r="P16" s="7">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -4039,7 +4033,7 @@
         <v>256</v>
       </c>
       <c r="F17" s="8">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
@@ -4052,10 +4046,10 @@
       <c r="O17" s="8"/>
       <c r="P17" s="7">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -4072,7 +4066,7 @@
         <v>41</v>
       </c>
       <c r="F18" s="8">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
@@ -4085,10 +4079,10 @@
       <c r="O18" s="8"/>
       <c r="P18" s="7">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -4105,7 +4099,7 @@
         <v>373</v>
       </c>
       <c r="F19" s="8">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
@@ -4118,10 +4112,10 @@
       <c r="O19" s="8"/>
       <c r="P19" s="7">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -4138,7 +4132,7 @@
         <v>42</v>
       </c>
       <c r="F20" s="8">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
@@ -4151,10 +4145,10 @@
       <c r="O20" s="8"/>
       <c r="P20" s="7">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -4171,7 +4165,7 @@
         <v>333</v>
       </c>
       <c r="F21" s="8">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
@@ -4184,10 +4178,10 @@
       <c r="O21" s="8"/>
       <c r="P21" s="7">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -4204,7 +4198,7 @@
         <v>28</v>
       </c>
       <c r="F22" s="8">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
@@ -4217,10 +4211,10 @@
       <c r="O22" s="8"/>
       <c r="P22" s="7">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -4237,7 +4231,7 @@
         <v>31</v>
       </c>
       <c r="F23" s="8">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
@@ -4250,10 +4244,10 @@
       <c r="O23" s="8"/>
       <c r="P23" s="7">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -4270,7 +4264,7 @@
         <v>259</v>
       </c>
       <c r="F24" s="8">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
@@ -4283,10 +4277,10 @@
       <c r="O24" s="8"/>
       <c r="P24" s="7">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -4303,7 +4297,7 @@
         <v>260</v>
       </c>
       <c r="F25" s="8">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
@@ -4316,10 +4310,10 @@
       <c r="O25" s="8"/>
       <c r="P25" s="7">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -4336,7 +4330,7 @@
         <v>337</v>
       </c>
       <c r="F26" s="8">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
@@ -4349,10 +4343,10 @@
       <c r="O26" s="8"/>
       <c r="P26" s="7">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -4369,7 +4363,7 @@
         <v>195</v>
       </c>
       <c r="F27" s="8">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
@@ -4382,10 +4376,10 @@
       <c r="O27" s="8"/>
       <c r="P27" s="7">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -4402,7 +4396,7 @@
         <v>338</v>
       </c>
       <c r="F28" s="8">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
@@ -4415,10 +4409,10 @@
       <c r="O28" s="8"/>
       <c r="P28" s="7">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -4434,7 +4428,9 @@
       <c r="E29" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F29" s="8"/>
+      <c r="F29" s="8">
+        <v>100</v>
+      </c>
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
@@ -4444,12 +4440,12 @@
       <c r="M29" s="8"/>
       <c r="N29" s="8"/>
       <c r="O29" s="8"/>
-      <c r="P29" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P29" s="7">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -4466,7 +4462,7 @@
         <v>342</v>
       </c>
       <c r="F30" s="8">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
@@ -4479,10 +4475,10 @@
       <c r="O30" s="8"/>
       <c r="P30" s="7">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>28</v>
       </c>
@@ -4499,7 +4495,7 @@
         <v>343</v>
       </c>
       <c r="F31" s="8">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
@@ -4512,10 +4508,10 @@
       <c r="O31" s="8"/>
       <c r="P31" s="7">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>29</v>
       </c>
@@ -4532,7 +4528,7 @@
         <v>279</v>
       </c>
       <c r="F32" s="8">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
@@ -4545,10 +4541,10 @@
       <c r="O32" s="8"/>
       <c r="P32" s="7">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>30</v>
       </c>
@@ -4565,7 +4561,7 @@
         <v>265</v>
       </c>
       <c r="F33" s="8">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
@@ -4578,10 +4574,10 @@
       <c r="O33" s="8"/>
       <c r="P33" s="7">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>31</v>
       </c>
@@ -4598,7 +4594,7 @@
         <v>345</v>
       </c>
       <c r="F34" s="8">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
@@ -4611,10 +4607,10 @@
       <c r="O34" s="8"/>
       <c r="P34" s="7">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>32</v>
       </c>
@@ -4631,7 +4627,7 @@
         <v>346</v>
       </c>
       <c r="F35" s="8">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
@@ -4644,10 +4640,10 @@
       <c r="O35" s="8"/>
       <c r="P35" s="7">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>33</v>
       </c>
@@ -4664,7 +4660,7 @@
         <v>269</v>
       </c>
       <c r="F36" s="8">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
@@ -4677,10 +4673,10 @@
       <c r="O36" s="8"/>
       <c r="P36" s="7">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>34</v>
       </c>
@@ -4697,7 +4693,7 @@
         <v>270</v>
       </c>
       <c r="F37" s="8">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
@@ -4710,10 +4706,10 @@
       <c r="O37" s="8"/>
       <c r="P37" s="7">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>35</v>
       </c>
@@ -4730,7 +4726,7 @@
         <v>95</v>
       </c>
       <c r="F38" s="8">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
@@ -4743,10 +4739,10 @@
       <c r="O38" s="8"/>
       <c r="P38" s="7">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>36</v>
       </c>
@@ -4763,7 +4759,7 @@
         <v>107</v>
       </c>
       <c r="F39" s="8">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
@@ -4776,10 +4772,10 @@
       <c r="O39" s="8"/>
       <c r="P39" s="7">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>37</v>
       </c>
@@ -4796,7 +4792,7 @@
         <v>274</v>
       </c>
       <c r="F40" s="8">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
@@ -4809,10 +4805,10 @@
       <c r="O40" s="8"/>
       <c r="P40" s="7">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>38</v>
       </c>
@@ -4829,7 +4825,7 @@
         <v>374</v>
       </c>
       <c r="F41" s="8">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
@@ -4842,10 +4838,10 @@
       <c r="O41" s="8"/>
       <c r="P41" s="7">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>39</v>
       </c>
@@ -4862,7 +4858,7 @@
         <v>351</v>
       </c>
       <c r="F42" s="8">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G42" s="8"/>
       <c r="H42" s="8"/>
@@ -4875,10 +4871,10 @@
       <c r="O42" s="8"/>
       <c r="P42" s="7">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>40</v>
       </c>
@@ -4895,7 +4891,7 @@
         <v>354</v>
       </c>
       <c r="F43" s="8">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
@@ -4908,10 +4904,10 @@
       <c r="O43" s="8"/>
       <c r="P43" s="7">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>41</v>
       </c>
@@ -4928,7 +4924,7 @@
         <v>17</v>
       </c>
       <c r="F44" s="8">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
@@ -4941,10 +4937,10 @@
       <c r="O44" s="8"/>
       <c r="P44" s="7">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>42</v>
       </c>
@@ -4961,7 +4957,7 @@
         <v>353</v>
       </c>
       <c r="F45" s="8">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
@@ -4974,10 +4970,10 @@
       <c r="O45" s="8"/>
       <c r="P45" s="7">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>43</v>
       </c>
@@ -4994,7 +4990,7 @@
         <v>281</v>
       </c>
       <c r="F46" s="8">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G46" s="8"/>
       <c r="H46" s="8"/>
@@ -5007,10 +5003,10 @@
       <c r="O46" s="8"/>
       <c r="P46" s="7">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>44</v>
       </c>
@@ -5027,7 +5023,7 @@
         <v>352</v>
       </c>
       <c r="F47" s="8">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
@@ -5040,10 +5036,10 @@
       <c r="O47" s="8"/>
       <c r="P47" s="7">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>45</v>
       </c>
@@ -5060,7 +5056,7 @@
         <v>108</v>
       </c>
       <c r="F48" s="8">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="G48" s="8"/>
       <c r="H48" s="8"/>
@@ -5073,10 +5069,10 @@
       <c r="O48" s="8"/>
       <c r="P48" s="7">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>46</v>
       </c>
@@ -5093,7 +5089,7 @@
         <v>282</v>
       </c>
       <c r="F49" s="8">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="G49" s="8"/>
       <c r="H49" s="8"/>
@@ -5106,10 +5102,10 @@
       <c r="O49" s="8"/>
       <c r="P49" s="7">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>47</v>
       </c>
@@ -5126,7 +5122,7 @@
         <v>376</v>
       </c>
       <c r="F50" s="8">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G50" s="8"/>
       <c r="H50" s="8"/>
@@ -5139,10 +5135,10 @@
       <c r="O50" s="8"/>
       <c r="P50" s="7">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>48</v>
       </c>
@@ -5159,7 +5155,7 @@
         <v>391</v>
       </c>
       <c r="F51" s="8">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="G51" s="8"/>
       <c r="H51" s="8"/>
@@ -5172,12 +5168,1758 @@
       <c r="O51" s="8"/>
       <c r="P51" s="7">
         <f t="shared" ref="P51" si="1">AVERAGE(F51:O51)</f>
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:P51">
+    <sortState ref="A5:R44">
+      <sortCondition ref="C2:C3"/>
+    </sortState>
+  </autoFilter>
+  <mergeCells count="8">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:P1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="P2:P3"/>
+  </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <dataValidations xWindow="1225" yWindow="391" count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Input Score" sqref="F4:O51"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:O3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Assignment Number" sqref="F2:O2"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:P51"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="11.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="11.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="P2" s="14" t="s">
         <v>9</v>
       </c>
     </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="3">
+        <v>44095</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P3" s="15"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="D4" s="5">
+        <v>12014244255</v>
+      </c>
+      <c r="E4" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="7">
+        <f t="shared" ref="P4:P45" si="0">AVERAGE(F4:O4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D5" s="5">
+        <v>12018242212</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F5" s="8">
+        <v>10</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="5">
+        <v>12018242213</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F6" s="8">
+        <v>8</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="D7" s="5">
+        <v>12018242214</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="F7" s="8">
+        <v>10</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="D8" s="5">
+        <v>12018242215</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="F8" s="8">
+        <v>10</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="5">
+        <v>12018242216</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F9" s="8">
+        <v>6</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="D10" s="5">
+        <v>12018242220</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="F10" s="8">
+        <v>6</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="5">
+        <v>12018242224</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="8">
+        <v>9</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="7">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>9</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="5">
+        <v>12018242229</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F12" s="8">
+        <v>8</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>10</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="D13" s="5">
+        <v>12018242230</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="F13" s="8">
+        <v>6</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>11</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="D14" s="5">
+        <v>12018242233</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="F14" s="8">
+        <v>9</v>
+      </c>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="7">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>12</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="D15" s="5">
+        <v>12018242253</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="F15" s="8">
+        <v>10</v>
+      </c>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>13</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="D16" s="5">
+        <v>12018242261</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="F16" s="8">
+        <v>10</v>
+      </c>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>14</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="5">
+        <v>12018242262</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F17" s="8">
+        <v>9</v>
+      </c>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="7">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>15</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="5">
+        <v>12018242264</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F18" s="8">
+        <v>6</v>
+      </c>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>16</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="D19" s="5">
+        <v>12018242270</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="F19" s="8">
+        <v>10</v>
+      </c>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>17</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="D20" s="5">
+        <v>12018242274</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F20" s="8">
+        <v>8</v>
+      </c>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>18</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D21" s="5">
+        <v>12018242276</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="F21" s="8">
+        <v>6</v>
+      </c>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>19</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="D22" s="5">
+        <v>12018242278</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="F22" s="8">
+        <v>6</v>
+      </c>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>20</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="D23" s="5">
+        <v>12018242284</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F23" s="8">
+        <v>8</v>
+      </c>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>21</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D24" s="5">
+        <v>12018242287</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="F24" s="8">
+        <v>10</v>
+      </c>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>22</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" s="5">
+        <v>12018242299</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F25" s="8">
+        <v>6</v>
+      </c>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>23</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" s="5">
+        <v>12018242302</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F26" s="8">
+        <v>8</v>
+      </c>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>24</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="D27" s="5">
+        <v>12018242303</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F27" s="8">
+        <v>10</v>
+      </c>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>25</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="D28" s="5">
+        <v>12018242308</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="F28" s="8">
+        <v>10</v>
+      </c>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>26</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="D29" s="5">
+        <v>12018242310</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F29" s="8">
+        <v>10</v>
+      </c>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>27</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="D30" s="5">
+        <v>12018242311</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="F30" s="8">
+        <v>8</v>
+      </c>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>28</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D31" s="5">
+        <v>12018242320</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="F31" s="8">
+        <v>6</v>
+      </c>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>29</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D32" s="5">
+        <v>12018242327</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F32" s="8">
+        <v>9</v>
+      </c>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="7">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>30</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="D33" s="5">
+        <v>12018242329</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="F33" s="8">
+        <v>6</v>
+      </c>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>31</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="D34" s="5">
+        <v>12018242335</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="F34" s="8">
+        <v>8</v>
+      </c>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>32</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="D35" s="5">
+        <v>12018242340</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="F35" s="8">
+        <v>6</v>
+      </c>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>33</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="D36" s="5">
+        <v>12018242342</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F36" s="8">
+        <v>10</v>
+      </c>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>34</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="D37" s="5">
+        <v>12018242343</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="F37" s="8">
+        <v>10</v>
+      </c>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>35</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D38" s="5">
+        <v>12018242353</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="F38" s="8">
+        <v>6</v>
+      </c>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>36</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="D39" s="5">
+        <v>12018242354</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="F39" s="8">
+        <v>10</v>
+      </c>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>37</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="D40" s="5">
+        <v>12018242356</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="F40" s="8">
+        <v>10</v>
+      </c>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="8"/>
+      <c r="P40" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>38</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="D41" s="5">
+        <v>12018242359</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="F41" s="8">
+        <v>10</v>
+      </c>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="8"/>
+      <c r="O41" s="8"/>
+      <c r="P41" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>39</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D42" s="5">
+        <v>12018242361</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F42" s="8">
+        <v>9</v>
+      </c>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8"/>
+      <c r="N42" s="8"/>
+      <c r="O42" s="8"/>
+      <c r="P42" s="7">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>40</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="D43" s="5">
+        <v>12018242367</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" s="8">
+        <v>6</v>
+      </c>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="8"/>
+      <c r="O43" s="8"/>
+      <c r="P43" s="7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>41</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D44" s="5">
+        <v>12018242370</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F44" s="8">
+        <v>8</v>
+      </c>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="8"/>
+      <c r="O44" s="8"/>
+      <c r="P44" s="7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>42</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="D45" s="5">
+        <v>12018242371</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="F45" s="8">
+        <v>9</v>
+      </c>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
+      <c r="N45" s="8"/>
+      <c r="O45" s="8"/>
+      <c r="P45" s="7">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>43</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="D46" s="5">
+        <v>12018242372</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="F46" s="8">
+        <v>7</v>
+      </c>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="8"/>
+      <c r="O46" s="8"/>
+      <c r="P46" s="7">
+        <f t="shared" ref="P46:P51" si="1">AVERAGE(F46:O46)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>44</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="D47" s="5">
+        <v>12018242373</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="F47" s="8">
+        <v>9</v>
+      </c>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="8"/>
+      <c r="N47" s="8"/>
+      <c r="O47" s="8"/>
+      <c r="P47" s="7">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>45</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="D48" s="5">
+        <v>12018242380</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F48" s="8">
+        <v>10</v>
+      </c>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="8"/>
+      <c r="N48" s="8"/>
+      <c r="O48" s="8"/>
+      <c r="P48" s="7">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>46</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="D49" s="5">
+        <v>12018242827</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="F49" s="8">
+        <v>6</v>
+      </c>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8"/>
+      <c r="N49" s="8"/>
+      <c r="O49" s="8"/>
+      <c r="P49" s="7">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>47</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="D50" s="5">
+        <v>12018243559</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="F50" s="8">
+        <v>10</v>
+      </c>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="8"/>
+      <c r="N50" s="8"/>
+      <c r="O50" s="8"/>
+      <c r="P50" s="7">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>48</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D51" s="5">
+        <v>12018244554</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F51" s="8">
+        <v>9</v>
+      </c>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="8"/>
+      <c r="N51" s="8"/>
+      <c r="O51" s="8"/>
+      <c r="P51" s="7">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:P51" xr:uid="{00000000-0009-0000-0000-000001000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:R44">
+  <autoFilter ref="A2:P45">
+    <sortState ref="A5:R44">
       <sortCondition ref="C2:C3"/>
     </sortState>
   </autoFilter>
@@ -5193,41 +6935,44 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Input Score" sqref="F4:O51" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:O3" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Assignment Number" sqref="F2:O2" xr:uid="{00000000-0002-0000-0100-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Input Score" sqref="F4:O51"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:O3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Assignment Number" sqref="F2:O2"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr codeName="Sheet3"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="11.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="11.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.88671875" style="4" customWidth="1"/>
+    <col min="13" max="14" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="25" style="4" customWidth="1"/>
+    <col min="27" max="27" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>10</v>
       </c>
@@ -5249,7 +6994,7 @@
       <c r="O1" s="19"/>
       <c r="P1" s="19"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -5299,14 +7044,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
       <c r="D3" s="18"/>
       <c r="E3" s="21"/>
-      <c r="F3" s="3">
-        <v>44095</v>
+      <c r="F3" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>22</v>
@@ -5337,25 +7082,23 @@
       </c>
       <c r="P3" s="15"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="D4" s="5">
-        <v>12014244255</v>
-      </c>
-      <c r="E4" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F4" s="8">
-        <v>0</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="12">
+        <v>12018242209</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
@@ -5365,30 +7108,28 @@
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
-      <c r="P4" s="7">
-        <f t="shared" ref="P4:P45" si="0">AVERAGE(F4:O4)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P4" s="13" t="e">
+        <f t="shared" ref="P4:P51" si="0">AVERAGE(F4:O4)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="D5" s="5">
-        <v>12018242212</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="F5" s="8">
-        <v>10</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="12">
+        <v>12018242210</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
@@ -5398,30 +7139,28 @@
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
-      <c r="P5" s="7">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P5" s="13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="5">
-        <v>12018242213</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F6" s="8">
-        <v>8</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="12">
+        <v>12018242211</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
@@ -5431,30 +7170,28 @@
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
-      <c r="P6" s="7">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P6" s="13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="D7" s="5">
-        <v>12018242214</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="F7" s="8">
-        <v>10</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7" s="12">
+        <v>12018242218</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -5464,30 +7201,28 @@
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
-      <c r="P7" s="7">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P7" s="13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>379</v>
-      </c>
-      <c r="D8" s="5">
-        <v>12018242215</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="F8" s="8">
-        <v>10</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="12">
+        <v>12018242222</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -5497,30 +7232,28 @@
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
-      <c r="P8" s="7">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P8" s="13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="D9" s="5">
-        <v>12018242216</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="F9" s="8">
-        <v>6</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="D9" s="12">
+        <v>12018242225</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
@@ -5530,30 +7263,28 @@
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
       <c r="O9" s="8"/>
-      <c r="P9" s="7">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P9" s="13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="D10" s="5">
-        <v>12018242220</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="F10" s="8">
-        <v>6</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D10" s="12">
+        <v>12018242227</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
@@ -5563,30 +7294,28 @@
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
       <c r="O10" s="8"/>
-      <c r="P10" s="7">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P10" s="13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="5">
-        <v>12018242224</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="8">
-        <v>9</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="12">
+        <v>12018242228</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
@@ -5596,30 +7325,28 @@
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
       <c r="O11" s="8"/>
-      <c r="P11" s="7">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P11" s="13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="5">
-        <v>12018242229</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F12" s="8">
-        <v>8</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="D12" s="12">
+        <v>12018242234</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
@@ -5629,30 +7356,28 @@
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
       <c r="O12" s="8"/>
-      <c r="P12" s="7">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P12" s="13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>10</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="D13" s="5">
-        <v>12018242230</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="F13" s="8">
-        <v>6</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="12">
+        <v>12018242237</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
@@ -5662,30 +7387,28 @@
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
       <c r="O13" s="8"/>
-      <c r="P13" s="7">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P13" s="13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="D14" s="5">
-        <v>12018242233</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="F14" s="8">
-        <v>9</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="12">
+        <v>12018242238</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
@@ -5695,30 +7418,28 @@
       <c r="M14" s="8"/>
       <c r="N14" s="8"/>
       <c r="O14" s="8"/>
-      <c r="P14" s="7">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P14" s="13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="D15" s="5">
-        <v>12018242253</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="F15" s="8">
-        <v>10</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="12">
+        <v>12018242239</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
@@ -5728,30 +7449,28 @@
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
       <c r="O15" s="8"/>
-      <c r="P15" s="7">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P15" s="13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>13</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="D16" s="5">
-        <v>12018242261</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="F16" s="8">
-        <v>10</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="12">
+        <v>12018242242</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
@@ -5761,30 +7480,28 @@
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
       <c r="O16" s="8"/>
-      <c r="P16" s="7">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P16" s="13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>14</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D17" s="5">
-        <v>12018242262</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="F17" s="8">
-        <v>9</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="D17" s="12">
+        <v>12018242244</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
@@ -5794,30 +7511,28 @@
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
       <c r="O17" s="8"/>
-      <c r="P17" s="7">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P17" s="13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>15</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D18" s="5">
-        <v>12018242264</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="F18" s="8">
-        <v>6</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="D18" s="12">
+        <v>12018242245</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
@@ -5827,30 +7542,28 @@
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
       <c r="O18" s="8"/>
-      <c r="P18" s="7">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P18" s="13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>16</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="D19" s="5">
-        <v>12018242270</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="F19" s="8">
-        <v>10</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="12">
+        <v>12018242247</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -5860,30 +7573,28 @@
       <c r="M19" s="8"/>
       <c r="N19" s="8"/>
       <c r="O19" s="8"/>
-      <c r="P19" s="7">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P19" s="13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>17</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="D20" s="5">
-        <v>12018242274</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="F20" s="8">
-        <v>8</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="D20" s="12">
+        <v>12018242250</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
@@ -5893,30 +7604,28 @@
       <c r="M20" s="8"/>
       <c r="N20" s="8"/>
       <c r="O20" s="8"/>
-      <c r="P20" s="7">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P20" s="13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>18</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="D21" s="5">
-        <v>12018242276</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="F21" s="8">
-        <v>6</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="D21" s="12">
+        <v>12018242259</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
@@ -5926,30 +7635,28 @@
       <c r="M21" s="8"/>
       <c r="N21" s="8"/>
       <c r="O21" s="8"/>
-      <c r="P21" s="7">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P21" s="13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>19</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="D22" s="5">
-        <v>12018242278</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="F22" s="8">
-        <v>6</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D22" s="12">
+        <v>12018242265</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
@@ -5959,30 +7666,28 @@
       <c r="M22" s="8"/>
       <c r="N22" s="8"/>
       <c r="O22" s="8"/>
-      <c r="P22" s="7">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P22" s="13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>20</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="D23" s="5">
-        <v>12018242284</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F23" s="8">
-        <v>8</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="12">
+        <v>12018242272</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -5992,30 +7697,28 @@
       <c r="M23" s="8"/>
       <c r="N23" s="8"/>
       <c r="O23" s="8"/>
-      <c r="P23" s="7">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P23" s="13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>21</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="D24" s="5">
-        <v>12018242287</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="F24" s="8">
-        <v>10</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="D24" s="12">
+        <v>12018242275</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
@@ -6025,30 +7728,28 @@
       <c r="M24" s="8"/>
       <c r="N24" s="8"/>
       <c r="O24" s="8"/>
-      <c r="P24" s="7">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P24" s="13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>22</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D25" s="5">
-        <v>12018242299</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="F25" s="8">
-        <v>6</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="D25" s="12">
+        <v>12018242279</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
@@ -6058,30 +7759,28 @@
       <c r="M25" s="8"/>
       <c r="N25" s="8"/>
       <c r="O25" s="8"/>
-      <c r="P25" s="7">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P25" s="13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>23</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D26" s="5">
-        <v>12018242302</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="F26" s="8">
-        <v>8</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" s="12">
+        <v>12018242280</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
@@ -6091,30 +7790,28 @@
       <c r="M26" s="8"/>
       <c r="N26" s="8"/>
       <c r="O26" s="8"/>
-      <c r="P26" s="7">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P26" s="13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>24</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="D27" s="5">
-        <v>12018242303</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F27" s="8">
-        <v>10</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D27" s="12">
+        <v>12018242283</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
@@ -6124,30 +7821,28 @@
       <c r="M27" s="8"/>
       <c r="N27" s="8"/>
       <c r="O27" s="8"/>
-      <c r="P27" s="7">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P27" s="13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>25</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="D28" s="5">
-        <v>12018242308</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="F28" s="8">
-        <v>10</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="D28" s="12">
+        <v>12018242285</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
@@ -6157,30 +7852,28 @@
       <c r="M28" s="8"/>
       <c r="N28" s="8"/>
       <c r="O28" s="8"/>
-      <c r="P28" s="7">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P28" s="13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>26</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="D29" s="5">
-        <v>12018242310</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="F29" s="8">
-        <v>10</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="D29" s="12">
+        <v>12018242286</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
@@ -6190,30 +7883,28 @@
       <c r="M29" s="8"/>
       <c r="N29" s="8"/>
       <c r="O29" s="8"/>
-      <c r="P29" s="7">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P29" s="13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>27</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="D30" s="5">
-        <v>12018242311</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="F30" s="8">
-        <v>8</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="D30" s="12">
+        <v>12018242289</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
@@ -6223,30 +7914,28 @@
       <c r="M30" s="8"/>
       <c r="N30" s="8"/>
       <c r="O30" s="8"/>
-      <c r="P30" s="7">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P30" s="13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>28</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="D31" s="5">
-        <v>12018242320</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="F31" s="8">
-        <v>6</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="D31" s="12">
+        <v>12018242290</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
@@ -6256,30 +7945,28 @@
       <c r="M31" s="8"/>
       <c r="N31" s="8"/>
       <c r="O31" s="8"/>
-      <c r="P31" s="7">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P31" s="13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>29</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D32" s="5">
-        <v>12018242327</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="F32" s="8">
-        <v>9</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D32" s="12">
+        <v>12018242293</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
@@ -6289,30 +7976,28 @@
       <c r="M32" s="8"/>
       <c r="N32" s="8"/>
       <c r="O32" s="8"/>
-      <c r="P32" s="7">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P32" s="13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>30</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="D33" s="5">
-        <v>12018242329</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="F33" s="8">
-        <v>6</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="D33" s="12">
+        <v>12018242294</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
@@ -6322,30 +8007,28 @@
       <c r="M33" s="8"/>
       <c r="N33" s="8"/>
       <c r="O33" s="8"/>
-      <c r="P33" s="7">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P33" s="13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>31</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="D34" s="5">
-        <v>12018242335</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="F34" s="8">
-        <v>8</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="D34" s="12">
+        <v>12018242300</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
@@ -6355,30 +8038,28 @@
       <c r="M34" s="8"/>
       <c r="N34" s="8"/>
       <c r="O34" s="8"/>
-      <c r="P34" s="7">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P34" s="13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>32</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="D35" s="5">
-        <v>12018242340</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="F35" s="8">
-        <v>6</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="D35" s="12">
+        <v>12018242305</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
@@ -6388,30 +8069,28 @@
       <c r="M35" s="8"/>
       <c r="N35" s="8"/>
       <c r="O35" s="8"/>
-      <c r="P35" s="7">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P35" s="13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>33</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="D36" s="5">
-        <v>12018242342</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F36" s="8">
-        <v>10</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="D36" s="12">
+        <v>12018242306</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
@@ -6421,30 +8100,28 @@
       <c r="M36" s="8"/>
       <c r="N36" s="8"/>
       <c r="O36" s="8"/>
-      <c r="P36" s="7">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P36" s="13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>34</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="D37" s="5">
-        <v>12018242343</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="F37" s="8">
-        <v>10</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="D37" s="12">
+        <v>12018242314</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
@@ -6454,30 +8131,28 @@
       <c r="M37" s="8"/>
       <c r="N37" s="8"/>
       <c r="O37" s="8"/>
-      <c r="P37" s="7">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P37" s="13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>35</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="D38" s="5">
-        <v>12018242353</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="F38" s="8">
-        <v>6</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="D38" s="12">
+        <v>12018242317</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
       <c r="I38" s="8"/>
@@ -6487,30 +8162,28 @@
       <c r="M38" s="8"/>
       <c r="N38" s="8"/>
       <c r="O38" s="8"/>
-      <c r="P38" s="7">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P38" s="13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>36</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="D39" s="5">
-        <v>12018242354</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="F39" s="8">
-        <v>10</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="D39" s="12">
+        <v>12018242319</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
       <c r="I39" s="8"/>
@@ -6520,30 +8193,28 @@
       <c r="M39" s="8"/>
       <c r="N39" s="8"/>
       <c r="O39" s="8"/>
-      <c r="P39" s="7">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P39" s="13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>37</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="D40" s="5">
-        <v>12018242356</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="F40" s="8">
-        <v>10</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D40" s="12">
+        <v>12018242321</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
       <c r="I40" s="8"/>
@@ -6553,30 +8224,28 @@
       <c r="M40" s="8"/>
       <c r="N40" s="8"/>
       <c r="O40" s="8"/>
-      <c r="P40" s="7">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P40" s="13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>38</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="D41" s="5">
-        <v>12018242359</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="F41" s="8">
-        <v>10</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="D41" s="12">
+        <v>12018242322</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
       <c r="I41" s="8"/>
@@ -6586,30 +8255,28 @@
       <c r="M41" s="8"/>
       <c r="N41" s="8"/>
       <c r="O41" s="8"/>
-      <c r="P41" s="7">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P41" s="13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>39</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="D42" s="5">
-        <v>12018242361</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="F42" s="8">
-        <v>9</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="D42" s="12">
+        <v>12018242331</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c r="H42" s="8"/>
       <c r="I42" s="8"/>
@@ -6619,30 +8286,28 @@
       <c r="M42" s="8"/>
       <c r="N42" s="8"/>
       <c r="O42" s="8"/>
-      <c r="P42" s="7">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P42" s="13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>40</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="D43" s="5">
-        <v>12018242367</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F43" s="8">
-        <v>6</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="D43" s="12">
+        <v>12018242336</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
       <c r="I43" s="8"/>
@@ -6652,30 +8317,28 @@
       <c r="M43" s="8"/>
       <c r="N43" s="8"/>
       <c r="O43" s="8"/>
-      <c r="P43" s="7">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P43" s="13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>41</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D44" s="5">
-        <v>12018242370</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="F44" s="8">
-        <v>8</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="D44" s="12">
+        <v>12018242344</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
       <c r="I44" s="8"/>
@@ -6685,30 +8348,28 @@
       <c r="M44" s="8"/>
       <c r="N44" s="8"/>
       <c r="O44" s="8"/>
-      <c r="P44" s="7">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P44" s="13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>42</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="D45" s="5">
-        <v>12018242371</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="F45" s="8">
-        <v>9</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D45" s="12">
+        <v>12018242345</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
       <c r="I45" s="8"/>
@@ -6718,30 +8379,28 @@
       <c r="M45" s="8"/>
       <c r="N45" s="8"/>
       <c r="O45" s="8"/>
-      <c r="P45" s="7">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P45" s="13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>43</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="D46" s="5">
-        <v>12018242372</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="F46" s="8">
-        <v>7</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="D46" s="12">
+        <v>12018242346</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c r="H46" s="8"/>
       <c r="I46" s="8"/>
@@ -6751,30 +8410,28 @@
       <c r="M46" s="8"/>
       <c r="N46" s="8"/>
       <c r="O46" s="8"/>
-      <c r="P46" s="7">
-        <f t="shared" ref="P46:P51" si="1">AVERAGE(F46:O46)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P46" s="13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>44</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="D47" s="5">
-        <v>12018242373</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="F47" s="8">
-        <v>9</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="D47" s="12">
+        <v>12018242352</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
       <c r="I47" s="8"/>
@@ -6784,30 +8441,28 @@
       <c r="M47" s="8"/>
       <c r="N47" s="8"/>
       <c r="O47" s="8"/>
-      <c r="P47" s="7">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P47" s="13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>45</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="D48" s="5">
-        <v>12018242380</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="F48" s="8">
-        <v>10</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="D48" s="12">
+        <v>12018242355</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c r="H48" s="8"/>
       <c r="I48" s="8"/>
@@ -6817,30 +8472,28 @@
       <c r="M48" s="8"/>
       <c r="N48" s="8"/>
       <c r="O48" s="8"/>
-      <c r="P48" s="7">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P48" s="13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>46</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="D49" s="5">
-        <v>12018242827</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="F49" s="8">
-        <v>6</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="D49" s="12">
+        <v>12018242358</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c r="H49" s="8"/>
       <c r="I49" s="8"/>
@@ -6850,30 +8503,28 @@
       <c r="M49" s="8"/>
       <c r="N49" s="8"/>
       <c r="O49" s="8"/>
-      <c r="P49" s="7">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P49" s="13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>47</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="D50" s="5">
-        <v>12018243559</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="F50" s="8">
-        <v>10</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="D50" s="12">
+        <v>12018242364</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c r="H50" s="8"/>
       <c r="I50" s="8"/>
@@ -6883,30 +8534,28 @@
       <c r="M50" s="8"/>
       <c r="N50" s="8"/>
       <c r="O50" s="8"/>
-      <c r="P50" s="7">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P50" s="13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>48</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="D51" s="5">
-        <v>12018244554</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F51" s="8">
-        <v>9</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="D51" s="12">
+        <v>12018242369</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c r="H51" s="8"/>
       <c r="I51" s="8"/>
@@ -6916,14 +8565,14 @@
       <c r="M51" s="8"/>
       <c r="N51" s="8"/>
       <c r="O51" s="8"/>
-      <c r="P51" s="7">
-        <f t="shared" si="1"/>
-        <v>9</v>
+      <c r="P51" s="13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:P45" xr:uid="{00000000-0009-0000-0000-000002000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:R44">
+  <autoFilter ref="A2:P45">
+    <sortState ref="A5:T44">
       <sortCondition ref="C2:C3"/>
     </sortState>
   </autoFilter>
@@ -6939,1662 +8588,9 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Input Score" sqref="F4:O51" xr:uid="{00000000-0002-0000-0200-000000000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:O3" xr:uid="{00000000-0002-0000-0200-000001000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Assignment Number" sqref="F2:O2" xr:uid="{00000000-0002-0000-0200-000002000000}"/>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:P51"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="9.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.875" style="4" customWidth="1"/>
-    <col min="13" max="14" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="25" style="4" customWidth="1"/>
-    <col min="27" max="27" width="14.375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A1" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A2" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="P2" s="14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="P3" s="15"/>
-    </row>
-    <row r="4" spans="1:16" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="2">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="12">
-        <v>12018242209</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="13" t="e">
-        <f t="shared" ref="P4:P51" si="0">AVERAGE(F4:O4)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="15" x14ac:dyDescent="0.15">
-      <c r="A5" s="2">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="12">
-        <v>12018242210</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="15" x14ac:dyDescent="0.15">
-      <c r="A6" s="2">
-        <v>3</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="12">
-        <v>12018242211</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="15" x14ac:dyDescent="0.15">
-      <c r="A7" s="2">
-        <v>4</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="D7" s="12">
-        <v>12018242218</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="15" x14ac:dyDescent="0.15">
-      <c r="A8" s="2">
-        <v>5</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="12">
-        <v>12018242222</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>385</v>
-      </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="15" x14ac:dyDescent="0.15">
-      <c r="A9" s="2">
-        <v>6</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>289</v>
-      </c>
-      <c r="D9" s="12">
-        <v>12018242225</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>330</v>
-      </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="15" x14ac:dyDescent="0.15">
-      <c r="A10" s="2">
-        <v>7</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="D10" s="12">
-        <v>12018242227</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="15" x14ac:dyDescent="0.15">
-      <c r="A11" s="2">
-        <v>8</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="12">
-        <v>12018242228</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>386</v>
-      </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="15" x14ac:dyDescent="0.15">
-      <c r="A12" s="2">
-        <v>9</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="D12" s="12">
-        <v>12018242234</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="15" x14ac:dyDescent="0.15">
-      <c r="A13" s="2">
-        <v>10</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="12">
-        <v>12018242237</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="15" x14ac:dyDescent="0.15">
-      <c r="A14" s="2">
-        <v>11</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="12">
-        <v>12018242238</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="15" x14ac:dyDescent="0.15">
-      <c r="A15" s="2">
-        <v>12</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15" s="12">
-        <v>12018242239</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="15" x14ac:dyDescent="0.15">
-      <c r="A16" s="2">
-        <v>13</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="12">
-        <v>12018242242</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="15" x14ac:dyDescent="0.15">
-      <c r="A17" s="2">
-        <v>14</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="D17" s="12">
-        <v>12018242244</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="15" x14ac:dyDescent="0.15">
-      <c r="A18" s="2">
-        <v>15</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="D18" s="12">
-        <v>12018242245</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.15">
-      <c r="A19" s="2">
-        <v>16</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D19" s="12">
-        <v>12018242247</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="15" x14ac:dyDescent="0.15">
-      <c r="A20" s="2">
-        <v>17</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="D20" s="12">
-        <v>12018242250</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="15" x14ac:dyDescent="0.15">
-      <c r="A21" s="2">
-        <v>18</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="D21" s="12">
-        <v>12018242259</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="15" x14ac:dyDescent="0.15">
-      <c r="A22" s="2">
-        <v>19</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="D22" s="12">
-        <v>12018242265</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.15">
-      <c r="A23" s="2">
-        <v>20</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D23" s="12">
-        <v>12018242272</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="15" x14ac:dyDescent="0.15">
-      <c r="A24" s="2">
-        <v>21</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="D24" s="12">
-        <v>12018242275</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" ht="15" x14ac:dyDescent="0.15">
-      <c r="A25" s="2">
-        <v>22</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="D25" s="12">
-        <v>12018242279</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" ht="15" x14ac:dyDescent="0.15">
-      <c r="A26" s="2">
-        <v>23</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="D26" s="12">
-        <v>12018242280</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" ht="15" x14ac:dyDescent="0.15">
-      <c r="A27" s="2">
-        <v>24</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="D27" s="12">
-        <v>12018242283</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" ht="15" x14ac:dyDescent="0.15">
-      <c r="A28" s="2">
-        <v>25</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="D28" s="12">
-        <v>12018242285</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" ht="15" x14ac:dyDescent="0.15">
-      <c r="A29" s="2">
-        <v>26</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>299</v>
-      </c>
-      <c r="D29" s="12">
-        <v>12018242286</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>335</v>
-      </c>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" ht="15" x14ac:dyDescent="0.15">
-      <c r="A30" s="2">
-        <v>27</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>300</v>
-      </c>
-      <c r="D30" s="12">
-        <v>12018242289</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" ht="15" x14ac:dyDescent="0.15">
-      <c r="A31" s="2">
-        <v>28</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>301</v>
-      </c>
-      <c r="D31" s="12">
-        <v>12018242290</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>336</v>
-      </c>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" ht="15" x14ac:dyDescent="0.15">
-      <c r="A32" s="2">
-        <v>29</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="D32" s="12">
-        <v>12018242293</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" ht="15" x14ac:dyDescent="0.15">
-      <c r="A33" s="2">
-        <v>30</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="D33" s="12">
-        <v>12018242294</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" ht="15" x14ac:dyDescent="0.15">
-      <c r="A34" s="2">
-        <v>31</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>388</v>
-      </c>
-      <c r="D34" s="12">
-        <v>12018242300</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>339</v>
-      </c>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
-      <c r="O34" s="8"/>
-      <c r="P34" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" ht="15" x14ac:dyDescent="0.15">
-      <c r="A35" s="2">
-        <v>32</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="D35" s="12">
-        <v>12018242305</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="8"/>
-      <c r="O35" s="8"/>
-      <c r="P35" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" ht="15" x14ac:dyDescent="0.15">
-      <c r="A36" s="2">
-        <v>33</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="D36" s="12">
-        <v>12018242306</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="8"/>
-      <c r="O36" s="8"/>
-      <c r="P36" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" ht="15" x14ac:dyDescent="0.15">
-      <c r="A37" s="2">
-        <v>34</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="D37" s="12">
-        <v>12018242314</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="8"/>
-      <c r="O37" s="8"/>
-      <c r="P37" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" ht="15" x14ac:dyDescent="0.15">
-      <c r="A38" s="2">
-        <v>35</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>389</v>
-      </c>
-      <c r="D38" s="12">
-        <v>12018242317</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
-      <c r="O38" s="8"/>
-      <c r="P38" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" ht="15" x14ac:dyDescent="0.15">
-      <c r="A39" s="2">
-        <v>36</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>306</v>
-      </c>
-      <c r="D39" s="12">
-        <v>12018242319</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
-      <c r="N39" s="8"/>
-      <c r="O39" s="8"/>
-      <c r="P39" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" ht="15" x14ac:dyDescent="0.15">
-      <c r="A40" s="2">
-        <v>37</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="D40" s="12">
-        <v>12018242321</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="8"/>
-      <c r="M40" s="8"/>
-      <c r="N40" s="8"/>
-      <c r="O40" s="8"/>
-      <c r="P40" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" ht="15" x14ac:dyDescent="0.15">
-      <c r="A41" s="2">
-        <v>38</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="D41" s="12">
-        <v>12018242322</v>
-      </c>
-      <c r="E41" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="8"/>
-      <c r="M41" s="8"/>
-      <c r="N41" s="8"/>
-      <c r="O41" s="8"/>
-      <c r="P41" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" ht="15" x14ac:dyDescent="0.15">
-      <c r="A42" s="2">
-        <v>39</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="D42" s="12">
-        <v>12018242331</v>
-      </c>
-      <c r="E42" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
-      <c r="L42" s="8"/>
-      <c r="M42" s="8"/>
-      <c r="N42" s="8"/>
-      <c r="O42" s="8"/>
-      <c r="P42" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" ht="15" x14ac:dyDescent="0.15">
-      <c r="A43" s="2">
-        <v>40</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="D43" s="12">
-        <v>12018242336</v>
-      </c>
-      <c r="E43" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="8"/>
-      <c r="N43" s="8"/>
-      <c r="O43" s="8"/>
-      <c r="P43" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" ht="15" x14ac:dyDescent="0.15">
-      <c r="A44" s="2">
-        <v>41</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="D44" s="12">
-        <v>12018242344</v>
-      </c>
-      <c r="E44" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
-      <c r="L44" s="8"/>
-      <c r="M44" s="8"/>
-      <c r="N44" s="8"/>
-      <c r="O44" s="8"/>
-      <c r="P44" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" ht="15" x14ac:dyDescent="0.15">
-      <c r="A45" s="2">
-        <v>42</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D45" s="12">
-        <v>12018242345</v>
-      </c>
-      <c r="E45" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="8"/>
-      <c r="M45" s="8"/>
-      <c r="N45" s="8"/>
-      <c r="O45" s="8"/>
-      <c r="P45" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" ht="15" x14ac:dyDescent="0.15">
-      <c r="A46" s="2">
-        <v>43</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>313</v>
-      </c>
-      <c r="D46" s="12">
-        <v>12018242346</v>
-      </c>
-      <c r="E46" s="11" t="s">
-        <v>348</v>
-      </c>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="8"/>
-      <c r="L46" s="8"/>
-      <c r="M46" s="8"/>
-      <c r="N46" s="8"/>
-      <c r="O46" s="8"/>
-      <c r="P46" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" ht="15" x14ac:dyDescent="0.15">
-      <c r="A47" s="2">
-        <v>44</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="D47" s="12">
-        <v>12018242352</v>
-      </c>
-      <c r="E47" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8"/>
-      <c r="L47" s="8"/>
-      <c r="M47" s="8"/>
-      <c r="N47" s="8"/>
-      <c r="O47" s="8"/>
-      <c r="P47" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" ht="15" x14ac:dyDescent="0.15">
-      <c r="A48" s="2">
-        <v>45</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>314</v>
-      </c>
-      <c r="D48" s="12">
-        <v>12018242355</v>
-      </c>
-      <c r="E48" s="11" t="s">
-        <v>349</v>
-      </c>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="8"/>
-      <c r="L48" s="8"/>
-      <c r="M48" s="8"/>
-      <c r="N48" s="8"/>
-      <c r="O48" s="8"/>
-      <c r="P48" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" ht="15" x14ac:dyDescent="0.15">
-      <c r="A49" s="2">
-        <v>46</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="D49" s="12">
-        <v>12018242358</v>
-      </c>
-      <c r="E49" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="8"/>
-      <c r="L49" s="8"/>
-      <c r="M49" s="8"/>
-      <c r="N49" s="8"/>
-      <c r="O49" s="8"/>
-      <c r="P49" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" ht="15" x14ac:dyDescent="0.15">
-      <c r="A50" s="2">
-        <v>47</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="D50" s="12">
-        <v>12018242364</v>
-      </c>
-      <c r="E50" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="8"/>
-      <c r="L50" s="8"/>
-      <c r="M50" s="8"/>
-      <c r="N50" s="8"/>
-      <c r="O50" s="8"/>
-      <c r="P50" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" ht="15" x14ac:dyDescent="0.15">
-      <c r="A51" s="2">
-        <v>48</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="C51" s="11" t="s">
-        <v>316</v>
-      </c>
-      <c r="D51" s="12">
-        <v>12018242369</v>
-      </c>
-      <c r="E51" s="11" t="s">
-        <v>350</v>
-      </c>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="8"/>
-      <c r="L51" s="8"/>
-      <c r="M51" s="8"/>
-      <c r="N51" s="8"/>
-      <c r="O51" s="8"/>
-      <c r="P51" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A2:P45" xr:uid="{00000000-0009-0000-0000-000003000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:T44">
-      <sortCondition ref="C2:C3"/>
-    </sortState>
-  </autoFilter>
-  <mergeCells count="8">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:P1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="P2:P3"/>
-  </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Assignment Number" sqref="F2:O2" xr:uid="{00000000-0002-0000-0300-000000000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:O3" xr:uid="{00000000-0002-0000-0300-000001000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Input Score" sqref="F4:O51" xr:uid="{00000000-0002-0000-0300-000002000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Assignment Number" sqref="F2:O2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:O3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Input Score" sqref="F4:O51">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/Grade 2018/HomeAssignment/HA_Summary_YC_2018.xlsx
+++ b/Grade 2018/HomeAssignment/HA_Summary_YC_2018.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NIIT\NIIT教案\Sept-2020---Jan-2021\Grade 2018\HomeAssignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6590F26B-BBDE-4149-9A8C-18BB96ED8B49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E449E029-7D0C-45EA-A489-EC15B56CF822}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CS1" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="392">
   <si>
     <t>No</t>
   </si>
@@ -5207,7 +5207,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -6953,8 +6953,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7054,8 +7054,8 @@
       <c r="C3" s="15"/>
       <c r="D3" s="18"/>
       <c r="E3" s="21"/>
-      <c r="F3" s="3" t="s">
-        <v>22</v>
+      <c r="F3" s="3">
+        <v>44096</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>22</v>
@@ -7102,7 +7102,9 @@
       <c r="E4" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="8"/>
+      <c r="F4" s="8">
+        <v>10</v>
+      </c>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
@@ -7112,9 +7114,9 @@
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
-      <c r="P4" s="13" t="e">
+      <c r="P4" s="13">
         <f t="shared" ref="P4:P51" si="0">AVERAGE(F4:O4)</f>
-        <v>#DIV/0!</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="15" x14ac:dyDescent="0.15">
@@ -7133,7 +7135,9 @@
       <c r="E5" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="F5" s="8"/>
+      <c r="F5" s="8">
+        <v>10</v>
+      </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
@@ -7143,9 +7147,9 @@
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
-      <c r="P5" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="P5" s="13">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="15" x14ac:dyDescent="0.15">
@@ -7164,7 +7168,9 @@
       <c r="E6" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="F6" s="8"/>
+      <c r="F6" s="8">
+        <v>8</v>
+      </c>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
@@ -7174,9 +7180,9 @@
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
-      <c r="P6" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="P6" s="13">
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="15" x14ac:dyDescent="0.15">
@@ -7195,7 +7201,9 @@
       <c r="E7" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="F7" s="8"/>
+      <c r="F7" s="8">
+        <v>10</v>
+      </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -7205,9 +7213,9 @@
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
-      <c r="P7" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="P7" s="13">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="15" x14ac:dyDescent="0.15">
@@ -7226,7 +7234,9 @@
       <c r="E8" s="11" t="s">
         <v>385</v>
       </c>
-      <c r="F8" s="8"/>
+      <c r="F8" s="8">
+        <v>8</v>
+      </c>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -7236,9 +7246,9 @@
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
-      <c r="P8" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="P8" s="13">
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="15" x14ac:dyDescent="0.15">
@@ -7257,7 +7267,9 @@
       <c r="E9" s="11" t="s">
         <v>330</v>
       </c>
-      <c r="F9" s="8"/>
+      <c r="F9" s="8">
+        <v>9</v>
+      </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
@@ -7267,9 +7279,9 @@
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
       <c r="O9" s="8"/>
-      <c r="P9" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="P9" s="13">
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="15" x14ac:dyDescent="0.15">
@@ -7288,7 +7300,9 @@
       <c r="E10" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="F10" s="8"/>
+      <c r="F10" s="8">
+        <v>9</v>
+      </c>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
@@ -7298,9 +7312,9 @@
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
       <c r="O10" s="8"/>
-      <c r="P10" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="P10" s="13">
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="15" x14ac:dyDescent="0.15">
@@ -7319,7 +7333,9 @@
       <c r="E11" s="11" t="s">
         <v>386</v>
       </c>
-      <c r="F11" s="8"/>
+      <c r="F11" s="8">
+        <v>10</v>
+      </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
@@ -7329,9 +7345,9 @@
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
       <c r="O11" s="8"/>
-      <c r="P11" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="P11" s="13">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="15" x14ac:dyDescent="0.15">
@@ -7350,7 +7366,9 @@
       <c r="E12" s="11" t="s">
         <v>387</v>
       </c>
-      <c r="F12" s="8"/>
+      <c r="F12" s="8">
+        <v>10</v>
+      </c>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
@@ -7360,9 +7378,9 @@
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
       <c r="O12" s="8"/>
-      <c r="P12" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="P12" s="13">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="15" x14ac:dyDescent="0.15">
@@ -7381,7 +7399,9 @@
       <c r="E13" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="F13" s="8"/>
+      <c r="F13" s="8">
+        <v>8</v>
+      </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
@@ -7391,9 +7411,9 @@
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
       <c r="O13" s="8"/>
-      <c r="P13" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="P13" s="13">
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="15" x14ac:dyDescent="0.15">
@@ -7412,7 +7432,9 @@
       <c r="E14" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="F14" s="8"/>
+      <c r="F14" s="8">
+        <v>10</v>
+      </c>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
@@ -7422,9 +7444,9 @@
       <c r="M14" s="8"/>
       <c r="N14" s="8"/>
       <c r="O14" s="8"/>
-      <c r="P14" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="P14" s="13">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="15" x14ac:dyDescent="0.15">
@@ -7443,7 +7465,9 @@
       <c r="E15" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="8"/>
+      <c r="F15" s="8">
+        <v>10</v>
+      </c>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
@@ -7453,9 +7477,9 @@
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
       <c r="O15" s="8"/>
-      <c r="P15" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="P15" s="13">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="15" x14ac:dyDescent="0.15">
@@ -7474,7 +7498,9 @@
       <c r="E16" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="F16" s="8"/>
+      <c r="F16" s="8">
+        <v>6</v>
+      </c>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
@@ -7484,9 +7510,9 @@
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
       <c r="O16" s="8"/>
-      <c r="P16" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="P16" s="13">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="15" x14ac:dyDescent="0.15">
@@ -7505,7 +7531,9 @@
       <c r="E17" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="F17" s="8"/>
+      <c r="F17" s="8">
+        <v>8</v>
+      </c>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
@@ -7515,9 +7543,9 @@
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
       <c r="O17" s="8"/>
-      <c r="P17" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="P17" s="13">
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="15" x14ac:dyDescent="0.15">
@@ -7536,7 +7564,9 @@
       <c r="E18" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="F18" s="8"/>
+      <c r="F18" s="8">
+        <v>9</v>
+      </c>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
@@ -7546,9 +7576,9 @@
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
       <c r="O18" s="8"/>
-      <c r="P18" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="P18" s="13">
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.15">
@@ -7567,7 +7597,9 @@
       <c r="E19" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F19" s="8"/>
+      <c r="F19" s="8">
+        <v>10</v>
+      </c>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -7577,9 +7609,9 @@
       <c r="M19" s="8"/>
       <c r="N19" s="8"/>
       <c r="O19" s="8"/>
-      <c r="P19" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="P19" s="13">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="15" x14ac:dyDescent="0.15">
@@ -7598,7 +7630,9 @@
       <c r="E20" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="F20" s="8"/>
+      <c r="F20" s="8">
+        <v>8</v>
+      </c>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
@@ -7608,9 +7642,9 @@
       <c r="M20" s="8"/>
       <c r="N20" s="8"/>
       <c r="O20" s="8"/>
-      <c r="P20" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="P20" s="13">
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="15" x14ac:dyDescent="0.15">
@@ -7629,7 +7663,9 @@
       <c r="E21" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="F21" s="8"/>
+      <c r="F21" s="8">
+        <v>10</v>
+      </c>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
@@ -7639,9 +7675,9 @@
       <c r="M21" s="8"/>
       <c r="N21" s="8"/>
       <c r="O21" s="8"/>
-      <c r="P21" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="P21" s="13">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="15" x14ac:dyDescent="0.15">
@@ -7660,7 +7696,9 @@
       <c r="E22" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F22" s="8"/>
+      <c r="F22" s="8">
+        <v>10</v>
+      </c>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
@@ -7670,9 +7708,9 @@
       <c r="M22" s="8"/>
       <c r="N22" s="8"/>
       <c r="O22" s="8"/>
-      <c r="P22" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="P22" s="13">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.15">
@@ -7691,7 +7729,9 @@
       <c r="E23" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="F23" s="8"/>
+      <c r="F23" s="8">
+        <v>10</v>
+      </c>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -7701,9 +7741,9 @@
       <c r="M23" s="8"/>
       <c r="N23" s="8"/>
       <c r="O23" s="8"/>
-      <c r="P23" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="P23" s="13">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="15" x14ac:dyDescent="0.15">
@@ -7722,7 +7762,9 @@
       <c r="E24" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="F24" s="8"/>
+      <c r="F24" s="8">
+        <v>10</v>
+      </c>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
@@ -7732,9 +7774,9 @@
       <c r="M24" s="8"/>
       <c r="N24" s="8"/>
       <c r="O24" s="8"/>
-      <c r="P24" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="P24" s="13">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="15" x14ac:dyDescent="0.15">
@@ -7753,7 +7795,9 @@
       <c r="E25" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F25" s="8"/>
+      <c r="F25" s="8">
+        <v>10</v>
+      </c>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
@@ -7763,9 +7807,9 @@
       <c r="M25" s="8"/>
       <c r="N25" s="8"/>
       <c r="O25" s="8"/>
-      <c r="P25" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="P25" s="13">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="15" x14ac:dyDescent="0.15">
@@ -7784,7 +7828,9 @@
       <c r="E26" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F26" s="8"/>
+      <c r="F26" s="8">
+        <v>8</v>
+      </c>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
@@ -7794,9 +7840,9 @@
       <c r="M26" s="8"/>
       <c r="N26" s="8"/>
       <c r="O26" s="8"/>
-      <c r="P26" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="P26" s="13">
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="15" x14ac:dyDescent="0.15">
@@ -7815,7 +7861,9 @@
       <c r="E27" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F27" s="8"/>
+      <c r="F27" s="8">
+        <v>9</v>
+      </c>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
@@ -7825,9 +7873,9 @@
       <c r="M27" s="8"/>
       <c r="N27" s="8"/>
       <c r="O27" s="8"/>
-      <c r="P27" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="P27" s="13">
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="15" x14ac:dyDescent="0.15">
@@ -7846,7 +7894,9 @@
       <c r="E28" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="F28" s="8"/>
+      <c r="F28" s="8">
+        <v>10</v>
+      </c>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
@@ -7856,9 +7906,9 @@
       <c r="M28" s="8"/>
       <c r="N28" s="8"/>
       <c r="O28" s="8"/>
-      <c r="P28" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="P28" s="13">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="15" x14ac:dyDescent="0.15">
@@ -7877,7 +7927,9 @@
       <c r="E29" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="F29" s="8"/>
+      <c r="F29" s="8">
+        <v>9</v>
+      </c>
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
@@ -7887,9 +7939,9 @@
       <c r="M29" s="8"/>
       <c r="N29" s="8"/>
       <c r="O29" s="8"/>
-      <c r="P29" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="P29" s="13">
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="15" x14ac:dyDescent="0.15">
@@ -7908,7 +7960,9 @@
       <c r="E30" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F30" s="8"/>
+      <c r="F30" s="8">
+        <v>9</v>
+      </c>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
@@ -7918,9 +7972,9 @@
       <c r="M30" s="8"/>
       <c r="N30" s="8"/>
       <c r="O30" s="8"/>
-      <c r="P30" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="P30" s="13">
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="15" x14ac:dyDescent="0.15">
@@ -7939,7 +7993,9 @@
       <c r="E31" s="11" t="s">
         <v>336</v>
       </c>
-      <c r="F31" s="8"/>
+      <c r="F31" s="8">
+        <v>6</v>
+      </c>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
@@ -7949,9 +8005,9 @@
       <c r="M31" s="8"/>
       <c r="N31" s="8"/>
       <c r="O31" s="8"/>
-      <c r="P31" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="P31" s="13">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="15" x14ac:dyDescent="0.15">
@@ -7970,7 +8026,9 @@
       <c r="E32" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="F32" s="8"/>
+      <c r="F32" s="8">
+        <v>9</v>
+      </c>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
@@ -7980,9 +8038,9 @@
       <c r="M32" s="8"/>
       <c r="N32" s="8"/>
       <c r="O32" s="8"/>
-      <c r="P32" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="P32" s="13">
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="15" x14ac:dyDescent="0.15">
@@ -8001,7 +8059,9 @@
       <c r="E33" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="F33" s="8"/>
+      <c r="F33" s="8">
+        <v>9</v>
+      </c>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
@@ -8011,9 +8071,9 @@
       <c r="M33" s="8"/>
       <c r="N33" s="8"/>
       <c r="O33" s="8"/>
-      <c r="P33" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="P33" s="13">
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="15" x14ac:dyDescent="0.15">
@@ -8032,7 +8092,9 @@
       <c r="E34" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="F34" s="8"/>
+      <c r="F34" s="8">
+        <v>8</v>
+      </c>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
@@ -8042,9 +8104,9 @@
       <c r="M34" s="8"/>
       <c r="N34" s="8"/>
       <c r="O34" s="8"/>
-      <c r="P34" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="P34" s="13">
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="15" x14ac:dyDescent="0.15">
@@ -8063,7 +8125,9 @@
       <c r="E35" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="F35" s="8"/>
+      <c r="F35" s="8">
+        <v>9</v>
+      </c>
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
@@ -8073,9 +8137,9 @@
       <c r="M35" s="8"/>
       <c r="N35" s="8"/>
       <c r="O35" s="8"/>
-      <c r="P35" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="P35" s="13">
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="15" x14ac:dyDescent="0.15">
@@ -8094,7 +8158,9 @@
       <c r="E36" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="F36" s="8"/>
+      <c r="F36" s="8">
+        <v>10</v>
+      </c>
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
@@ -8104,9 +8170,9 @@
       <c r="M36" s="8"/>
       <c r="N36" s="8"/>
       <c r="O36" s="8"/>
-      <c r="P36" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="P36" s="13">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="15" x14ac:dyDescent="0.15">
@@ -8125,7 +8191,9 @@
       <c r="E37" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="F37" s="8"/>
+      <c r="F37" s="8">
+        <v>10</v>
+      </c>
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
@@ -8135,9 +8203,9 @@
       <c r="M37" s="8"/>
       <c r="N37" s="8"/>
       <c r="O37" s="8"/>
-      <c r="P37" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="P37" s="13">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="15" x14ac:dyDescent="0.15">
@@ -8156,7 +8224,9 @@
       <c r="E38" s="11" t="s">
         <v>341</v>
       </c>
-      <c r="F38" s="8"/>
+      <c r="F38" s="8">
+        <v>6</v>
+      </c>
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
       <c r="I38" s="8"/>
@@ -8166,9 +8236,9 @@
       <c r="M38" s="8"/>
       <c r="N38" s="8"/>
       <c r="O38" s="8"/>
-      <c r="P38" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="P38" s="13">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:16" ht="15" x14ac:dyDescent="0.15">
@@ -8187,7 +8257,9 @@
       <c r="E39" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="F39" s="8"/>
+      <c r="F39" s="8">
+        <v>8</v>
+      </c>
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
       <c r="I39" s="8"/>
@@ -8197,9 +8269,9 @@
       <c r="M39" s="8"/>
       <c r="N39" s="8"/>
       <c r="O39" s="8"/>
-      <c r="P39" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="P39" s="13">
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:16" ht="15" x14ac:dyDescent="0.15">
@@ -8218,7 +8290,9 @@
       <c r="E40" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F40" s="8"/>
+      <c r="F40" s="8">
+        <v>10</v>
+      </c>
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
       <c r="I40" s="8"/>
@@ -8228,9 +8302,9 @@
       <c r="M40" s="8"/>
       <c r="N40" s="8"/>
       <c r="O40" s="8"/>
-      <c r="P40" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="P40" s="13">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:16" ht="15" x14ac:dyDescent="0.15">
@@ -8249,7 +8323,9 @@
       <c r="E41" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="F41" s="8"/>
+      <c r="F41" s="8">
+        <v>10</v>
+      </c>
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
       <c r="I41" s="8"/>
@@ -8259,9 +8335,9 @@
       <c r="M41" s="8"/>
       <c r="N41" s="8"/>
       <c r="O41" s="8"/>
-      <c r="P41" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="P41" s="13">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="15" x14ac:dyDescent="0.15">
@@ -8280,7 +8356,9 @@
       <c r="E42" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="F42" s="8"/>
+      <c r="F42" s="8">
+        <v>10</v>
+      </c>
       <c r="G42" s="8"/>
       <c r="H42" s="8"/>
       <c r="I42" s="8"/>
@@ -8290,9 +8368,9 @@
       <c r="M42" s="8"/>
       <c r="N42" s="8"/>
       <c r="O42" s="8"/>
-      <c r="P42" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="P42" s="13">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:16" ht="15" x14ac:dyDescent="0.15">
@@ -8311,7 +8389,9 @@
       <c r="E43" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="F43" s="8"/>
+      <c r="F43" s="8">
+        <v>10</v>
+      </c>
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
       <c r="I43" s="8"/>
@@ -8321,9 +8401,9 @@
       <c r="M43" s="8"/>
       <c r="N43" s="8"/>
       <c r="O43" s="8"/>
-      <c r="P43" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="P43" s="13">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:16" ht="15" x14ac:dyDescent="0.15">
@@ -8342,7 +8422,9 @@
       <c r="E44" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="F44" s="8"/>
+      <c r="F44" s="8">
+        <v>10</v>
+      </c>
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
       <c r="I44" s="8"/>
@@ -8352,9 +8434,9 @@
       <c r="M44" s="8"/>
       <c r="N44" s="8"/>
       <c r="O44" s="8"/>
-      <c r="P44" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="P44" s="13">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="15" x14ac:dyDescent="0.15">
@@ -8373,7 +8455,9 @@
       <c r="E45" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="F45" s="8"/>
+      <c r="F45" s="8">
+        <v>10</v>
+      </c>
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
       <c r="I45" s="8"/>
@@ -8383,9 +8467,9 @@
       <c r="M45" s="8"/>
       <c r="N45" s="8"/>
       <c r="O45" s="8"/>
-      <c r="P45" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="P45" s="13">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:16" ht="15" x14ac:dyDescent="0.15">
@@ -8404,7 +8488,9 @@
       <c r="E46" s="11" t="s">
         <v>348</v>
       </c>
-      <c r="F46" s="8"/>
+      <c r="F46" s="8">
+        <v>9</v>
+      </c>
       <c r="G46" s="8"/>
       <c r="H46" s="8"/>
       <c r="I46" s="8"/>
@@ -8414,9 +8500,9 @@
       <c r="M46" s="8"/>
       <c r="N46" s="8"/>
       <c r="O46" s="8"/>
-      <c r="P46" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="P46" s="13">
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:16" ht="15" x14ac:dyDescent="0.15">
@@ -8435,7 +8521,9 @@
       <c r="E47" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F47" s="8"/>
+      <c r="F47" s="8">
+        <v>10</v>
+      </c>
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
       <c r="I47" s="8"/>
@@ -8445,9 +8533,9 @@
       <c r="M47" s="8"/>
       <c r="N47" s="8"/>
       <c r="O47" s="8"/>
-      <c r="P47" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="P47" s="13">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:16" ht="15" x14ac:dyDescent="0.15">
@@ -8466,7 +8554,9 @@
       <c r="E48" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="F48" s="8"/>
+      <c r="F48" s="8">
+        <v>9</v>
+      </c>
       <c r="G48" s="8"/>
       <c r="H48" s="8"/>
       <c r="I48" s="8"/>
@@ -8476,9 +8566,9 @@
       <c r="M48" s="8"/>
       <c r="N48" s="8"/>
       <c r="O48" s="8"/>
-      <c r="P48" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="P48" s="13">
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:16" ht="15" x14ac:dyDescent="0.15">
@@ -8497,7 +8587,9 @@
       <c r="E49" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="F49" s="8"/>
+      <c r="F49" s="8">
+        <v>10</v>
+      </c>
       <c r="G49" s="8"/>
       <c r="H49" s="8"/>
       <c r="I49" s="8"/>
@@ -8507,9 +8599,9 @@
       <c r="M49" s="8"/>
       <c r="N49" s="8"/>
       <c r="O49" s="8"/>
-      <c r="P49" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="P49" s="13">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:16" ht="15" x14ac:dyDescent="0.15">
@@ -8528,7 +8620,9 @@
       <c r="E50" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="F50" s="8"/>
+      <c r="F50" s="8">
+        <v>10</v>
+      </c>
       <c r="G50" s="8"/>
       <c r="H50" s="8"/>
       <c r="I50" s="8"/>
@@ -8538,9 +8632,9 @@
       <c r="M50" s="8"/>
       <c r="N50" s="8"/>
       <c r="O50" s="8"/>
-      <c r="P50" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="P50" s="13">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:16" ht="15" x14ac:dyDescent="0.15">
@@ -8559,7 +8653,9 @@
       <c r="E51" s="11" t="s">
         <v>350</v>
       </c>
-      <c r="F51" s="8"/>
+      <c r="F51" s="8">
+        <v>6</v>
+      </c>
       <c r="G51" s="8"/>
       <c r="H51" s="8"/>
       <c r="I51" s="8"/>
@@ -8569,9 +8665,9 @@
       <c r="M51" s="8"/>
       <c r="N51" s="8"/>
       <c r="O51" s="8"/>
-      <c r="P51" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="P51" s="13">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Grade 2018/HomeAssignment/HA_Summary_YC_2018.xlsx
+++ b/Grade 2018/HomeAssignment/HA_Summary_YC_2018.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="392">
   <si>
     <t>No</t>
   </si>
@@ -1731,7 +1731,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1742,8 +1742,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView topLeftCell="C23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1842,10 +1842,10 @@
       <c r="D3" s="18"/>
       <c r="E3" s="21"/>
       <c r="F3" s="3">
-        <v>43728</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>22</v>
+        <v>44094</v>
+      </c>
+      <c r="G3" s="3">
+        <v>44101</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>22</v>
@@ -1892,7 +1892,9 @@
       <c r="F4" s="8">
         <v>50</v>
       </c>
-      <c r="G4" s="8"/>
+      <c r="G4" s="8">
+        <v>60</v>
+      </c>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
@@ -1903,7 +1905,7 @@
       <c r="O4" s="8"/>
       <c r="P4" s="7">
         <f t="shared" ref="P4:P48" si="0">AVERAGE(F4:O4)</f>
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -1925,7 +1927,9 @@
       <c r="F5" s="8">
         <v>80</v>
       </c>
-      <c r="G5" s="8"/>
+      <c r="G5" s="8">
+        <v>100</v>
+      </c>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
@@ -1936,7 +1940,7 @@
       <c r="O5" s="8"/>
       <c r="P5" s="7">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -1958,7 +1962,9 @@
       <c r="F6" s="8">
         <v>90</v>
       </c>
-      <c r="G6" s="8"/>
+      <c r="G6" s="8">
+        <v>90</v>
+      </c>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
@@ -1991,7 +1997,9 @@
       <c r="F7" s="8">
         <v>80</v>
       </c>
-      <c r="G7" s="8"/>
+      <c r="G7" s="8">
+        <v>100</v>
+      </c>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
@@ -2002,7 +2010,7 @@
       <c r="O7" s="8"/>
       <c r="P7" s="7">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2024,7 +2032,9 @@
       <c r="F8" s="8">
         <v>100</v>
       </c>
-      <c r="G8" s="8"/>
+      <c r="G8" s="8">
+        <v>100</v>
+      </c>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
@@ -2057,7 +2067,9 @@
       <c r="F9" s="8">
         <v>70</v>
       </c>
-      <c r="G9" s="8"/>
+      <c r="G9" s="8">
+        <v>100</v>
+      </c>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
@@ -2068,7 +2080,7 @@
       <c r="O9" s="8"/>
       <c r="P9" s="7">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2090,7 +2102,9 @@
       <c r="F10" s="8">
         <v>90</v>
       </c>
-      <c r="G10" s="8"/>
+      <c r="G10" s="8">
+        <v>90</v>
+      </c>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
@@ -2123,7 +2137,9 @@
       <c r="F11" s="8">
         <v>90</v>
       </c>
-      <c r="G11" s="8"/>
+      <c r="G11" s="8">
+        <v>90</v>
+      </c>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
@@ -2156,7 +2172,9 @@
       <c r="F12" s="8">
         <v>80</v>
       </c>
-      <c r="G12" s="8"/>
+      <c r="G12" s="8">
+        <v>90</v>
+      </c>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
@@ -2167,7 +2185,7 @@
       <c r="O12" s="8"/>
       <c r="P12" s="7">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2189,7 +2207,9 @@
       <c r="F13" s="8">
         <v>100</v>
       </c>
-      <c r="G13" s="8"/>
+      <c r="G13" s="8">
+        <v>90</v>
+      </c>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
@@ -2200,7 +2220,7 @@
       <c r="O13" s="8"/>
       <c r="P13" s="7">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2222,7 +2242,9 @@
       <c r="F14" s="8">
         <v>90</v>
       </c>
-      <c r="G14" s="8"/>
+      <c r="G14" s="8">
+        <v>70</v>
+      </c>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
@@ -2233,7 +2255,7 @@
       <c r="O14" s="8"/>
       <c r="P14" s="7">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2255,7 +2277,9 @@
       <c r="F15" s="8">
         <v>100</v>
       </c>
-      <c r="G15" s="8"/>
+      <c r="G15" s="8">
+        <v>100</v>
+      </c>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
@@ -2288,7 +2312,9 @@
       <c r="F16" s="8">
         <v>70</v>
       </c>
-      <c r="G16" s="8"/>
+      <c r="G16" s="8">
+        <v>100</v>
+      </c>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
@@ -2299,7 +2325,7 @@
       <c r="O16" s="8"/>
       <c r="P16" s="7">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2321,7 +2347,9 @@
       <c r="F17" s="8">
         <v>80</v>
       </c>
-      <c r="G17" s="8"/>
+      <c r="G17" s="8">
+        <v>100</v>
+      </c>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
@@ -2332,7 +2360,7 @@
       <c r="O17" s="8"/>
       <c r="P17" s="7">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2354,7 +2382,9 @@
       <c r="F18" s="8">
         <v>100</v>
       </c>
-      <c r="G18" s="8"/>
+      <c r="G18" s="8">
+        <v>100</v>
+      </c>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
@@ -2387,7 +2417,9 @@
       <c r="F19" s="8">
         <v>60</v>
       </c>
-      <c r="G19" s="8"/>
+      <c r="G19" s="8">
+        <v>90</v>
+      </c>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
@@ -2398,7 +2430,7 @@
       <c r="O19" s="8"/>
       <c r="P19" s="7">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2420,7 +2452,9 @@
       <c r="F20" s="8">
         <v>100</v>
       </c>
-      <c r="G20" s="8"/>
+      <c r="G20" s="8">
+        <v>100</v>
+      </c>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
@@ -2453,7 +2487,9 @@
       <c r="F21" s="8">
         <v>100</v>
       </c>
-      <c r="G21" s="8"/>
+      <c r="G21" s="8">
+        <v>90</v>
+      </c>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
@@ -2464,7 +2500,7 @@
       <c r="O21" s="8"/>
       <c r="P21" s="7">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2486,7 +2522,9 @@
       <c r="F22" s="8">
         <v>80</v>
       </c>
-      <c r="G22" s="8"/>
+      <c r="G22" s="8">
+        <v>90</v>
+      </c>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
@@ -2497,7 +2535,7 @@
       <c r="O22" s="8"/>
       <c r="P22" s="7">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2519,7 +2557,9 @@
       <c r="F23" s="8">
         <v>100</v>
       </c>
-      <c r="G23" s="8"/>
+      <c r="G23" s="8">
+        <v>90</v>
+      </c>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
@@ -2530,7 +2570,7 @@
       <c r="O23" s="8"/>
       <c r="P23" s="7">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2552,7 +2592,9 @@
       <c r="F24" s="8">
         <v>90</v>
       </c>
-      <c r="G24" s="8"/>
+      <c r="G24" s="8">
+        <v>100</v>
+      </c>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
@@ -2563,7 +2605,7 @@
       <c r="O24" s="8"/>
       <c r="P24" s="7">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2585,7 +2627,9 @@
       <c r="F25" s="8">
         <v>100</v>
       </c>
-      <c r="G25" s="8"/>
+      <c r="G25" s="8">
+        <v>100</v>
+      </c>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
@@ -2618,7 +2662,9 @@
       <c r="F26" s="8">
         <v>100</v>
       </c>
-      <c r="G26" s="8"/>
+      <c r="G26" s="8">
+        <v>90</v>
+      </c>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
@@ -2629,7 +2675,7 @@
       <c r="O26" s="8"/>
       <c r="P26" s="7">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2651,7 +2697,9 @@
       <c r="F27" s="8">
         <v>100</v>
       </c>
-      <c r="G27" s="8"/>
+      <c r="G27" s="8">
+        <v>90</v>
+      </c>
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
@@ -2662,7 +2710,7 @@
       <c r="O27" s="8"/>
       <c r="P27" s="7">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2684,7 +2732,9 @@
       <c r="F28" s="8">
         <v>80</v>
       </c>
-      <c r="G28" s="8"/>
+      <c r="G28" s="8">
+        <v>0</v>
+      </c>
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
@@ -2695,7 +2745,7 @@
       <c r="O28" s="8"/>
       <c r="P28" s="7">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2717,7 +2767,9 @@
       <c r="F29" s="8">
         <v>80</v>
       </c>
-      <c r="G29" s="8"/>
+      <c r="G29" s="8">
+        <v>100</v>
+      </c>
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
@@ -2728,7 +2780,7 @@
       <c r="O29" s="8"/>
       <c r="P29" s="7">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2750,7 +2802,9 @@
       <c r="F30" s="8">
         <v>80</v>
       </c>
-      <c r="G30" s="8"/>
+      <c r="G30" s="8">
+        <v>100</v>
+      </c>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
@@ -2761,7 +2815,7 @@
       <c r="O30" s="8"/>
       <c r="P30" s="7">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2783,7 +2837,9 @@
       <c r="F31" s="8">
         <v>90</v>
       </c>
-      <c r="G31" s="8"/>
+      <c r="G31" s="8">
+        <v>100</v>
+      </c>
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
@@ -2794,7 +2850,7 @@
       <c r="O31" s="8"/>
       <c r="P31" s="7">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2816,7 +2872,9 @@
       <c r="F32" s="8">
         <v>100</v>
       </c>
-      <c r="G32" s="8"/>
+      <c r="G32" s="8">
+        <v>100</v>
+      </c>
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
@@ -2849,7 +2907,9 @@
       <c r="F33" s="8">
         <v>90</v>
       </c>
-      <c r="G33" s="8"/>
+      <c r="G33" s="8">
+        <v>100</v>
+      </c>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
@@ -2860,7 +2920,7 @@
       <c r="O33" s="8"/>
       <c r="P33" s="7">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2882,7 +2942,9 @@
       <c r="F34" s="8">
         <v>90</v>
       </c>
-      <c r="G34" s="8"/>
+      <c r="G34" s="8">
+        <v>100</v>
+      </c>
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
@@ -2893,7 +2955,7 @@
       <c r="O34" s="8"/>
       <c r="P34" s="7">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2915,7 +2977,9 @@
       <c r="F35" s="8">
         <v>70</v>
       </c>
-      <c r="G35" s="8"/>
+      <c r="G35" s="8">
+        <v>100</v>
+      </c>
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
@@ -2926,7 +2990,7 @@
       <c r="O35" s="8"/>
       <c r="P35" s="7">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2948,7 +3012,9 @@
       <c r="F36" s="8">
         <v>100</v>
       </c>
-      <c r="G36" s="8"/>
+      <c r="G36" s="8">
+        <v>100</v>
+      </c>
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
@@ -2981,7 +3047,9 @@
       <c r="F37" s="8">
         <v>100</v>
       </c>
-      <c r="G37" s="8"/>
+      <c r="G37" s="8">
+        <v>100</v>
+      </c>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
@@ -3014,7 +3082,9 @@
       <c r="F38" s="8">
         <v>90</v>
       </c>
-      <c r="G38" s="8"/>
+      <c r="G38" s="8">
+        <v>100</v>
+      </c>
       <c r="H38" s="8"/>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
@@ -3025,7 +3095,7 @@
       <c r="O38" s="8"/>
       <c r="P38" s="7">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -3047,7 +3117,9 @@
       <c r="F39" s="8">
         <v>90</v>
       </c>
-      <c r="G39" s="8"/>
+      <c r="G39" s="8">
+        <v>90</v>
+      </c>
       <c r="H39" s="8"/>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
@@ -3080,7 +3152,9 @@
       <c r="F40" s="8">
         <v>100</v>
       </c>
-      <c r="G40" s="8"/>
+      <c r="G40" s="8">
+        <v>90</v>
+      </c>
       <c r="H40" s="8"/>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
@@ -3091,7 +3165,7 @@
       <c r="O40" s="8"/>
       <c r="P40" s="7">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -3113,7 +3187,9 @@
       <c r="F41" s="8">
         <v>100</v>
       </c>
-      <c r="G41" s="8"/>
+      <c r="G41" s="8">
+        <v>100</v>
+      </c>
       <c r="H41" s="8"/>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
@@ -3146,7 +3222,9 @@
       <c r="F42" s="8">
         <v>90</v>
       </c>
-      <c r="G42" s="8"/>
+      <c r="G42" s="8">
+        <v>100</v>
+      </c>
       <c r="H42" s="8"/>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
@@ -3157,7 +3235,7 @@
       <c r="O42" s="8"/>
       <c r="P42" s="7">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="43" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -3179,7 +3257,9 @@
       <c r="F43" s="8">
         <v>90</v>
       </c>
-      <c r="G43" s="8"/>
+      <c r="G43" s="8">
+        <v>100</v>
+      </c>
       <c r="H43" s="8"/>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
@@ -3190,7 +3270,7 @@
       <c r="O43" s="8"/>
       <c r="P43" s="7">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="44" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -3212,7 +3292,9 @@
       <c r="F44" s="8">
         <v>100</v>
       </c>
-      <c r="G44" s="8"/>
+      <c r="G44" s="8">
+        <v>0</v>
+      </c>
       <c r="H44" s="8"/>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
@@ -3223,7 +3305,7 @@
       <c r="O44" s="8"/>
       <c r="P44" s="7">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -3245,7 +3327,9 @@
       <c r="F45" s="8">
         <v>90</v>
       </c>
-      <c r="G45" s="8"/>
+      <c r="G45" s="8">
+        <v>90</v>
+      </c>
       <c r="H45" s="8"/>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
@@ -3278,7 +3362,9 @@
       <c r="F46" s="8">
         <v>100</v>
       </c>
-      <c r="G46" s="8"/>
+      <c r="G46" s="8">
+        <v>100</v>
+      </c>
       <c r="H46" s="8"/>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
@@ -3311,7 +3397,9 @@
       <c r="F47" s="8">
         <v>80</v>
       </c>
-      <c r="G47" s="8"/>
+      <c r="G47" s="8">
+        <v>100</v>
+      </c>
       <c r="H47" s="8"/>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
@@ -3322,7 +3410,7 @@
       <c r="O47" s="8"/>
       <c r="P47" s="7">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -3344,7 +3432,9 @@
       <c r="F48" s="8">
         <v>90</v>
       </c>
-      <c r="G48" s="8"/>
+      <c r="G48" s="8">
+        <v>80</v>
+      </c>
       <c r="H48" s="8"/>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
@@ -3355,7 +3445,7 @@
       <c r="O48" s="8"/>
       <c r="P48" s="7">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -3377,7 +3467,9 @@
       <c r="F49" s="8">
         <v>100</v>
       </c>
-      <c r="G49" s="8"/>
+      <c r="G49" s="8">
+        <v>100</v>
+      </c>
       <c r="H49" s="8"/>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
@@ -3410,7 +3502,9 @@
       <c r="F50" s="8">
         <v>100</v>
       </c>
-      <c r="G50" s="8"/>
+      <c r="G50" s="8">
+        <v>90</v>
+      </c>
       <c r="H50" s="8"/>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
@@ -3421,7 +3515,7 @@
       <c r="O50" s="8"/>
       <c r="P50" s="7">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -3456,8 +3550,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3556,10 +3650,10 @@
       <c r="D3" s="18"/>
       <c r="E3" s="21"/>
       <c r="F3" s="3">
-        <v>43728</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>22</v>
+        <v>40441</v>
+      </c>
+      <c r="G3" s="3">
+        <v>44101</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>22</v>
@@ -3606,7 +3700,9 @@
       <c r="F4" s="8">
         <v>70</v>
       </c>
-      <c r="G4" s="8"/>
+      <c r="G4" s="8">
+        <v>100</v>
+      </c>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
@@ -3617,7 +3713,7 @@
       <c r="O4" s="8"/>
       <c r="P4" s="7">
         <f t="shared" ref="P4:P50" si="0">AVERAGE(F4:O4)</f>
-        <v>70</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -3639,7 +3735,9 @@
       <c r="F5" s="8">
         <v>100</v>
       </c>
-      <c r="G5" s="8"/>
+      <c r="G5" s="8">
+        <v>100</v>
+      </c>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
@@ -3672,7 +3770,9 @@
       <c r="F6" s="8">
         <v>60</v>
       </c>
-      <c r="G6" s="8"/>
+      <c r="G6" s="8">
+        <v>80</v>
+      </c>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
@@ -3683,7 +3783,7 @@
       <c r="O6" s="8"/>
       <c r="P6" s="7">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -3705,7 +3805,9 @@
       <c r="F7" s="8">
         <v>100</v>
       </c>
-      <c r="G7" s="8"/>
+      <c r="G7" s="8">
+        <v>100</v>
+      </c>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
@@ -3738,7 +3840,9 @@
       <c r="F8" s="8">
         <v>100</v>
       </c>
-      <c r="G8" s="8"/>
+      <c r="G8" s="8">
+        <v>100</v>
+      </c>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
@@ -3771,7 +3875,9 @@
       <c r="F9" s="8">
         <v>100</v>
       </c>
-      <c r="G9" s="8"/>
+      <c r="G9" s="8">
+        <v>80</v>
+      </c>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
@@ -3782,7 +3888,7 @@
       <c r="O9" s="8"/>
       <c r="P9" s="7">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -3804,7 +3910,9 @@
       <c r="F10" s="8">
         <v>60</v>
       </c>
-      <c r="G10" s="8"/>
+      <c r="G10" s="8">
+        <v>90</v>
+      </c>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
@@ -3815,7 +3923,7 @@
       <c r="O10" s="8"/>
       <c r="P10" s="7">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -3837,7 +3945,9 @@
       <c r="F11" s="8">
         <v>100</v>
       </c>
-      <c r="G11" s="8"/>
+      <c r="G11" s="8">
+        <v>100</v>
+      </c>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
@@ -3870,7 +3980,9 @@
       <c r="F12" s="8">
         <v>100</v>
       </c>
-      <c r="G12" s="8"/>
+      <c r="G12" s="8">
+        <v>100</v>
+      </c>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
@@ -3903,7 +4015,9 @@
       <c r="F13" s="8">
         <v>100</v>
       </c>
-      <c r="G13" s="8"/>
+      <c r="G13" s="8">
+        <v>100</v>
+      </c>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
@@ -3936,7 +4050,9 @@
       <c r="F14" s="8">
         <v>100</v>
       </c>
-      <c r="G14" s="8"/>
+      <c r="G14" s="8">
+        <v>80</v>
+      </c>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
@@ -3947,7 +4063,7 @@
       <c r="O14" s="8"/>
       <c r="P14" s="7">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -3969,7 +4085,9 @@
       <c r="F15" s="8">
         <v>100</v>
       </c>
-      <c r="G15" s="8"/>
+      <c r="G15" s="8">
+        <v>100</v>
+      </c>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
@@ -4002,7 +4120,9 @@
       <c r="F16" s="8">
         <v>90</v>
       </c>
-      <c r="G16" s="8"/>
+      <c r="G16" s="8">
+        <v>100</v>
+      </c>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
@@ -4013,7 +4133,7 @@
       <c r="O16" s="8"/>
       <c r="P16" s="7">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
@@ -4035,7 +4155,9 @@
       <c r="F17" s="8">
         <v>100</v>
       </c>
-      <c r="G17" s="8"/>
+      <c r="G17" s="8">
+        <v>90</v>
+      </c>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
@@ -4046,7 +4168,7 @@
       <c r="O17" s="8"/>
       <c r="P17" s="7">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -4068,7 +4190,9 @@
       <c r="F18" s="8">
         <v>100</v>
       </c>
-      <c r="G18" s="8"/>
+      <c r="G18" s="8">
+        <v>100</v>
+      </c>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
@@ -4101,7 +4225,9 @@
       <c r="F19" s="8">
         <v>100</v>
       </c>
-      <c r="G19" s="8"/>
+      <c r="G19" s="8">
+        <v>100</v>
+      </c>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
@@ -4134,7 +4260,9 @@
       <c r="F20" s="8">
         <v>100</v>
       </c>
-      <c r="G20" s="8"/>
+      <c r="G20" s="8">
+        <v>90</v>
+      </c>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
@@ -4145,7 +4273,7 @@
       <c r="O20" s="8"/>
       <c r="P20" s="7">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
@@ -4167,7 +4295,9 @@
       <c r="F21" s="8">
         <v>100</v>
       </c>
-      <c r="G21" s="8"/>
+      <c r="G21" s="8">
+        <v>90</v>
+      </c>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
@@ -4178,7 +4308,7 @@
       <c r="O21" s="8"/>
       <c r="P21" s="7">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
@@ -4200,7 +4330,9 @@
       <c r="F22" s="8">
         <v>90</v>
       </c>
-      <c r="G22" s="8"/>
+      <c r="G22" s="8">
+        <v>90</v>
+      </c>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
@@ -4233,7 +4365,9 @@
       <c r="F23" s="8">
         <v>100</v>
       </c>
-      <c r="G23" s="8"/>
+      <c r="G23" s="8">
+        <v>90</v>
+      </c>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
@@ -4244,7 +4378,7 @@
       <c r="O23" s="8"/>
       <c r="P23" s="7">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
@@ -4266,7 +4400,9 @@
       <c r="F24" s="8">
         <v>100</v>
       </c>
-      <c r="G24" s="8"/>
+      <c r="G24" s="8">
+        <v>100</v>
+      </c>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
@@ -4299,7 +4435,9 @@
       <c r="F25" s="8">
         <v>90</v>
       </c>
-      <c r="G25" s="8"/>
+      <c r="G25" s="8">
+        <v>80</v>
+      </c>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
@@ -4310,7 +4448,7 @@
       <c r="O25" s="8"/>
       <c r="P25" s="7">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
@@ -4332,7 +4470,9 @@
       <c r="F26" s="8">
         <v>100</v>
       </c>
-      <c r="G26" s="8"/>
+      <c r="G26" s="8">
+        <v>80</v>
+      </c>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
@@ -4343,7 +4483,7 @@
       <c r="O26" s="8"/>
       <c r="P26" s="7">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
@@ -4365,7 +4505,9 @@
       <c r="F27" s="8">
         <v>100</v>
       </c>
-      <c r="G27" s="8"/>
+      <c r="G27" s="8">
+        <v>90</v>
+      </c>
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
@@ -4376,7 +4518,7 @@
       <c r="O27" s="8"/>
       <c r="P27" s="7">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
@@ -4398,7 +4540,9 @@
       <c r="F28" s="8">
         <v>100</v>
       </c>
-      <c r="G28" s="8"/>
+      <c r="G28" s="8">
+        <v>100</v>
+      </c>
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
@@ -4431,7 +4575,9 @@
       <c r="F29" s="8">
         <v>100</v>
       </c>
-      <c r="G29" s="8"/>
+      <c r="G29" s="8">
+        <v>90</v>
+      </c>
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
@@ -4442,7 +4588,7 @@
       <c r="O29" s="8"/>
       <c r="P29" s="7">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
@@ -4464,7 +4610,9 @@
       <c r="F30" s="8">
         <v>100</v>
       </c>
-      <c r="G30" s="8"/>
+      <c r="G30" s="8">
+        <v>80</v>
+      </c>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
@@ -4475,7 +4623,7 @@
       <c r="O30" s="8"/>
       <c r="P30" s="7">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
@@ -4497,7 +4645,9 @@
       <c r="F31" s="8">
         <v>100</v>
       </c>
-      <c r="G31" s="8"/>
+      <c r="G31" s="8">
+        <v>80</v>
+      </c>
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
@@ -4508,7 +4658,7 @@
       <c r="O31" s="8"/>
       <c r="P31" s="7">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
@@ -4530,7 +4680,9 @@
       <c r="F32" s="8">
         <v>60</v>
       </c>
-      <c r="G32" s="8"/>
+      <c r="G32" s="8">
+        <v>70</v>
+      </c>
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
@@ -4541,7 +4693,7 @@
       <c r="O32" s="8"/>
       <c r="P32" s="7">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
@@ -4563,7 +4715,9 @@
       <c r="F33" s="8">
         <v>70</v>
       </c>
-      <c r="G33" s="8"/>
+      <c r="G33" s="8">
+        <v>90</v>
+      </c>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
@@ -4574,7 +4728,7 @@
       <c r="O33" s="8"/>
       <c r="P33" s="7">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
@@ -4596,7 +4750,9 @@
       <c r="F34" s="8">
         <v>100</v>
       </c>
-      <c r="G34" s="8"/>
+      <c r="G34" s="8">
+        <v>100</v>
+      </c>
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
@@ -4629,7 +4785,9 @@
       <c r="F35" s="8">
         <v>100</v>
       </c>
-      <c r="G35" s="8"/>
+      <c r="G35" s="8">
+        <v>100</v>
+      </c>
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
@@ -4662,7 +4820,9 @@
       <c r="F36" s="8">
         <v>50</v>
       </c>
-      <c r="G36" s="8"/>
+      <c r="G36" s="8">
+        <v>100</v>
+      </c>
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
@@ -4673,7 +4833,7 @@
       <c r="O36" s="8"/>
       <c r="P36" s="7">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
@@ -4695,7 +4855,9 @@
       <c r="F37" s="8">
         <v>90</v>
       </c>
-      <c r="G37" s="8"/>
+      <c r="G37" s="8">
+        <v>100</v>
+      </c>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
@@ -4706,7 +4868,7 @@
       <c r="O37" s="8"/>
       <c r="P37" s="7">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
@@ -4728,7 +4890,9 @@
       <c r="F38" s="8">
         <v>80</v>
       </c>
-      <c r="G38" s="8"/>
+      <c r="G38" s="8">
+        <v>100</v>
+      </c>
       <c r="H38" s="8"/>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
@@ -4739,7 +4903,7 @@
       <c r="O38" s="8"/>
       <c r="P38" s="7">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
@@ -4761,7 +4925,9 @@
       <c r="F39" s="8">
         <v>70</v>
       </c>
-      <c r="G39" s="8"/>
+      <c r="G39" s="8">
+        <v>100</v>
+      </c>
       <c r="H39" s="8"/>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
@@ -4772,7 +4938,7 @@
       <c r="O39" s="8"/>
       <c r="P39" s="7">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
@@ -4794,7 +4960,9 @@
       <c r="F40" s="8">
         <v>100</v>
       </c>
-      <c r="G40" s="8"/>
+      <c r="G40" s="8">
+        <v>100</v>
+      </c>
       <c r="H40" s="8"/>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
@@ -4827,7 +4995,9 @@
       <c r="F41" s="8">
         <v>90</v>
       </c>
-      <c r="G41" s="8"/>
+      <c r="G41" s="8">
+        <v>90</v>
+      </c>
       <c r="H41" s="8"/>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
@@ -4860,7 +5030,9 @@
       <c r="F42" s="8">
         <v>100</v>
       </c>
-      <c r="G42" s="8"/>
+      <c r="G42" s="8">
+        <v>100</v>
+      </c>
       <c r="H42" s="8"/>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
@@ -4893,7 +5065,9 @@
       <c r="F43" s="8">
         <v>100</v>
       </c>
-      <c r="G43" s="8"/>
+      <c r="G43" s="8">
+        <v>100</v>
+      </c>
       <c r="H43" s="8"/>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
@@ -4926,7 +5100,9 @@
       <c r="F44" s="8">
         <v>100</v>
       </c>
-      <c r="G44" s="8"/>
+      <c r="G44" s="8">
+        <v>100</v>
+      </c>
       <c r="H44" s="8"/>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
@@ -4959,7 +5135,9 @@
       <c r="F45" s="8">
         <v>90</v>
       </c>
-      <c r="G45" s="8"/>
+      <c r="G45" s="8">
+        <v>100</v>
+      </c>
       <c r="H45" s="8"/>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
@@ -4970,7 +5148,7 @@
       <c r="O45" s="8"/>
       <c r="P45" s="7">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
@@ -4992,7 +5170,9 @@
       <c r="F46" s="8">
         <v>100</v>
       </c>
-      <c r="G46" s="8"/>
+      <c r="G46" s="8">
+        <v>100</v>
+      </c>
       <c r="H46" s="8"/>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
@@ -5025,7 +5205,9 @@
       <c r="F47" s="8">
         <v>100</v>
       </c>
-      <c r="G47" s="8"/>
+      <c r="G47" s="8">
+        <v>100</v>
+      </c>
       <c r="H47" s="8"/>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
@@ -5058,7 +5240,9 @@
       <c r="F48" s="8">
         <v>90</v>
       </c>
-      <c r="G48" s="8"/>
+      <c r="G48" s="8">
+        <v>100</v>
+      </c>
       <c r="H48" s="8"/>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
@@ -5069,7 +5253,7 @@
       <c r="O48" s="8"/>
       <c r="P48" s="7">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
@@ -5091,7 +5275,9 @@
       <c r="F49" s="8">
         <v>90</v>
       </c>
-      <c r="G49" s="8"/>
+      <c r="G49" s="8">
+        <v>100</v>
+      </c>
       <c r="H49" s="8"/>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
@@ -5102,7 +5288,7 @@
       <c r="O49" s="8"/>
       <c r="P49" s="7">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
@@ -5124,7 +5310,9 @@
       <c r="F50" s="8">
         <v>100</v>
       </c>
-      <c r="G50" s="8"/>
+      <c r="G50" s="8">
+        <v>100</v>
+      </c>
       <c r="H50" s="8"/>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
@@ -5157,7 +5345,9 @@
       <c r="F51" s="8">
         <v>90</v>
       </c>
-      <c r="G51" s="8"/>
+      <c r="G51" s="8">
+        <v>100</v>
+      </c>
       <c r="H51" s="8"/>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
@@ -5168,7 +5358,7 @@
       <c r="O51" s="8"/>
       <c r="P51" s="7">
         <f t="shared" ref="P51" si="1">AVERAGE(F51:O51)</f>
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -5204,7 +5394,7 @@
   <dimension ref="A1:P51"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>

--- a/Grade 2018/HomeAssignment/HA_Summary_YC_2018.xlsx
+++ b/Grade 2018/HomeAssignment/HA_Summary_YC_2018.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NIIT\NIIT教案\Sept-2020---Jan-2021\Grade 2018\HomeAssignment\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA64234B-5504-4BC1-8952-95DA88005384}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CS1" sheetId="2" r:id="rId1"/>
@@ -18,7 +24,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">NE!$A$2:$P$45</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">SE!$A$2:$P$45</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="392">
   <si>
     <t>No</t>
   </si>
@@ -1214,7 +1220,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="[$-804]d\-mmm"/>
     <numFmt numFmtId="177" formatCode="0.00_);\(0.00\)"/>
@@ -1459,9 +1465,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2 3" xfId="1"/>
-    <cellStyle name="常规 3" xfId="3"/>
-    <cellStyle name="常规 4" xfId="2"/>
+    <cellStyle name="常规 2 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="常规 4" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1731,14 +1737,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P50"/>
   <sheetViews>
@@ -1746,24 +1752,24 @@
       <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" customWidth="1"/>
-    <col min="7" max="8" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.625" customWidth="1"/>
+    <col min="7" max="8" width="15.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="15.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="15.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" s="16" t="s">
         <v>10</v>
       </c>
@@ -1785,7 +1791,7 @@
       <c r="O1" s="19"/>
       <c r="P1" s="19"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -1835,7 +1841,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="15"/>
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
@@ -1873,7 +1879,7 @@
       </c>
       <c r="P3" s="15"/>
     </row>
-    <row r="4" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -1906,7 +1912,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -1939,7 +1945,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -1972,7 +1978,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -2005,7 +2011,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -2038,7 +2044,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -2071,7 +2077,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -2104,7 +2110,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -2137,7 +2143,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -2170,7 +2176,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -2203,7 +2209,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -2236,7 +2242,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -2269,7 +2275,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -2302,7 +2308,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -2335,7 +2341,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -2368,7 +2374,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -2401,7 +2407,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -2434,7 +2440,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -2467,7 +2473,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -2500,7 +2506,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -2533,7 +2539,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -2566,7 +2572,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -2599,7 +2605,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -2632,7 +2638,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -2665,7 +2671,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -2698,7 +2704,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -2731,7 +2737,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -2764,7 +2770,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>28</v>
       </c>
@@ -2797,7 +2803,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>29</v>
       </c>
@@ -2830,7 +2836,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>30</v>
       </c>
@@ -2863,7 +2869,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
         <v>31</v>
       </c>
@@ -2896,7 +2902,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
         <v>32</v>
       </c>
@@ -2929,7 +2935,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
         <v>33</v>
       </c>
@@ -2962,7 +2968,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
         <v>34</v>
       </c>
@@ -2995,7 +3001,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
         <v>35</v>
       </c>
@@ -3028,7 +3034,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
         <v>36</v>
       </c>
@@ -3061,7 +3067,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
         <v>37</v>
       </c>
@@ -3094,7 +3100,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
         <v>38</v>
       </c>
@@ -3127,7 +3133,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A42" s="2">
         <v>39</v>
       </c>
@@ -3160,7 +3166,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
         <v>40</v>
       </c>
@@ -3193,7 +3199,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A44" s="2">
         <v>41</v>
       </c>
@@ -3226,7 +3232,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
         <v>42</v>
       </c>
@@ -3259,7 +3265,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A46" s="2">
         <v>43</v>
       </c>
@@ -3292,7 +3298,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
         <v>44</v>
       </c>
@@ -3325,7 +3331,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A48" s="2">
         <v>45</v>
       </c>
@@ -3358,7 +3364,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
         <v>46</v>
       </c>
@@ -3391,7 +3397,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A50" s="2">
         <v>47</v>
       </c>
@@ -3425,8 +3431,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:P50">
-    <sortState ref="A5:R44">
+  <autoFilter ref="A2:P50" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:R44">
       <sortCondition ref="C2:C3"/>
     </sortState>
   </autoFilter>
@@ -3442,9 +3448,9 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations xWindow="519" yWindow="339" count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Input Score" sqref="N4:O50 K4:K50"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Assignment Number" sqref="F2:O2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:O3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Input Score" sqref="N4:O50 K4:K50" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Assignment Number" sqref="F2:O2" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:O3" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3452,32 +3458,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="15.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="15.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="15.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" s="16" t="s">
         <v>10</v>
       </c>
@@ -3499,7 +3505,7 @@
       <c r="O1" s="19"/>
       <c r="P1" s="19"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -3549,7 +3555,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="15"/>
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
@@ -3587,7 +3593,7 @@
       </c>
       <c r="P3" s="15"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -3620,7 +3626,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -3653,7 +3659,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -3686,7 +3692,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -3719,7 +3725,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -3752,7 +3758,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -3785,7 +3791,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -3818,7 +3824,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -3851,7 +3857,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -3884,7 +3890,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -3917,7 +3923,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -3950,7 +3956,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -3983,7 +3989,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -4016,7 +4022,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -4049,7 +4055,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -4082,7 +4088,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -4115,7 +4121,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -4148,7 +4154,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -4181,7 +4187,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -4214,7 +4220,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -4247,7 +4253,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -4280,7 +4286,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -4313,7 +4319,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -4346,7 +4352,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -4379,7 +4385,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -4412,7 +4418,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -4445,7 +4451,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -4478,7 +4484,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>28</v>
       </c>
@@ -4511,7 +4517,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>29</v>
       </c>
@@ -4544,7 +4550,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>30</v>
       </c>
@@ -4577,7 +4583,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
         <v>31</v>
       </c>
@@ -4610,7 +4616,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
         <v>32</v>
       </c>
@@ -4643,7 +4649,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
         <v>33</v>
       </c>
@@ -4676,7 +4682,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
         <v>34</v>
       </c>
@@ -4709,7 +4715,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
         <v>35</v>
       </c>
@@ -4742,7 +4748,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
         <v>36</v>
       </c>
@@ -4775,7 +4781,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
         <v>37</v>
       </c>
@@ -4808,7 +4814,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
         <v>38</v>
       </c>
@@ -4841,7 +4847,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A42" s="2">
         <v>39</v>
       </c>
@@ -4874,7 +4880,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
         <v>40</v>
       </c>
@@ -4907,7 +4913,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A44" s="2">
         <v>41</v>
       </c>
@@ -4940,7 +4946,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
         <v>42</v>
       </c>
@@ -4973,7 +4979,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A46" s="2">
         <v>43</v>
       </c>
@@ -5006,7 +5012,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
         <v>44</v>
       </c>
@@ -5039,7 +5045,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A48" s="2">
         <v>45</v>
       </c>
@@ -5072,7 +5078,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
         <v>46</v>
       </c>
@@ -5105,7 +5111,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A50" s="2">
         <v>47</v>
       </c>
@@ -5138,7 +5144,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A51" s="2">
         <v>48</v>
       </c>
@@ -5172,8 +5178,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:P51">
-    <sortState ref="A5:R44">
+  <autoFilter ref="A2:P51" xr:uid="{00000000-0009-0000-0000-000001000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:R44">
       <sortCondition ref="C2:C3"/>
     </sortState>
   </autoFilter>
@@ -5189,9 +5195,9 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations xWindow="1225" yWindow="391" count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Input Score" sqref="F4:O51"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:O3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Assignment Number" sqref="F2:O2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Input Score" sqref="F4:O51" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:O3" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Assignment Number" sqref="F2:O2" xr:uid="{00000000-0002-0000-0100-000002000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5199,31 +5205,31 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="11.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="11.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.77734375" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="11.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="11.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" s="16" t="s">
         <v>10</v>
       </c>
@@ -5245,7 +5251,7 @@
       <c r="O1" s="19"/>
       <c r="P1" s="19"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -5295,7 +5301,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="15"/>
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
@@ -5333,7 +5339,7 @@
       </c>
       <c r="P3" s="15"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -5366,7 +5372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -5383,7 +5389,7 @@
         <v>170</v>
       </c>
       <c r="F5" s="8">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
@@ -5396,10 +5402,10 @@
       <c r="O5" s="8"/>
       <c r="P5" s="7">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -5416,7 +5422,7 @@
         <v>95</v>
       </c>
       <c r="F6" s="8">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
@@ -5429,10 +5435,10 @@
       <c r="O6" s="8"/>
       <c r="P6" s="7">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -5449,7 +5455,7 @@
         <v>250</v>
       </c>
       <c r="F7" s="8">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
@@ -5462,10 +5468,10 @@
       <c r="O7" s="8"/>
       <c r="P7" s="7">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -5482,7 +5488,7 @@
         <v>380</v>
       </c>
       <c r="F8" s="8">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
@@ -5495,10 +5501,10 @@
       <c r="O8" s="8"/>
       <c r="P8" s="7">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -5515,7 +5521,7 @@
         <v>171</v>
       </c>
       <c r="F9" s="8">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
@@ -5528,10 +5534,10 @@
       <c r="O9" s="8"/>
       <c r="P9" s="7">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -5548,7 +5554,7 @@
         <v>329</v>
       </c>
       <c r="F10" s="8">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
@@ -5561,10 +5567,10 @@
       <c r="O10" s="8"/>
       <c r="P10" s="7">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -5581,7 +5587,7 @@
         <v>18</v>
       </c>
       <c r="F11" s="8">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
@@ -5594,10 +5600,10 @@
       <c r="O11" s="8"/>
       <c r="P11" s="7">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -5614,7 +5620,7 @@
         <v>97</v>
       </c>
       <c r="F12" s="8">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
@@ -5627,10 +5633,10 @@
       <c r="O12" s="8"/>
       <c r="P12" s="7">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -5647,7 +5653,7 @@
         <v>381</v>
       </c>
       <c r="F13" s="8">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
@@ -5660,10 +5666,10 @@
       <c r="O13" s="8"/>
       <c r="P13" s="7">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -5680,7 +5686,7 @@
         <v>382</v>
       </c>
       <c r="F14" s="8">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
@@ -5693,10 +5699,10 @@
       <c r="O14" s="8"/>
       <c r="P14" s="7">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -5713,7 +5719,7 @@
         <v>255</v>
       </c>
       <c r="F15" s="8">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
@@ -5726,10 +5732,10 @@
       <c r="O15" s="8"/>
       <c r="P15" s="7">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -5746,7 +5752,7 @@
         <v>257</v>
       </c>
       <c r="F16" s="8">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
@@ -5759,10 +5765,10 @@
       <c r="O16" s="8"/>
       <c r="P16" s="7">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -5779,7 +5785,7 @@
         <v>103</v>
       </c>
       <c r="F17" s="8">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
@@ -5792,10 +5798,10 @@
       <c r="O17" s="8"/>
       <c r="P17" s="7">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -5812,7 +5818,7 @@
         <v>104</v>
       </c>
       <c r="F18" s="8">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
@@ -5825,10 +5831,10 @@
       <c r="O18" s="8"/>
       <c r="P18" s="7">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -5845,7 +5851,7 @@
         <v>334</v>
       </c>
       <c r="F19" s="8">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
@@ -5858,10 +5864,10 @@
       <c r="O19" s="8"/>
       <c r="P19" s="7">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -5878,7 +5884,7 @@
         <v>258</v>
       </c>
       <c r="F20" s="8">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
@@ -5891,10 +5897,10 @@
       <c r="O20" s="8"/>
       <c r="P20" s="7">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -5911,7 +5917,7 @@
         <v>182</v>
       </c>
       <c r="F21" s="8">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
@@ -5924,10 +5930,10 @@
       <c r="O21" s="8"/>
       <c r="P21" s="7">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -5944,7 +5950,7 @@
         <v>278</v>
       </c>
       <c r="F22" s="8">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
@@ -5957,10 +5963,10 @@
       <c r="O22" s="8"/>
       <c r="P22" s="7">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -5977,7 +5983,7 @@
         <v>90</v>
       </c>
       <c r="F23" s="8">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
@@ -5990,10 +5996,10 @@
       <c r="O23" s="8"/>
       <c r="P23" s="7">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -6010,7 +6016,7 @@
         <v>183</v>
       </c>
       <c r="F24" s="8">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
@@ -6023,10 +6029,10 @@
       <c r="O24" s="8"/>
       <c r="P24" s="7">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -6043,7 +6049,7 @@
         <v>109</v>
       </c>
       <c r="F25" s="8">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
@@ -6056,10 +6062,10 @@
       <c r="O25" s="8"/>
       <c r="P25" s="7">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -6076,7 +6082,7 @@
         <v>110</v>
       </c>
       <c r="F26" s="8">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
@@ -6089,10 +6095,10 @@
       <c r="O26" s="8"/>
       <c r="P26" s="7">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -6109,7 +6115,7 @@
         <v>40</v>
       </c>
       <c r="F27" s="8">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
@@ -6122,10 +6128,10 @@
       <c r="O27" s="8"/>
       <c r="P27" s="7">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -6142,7 +6148,7 @@
         <v>383</v>
       </c>
       <c r="F28" s="8">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
@@ -6155,10 +6161,10 @@
       <c r="O28" s="8"/>
       <c r="P28" s="7">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -6175,7 +6181,7 @@
         <v>188</v>
       </c>
       <c r="F29" s="8">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
@@ -6188,10 +6194,10 @@
       <c r="O29" s="8"/>
       <c r="P29" s="7">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -6208,7 +6214,7 @@
         <v>340</v>
       </c>
       <c r="F30" s="8">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
@@ -6221,10 +6227,10 @@
       <c r="O30" s="8"/>
       <c r="P30" s="7">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>28</v>
       </c>
@@ -6241,7 +6247,7 @@
         <v>361</v>
       </c>
       <c r="F31" s="8">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
@@ -6254,10 +6260,10 @@
       <c r="O31" s="8"/>
       <c r="P31" s="7">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>29</v>
       </c>
@@ -6274,7 +6280,7 @@
         <v>115</v>
       </c>
       <c r="F32" s="8">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
@@ -6287,10 +6293,10 @@
       <c r="O32" s="8"/>
       <c r="P32" s="7">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>30</v>
       </c>
@@ -6307,7 +6313,7 @@
         <v>344</v>
       </c>
       <c r="F33" s="8">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
@@ -6320,10 +6326,10 @@
       <c r="O33" s="8"/>
       <c r="P33" s="7">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
         <v>31</v>
       </c>
@@ -6340,7 +6346,7 @@
         <v>267</v>
       </c>
       <c r="F34" s="8">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
@@ -6353,10 +6359,10 @@
       <c r="O34" s="8"/>
       <c r="P34" s="7">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
         <v>32</v>
       </c>
@@ -6373,7 +6379,7 @@
         <v>347</v>
       </c>
       <c r="F35" s="8">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
@@ -6386,10 +6392,10 @@
       <c r="O35" s="8"/>
       <c r="P35" s="7">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
         <v>33</v>
       </c>
@@ -6406,7 +6412,7 @@
         <v>26</v>
       </c>
       <c r="F36" s="8">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
@@ -6419,10 +6425,10 @@
       <c r="O36" s="8"/>
       <c r="P36" s="7">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
         <v>34</v>
       </c>
@@ -6439,7 +6445,7 @@
         <v>268</v>
       </c>
       <c r="F37" s="8">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
@@ -6452,10 +6458,10 @@
       <c r="O37" s="8"/>
       <c r="P37" s="7">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
         <v>35</v>
       </c>
@@ -6472,7 +6478,7 @@
         <v>195</v>
       </c>
       <c r="F38" s="8">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
@@ -6485,10 +6491,10 @@
       <c r="O38" s="8"/>
       <c r="P38" s="7">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
         <v>36</v>
       </c>
@@ -6505,7 +6511,7 @@
         <v>271</v>
       </c>
       <c r="F39" s="8">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
@@ -6518,10 +6524,10 @@
       <c r="O39" s="8"/>
       <c r="P39" s="7">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
         <v>37</v>
       </c>
@@ -6538,7 +6544,7 @@
         <v>272</v>
       </c>
       <c r="F40" s="8">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
@@ -6551,10 +6557,10 @@
       <c r="O40" s="8"/>
       <c r="P40" s="7">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
         <v>38</v>
       </c>
@@ -6571,7 +6577,7 @@
         <v>197</v>
       </c>
       <c r="F41" s="8">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
@@ -6584,10 +6590,10 @@
       <c r="O41" s="8"/>
       <c r="P41" s="7">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A42" s="2">
         <v>39</v>
       </c>
@@ -6604,7 +6610,7 @@
         <v>117</v>
       </c>
       <c r="F42" s="8">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="G42" s="8"/>
       <c r="H42" s="8"/>
@@ -6617,10 +6623,10 @@
       <c r="O42" s="8"/>
       <c r="P42" s="7">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
         <v>40</v>
       </c>
@@ -6637,7 +6643,7 @@
         <v>43</v>
       </c>
       <c r="F43" s="8">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
@@ -6650,10 +6656,10 @@
       <c r="O43" s="8"/>
       <c r="P43" s="7">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A44" s="2">
         <v>41</v>
       </c>
@@ -6670,7 +6676,7 @@
         <v>119</v>
       </c>
       <c r="F44" s="8">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
@@ -6683,10 +6689,10 @@
       <c r="O44" s="8"/>
       <c r="P44" s="7">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
         <v>42</v>
       </c>
@@ -6703,7 +6709,7 @@
         <v>201</v>
       </c>
       <c r="F45" s="8">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
@@ -6716,10 +6722,10 @@
       <c r="O45" s="8"/>
       <c r="P45" s="7">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A46" s="2">
         <v>43</v>
       </c>
@@ -6736,7 +6742,7 @@
         <v>275</v>
       </c>
       <c r="F46" s="8">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="G46" s="8"/>
       <c r="H46" s="8"/>
@@ -6749,10 +6755,10 @@
       <c r="O46" s="8"/>
       <c r="P46" s="7">
         <f t="shared" ref="P46:P51" si="1">AVERAGE(F46:O46)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
         <v>44</v>
       </c>
@@ -6769,7 +6775,7 @@
         <v>276</v>
       </c>
       <c r="F47" s="8">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
@@ -6782,10 +6788,10 @@
       <c r="O47" s="8"/>
       <c r="P47" s="7">
         <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A48" s="2">
         <v>45</v>
       </c>
@@ -6802,7 +6808,7 @@
         <v>110</v>
       </c>
       <c r="F48" s="8">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G48" s="8"/>
       <c r="H48" s="8"/>
@@ -6815,10 +6821,10 @@
       <c r="O48" s="8"/>
       <c r="P48" s="7">
         <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
         <v>46</v>
       </c>
@@ -6835,7 +6841,7 @@
         <v>355</v>
       </c>
       <c r="F49" s="8">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="G49" s="8"/>
       <c r="H49" s="8"/>
@@ -6848,10 +6854,10 @@
       <c r="O49" s="8"/>
       <c r="P49" s="7">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A50" s="2">
         <v>47</v>
       </c>
@@ -6868,7 +6874,7 @@
         <v>283</v>
       </c>
       <c r="F50" s="8">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G50" s="8"/>
       <c r="H50" s="8"/>
@@ -6881,10 +6887,10 @@
       <c r="O50" s="8"/>
       <c r="P50" s="7">
         <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A51" s="2">
         <v>48</v>
       </c>
@@ -6901,7 +6907,7 @@
         <v>122</v>
       </c>
       <c r="F51" s="8">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="G51" s="8"/>
       <c r="H51" s="8"/>
@@ -6914,12 +6920,12 @@
       <c r="O51" s="8"/>
       <c r="P51" s="7">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:P45">
-    <sortState ref="A5:R44">
+  <autoFilter ref="A2:P45" xr:uid="{00000000-0009-0000-0000-000002000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:R44">
       <sortCondition ref="C2:C3"/>
     </sortState>
   </autoFilter>
@@ -6935,9 +6941,9 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Input Score" sqref="F4:O51"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:O3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Assignment Number" sqref="F2:O2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Input Score" sqref="F4:O51" xr:uid="{00000000-0002-0000-0200-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:O3" xr:uid="{00000000-0002-0000-0200-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Assignment Number" sqref="F2:O2" xr:uid="{00000000-0002-0000-0200-000002000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6945,34 +6951,34 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="9.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.88671875" style="4" customWidth="1"/>
-    <col min="13" max="14" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.875" style="4" customWidth="1"/>
+    <col min="13" max="14" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.875" style="4" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="25" style="4" customWidth="1"/>
-    <col min="27" max="27" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" s="16" t="s">
         <v>10</v>
       </c>
@@ -6994,7 +7000,7 @@
       <c r="O1" s="19"/>
       <c r="P1" s="19"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -7044,14 +7050,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="15"/>
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
       <c r="D3" s="18"/>
       <c r="E3" s="21"/>
-      <c r="F3" s="3" t="s">
-        <v>22</v>
+      <c r="F3" s="3">
+        <v>44096</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>22</v>
@@ -7082,7 +7088,7 @@
       </c>
       <c r="P3" s="15"/>
     </row>
-    <row r="4" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -7098,7 +7104,9 @@
       <c r="E4" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="8"/>
+      <c r="F4" s="8">
+        <v>100</v>
+      </c>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
@@ -7108,12 +7116,12 @@
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
-      <c r="P4" s="13" t="e">
+      <c r="P4" s="13">
         <f t="shared" ref="P4:P51" si="0">AVERAGE(F4:O4)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -7129,7 +7137,9 @@
       <c r="E5" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="F5" s="8"/>
+      <c r="F5" s="8">
+        <v>100</v>
+      </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
@@ -7139,12 +7149,12 @@
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
-      <c r="P5" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="P5" s="13">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -7160,7 +7170,9 @@
       <c r="E6" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="F6" s="8"/>
+      <c r="F6" s="8">
+        <v>75</v>
+      </c>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
@@ -7170,12 +7182,12 @@
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
-      <c r="P6" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="P6" s="13">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -7191,7 +7203,9 @@
       <c r="E7" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="F7" s="8"/>
+      <c r="F7" s="8">
+        <v>100</v>
+      </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -7201,12 +7215,12 @@
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
-      <c r="P7" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="P7" s="13">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -7222,7 +7236,9 @@
       <c r="E8" s="11" t="s">
         <v>385</v>
       </c>
-      <c r="F8" s="8"/>
+      <c r="F8" s="8">
+        <v>80</v>
+      </c>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -7232,12 +7248,12 @@
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
-      <c r="P8" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="P8" s="13">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -7253,7 +7269,9 @@
       <c r="E9" s="11" t="s">
         <v>330</v>
       </c>
-      <c r="F9" s="8"/>
+      <c r="F9" s="8">
+        <v>90</v>
+      </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
@@ -7263,12 +7281,12 @@
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
       <c r="O9" s="8"/>
-      <c r="P9" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="P9" s="13">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -7284,7 +7302,9 @@
       <c r="E10" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="F10" s="8"/>
+      <c r="F10" s="8">
+        <v>90</v>
+      </c>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
@@ -7294,12 +7314,12 @@
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
       <c r="O10" s="8"/>
-      <c r="P10" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="P10" s="13">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -7315,7 +7335,9 @@
       <c r="E11" s="11" t="s">
         <v>386</v>
       </c>
-      <c r="F11" s="8"/>
+      <c r="F11" s="8">
+        <v>100</v>
+      </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
@@ -7325,12 +7347,12 @@
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
       <c r="O11" s="8"/>
-      <c r="P11" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="P11" s="13">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -7346,7 +7368,9 @@
       <c r="E12" s="11" t="s">
         <v>387</v>
       </c>
-      <c r="F12" s="8"/>
+      <c r="F12" s="8">
+        <v>80</v>
+      </c>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
@@ -7356,12 +7380,12 @@
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
       <c r="O12" s="8"/>
-      <c r="P12" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="P12" s="13">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -7377,7 +7401,9 @@
       <c r="E13" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="F13" s="8"/>
+      <c r="F13" s="8">
+        <v>85</v>
+      </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
@@ -7387,12 +7413,12 @@
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
       <c r="O13" s="8"/>
-      <c r="P13" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="P13" s="13">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -7408,7 +7434,9 @@
       <c r="E14" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="F14" s="8"/>
+      <c r="F14" s="8">
+        <v>100</v>
+      </c>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
@@ -7418,12 +7446,12 @@
       <c r="M14" s="8"/>
       <c r="N14" s="8"/>
       <c r="O14" s="8"/>
-      <c r="P14" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="P14" s="13">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -7439,7 +7467,9 @@
       <c r="E15" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="8"/>
+      <c r="F15" s="8">
+        <v>100</v>
+      </c>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
@@ -7449,12 +7479,12 @@
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
       <c r="O15" s="8"/>
-      <c r="P15" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="P15" s="13">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -7470,7 +7500,9 @@
       <c r="E16" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="F16" s="8"/>
+      <c r="F16" s="8">
+        <v>60</v>
+      </c>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
@@ -7480,12 +7512,12 @@
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
       <c r="O16" s="8"/>
-      <c r="P16" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="P16" s="13">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -7501,7 +7533,9 @@
       <c r="E17" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="F17" s="8"/>
+      <c r="F17" s="8">
+        <v>85</v>
+      </c>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
@@ -7511,12 +7545,12 @@
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
       <c r="O17" s="8"/>
-      <c r="P17" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="P17" s="13">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -7532,7 +7566,9 @@
       <c r="E18" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="F18" s="8"/>
+      <c r="F18" s="8">
+        <v>90</v>
+      </c>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
@@ -7542,12 +7578,12 @@
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
       <c r="O18" s="8"/>
-      <c r="P18" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="P18" s="13">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -7563,7 +7599,9 @@
       <c r="E19" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F19" s="8"/>
+      <c r="F19" s="8">
+        <v>100</v>
+      </c>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -7573,12 +7611,12 @@
       <c r="M19" s="8"/>
       <c r="N19" s="8"/>
       <c r="O19" s="8"/>
-      <c r="P19" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="P19" s="13">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -7594,7 +7632,9 @@
       <c r="E20" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="F20" s="8"/>
+      <c r="F20" s="8">
+        <v>80</v>
+      </c>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
@@ -7604,12 +7644,12 @@
       <c r="M20" s="8"/>
       <c r="N20" s="8"/>
       <c r="O20" s="8"/>
-      <c r="P20" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="P20" s="13">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -7625,7 +7665,9 @@
       <c r="E21" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="F21" s="8"/>
+      <c r="F21" s="8">
+        <v>100</v>
+      </c>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
@@ -7635,12 +7677,12 @@
       <c r="M21" s="8"/>
       <c r="N21" s="8"/>
       <c r="O21" s="8"/>
-      <c r="P21" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="P21" s="13">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -7656,7 +7698,9 @@
       <c r="E22" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F22" s="8"/>
+      <c r="F22" s="8">
+        <v>100</v>
+      </c>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
@@ -7666,12 +7710,12 @@
       <c r="M22" s="8"/>
       <c r="N22" s="8"/>
       <c r="O22" s="8"/>
-      <c r="P22" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="P22" s="13">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -7687,7 +7731,9 @@
       <c r="E23" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="F23" s="8"/>
+      <c r="F23" s="8">
+        <v>100</v>
+      </c>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -7697,12 +7743,12 @@
       <c r="M23" s="8"/>
       <c r="N23" s="8"/>
       <c r="O23" s="8"/>
-      <c r="P23" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="P23" s="13">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -7718,7 +7764,9 @@
       <c r="E24" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="F24" s="8"/>
+      <c r="F24" s="8">
+        <v>100</v>
+      </c>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
@@ -7728,12 +7776,12 @@
       <c r="M24" s="8"/>
       <c r="N24" s="8"/>
       <c r="O24" s="8"/>
-      <c r="P24" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="P24" s="13">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -7749,7 +7797,9 @@
       <c r="E25" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F25" s="8"/>
+      <c r="F25" s="8">
+        <v>100</v>
+      </c>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
@@ -7759,12 +7809,12 @@
       <c r="M25" s="8"/>
       <c r="N25" s="8"/>
       <c r="O25" s="8"/>
-      <c r="P25" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="P25" s="13">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -7780,7 +7830,9 @@
       <c r="E26" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F26" s="8"/>
+      <c r="F26" s="8">
+        <v>85</v>
+      </c>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
@@ -7790,12 +7842,12 @@
       <c r="M26" s="8"/>
       <c r="N26" s="8"/>
       <c r="O26" s="8"/>
-      <c r="P26" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="P26" s="13">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -7811,7 +7863,9 @@
       <c r="E27" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F27" s="8"/>
+      <c r="F27" s="8">
+        <v>90</v>
+      </c>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
@@ -7821,12 +7875,12 @@
       <c r="M27" s="8"/>
       <c r="N27" s="8"/>
       <c r="O27" s="8"/>
-      <c r="P27" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="P27" s="13">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -7842,7 +7896,9 @@
       <c r="E28" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="F28" s="8"/>
+      <c r="F28" s="8">
+        <v>100</v>
+      </c>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
@@ -7852,12 +7908,12 @@
       <c r="M28" s="8"/>
       <c r="N28" s="8"/>
       <c r="O28" s="8"/>
-      <c r="P28" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="P28" s="13">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -7873,7 +7929,9 @@
       <c r="E29" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="F29" s="8"/>
+      <c r="F29" s="8">
+        <v>90</v>
+      </c>
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
@@ -7883,12 +7941,12 @@
       <c r="M29" s="8"/>
       <c r="N29" s="8"/>
       <c r="O29" s="8"/>
-      <c r="P29" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="P29" s="13">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -7904,7 +7962,9 @@
       <c r="E30" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F30" s="8"/>
+      <c r="F30" s="8">
+        <v>90</v>
+      </c>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
@@ -7914,12 +7974,12 @@
       <c r="M30" s="8"/>
       <c r="N30" s="8"/>
       <c r="O30" s="8"/>
-      <c r="P30" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="P30" s="13">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>28</v>
       </c>
@@ -7935,7 +7995,9 @@
       <c r="E31" s="11" t="s">
         <v>336</v>
       </c>
-      <c r="F31" s="8"/>
+      <c r="F31" s="8">
+        <v>60</v>
+      </c>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
@@ -7945,12 +8007,12 @@
       <c r="M31" s="8"/>
       <c r="N31" s="8"/>
       <c r="O31" s="8"/>
-      <c r="P31" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="P31" s="13">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>29</v>
       </c>
@@ -7966,7 +8028,9 @@
       <c r="E32" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="F32" s="8"/>
+      <c r="F32" s="8">
+        <v>80</v>
+      </c>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
@@ -7976,12 +8040,12 @@
       <c r="M32" s="8"/>
       <c r="N32" s="8"/>
       <c r="O32" s="8"/>
-      <c r="P32" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="P32" s="13">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>30</v>
       </c>
@@ -7997,7 +8061,9 @@
       <c r="E33" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="F33" s="8"/>
+      <c r="F33" s="8">
+        <v>85</v>
+      </c>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
@@ -8007,12 +8073,12 @@
       <c r="M33" s="8"/>
       <c r="N33" s="8"/>
       <c r="O33" s="8"/>
-      <c r="P33" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="P33" s="13">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
         <v>31</v>
       </c>
@@ -8028,7 +8094,9 @@
       <c r="E34" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="F34" s="8"/>
+      <c r="F34" s="8">
+        <v>85</v>
+      </c>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
@@ -8038,12 +8106,12 @@
       <c r="M34" s="8"/>
       <c r="N34" s="8"/>
       <c r="O34" s="8"/>
-      <c r="P34" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="P34" s="13">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
         <v>32</v>
       </c>
@@ -8059,7 +8127,9 @@
       <c r="E35" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="F35" s="8"/>
+      <c r="F35" s="8">
+        <v>100</v>
+      </c>
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
@@ -8069,12 +8139,12 @@
       <c r="M35" s="8"/>
       <c r="N35" s="8"/>
       <c r="O35" s="8"/>
-      <c r="P35" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="P35" s="13">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
         <v>33</v>
       </c>
@@ -8090,7 +8160,9 @@
       <c r="E36" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="F36" s="8"/>
+      <c r="F36" s="8">
+        <v>80</v>
+      </c>
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
@@ -8100,12 +8172,12 @@
       <c r="M36" s="8"/>
       <c r="N36" s="8"/>
       <c r="O36" s="8"/>
-      <c r="P36" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="P36" s="13">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
         <v>34</v>
       </c>
@@ -8121,7 +8193,9 @@
       <c r="E37" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="F37" s="8"/>
+      <c r="F37" s="8">
+        <v>100</v>
+      </c>
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
@@ -8131,12 +8205,12 @@
       <c r="M37" s="8"/>
       <c r="N37" s="8"/>
       <c r="O37" s="8"/>
-      <c r="P37" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="P37" s="13">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
         <v>35</v>
       </c>
@@ -8152,7 +8226,9 @@
       <c r="E38" s="11" t="s">
         <v>341</v>
       </c>
-      <c r="F38" s="8"/>
+      <c r="F38" s="8">
+        <v>60</v>
+      </c>
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
       <c r="I38" s="8"/>
@@ -8162,12 +8238,12 @@
       <c r="M38" s="8"/>
       <c r="N38" s="8"/>
       <c r="O38" s="8"/>
-      <c r="P38" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="P38" s="13">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
         <v>36</v>
       </c>
@@ -8183,7 +8259,9 @@
       <c r="E39" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="F39" s="8"/>
+      <c r="F39" s="8">
+        <v>85</v>
+      </c>
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
       <c r="I39" s="8"/>
@@ -8193,12 +8271,12 @@
       <c r="M39" s="8"/>
       <c r="N39" s="8"/>
       <c r="O39" s="8"/>
-      <c r="P39" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="P39" s="13">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
         <v>37</v>
       </c>
@@ -8214,7 +8292,9 @@
       <c r="E40" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F40" s="8"/>
+      <c r="F40" s="8">
+        <v>100</v>
+      </c>
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
       <c r="I40" s="8"/>
@@ -8224,12 +8304,12 @@
       <c r="M40" s="8"/>
       <c r="N40" s="8"/>
       <c r="O40" s="8"/>
-      <c r="P40" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="P40" s="13">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
         <v>38</v>
       </c>
@@ -8245,7 +8325,9 @@
       <c r="E41" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="F41" s="8"/>
+      <c r="F41" s="8">
+        <v>100</v>
+      </c>
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
       <c r="I41" s="8"/>
@@ -8255,12 +8337,12 @@
       <c r="M41" s="8"/>
       <c r="N41" s="8"/>
       <c r="O41" s="8"/>
-      <c r="P41" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="P41" s="13">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A42" s="2">
         <v>39</v>
       </c>
@@ -8276,7 +8358,9 @@
       <c r="E42" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="F42" s="8"/>
+      <c r="F42" s="8">
+        <v>100</v>
+      </c>
       <c r="G42" s="8"/>
       <c r="H42" s="8"/>
       <c r="I42" s="8"/>
@@ -8286,12 +8370,12 @@
       <c r="M42" s="8"/>
       <c r="N42" s="8"/>
       <c r="O42" s="8"/>
-      <c r="P42" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="P42" s="13">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
         <v>40</v>
       </c>
@@ -8307,7 +8391,9 @@
       <c r="E43" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="F43" s="8"/>
+      <c r="F43" s="8">
+        <v>100</v>
+      </c>
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
       <c r="I43" s="8"/>
@@ -8317,12 +8403,12 @@
       <c r="M43" s="8"/>
       <c r="N43" s="8"/>
       <c r="O43" s="8"/>
-      <c r="P43" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="P43" s="13">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A44" s="2">
         <v>41</v>
       </c>
@@ -8338,7 +8424,9 @@
       <c r="E44" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="F44" s="8"/>
+      <c r="F44" s="8">
+        <v>100</v>
+      </c>
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
       <c r="I44" s="8"/>
@@ -8348,12 +8436,12 @@
       <c r="M44" s="8"/>
       <c r="N44" s="8"/>
       <c r="O44" s="8"/>
-      <c r="P44" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="P44" s="13">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
         <v>42</v>
       </c>
@@ -8369,7 +8457,9 @@
       <c r="E45" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="F45" s="8"/>
+      <c r="F45" s="8">
+        <v>100</v>
+      </c>
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
       <c r="I45" s="8"/>
@@ -8379,12 +8469,12 @@
       <c r="M45" s="8"/>
       <c r="N45" s="8"/>
       <c r="O45" s="8"/>
-      <c r="P45" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="P45" s="13">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A46" s="2">
         <v>43</v>
       </c>
@@ -8400,7 +8490,9 @@
       <c r="E46" s="11" t="s">
         <v>348</v>
       </c>
-      <c r="F46" s="8"/>
+      <c r="F46" s="8">
+        <v>90</v>
+      </c>
       <c r="G46" s="8"/>
       <c r="H46" s="8"/>
       <c r="I46" s="8"/>
@@ -8410,12 +8502,12 @@
       <c r="M46" s="8"/>
       <c r="N46" s="8"/>
       <c r="O46" s="8"/>
-      <c r="P46" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="P46" s="13">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
         <v>44</v>
       </c>
@@ -8431,7 +8523,9 @@
       <c r="E47" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F47" s="8"/>
+      <c r="F47" s="8">
+        <v>100</v>
+      </c>
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
       <c r="I47" s="8"/>
@@ -8441,12 +8535,12 @@
       <c r="M47" s="8"/>
       <c r="N47" s="8"/>
       <c r="O47" s="8"/>
-      <c r="P47" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="P47" s="13">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A48" s="2">
         <v>45</v>
       </c>
@@ -8462,7 +8556,9 @@
       <c r="E48" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="F48" s="8"/>
+      <c r="F48" s="8">
+        <v>90</v>
+      </c>
       <c r="G48" s="8"/>
       <c r="H48" s="8"/>
       <c r="I48" s="8"/>
@@ -8472,12 +8568,12 @@
       <c r="M48" s="8"/>
       <c r="N48" s="8"/>
       <c r="O48" s="8"/>
-      <c r="P48" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="P48" s="13">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
         <v>46</v>
       </c>
@@ -8493,7 +8589,9 @@
       <c r="E49" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="F49" s="8"/>
+      <c r="F49" s="8">
+        <v>100</v>
+      </c>
       <c r="G49" s="8"/>
       <c r="H49" s="8"/>
       <c r="I49" s="8"/>
@@ -8503,12 +8601,12 @@
       <c r="M49" s="8"/>
       <c r="N49" s="8"/>
       <c r="O49" s="8"/>
-      <c r="P49" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="P49" s="13">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A50" s="2">
         <v>47</v>
       </c>
@@ -8524,7 +8622,9 @@
       <c r="E50" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="F50" s="8"/>
+      <c r="F50" s="8">
+        <v>80</v>
+      </c>
       <c r="G50" s="8"/>
       <c r="H50" s="8"/>
       <c r="I50" s="8"/>
@@ -8534,12 +8634,12 @@
       <c r="M50" s="8"/>
       <c r="N50" s="8"/>
       <c r="O50" s="8"/>
-      <c r="P50" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="P50" s="13">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A51" s="2">
         <v>48</v>
       </c>
@@ -8555,7 +8655,9 @@
       <c r="E51" s="11" t="s">
         <v>350</v>
       </c>
-      <c r="F51" s="8"/>
+      <c r="F51" s="8">
+        <v>60</v>
+      </c>
       <c r="G51" s="8"/>
       <c r="H51" s="8"/>
       <c r="I51" s="8"/>
@@ -8565,14 +8667,14 @@
       <c r="M51" s="8"/>
       <c r="N51" s="8"/>
       <c r="O51" s="8"/>
-      <c r="P51" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="P51" s="13">
+        <f t="shared" si="0"/>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:P45">
-    <sortState ref="A5:T44">
+  <autoFilter ref="A2:P45" xr:uid="{00000000-0009-0000-0000-000003000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:T44">
       <sortCondition ref="C2:C3"/>
     </sortState>
   </autoFilter>
@@ -8588,9 +8690,9 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Assignment Number" sqref="F2:O2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:O3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Input Score" sqref="F4:O51">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Assignment Number" sqref="F2:O2" xr:uid="{00000000-0002-0000-0300-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:O3" xr:uid="{00000000-0002-0000-0300-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Input Score" sqref="F4:O51" xr:uid="{00000000-0002-0000-0300-000002000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/Grade 2018/HomeAssignment/HA_Summary_YC_2018.xlsx
+++ b/Grade 2018/HomeAssignment/HA_Summary_YC_2018.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="CS1" sheetId="2" r:id="rId1"/>
@@ -1731,7 +1731,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1742,7 +1742,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -1890,10 +1890,10 @@
         <v>366</v>
       </c>
       <c r="F4" s="8">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="G4" s="8">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
@@ -1905,7 +1905,7 @@
       <c r="O4" s="8"/>
       <c r="P4" s="7">
         <f t="shared" ref="P4:P48" si="0">AVERAGE(F4:O4)</f>
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2733,7 +2733,7 @@
         <v>80</v>
       </c>
       <c r="G28" s="8">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
@@ -2745,7 +2745,7 @@
       <c r="O28" s="8"/>
       <c r="P28" s="7">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -3293,7 +3293,7 @@
         <v>100</v>
       </c>
       <c r="G44" s="8">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="H44" s="8"/>
       <c r="I44" s="8"/>
@@ -3305,7 +3305,7 @@
       <c r="O44" s="8"/>
       <c r="P44" s="7">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>95</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -3550,8 +3550,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>

--- a/Grade 2018/HomeAssignment/HA_Summary_YC_2018.xlsx
+++ b/Grade 2018/HomeAssignment/HA_Summary_YC_2018.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NIIT\NIIT教案\Sept-2020---Jan-2021\Grade 2018\HomeAssignment\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D9C9EC-5A05-4EEC-B5CD-B1C529E79CBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="20490" windowHeight="10125" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CS1" sheetId="2" r:id="rId1"/>
@@ -18,7 +24,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">NE!$A$2:$P$45</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">SE!$A$2:$P$45</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="392">
   <si>
     <t>No</t>
   </si>
@@ -1099,23 +1105,23 @@
   </si>
   <si>
     <t>HA2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>HA3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>HA4</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>HA5</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>HA6</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Kevin</t>
@@ -1214,12 +1220,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="[$-804]d\-mmm"/>
     <numFmt numFmtId="177" formatCode="0.00_);\(0.00\)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1272,15 +1278,23 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1393,7 +1407,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1423,12 +1437,6 @@
     <xf numFmtId="1" fontId="6" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1456,12 +1464,90 @@
     <xf numFmtId="16" fontId="3" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="8" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="8" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="8" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2 3" xfId="1"/>
-    <cellStyle name="常规 3" xfId="3"/>
-    <cellStyle name="常规 4" xfId="2"/>
+    <cellStyle name="常规 2 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="常规 4" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1731,74 +1817,74 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" customWidth="1"/>
-    <col min="7" max="8" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.625" customWidth="1"/>
+    <col min="7" max="8" width="15.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="15.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="15.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="19" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="18" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -1831,16 +1917,16 @@
       <c r="O2" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="P2" s="14" t="s">
+      <c r="P2" s="12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="21"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="19"/>
       <c r="F3" s="3">
         <v>44094</v>
       </c>
@@ -1871,9 +1957,9 @@
       <c r="O3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P3" s="15"/>
-    </row>
-    <row r="4" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="P3" s="13"/>
+    </row>
+    <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -1908,7 +1994,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -1943,7 +2029,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -1978,7 +2064,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -2013,7 +2099,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -2048,7 +2134,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -2083,7 +2169,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -2118,7 +2204,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -2153,7 +2239,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -2188,7 +2274,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -2223,7 +2309,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -2258,7 +2344,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -2293,7 +2379,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -2328,7 +2414,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -2363,7 +2449,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -2398,7 +2484,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -2433,7 +2519,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -2468,7 +2554,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -2503,7 +2589,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -2538,7 +2624,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -2573,7 +2659,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -2608,7 +2694,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -2643,7 +2729,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -2678,7 +2764,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -2713,7 +2799,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -2748,7 +2834,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -2783,7 +2869,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -2818,7 +2904,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>28</v>
       </c>
@@ -2853,7 +2939,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>29</v>
       </c>
@@ -2888,7 +2974,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>30</v>
       </c>
@@ -2923,7 +3009,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
         <v>31</v>
       </c>
@@ -2958,7 +3044,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
         <v>32</v>
       </c>
@@ -2993,7 +3079,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
         <v>33</v>
       </c>
@@ -3028,7 +3114,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
         <v>34</v>
       </c>
@@ -3063,7 +3149,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
         <v>35</v>
       </c>
@@ -3098,7 +3184,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
         <v>36</v>
       </c>
@@ -3133,7 +3219,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
         <v>37</v>
       </c>
@@ -3168,7 +3254,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
         <v>38</v>
       </c>
@@ -3203,7 +3289,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A42" s="2">
         <v>39</v>
       </c>
@@ -3238,7 +3324,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
         <v>40</v>
       </c>
@@ -3273,7 +3359,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A44" s="2">
         <v>41</v>
       </c>
@@ -3308,7 +3394,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
         <v>42</v>
       </c>
@@ -3343,7 +3429,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A46" s="2">
         <v>43</v>
       </c>
@@ -3378,7 +3464,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
         <v>44</v>
       </c>
@@ -3413,7 +3499,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A48" s="2">
         <v>45</v>
       </c>
@@ -3448,7 +3534,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
         <v>46</v>
       </c>
@@ -3483,7 +3569,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A50" s="2">
         <v>47</v>
       </c>
@@ -3519,8 +3605,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:P50">
-    <sortState ref="A5:R44">
+  <autoFilter ref="A2:P50" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:R44">
       <sortCondition ref="C2:C3"/>
     </sortState>
   </autoFilter>
@@ -3534,11 +3620,11 @@
     <mergeCell ref="F1:P1"/>
     <mergeCell ref="E2:E3"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations xWindow="519" yWindow="339" count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Input Score" sqref="N4:O50 K4:K50"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Assignment Number" sqref="F2:O2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:O3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Input Score" sqref="N4:O50 K4:K50" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Assignment Number" sqref="F2:O2" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:O3" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3546,7 +3632,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:P51"/>
   <sheetViews>
@@ -3554,59 +3640,59 @@
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="15.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="15.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="15.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="19" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="18" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -3639,16 +3725,16 @@
       <c r="O2" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="P2" s="14" t="s">
+      <c r="P2" s="12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="21"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="19"/>
       <c r="F3" s="3">
         <v>40441</v>
       </c>
@@ -3679,9 +3765,9 @@
       <c r="O3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P3" s="15"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P3" s="13"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -3716,7 +3802,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -3751,7 +3837,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -3786,7 +3872,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -3821,7 +3907,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -3856,7 +3942,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -3891,7 +3977,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -3926,7 +4012,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -3961,7 +4047,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -3996,7 +4082,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -4031,7 +4117,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -4066,7 +4152,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -4101,7 +4187,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -4136,7 +4222,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -4171,7 +4257,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -4206,7 +4292,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -4241,7 +4327,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -4276,7 +4362,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -4311,7 +4397,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -4346,7 +4432,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -4381,7 +4467,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -4416,7 +4502,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -4451,7 +4537,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -4486,7 +4572,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -4521,7 +4607,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -4556,7 +4642,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -4591,7 +4677,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -4626,7 +4712,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>28</v>
       </c>
@@ -4661,7 +4747,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>29</v>
       </c>
@@ -4696,7 +4782,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>30</v>
       </c>
@@ -4731,7 +4817,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
         <v>31</v>
       </c>
@@ -4766,7 +4852,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
         <v>32</v>
       </c>
@@ -4801,7 +4887,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
         <v>33</v>
       </c>
@@ -4836,7 +4922,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
         <v>34</v>
       </c>
@@ -4871,7 +4957,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
         <v>35</v>
       </c>
@@ -4906,7 +4992,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
         <v>36</v>
       </c>
@@ -4941,7 +5027,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
         <v>37</v>
       </c>
@@ -4976,7 +5062,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
         <v>38</v>
       </c>
@@ -5011,7 +5097,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A42" s="2">
         <v>39</v>
       </c>
@@ -5046,7 +5132,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
         <v>40</v>
       </c>
@@ -5081,7 +5167,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A44" s="2">
         <v>41</v>
       </c>
@@ -5116,7 +5202,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
         <v>42</v>
       </c>
@@ -5151,7 +5237,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A46" s="2">
         <v>43</v>
       </c>
@@ -5186,7 +5272,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
         <v>44</v>
       </c>
@@ -5221,7 +5307,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A48" s="2">
         <v>45</v>
       </c>
@@ -5256,7 +5342,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
         <v>46</v>
       </c>
@@ -5291,7 +5377,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A50" s="2">
         <v>47</v>
       </c>
@@ -5326,7 +5412,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A51" s="2">
         <v>48</v>
       </c>
@@ -5362,8 +5448,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:P51">
-    <sortState ref="A5:R44">
+  <autoFilter ref="A2:P51" xr:uid="{00000000-0009-0000-0000-000001000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:R44">
       <sortCondition ref="C2:C3"/>
     </sortState>
   </autoFilter>
@@ -5377,11 +5463,11 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="P2:P3"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations xWindow="1225" yWindow="391" count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Input Score" sqref="F4:O51"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:O3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Assignment Number" sqref="F2:O2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Input Score" sqref="F4:O51" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:O3" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Assignment Number" sqref="F2:O2" xr:uid="{00000000-0002-0000-0100-000002000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5389,1727 +5475,1727 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="C15" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F33" sqref="A1:P51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="11.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="11.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.77734375" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="11.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="11.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A1" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="19" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="37" t="s">
         <v>362</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="37" t="s">
         <v>363</v>
       </c>
-      <c r="P2" s="14" t="s">
+      <c r="P2" s="34" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A3" s="38"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="41">
         <v>44095</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="P3" s="15"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="P3" s="38"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A4" s="42">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="41" t="s">
         <v>377</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="41" t="s">
         <v>378</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="43">
         <v>12014244255</v>
       </c>
-      <c r="E4" s="3" t="e">
+      <c r="E4" s="41" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="44">
         <v>0</v>
       </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="7">
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="45">
         <f t="shared" ref="P4:P45" si="0">AVERAGE(F4:O4)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A5" s="42">
         <v>2</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="41" t="s">
         <v>377</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="43">
         <v>12018242212</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="41" t="s">
         <v>170</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="44">
+        <v>100</v>
+      </c>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="45">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A6" s="42">
+        <v>3</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>377</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="43">
+        <v>12018242213</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="F6" s="44">
+        <v>80</v>
+      </c>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="45">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A7" s="42">
+        <v>4</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>377</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>206</v>
+      </c>
+      <c r="D7" s="43">
+        <v>12018242214</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>250</v>
+      </c>
+      <c r="F7" s="44">
+        <v>100</v>
+      </c>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="45">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A8" s="42">
+        <v>5</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>377</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>379</v>
+      </c>
+      <c r="D8" s="43">
+        <v>12018242215</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>380</v>
+      </c>
+      <c r="F8" s="44">
+        <v>100</v>
+      </c>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="44"/>
+      <c r="P8" s="45">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A9" s="42">
+        <v>6</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>377</v>
+      </c>
+      <c r="C9" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="43">
+        <v>12018242216</v>
+      </c>
+      <c r="E9" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="F9" s="44">
+        <v>60</v>
+      </c>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="44"/>
+      <c r="P9" s="45">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A10" s="42">
+        <v>7</v>
+      </c>
+      <c r="B10" s="41" t="s">
+        <v>377</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>288</v>
+      </c>
+      <c r="D10" s="43">
+        <v>12018242220</v>
+      </c>
+      <c r="E10" s="41" t="s">
+        <v>329</v>
+      </c>
+      <c r="F10" s="44">
+        <v>60</v>
+      </c>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="44"/>
+      <c r="N10" s="44"/>
+      <c r="O10" s="44"/>
+      <c r="P10" s="45">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A11" s="42">
+        <v>8</v>
+      </c>
+      <c r="B11" s="41" t="s">
+        <v>377</v>
+      </c>
+      <c r="C11" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="43">
+        <v>12018242224</v>
+      </c>
+      <c r="E11" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="44">
+        <v>90</v>
+      </c>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="44"/>
+      <c r="P11" s="45">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A12" s="42">
+        <v>9</v>
+      </c>
+      <c r="B12" s="41" t="s">
+        <v>377</v>
+      </c>
+      <c r="C12" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="43">
+        <v>12018242229</v>
+      </c>
+      <c r="E12" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="F12" s="44">
+        <v>80</v>
+      </c>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="44"/>
+      <c r="P12" s="45">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A13" s="42">
         <v>10</v>
       </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="7">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>3</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="B13" s="41" t="s">
         <v>377</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="5">
-        <v>12018242213</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F6" s="8">
-        <v>8</v>
-      </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="7">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>4</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="C13" s="41" t="s">
+        <v>246</v>
+      </c>
+      <c r="D13" s="43">
+        <v>12018242230</v>
+      </c>
+      <c r="E13" s="41" t="s">
+        <v>381</v>
+      </c>
+      <c r="F13" s="44">
+        <v>60</v>
+      </c>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="44"/>
+      <c r="O13" s="44"/>
+      <c r="P13" s="45">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A14" s="42">
+        <v>11</v>
+      </c>
+      <c r="B14" s="41" t="s">
         <v>377</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="D7" s="5">
-        <v>12018242214</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="F7" s="8">
-        <v>10</v>
-      </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="7">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>5</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="C14" s="41" t="s">
+        <v>208</v>
+      </c>
+      <c r="D14" s="43">
+        <v>12018242233</v>
+      </c>
+      <c r="E14" s="41" t="s">
+        <v>382</v>
+      </c>
+      <c r="F14" s="44">
+        <v>90</v>
+      </c>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="44"/>
+      <c r="O14" s="44"/>
+      <c r="P14" s="45">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A15" s="42">
+        <v>12</v>
+      </c>
+      <c r="B15" s="41" t="s">
         <v>377</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>379</v>
-      </c>
-      <c r="D8" s="5">
-        <v>12018242215</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="F8" s="8">
-        <v>10</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="7">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>6</v>
-      </c>
-      <c r="B9" s="3" t="s">
+      <c r="C15" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="D15" s="43">
+        <v>12018242253</v>
+      </c>
+      <c r="E15" s="41" t="s">
+        <v>255</v>
+      </c>
+      <c r="F15" s="44">
+        <v>100</v>
+      </c>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="44"/>
+      <c r="O15" s="44"/>
+      <c r="P15" s="45">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A16" s="42">
+        <v>13</v>
+      </c>
+      <c r="B16" s="41" t="s">
         <v>377</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="D9" s="5">
-        <v>12018242216</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="F9" s="8">
-        <v>6</v>
-      </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="7">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>7</v>
-      </c>
-      <c r="B10" s="3" t="s">
+      <c r="C16" s="41" t="s">
+        <v>215</v>
+      </c>
+      <c r="D16" s="43">
+        <v>12018242261</v>
+      </c>
+      <c r="E16" s="41" t="s">
+        <v>257</v>
+      </c>
+      <c r="F16" s="44">
+        <v>100</v>
+      </c>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="44"/>
+      <c r="O16" s="44"/>
+      <c r="P16" s="45">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A17" s="42">
+        <v>14</v>
+      </c>
+      <c r="B17" s="41" t="s">
         <v>377</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="D10" s="5">
-        <v>12018242220</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="F10" s="8">
-        <v>6</v>
-      </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="7">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>8</v>
-      </c>
-      <c r="B11" s="3" t="s">
+      <c r="C17" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="43">
+        <v>12018242262</v>
+      </c>
+      <c r="E17" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="F17" s="44">
+        <v>90</v>
+      </c>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="44"/>
+      <c r="O17" s="44"/>
+      <c r="P17" s="45">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A18" s="42">
+        <v>15</v>
+      </c>
+      <c r="B18" s="41" t="s">
         <v>377</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="5">
-        <v>12018242224</v>
-      </c>
-      <c r="E11" s="3" t="s">
+      <c r="C18" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="43">
+        <v>12018242264</v>
+      </c>
+      <c r="E18" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="F18" s="44">
+        <v>60</v>
+      </c>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="44"/>
+      <c r="N18" s="44"/>
+      <c r="O18" s="44"/>
+      <c r="P18" s="45">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A19" s="42">
+        <v>16</v>
+      </c>
+      <c r="B19" s="41" t="s">
+        <v>377</v>
+      </c>
+      <c r="C19" s="41" t="s">
+        <v>298</v>
+      </c>
+      <c r="D19" s="43">
+        <v>12018242270</v>
+      </c>
+      <c r="E19" s="41" t="s">
+        <v>334</v>
+      </c>
+      <c r="F19" s="44">
+        <v>100</v>
+      </c>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="44"/>
+      <c r="N19" s="44"/>
+      <c r="O19" s="44"/>
+      <c r="P19" s="45">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A20" s="42">
+        <v>17</v>
+      </c>
+      <c r="B20" s="41" t="s">
+        <v>377</v>
+      </c>
+      <c r="C20" s="41" t="s">
+        <v>218</v>
+      </c>
+      <c r="D20" s="43">
+        <v>12018242274</v>
+      </c>
+      <c r="E20" s="41" t="s">
+        <v>258</v>
+      </c>
+      <c r="F20" s="44">
+        <v>80</v>
+      </c>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="44"/>
+      <c r="O20" s="44"/>
+      <c r="P20" s="45">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A21" s="42">
         <v>18</v>
       </c>
-      <c r="F11" s="8">
-        <v>9</v>
-      </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="7">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>9</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="B21" s="41" t="s">
         <v>377</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="5">
-        <v>12018242229</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F12" s="8">
-        <v>8</v>
-      </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="7">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>10</v>
-      </c>
-      <c r="B13" s="3" t="s">
+      <c r="C21" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="D21" s="43">
+        <v>12018242276</v>
+      </c>
+      <c r="E21" s="41" t="s">
+        <v>182</v>
+      </c>
+      <c r="F21" s="44">
+        <v>60</v>
+      </c>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="44"/>
+      <c r="N21" s="44"/>
+      <c r="O21" s="44"/>
+      <c r="P21" s="45">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A22" s="42">
+        <v>19</v>
+      </c>
+      <c r="B22" s="41" t="s">
         <v>377</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="D13" s="5">
-        <v>12018242230</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="F13" s="8">
-        <v>6</v>
-      </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="7">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>11</v>
-      </c>
-      <c r="B14" s="3" t="s">
+      <c r="C22" s="41" t="s">
+        <v>247</v>
+      </c>
+      <c r="D22" s="43">
+        <v>12018242278</v>
+      </c>
+      <c r="E22" s="41" t="s">
+        <v>278</v>
+      </c>
+      <c r="F22" s="44">
+        <v>60</v>
+      </c>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="44"/>
+      <c r="N22" s="44"/>
+      <c r="O22" s="44"/>
+      <c r="P22" s="45">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A23" s="42">
+        <v>20</v>
+      </c>
+      <c r="B23" s="41" t="s">
         <v>377</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="D14" s="5">
-        <v>12018242233</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="F14" s="8">
-        <v>9</v>
-      </c>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="7">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>12</v>
-      </c>
-      <c r="B15" s="3" t="s">
+      <c r="C23" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="D23" s="43">
+        <v>12018242284</v>
+      </c>
+      <c r="E23" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="F23" s="44">
+        <v>80</v>
+      </c>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="44"/>
+      <c r="N23" s="44"/>
+      <c r="O23" s="44"/>
+      <c r="P23" s="45">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A24" s="42">
+        <v>21</v>
+      </c>
+      <c r="B24" s="41" t="s">
         <v>377</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="D15" s="5">
-        <v>12018242253</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="F15" s="8">
-        <v>10</v>
-      </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="7">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>13</v>
-      </c>
-      <c r="B16" s="3" t="s">
+      <c r="C24" s="41" t="s">
+        <v>140</v>
+      </c>
+      <c r="D24" s="43">
+        <v>12018242287</v>
+      </c>
+      <c r="E24" s="41" t="s">
+        <v>183</v>
+      </c>
+      <c r="F24" s="44">
+        <v>100</v>
+      </c>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="44"/>
+      <c r="M24" s="44"/>
+      <c r="N24" s="44"/>
+      <c r="O24" s="44"/>
+      <c r="P24" s="45">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A25" s="42">
+        <v>22</v>
+      </c>
+      <c r="B25" s="41" t="s">
         <v>377</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="D16" s="5">
-        <v>12018242261</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="F16" s="8">
-        <v>10</v>
-      </c>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="7">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>14</v>
-      </c>
-      <c r="B17" s="3" t="s">
+      <c r="C25" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" s="43">
+        <v>12018242299</v>
+      </c>
+      <c r="E25" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="F25" s="44">
+        <v>60</v>
+      </c>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="44"/>
+      <c r="N25" s="44"/>
+      <c r="O25" s="44"/>
+      <c r="P25" s="45">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A26" s="42">
+        <v>23</v>
+      </c>
+      <c r="B26" s="41" t="s">
         <v>377</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D17" s="5">
-        <v>12018242262</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="F17" s="8">
-        <v>9</v>
-      </c>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="7">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>15</v>
-      </c>
-      <c r="B18" s="3" t="s">
+      <c r="C26" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" s="43">
+        <v>12018242302</v>
+      </c>
+      <c r="E26" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="F26" s="44">
+        <v>80</v>
+      </c>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="44"/>
+      <c r="N26" s="44"/>
+      <c r="O26" s="44"/>
+      <c r="P26" s="45">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A27" s="42">
+        <v>24</v>
+      </c>
+      <c r="B27" s="41" t="s">
         <v>377</v>
       </c>
-      <c r="C18" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D18" s="5">
-        <v>12018242264</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="F18" s="8">
-        <v>6</v>
-      </c>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="7">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>16</v>
-      </c>
-      <c r="B19" s="3" t="s">
+      <c r="C27" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="D27" s="43">
+        <v>12018242303</v>
+      </c>
+      <c r="E27" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="F27" s="44">
+        <v>100</v>
+      </c>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="44"/>
+      <c r="L27" s="44"/>
+      <c r="M27" s="44"/>
+      <c r="N27" s="44"/>
+      <c r="O27" s="44"/>
+      <c r="P27" s="45">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A28" s="42">
+        <v>25</v>
+      </c>
+      <c r="B28" s="41" t="s">
         <v>377</v>
       </c>
-      <c r="C19" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="D19" s="5">
-        <v>12018242270</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="F19" s="8">
-        <v>10</v>
-      </c>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="7">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>17</v>
-      </c>
-      <c r="B20" s="3" t="s">
+      <c r="C28" s="41" t="s">
+        <v>304</v>
+      </c>
+      <c r="D28" s="43">
+        <v>12018242308</v>
+      </c>
+      <c r="E28" s="41" t="s">
+        <v>383</v>
+      </c>
+      <c r="F28" s="44">
+        <v>100</v>
+      </c>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="44"/>
+      <c r="M28" s="44"/>
+      <c r="N28" s="44"/>
+      <c r="O28" s="44"/>
+      <c r="P28" s="45">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A29" s="42">
+        <v>26</v>
+      </c>
+      <c r="B29" s="41" t="s">
         <v>377</v>
       </c>
-      <c r="C20" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="D20" s="5">
-        <v>12018242274</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="F20" s="8">
-        <v>8</v>
-      </c>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="7">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>18</v>
-      </c>
-      <c r="B21" s="3" t="s">
+      <c r="C29" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="D29" s="43">
+        <v>12018242310</v>
+      </c>
+      <c r="E29" s="41" t="s">
+        <v>188</v>
+      </c>
+      <c r="F29" s="44">
+        <v>100</v>
+      </c>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="44"/>
+      <c r="M29" s="44"/>
+      <c r="N29" s="44"/>
+      <c r="O29" s="44"/>
+      <c r="P29" s="45">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A30" s="42">
+        <v>27</v>
+      </c>
+      <c r="B30" s="41" t="s">
         <v>377</v>
       </c>
-      <c r="C21" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="D21" s="5">
-        <v>12018242276</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="F21" s="8">
-        <v>6</v>
-      </c>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="7">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>19</v>
-      </c>
-      <c r="B22" s="3" t="s">
+      <c r="C30" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="D30" s="43">
+        <v>12018242311</v>
+      </c>
+      <c r="E30" s="41" t="s">
+        <v>340</v>
+      </c>
+      <c r="F30" s="44">
+        <v>80</v>
+      </c>
+      <c r="G30" s="44"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="44"/>
+      <c r="K30" s="44"/>
+      <c r="L30" s="44"/>
+      <c r="M30" s="44"/>
+      <c r="N30" s="44"/>
+      <c r="O30" s="44"/>
+      <c r="P30" s="45">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A31" s="42">
+        <v>28</v>
+      </c>
+      <c r="B31" s="41" t="s">
         <v>377</v>
       </c>
-      <c r="C22" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="D22" s="5">
-        <v>12018242278</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="F22" s="8">
-        <v>6</v>
-      </c>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="7">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>20</v>
-      </c>
-      <c r="B23" s="3" t="s">
+      <c r="C31" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="D31" s="43">
+        <v>12018242320</v>
+      </c>
+      <c r="E31" s="41" t="s">
+        <v>361</v>
+      </c>
+      <c r="F31" s="44">
+        <v>60</v>
+      </c>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="44"/>
+      <c r="L31" s="44"/>
+      <c r="M31" s="44"/>
+      <c r="N31" s="44"/>
+      <c r="O31" s="44"/>
+      <c r="P31" s="45">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A32" s="42">
+        <v>29</v>
+      </c>
+      <c r="B32" s="41" t="s">
         <v>377</v>
       </c>
-      <c r="C23" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="D23" s="5">
-        <v>12018242284</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F23" s="8">
-        <v>8</v>
-      </c>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="7">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>21</v>
-      </c>
-      <c r="B24" s="3" t="s">
+      <c r="C32" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="D32" s="43">
+        <v>12018242327</v>
+      </c>
+      <c r="E32" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="F32" s="44">
+        <v>90</v>
+      </c>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="44"/>
+      <c r="M32" s="44"/>
+      <c r="N32" s="44"/>
+      <c r="O32" s="44"/>
+      <c r="P32" s="45">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A33" s="42">
+        <v>30</v>
+      </c>
+      <c r="B33" s="41" t="s">
         <v>377</v>
       </c>
-      <c r="C24" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="D24" s="5">
-        <v>12018242287</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="F24" s="8">
-        <v>10</v>
-      </c>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="7">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>22</v>
-      </c>
-      <c r="B25" s="3" t="s">
+      <c r="C33" s="41" t="s">
+        <v>309</v>
+      </c>
+      <c r="D33" s="43">
+        <v>12018242329</v>
+      </c>
+      <c r="E33" s="41" t="s">
+        <v>344</v>
+      </c>
+      <c r="F33" s="44">
+        <v>60</v>
+      </c>
+      <c r="G33" s="44"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="44"/>
+      <c r="K33" s="44"/>
+      <c r="L33" s="44"/>
+      <c r="M33" s="44"/>
+      <c r="N33" s="44"/>
+      <c r="O33" s="44"/>
+      <c r="P33" s="45">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A34" s="42">
+        <v>31</v>
+      </c>
+      <c r="B34" s="41" t="s">
         <v>377</v>
       </c>
-      <c r="C25" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D25" s="5">
-        <v>12018242299</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="F25" s="8">
-        <v>6</v>
-      </c>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="7">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>23</v>
-      </c>
-      <c r="B26" s="3" t="s">
+      <c r="C34" s="41" t="s">
+        <v>231</v>
+      </c>
+      <c r="D34" s="43">
+        <v>12018242335</v>
+      </c>
+      <c r="E34" s="41" t="s">
+        <v>267</v>
+      </c>
+      <c r="F34" s="44">
+        <v>80</v>
+      </c>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="44"/>
+      <c r="K34" s="44"/>
+      <c r="L34" s="44"/>
+      <c r="M34" s="44"/>
+      <c r="N34" s="44"/>
+      <c r="O34" s="44"/>
+      <c r="P34" s="45">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A35" s="42">
+        <v>32</v>
+      </c>
+      <c r="B35" s="41" t="s">
         <v>377</v>
       </c>
-      <c r="C26" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D26" s="5">
-        <v>12018242302</v>
-      </c>
-      <c r="E26" s="3" t="s">
+      <c r="C35" s="41" t="s">
+        <v>312</v>
+      </c>
+      <c r="D35" s="43">
+        <v>12018242340</v>
+      </c>
+      <c r="E35" s="41" t="s">
+        <v>347</v>
+      </c>
+      <c r="F35" s="44">
+        <v>60</v>
+      </c>
+      <c r="G35" s="44"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="44"/>
+      <c r="J35" s="44"/>
+      <c r="K35" s="44"/>
+      <c r="L35" s="44"/>
+      <c r="M35" s="44"/>
+      <c r="N35" s="44"/>
+      <c r="O35" s="44"/>
+      <c r="P35" s="45">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A36" s="42">
+        <v>33</v>
+      </c>
+      <c r="B36" s="41" t="s">
+        <v>377</v>
+      </c>
+      <c r="C36" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="D36" s="43">
+        <v>12018242342</v>
+      </c>
+      <c r="E36" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="F36" s="44">
+        <v>100</v>
+      </c>
+      <c r="G36" s="44"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="44"/>
+      <c r="J36" s="44"/>
+      <c r="K36" s="44"/>
+      <c r="L36" s="44"/>
+      <c r="M36" s="44"/>
+      <c r="N36" s="44"/>
+      <c r="O36" s="44"/>
+      <c r="P36" s="45">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A37" s="42">
+        <v>34</v>
+      </c>
+      <c r="B37" s="41" t="s">
+        <v>377</v>
+      </c>
+      <c r="C37" s="41" t="s">
+        <v>233</v>
+      </c>
+      <c r="D37" s="43">
+        <v>12018242343</v>
+      </c>
+      <c r="E37" s="41" t="s">
+        <v>268</v>
+      </c>
+      <c r="F37" s="44">
+        <v>100</v>
+      </c>
+      <c r="G37" s="44"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="44"/>
+      <c r="K37" s="44"/>
+      <c r="L37" s="44"/>
+      <c r="M37" s="44"/>
+      <c r="N37" s="44"/>
+      <c r="O37" s="44"/>
+      <c r="P37" s="45">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A38" s="42">
+        <v>35</v>
+      </c>
+      <c r="B38" s="41" t="s">
+        <v>377</v>
+      </c>
+      <c r="C38" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="D38" s="43">
+        <v>12018242353</v>
+      </c>
+      <c r="E38" s="41" t="s">
+        <v>195</v>
+      </c>
+      <c r="F38" s="44">
+        <v>60</v>
+      </c>
+      <c r="G38" s="44"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="44"/>
+      <c r="J38" s="44"/>
+      <c r="K38" s="44"/>
+      <c r="L38" s="44"/>
+      <c r="M38" s="44"/>
+      <c r="N38" s="44"/>
+      <c r="O38" s="44"/>
+      <c r="P38" s="45">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A39" s="42">
+        <v>36</v>
+      </c>
+      <c r="B39" s="41" t="s">
+        <v>377</v>
+      </c>
+      <c r="C39" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="D39" s="43">
+        <v>12018242354</v>
+      </c>
+      <c r="E39" s="41" t="s">
+        <v>271</v>
+      </c>
+      <c r="F39" s="44">
+        <v>100</v>
+      </c>
+      <c r="G39" s="44"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="44"/>
+      <c r="K39" s="44"/>
+      <c r="L39" s="44"/>
+      <c r="M39" s="44"/>
+      <c r="N39" s="44"/>
+      <c r="O39" s="44"/>
+      <c r="P39" s="45">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A40" s="42">
+        <v>37</v>
+      </c>
+      <c r="B40" s="41" t="s">
+        <v>377</v>
+      </c>
+      <c r="C40" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="D40" s="43">
+        <v>12018242356</v>
+      </c>
+      <c r="E40" s="41" t="s">
+        <v>272</v>
+      </c>
+      <c r="F40" s="44">
+        <v>100</v>
+      </c>
+      <c r="G40" s="44"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="44"/>
+      <c r="J40" s="44"/>
+      <c r="K40" s="44"/>
+      <c r="L40" s="44"/>
+      <c r="M40" s="44"/>
+      <c r="N40" s="44"/>
+      <c r="O40" s="44"/>
+      <c r="P40" s="45">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A41" s="42">
+        <v>38</v>
+      </c>
+      <c r="B41" s="41" t="s">
+        <v>377</v>
+      </c>
+      <c r="C41" s="41" t="s">
+        <v>160</v>
+      </c>
+      <c r="D41" s="43">
+        <v>12018242359</v>
+      </c>
+      <c r="E41" s="41" t="s">
+        <v>197</v>
+      </c>
+      <c r="F41" s="44">
+        <v>100</v>
+      </c>
+      <c r="G41" s="44"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="44"/>
+      <c r="J41" s="44"/>
+      <c r="K41" s="44"/>
+      <c r="L41" s="44"/>
+      <c r="M41" s="44"/>
+      <c r="N41" s="44"/>
+      <c r="O41" s="44"/>
+      <c r="P41" s="45">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A42" s="42">
+        <v>39</v>
+      </c>
+      <c r="B42" s="41" t="s">
+        <v>377</v>
+      </c>
+      <c r="C42" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="D42" s="43">
+        <v>12018242361</v>
+      </c>
+      <c r="E42" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="F42" s="44">
+        <v>90</v>
+      </c>
+      <c r="G42" s="44"/>
+      <c r="H42" s="44"/>
+      <c r="I42" s="44"/>
+      <c r="J42" s="44"/>
+      <c r="K42" s="44"/>
+      <c r="L42" s="44"/>
+      <c r="M42" s="44"/>
+      <c r="N42" s="44"/>
+      <c r="O42" s="44"/>
+      <c r="P42" s="45">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A43" s="42">
+        <v>40</v>
+      </c>
+      <c r="B43" s="41" t="s">
+        <v>377</v>
+      </c>
+      <c r="C43" s="41" t="s">
+        <v>315</v>
+      </c>
+      <c r="D43" s="43">
+        <v>12018242367</v>
+      </c>
+      <c r="E43" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" s="44">
+        <v>60</v>
+      </c>
+      <c r="G43" s="44"/>
+      <c r="H43" s="44"/>
+      <c r="I43" s="44"/>
+      <c r="J43" s="44"/>
+      <c r="K43" s="44"/>
+      <c r="L43" s="44"/>
+      <c r="M43" s="44"/>
+      <c r="N43" s="44"/>
+      <c r="O43" s="44"/>
+      <c r="P43" s="45">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A44" s="42">
+        <v>41</v>
+      </c>
+      <c r="B44" s="41" t="s">
+        <v>377</v>
+      </c>
+      <c r="C44" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="D44" s="43">
+        <v>12018242370</v>
+      </c>
+      <c r="E44" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="F44" s="44">
+        <v>80</v>
+      </c>
+      <c r="G44" s="44"/>
+      <c r="H44" s="44"/>
+      <c r="I44" s="44"/>
+      <c r="J44" s="44"/>
+      <c r="K44" s="44"/>
+      <c r="L44" s="44"/>
+      <c r="M44" s="44"/>
+      <c r="N44" s="44"/>
+      <c r="O44" s="44"/>
+      <c r="P44" s="45">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A45" s="42">
+        <v>42</v>
+      </c>
+      <c r="B45" s="41" t="s">
+        <v>377</v>
+      </c>
+      <c r="C45" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="D45" s="43">
+        <v>12018242371</v>
+      </c>
+      <c r="E45" s="41" t="s">
+        <v>201</v>
+      </c>
+      <c r="F45" s="44">
+        <v>90</v>
+      </c>
+      <c r="G45" s="44"/>
+      <c r="H45" s="44"/>
+      <c r="I45" s="44"/>
+      <c r="J45" s="44"/>
+      <c r="K45" s="44"/>
+      <c r="L45" s="44"/>
+      <c r="M45" s="44"/>
+      <c r="N45" s="44"/>
+      <c r="O45" s="44"/>
+      <c r="P45" s="45">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A46" s="42">
+        <v>43</v>
+      </c>
+      <c r="B46" s="41" t="s">
+        <v>377</v>
+      </c>
+      <c r="C46" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="D46" s="43">
+        <v>12018242372</v>
+      </c>
+      <c r="E46" s="41" t="s">
+        <v>275</v>
+      </c>
+      <c r="F46" s="44">
+        <v>70</v>
+      </c>
+      <c r="G46" s="44"/>
+      <c r="H46" s="44"/>
+      <c r="I46" s="44"/>
+      <c r="J46" s="44"/>
+      <c r="K46" s="44"/>
+      <c r="L46" s="44"/>
+      <c r="M46" s="44"/>
+      <c r="N46" s="44"/>
+      <c r="O46" s="44"/>
+      <c r="P46" s="45">
+        <f t="shared" ref="P46:P51" si="1">AVERAGE(F46:O46)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A47" s="42">
+        <v>44</v>
+      </c>
+      <c r="B47" s="41" t="s">
+        <v>377</v>
+      </c>
+      <c r="C47" s="41" t="s">
+        <v>243</v>
+      </c>
+      <c r="D47" s="43">
+        <v>12018242373</v>
+      </c>
+      <c r="E47" s="41" t="s">
+        <v>276</v>
+      </c>
+      <c r="F47" s="44">
+        <v>90</v>
+      </c>
+      <c r="G47" s="44"/>
+      <c r="H47" s="44"/>
+      <c r="I47" s="44"/>
+      <c r="J47" s="44"/>
+      <c r="K47" s="44"/>
+      <c r="L47" s="44"/>
+      <c r="M47" s="44"/>
+      <c r="N47" s="44"/>
+      <c r="O47" s="44"/>
+      <c r="P47" s="45">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A48" s="42">
+        <v>45</v>
+      </c>
+      <c r="B48" s="41" t="s">
+        <v>377</v>
+      </c>
+      <c r="C48" s="41" t="s">
+        <v>318</v>
+      </c>
+      <c r="D48" s="43">
+        <v>12018242380</v>
+      </c>
+      <c r="E48" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="F26" s="8">
-        <v>8</v>
-      </c>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="7">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>24</v>
-      </c>
-      <c r="B27" s="3" t="s">
+      <c r="F48" s="44">
+        <v>100</v>
+      </c>
+      <c r="G48" s="44"/>
+      <c r="H48" s="44"/>
+      <c r="I48" s="44"/>
+      <c r="J48" s="44"/>
+      <c r="K48" s="44"/>
+      <c r="L48" s="44"/>
+      <c r="M48" s="44"/>
+      <c r="N48" s="44"/>
+      <c r="O48" s="44"/>
+      <c r="P48" s="45">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A49" s="42">
+        <v>46</v>
+      </c>
+      <c r="B49" s="41" t="s">
         <v>377</v>
       </c>
-      <c r="C27" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="D27" s="5">
-        <v>12018242303</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F27" s="8">
-        <v>10</v>
-      </c>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="7">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <v>25</v>
-      </c>
-      <c r="B28" s="3" t="s">
+      <c r="C49" s="41" t="s">
+        <v>322</v>
+      </c>
+      <c r="D49" s="43">
+        <v>12018242827</v>
+      </c>
+      <c r="E49" s="41" t="s">
+        <v>355</v>
+      </c>
+      <c r="F49" s="44">
+        <v>60</v>
+      </c>
+      <c r="G49" s="44"/>
+      <c r="H49" s="44"/>
+      <c r="I49" s="44"/>
+      <c r="J49" s="44"/>
+      <c r="K49" s="44"/>
+      <c r="L49" s="44"/>
+      <c r="M49" s="44"/>
+      <c r="N49" s="44"/>
+      <c r="O49" s="44"/>
+      <c r="P49" s="45">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A50" s="42">
+        <v>47</v>
+      </c>
+      <c r="B50" s="41" t="s">
         <v>377</v>
       </c>
-      <c r="C28" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="D28" s="5">
-        <v>12018242308</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="F28" s="8">
-        <v>10</v>
-      </c>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="7">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
-        <v>26</v>
-      </c>
-      <c r="B29" s="3" t="s">
+      <c r="C50" s="41" t="s">
+        <v>249</v>
+      </c>
+      <c r="D50" s="43">
+        <v>12018243559</v>
+      </c>
+      <c r="E50" s="41" t="s">
+        <v>283</v>
+      </c>
+      <c r="F50" s="44">
+        <v>100</v>
+      </c>
+      <c r="G50" s="44"/>
+      <c r="H50" s="44"/>
+      <c r="I50" s="44"/>
+      <c r="J50" s="44"/>
+      <c r="K50" s="44"/>
+      <c r="L50" s="44"/>
+      <c r="M50" s="44"/>
+      <c r="N50" s="44"/>
+      <c r="O50" s="44"/>
+      <c r="P50" s="45">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A51" s="42">
+        <v>48</v>
+      </c>
+      <c r="B51" s="41" t="s">
         <v>377</v>
       </c>
-      <c r="C29" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="D29" s="5">
-        <v>12018242310</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="F29" s="8">
-        <v>10</v>
-      </c>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="7">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
-        <v>27</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="D30" s="5">
-        <v>12018242311</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="F30" s="8">
-        <v>8</v>
-      </c>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="7">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
-        <v>28</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="D31" s="5">
-        <v>12018242320</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="F31" s="8">
-        <v>6</v>
-      </c>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="7">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
-        <v>29</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D32" s="5">
-        <v>12018242327</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="F32" s="8">
-        <v>9</v>
-      </c>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="7">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
-        <v>30</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="D33" s="5">
-        <v>12018242329</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="F33" s="8">
-        <v>6</v>
-      </c>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="7">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
-        <v>31</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="D34" s="5">
-        <v>12018242335</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="F34" s="8">
-        <v>8</v>
-      </c>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
-      <c r="O34" s="8"/>
-      <c r="P34" s="7">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
-        <v>32</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="D35" s="5">
-        <v>12018242340</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="F35" s="8">
-        <v>6</v>
-      </c>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="8"/>
-      <c r="O35" s="8"/>
-      <c r="P35" s="7">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
-        <v>33</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="D36" s="5">
-        <v>12018242342</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F36" s="8">
-        <v>10</v>
-      </c>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="8"/>
-      <c r="O36" s="8"/>
-      <c r="P36" s="7">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
-        <v>34</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="D37" s="5">
-        <v>12018242343</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="F37" s="8">
-        <v>10</v>
-      </c>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="8"/>
-      <c r="O37" s="8"/>
-      <c r="P37" s="7">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
-        <v>35</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="D38" s="5">
-        <v>12018242353</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="F38" s="8">
-        <v>6</v>
-      </c>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
-      <c r="O38" s="8"/>
-      <c r="P38" s="7">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
-        <v>36</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="D39" s="5">
-        <v>12018242354</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="F39" s="8">
-        <v>10</v>
-      </c>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
-      <c r="N39" s="8"/>
-      <c r="O39" s="8"/>
-      <c r="P39" s="7">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
-        <v>37</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="D40" s="5">
-        <v>12018242356</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="F40" s="8">
-        <v>10</v>
-      </c>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="8"/>
-      <c r="M40" s="8"/>
-      <c r="N40" s="8"/>
-      <c r="O40" s="8"/>
-      <c r="P40" s="7">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
-        <v>38</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="D41" s="5">
-        <v>12018242359</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="F41" s="8">
-        <v>10</v>
-      </c>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="8"/>
-      <c r="M41" s="8"/>
-      <c r="N41" s="8"/>
-      <c r="O41" s="8"/>
-      <c r="P41" s="7">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
-        <v>39</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="D42" s="5">
-        <v>12018242361</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="F42" s="8">
-        <v>9</v>
-      </c>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
-      <c r="L42" s="8"/>
-      <c r="M42" s="8"/>
-      <c r="N42" s="8"/>
-      <c r="O42" s="8"/>
-      <c r="P42" s="7">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
-        <v>40</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="D43" s="5">
-        <v>12018242367</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F43" s="8">
-        <v>6</v>
-      </c>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="8"/>
-      <c r="N43" s="8"/>
-      <c r="O43" s="8"/>
-      <c r="P43" s="7">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
-        <v>41</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D44" s="5">
-        <v>12018242370</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="F44" s="8">
-        <v>8</v>
-      </c>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
-      <c r="L44" s="8"/>
-      <c r="M44" s="8"/>
-      <c r="N44" s="8"/>
-      <c r="O44" s="8"/>
-      <c r="P44" s="7">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
-        <v>42</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="D45" s="5">
-        <v>12018242371</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="F45" s="8">
-        <v>9</v>
-      </c>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="8"/>
-      <c r="M45" s="8"/>
-      <c r="N45" s="8"/>
-      <c r="O45" s="8"/>
-      <c r="P45" s="7">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
-        <v>43</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="D46" s="5">
-        <v>12018242372</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="F46" s="8">
-        <v>7</v>
-      </c>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="8"/>
-      <c r="L46" s="8"/>
-      <c r="M46" s="8"/>
-      <c r="N46" s="8"/>
-      <c r="O46" s="8"/>
-      <c r="P46" s="7">
-        <f t="shared" ref="P46:P51" si="1">AVERAGE(F46:O46)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
-        <v>44</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="D47" s="5">
-        <v>12018242373</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="F47" s="8">
-        <v>9</v>
-      </c>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8"/>
-      <c r="L47" s="8"/>
-      <c r="M47" s="8"/>
-      <c r="N47" s="8"/>
-      <c r="O47" s="8"/>
-      <c r="P47" s="7">
+      <c r="C51" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="D51" s="43">
+        <v>12018244554</v>
+      </c>
+      <c r="E51" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="F51" s="44">
+        <v>90</v>
+      </c>
+      <c r="G51" s="44"/>
+      <c r="H51" s="44"/>
+      <c r="I51" s="44"/>
+      <c r="J51" s="44"/>
+      <c r="K51" s="44"/>
+      <c r="L51" s="44"/>
+      <c r="M51" s="44"/>
+      <c r="N51" s="44"/>
+      <c r="O51" s="44"/>
+      <c r="P51" s="45">
         <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" s="2">
-        <v>45</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="D48" s="5">
-        <v>12018242380</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="F48" s="8">
-        <v>10</v>
-      </c>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="8"/>
-      <c r="L48" s="8"/>
-      <c r="M48" s="8"/>
-      <c r="N48" s="8"/>
-      <c r="O48" s="8"/>
-      <c r="P48" s="7">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
-        <v>46</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="D49" s="5">
-        <v>12018242827</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="F49" s="8">
-        <v>6</v>
-      </c>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="8"/>
-      <c r="L49" s="8"/>
-      <c r="M49" s="8"/>
-      <c r="N49" s="8"/>
-      <c r="O49" s="8"/>
-      <c r="P49" s="7">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
-        <v>47</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="D50" s="5">
-        <v>12018243559</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="F50" s="8">
-        <v>10</v>
-      </c>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="8"/>
-      <c r="L50" s="8"/>
-      <c r="M50" s="8"/>
-      <c r="N50" s="8"/>
-      <c r="O50" s="8"/>
-      <c r="P50" s="7">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
-        <v>48</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="D51" s="5">
-        <v>12018244554</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F51" s="8">
-        <v>9</v>
-      </c>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="8"/>
-      <c r="L51" s="8"/>
-      <c r="M51" s="8"/>
-      <c r="N51" s="8"/>
-      <c r="O51" s="8"/>
-      <c r="P51" s="7">
-        <f t="shared" si="1"/>
-        <v>9</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:P45">
-    <sortState ref="A5:R44">
+  <autoFilter ref="A2:P45" xr:uid="{00000000-0009-0000-0000-000002000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:R44">
       <sortCondition ref="C2:C3"/>
     </sortState>
   </autoFilter>
@@ -7123,11 +7209,11 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="P2:P3"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Input Score" sqref="F4:O51"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:O3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Assignment Number" sqref="F2:O2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Input Score" sqref="F4:O51" xr:uid="{00000000-0002-0000-0200-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:O3" xr:uid="{00000000-0002-0000-0200-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Assignment Number" sqref="F2:O2" xr:uid="{00000000-0002-0000-0200-000002000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7135,1634 +7221,1730 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="9.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.88671875" style="4" customWidth="1"/>
-    <col min="13" max="14" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.875" style="4" customWidth="1"/>
+    <col min="13" max="14" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.875" style="4" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="25" style="4" customWidth="1"/>
-    <col min="27" max="27" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="19" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="25" t="s">
         <v>362</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="25" t="s">
         <v>363</v>
       </c>
-      <c r="P2" s="14" t="s">
+      <c r="P2" s="22" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="3" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="9">
+        <v>45191</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="O3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="P3" s="15"/>
-    </row>
-    <row r="4" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="P3" s="26"/>
+    </row>
+    <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="30">
         <v>12018242209</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="13" t="e">
+      <c r="F4" s="31">
+        <v>100</v>
+      </c>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="11">
         <f t="shared" ref="P4:P51" si="0">AVERAGE(F4:O4)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="30">
         <v>12018242210</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="F5" s="31">
+        <v>100</v>
+      </c>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="11">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>3</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="30">
         <v>12018242211</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="F6" s="31">
+        <v>75</v>
+      </c>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="11">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>4</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="30">
         <v>12018242218</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="F7" s="31">
+        <v>100</v>
+      </c>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="11">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>5</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="30">
         <v>12018242222</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="29" t="s">
         <v>385</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="F8" s="31">
+        <v>80</v>
+      </c>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="11">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>6</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="29" t="s">
         <v>289</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="30">
         <v>12018242225</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="29" t="s">
         <v>330</v>
       </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="F9" s="31">
+        <v>90</v>
+      </c>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="11">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>7</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="30">
         <v>12018242227</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="F10" s="31">
+        <v>90</v>
+      </c>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="11">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>8</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="30">
         <v>12018242228</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="29" t="s">
         <v>386</v>
       </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="F11" s="31">
+        <v>100</v>
+      </c>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="11">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>9</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="29" t="s">
         <v>209</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="30">
         <v>12018242234</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="29" t="s">
         <v>387</v>
       </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="F12" s="31">
+        <v>90</v>
+      </c>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="11">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>10</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="30">
         <v>12018242237</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="F13" s="31">
+        <v>70</v>
+      </c>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="11">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>11</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="30">
         <v>12018242238</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="F14" s="31">
+        <v>100</v>
+      </c>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="11">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>12</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="30">
         <v>12018242239</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="F15" s="31">
+        <v>100</v>
+      </c>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="11">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>13</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="30">
         <v>12018242242</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="29" t="s">
         <v>252</v>
       </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="F16" s="31">
+        <v>60</v>
+      </c>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="11">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>14</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="29" t="s">
         <v>292</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="30">
         <v>12018242244</v>
       </c>
-      <c r="E17" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="E17" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="F17" s="31">
+        <v>75</v>
+      </c>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="11">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>15</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="30">
         <v>12018242245</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="F18" s="31">
+        <v>90</v>
+      </c>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="11">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>16</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="30">
         <v>12018242247</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="F19" s="31">
+        <v>100</v>
+      </c>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="11">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>17</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="29" t="s">
         <v>210</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="30">
         <v>12018242250</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="29" t="s">
         <v>253</v>
       </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="F20" s="31">
+        <v>100</v>
+      </c>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="11">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>18</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="30">
         <v>12018242259</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="29" t="s">
         <v>179</v>
       </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="F21" s="31">
+        <v>100</v>
+      </c>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31"/>
+      <c r="P21" s="11">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>19</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="30">
         <v>12018242265</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="F22" s="31">
+        <v>100</v>
+      </c>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="11">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>20</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D23" s="30">
         <v>12018242272</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="F23" s="31">
+        <v>100</v>
+      </c>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31"/>
+      <c r="P23" s="11">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>21</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D24" s="30">
         <v>12018242275</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="E24" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="F24" s="31">
+        <v>100</v>
+      </c>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="11">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>22</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D25" s="30">
         <v>12018242279</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="F25" s="31">
+        <v>100</v>
+      </c>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="31"/>
+      <c r="P25" s="11">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>23</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D26" s="30">
         <v>12018242280</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="E26" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="F26" s="31">
+        <v>70</v>
+      </c>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="31"/>
+      <c r="O26" s="31"/>
+      <c r="P26" s="11">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>24</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D27" s="30">
         <v>12018242283</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="E27" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="F27" s="31">
+        <v>90</v>
+      </c>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="31"/>
+      <c r="P27" s="11">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>25</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="29" t="s">
         <v>223</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D28" s="30">
         <v>12018242285</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="E28" s="29" t="s">
         <v>261</v>
       </c>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="F28" s="31">
+        <v>100</v>
+      </c>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="31"/>
+      <c r="P28" s="11">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>26</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="29" t="s">
         <v>299</v>
       </c>
-      <c r="D29" s="12">
+      <c r="D29" s="30">
         <v>12018242286</v>
       </c>
-      <c r="E29" s="11" t="s">
+      <c r="E29" s="29" t="s">
         <v>335</v>
       </c>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="F29" s="31">
+        <v>90</v>
+      </c>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="31"/>
+      <c r="O29" s="31"/>
+      <c r="P29" s="11">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>27</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="29" t="s">
         <v>300</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D30" s="30">
         <v>12018242289</v>
       </c>
-      <c r="E30" s="11" t="s">
+      <c r="E30" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="F30" s="31">
+        <v>90</v>
+      </c>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="11">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>28</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="29" t="s">
         <v>301</v>
       </c>
-      <c r="D31" s="12">
+      <c r="D31" s="30">
         <v>12018242290</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="E31" s="29" t="s">
         <v>336</v>
       </c>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="F31" s="31">
+        <v>50</v>
+      </c>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="31"/>
+      <c r="M31" s="31"/>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31"/>
+      <c r="P31" s="11">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>29</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="D32" s="12">
+      <c r="D32" s="30">
         <v>12018242293</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="E32" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="F32" s="31">
+        <v>90</v>
+      </c>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="31"/>
+      <c r="M32" s="31"/>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31"/>
+      <c r="P32" s="11">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>30</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="29" t="s">
         <v>224</v>
       </c>
-      <c r="D33" s="12">
+      <c r="D33" s="30">
         <v>12018242294</v>
       </c>
-      <c r="E33" s="11" t="s">
+      <c r="E33" s="29" t="s">
         <v>262</v>
       </c>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="F33" s="31">
+        <v>85</v>
+      </c>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="31"/>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31"/>
+      <c r="P33" s="11">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
         <v>31</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="29" t="s">
         <v>388</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D34" s="30">
         <v>12018242300</v>
       </c>
-      <c r="E34" s="11" t="s">
+      <c r="E34" s="29" t="s">
         <v>339</v>
       </c>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
-      <c r="O34" s="8"/>
-      <c r="P34" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="F34" s="31">
+        <v>70</v>
+      </c>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="31"/>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31"/>
+      <c r="P34" s="11">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
         <v>32</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="D35" s="12">
+      <c r="D35" s="30">
         <v>12018242305</v>
       </c>
-      <c r="E35" s="11" t="s">
+      <c r="E35" s="29" t="s">
         <v>186</v>
       </c>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="8"/>
-      <c r="O35" s="8"/>
-      <c r="P35" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="F35" s="31">
+        <v>90</v>
+      </c>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="31"/>
+      <c r="M35" s="31"/>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31"/>
+      <c r="P35" s="11">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
         <v>33</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="D36" s="12">
+      <c r="D36" s="30">
         <v>12018242306</v>
       </c>
-      <c r="E36" s="11" t="s">
+      <c r="E36" s="29" t="s">
         <v>263</v>
       </c>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="8"/>
-      <c r="O36" s="8"/>
-      <c r="P36" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="F36" s="31">
+        <v>90</v>
+      </c>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="31"/>
+      <c r="M36" s="31"/>
+      <c r="N36" s="31"/>
+      <c r="O36" s="31"/>
+      <c r="P36" s="11">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
         <v>34</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="D37" s="12">
+      <c r="D37" s="30">
         <v>12018242314</v>
       </c>
-      <c r="E37" s="11" t="s">
+      <c r="E37" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="8"/>
-      <c r="O37" s="8"/>
-      <c r="P37" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="F37" s="31">
+        <v>100</v>
+      </c>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="31"/>
+      <c r="M37" s="31"/>
+      <c r="N37" s="31"/>
+      <c r="O37" s="31"/>
+      <c r="P37" s="11">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
         <v>35</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="29" t="s">
         <v>389</v>
       </c>
-      <c r="D38" s="12">
+      <c r="D38" s="30">
         <v>12018242317</v>
       </c>
-      <c r="E38" s="11" t="s">
+      <c r="E38" s="29" t="s">
         <v>341</v>
       </c>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
-      <c r="O38" s="8"/>
-      <c r="P38" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="F38" s="31">
+        <v>60</v>
+      </c>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="31"/>
+      <c r="M38" s="31"/>
+      <c r="N38" s="31"/>
+      <c r="O38" s="31"/>
+      <c r="P38" s="11">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
         <v>36</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="29" t="s">
         <v>306</v>
       </c>
-      <c r="D39" s="12">
+      <c r="D39" s="30">
         <v>12018242319</v>
       </c>
-      <c r="E39" s="11" t="s">
+      <c r="E39" s="29" t="s">
         <v>257</v>
       </c>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
-      <c r="N39" s="8"/>
-      <c r="O39" s="8"/>
-      <c r="P39" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="F39" s="31">
+        <v>75</v>
+      </c>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="31"/>
+      <c r="L39" s="31"/>
+      <c r="M39" s="31"/>
+      <c r="N39" s="31"/>
+      <c r="O39" s="31"/>
+      <c r="P39" s="11">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
         <v>37</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C40" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="D40" s="12">
+      <c r="D40" s="30">
         <v>12018242321</v>
       </c>
-      <c r="E40" s="11" t="s">
+      <c r="E40" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="8"/>
-      <c r="M40" s="8"/>
-      <c r="N40" s="8"/>
-      <c r="O40" s="8"/>
-      <c r="P40" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="F40" s="31">
+        <v>85</v>
+      </c>
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="31"/>
+      <c r="K40" s="31"/>
+      <c r="L40" s="31"/>
+      <c r="M40" s="31"/>
+      <c r="N40" s="31"/>
+      <c r="O40" s="31"/>
+      <c r="P40" s="11">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
         <v>38</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="29" t="s">
         <v>228</v>
       </c>
-      <c r="D41" s="12">
+      <c r="D41" s="30">
         <v>12018242322</v>
       </c>
-      <c r="E41" s="11" t="s">
+      <c r="E41" s="29" t="s">
         <v>264</v>
       </c>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="8"/>
-      <c r="M41" s="8"/>
-      <c r="N41" s="8"/>
-      <c r="O41" s="8"/>
-      <c r="P41" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="F41" s="31">
+        <v>100</v>
+      </c>
+      <c r="G41" s="31"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="31"/>
+      <c r="K41" s="31"/>
+      <c r="L41" s="31"/>
+      <c r="M41" s="31"/>
+      <c r="N41" s="31"/>
+      <c r="O41" s="31"/>
+      <c r="P41" s="11">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A42" s="2">
         <v>39</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C42" s="29" t="s">
         <v>230</v>
       </c>
-      <c r="D42" s="12">
+      <c r="D42" s="30">
         <v>12018242331</v>
       </c>
-      <c r="E42" s="11" t="s">
+      <c r="E42" s="29" t="s">
         <v>266</v>
       </c>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
-      <c r="L42" s="8"/>
-      <c r="M42" s="8"/>
-      <c r="N42" s="8"/>
-      <c r="O42" s="8"/>
-      <c r="P42" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="F42" s="31">
+        <v>100</v>
+      </c>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="31"/>
+      <c r="K42" s="31"/>
+      <c r="L42" s="31"/>
+      <c r="M42" s="31"/>
+      <c r="N42" s="31"/>
+      <c r="O42" s="31"/>
+      <c r="P42" s="11">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
         <v>40</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="C43" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="D43" s="12">
+      <c r="D43" s="30">
         <v>12018242336</v>
       </c>
-      <c r="E43" s="11" t="s">
+      <c r="E43" s="29" t="s">
         <v>191</v>
       </c>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="8"/>
-      <c r="N43" s="8"/>
-      <c r="O43" s="8"/>
-      <c r="P43" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="F43" s="31">
+        <v>100</v>
+      </c>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="31"/>
+      <c r="K43" s="31"/>
+      <c r="L43" s="31"/>
+      <c r="M43" s="31"/>
+      <c r="N43" s="31"/>
+      <c r="O43" s="31"/>
+      <c r="P43" s="11">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A44" s="2">
         <v>41</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="C44" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="D44" s="12">
+      <c r="D44" s="30">
         <v>12018242344</v>
       </c>
-      <c r="E44" s="11" t="s">
+      <c r="E44" s="29" t="s">
         <v>192</v>
       </c>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
-      <c r="L44" s="8"/>
-      <c r="M44" s="8"/>
-      <c r="N44" s="8"/>
-      <c r="O44" s="8"/>
-      <c r="P44" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="F44" s="31">
+        <v>100</v>
+      </c>
+      <c r="G44" s="31"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="31"/>
+      <c r="J44" s="31"/>
+      <c r="K44" s="31"/>
+      <c r="L44" s="31"/>
+      <c r="M44" s="31"/>
+      <c r="N44" s="31"/>
+      <c r="O44" s="31"/>
+      <c r="P44" s="11">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
         <v>42</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C45" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="D45" s="12">
+      <c r="D45" s="30">
         <v>12018242345</v>
       </c>
-      <c r="E45" s="11" t="s">
+      <c r="E45" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="8"/>
-      <c r="M45" s="8"/>
-      <c r="N45" s="8"/>
-      <c r="O45" s="8"/>
-      <c r="P45" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="F45" s="31">
+        <v>100</v>
+      </c>
+      <c r="G45" s="31"/>
+      <c r="H45" s="31"/>
+      <c r="I45" s="31"/>
+      <c r="J45" s="31"/>
+      <c r="K45" s="31"/>
+      <c r="L45" s="31"/>
+      <c r="M45" s="31"/>
+      <c r="N45" s="31"/>
+      <c r="O45" s="31"/>
+      <c r="P45" s="11">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A46" s="2">
         <v>43</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C46" s="29" t="s">
         <v>313</v>
       </c>
-      <c r="D46" s="12">
+      <c r="D46" s="30">
         <v>12018242346</v>
       </c>
-      <c r="E46" s="11" t="s">
+      <c r="E46" s="29" t="s">
         <v>348</v>
       </c>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="8"/>
-      <c r="L46" s="8"/>
-      <c r="M46" s="8"/>
-      <c r="N46" s="8"/>
-      <c r="O46" s="8"/>
-      <c r="P46" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="F46" s="31">
+        <v>90</v>
+      </c>
+      <c r="G46" s="31"/>
+      <c r="H46" s="31"/>
+      <c r="I46" s="31"/>
+      <c r="J46" s="31"/>
+      <c r="K46" s="31"/>
+      <c r="L46" s="31"/>
+      <c r="M46" s="31"/>
+      <c r="N46" s="31"/>
+      <c r="O46" s="31"/>
+      <c r="P46" s="11">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
         <v>44</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C47" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="D47" s="12">
+      <c r="D47" s="30">
         <v>12018242352</v>
       </c>
-      <c r="E47" s="11" t="s">
+      <c r="E47" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8"/>
-      <c r="L47" s="8"/>
-      <c r="M47" s="8"/>
-      <c r="N47" s="8"/>
-      <c r="O47" s="8"/>
-      <c r="P47" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="F47" s="31">
+        <v>100</v>
+      </c>
+      <c r="G47" s="31"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="31"/>
+      <c r="J47" s="31"/>
+      <c r="K47" s="31"/>
+      <c r="L47" s="31"/>
+      <c r="M47" s="31"/>
+      <c r="N47" s="31"/>
+      <c r="O47" s="31"/>
+      <c r="P47" s="11">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A48" s="2">
         <v>45</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="C48" s="29" t="s">
         <v>314</v>
       </c>
-      <c r="D48" s="12">
+      <c r="D48" s="30">
         <v>12018242355</v>
       </c>
-      <c r="E48" s="11" t="s">
+      <c r="E48" s="29" t="s">
         <v>349</v>
       </c>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="8"/>
-      <c r="L48" s="8"/>
-      <c r="M48" s="8"/>
-      <c r="N48" s="8"/>
-      <c r="O48" s="8"/>
-      <c r="P48" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="F48" s="31">
+        <v>90</v>
+      </c>
+      <c r="G48" s="31"/>
+      <c r="H48" s="31"/>
+      <c r="I48" s="31"/>
+      <c r="J48" s="31"/>
+      <c r="K48" s="31"/>
+      <c r="L48" s="31"/>
+      <c r="M48" s="31"/>
+      <c r="N48" s="31"/>
+      <c r="O48" s="31"/>
+      <c r="P48" s="11">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
         <v>46</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C49" s="11" t="s">
+      <c r="C49" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="D49" s="12">
+      <c r="D49" s="30">
         <v>12018242358</v>
       </c>
-      <c r="E49" s="11" t="s">
+      <c r="E49" s="29" t="s">
         <v>196</v>
       </c>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="8"/>
-      <c r="L49" s="8"/>
-      <c r="M49" s="8"/>
-      <c r="N49" s="8"/>
-      <c r="O49" s="8"/>
-      <c r="P49" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="F49" s="31">
+        <v>100</v>
+      </c>
+      <c r="G49" s="31"/>
+      <c r="H49" s="31"/>
+      <c r="I49" s="31"/>
+      <c r="J49" s="31"/>
+      <c r="K49" s="31"/>
+      <c r="L49" s="31"/>
+      <c r="M49" s="31"/>
+      <c r="N49" s="31"/>
+      <c r="O49" s="31"/>
+      <c r="P49" s="11">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A50" s="2">
         <v>47</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="C50" s="29" t="s">
         <v>240</v>
       </c>
-      <c r="D50" s="12">
+      <c r="D50" s="30">
         <v>12018242364</v>
       </c>
-      <c r="E50" s="11" t="s">
+      <c r="E50" s="29" t="s">
         <v>273</v>
       </c>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="8"/>
-      <c r="L50" s="8"/>
-      <c r="M50" s="8"/>
-      <c r="N50" s="8"/>
-      <c r="O50" s="8"/>
-      <c r="P50" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="F50" s="31">
+        <v>90</v>
+      </c>
+      <c r="G50" s="31"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="31"/>
+      <c r="J50" s="31"/>
+      <c r="K50" s="31"/>
+      <c r="L50" s="31"/>
+      <c r="M50" s="31"/>
+      <c r="N50" s="31"/>
+      <c r="O50" s="31"/>
+      <c r="P50" s="11">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A51" s="2">
         <v>48</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C51" s="11" t="s">
+      <c r="C51" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="D51" s="12">
+      <c r="D51" s="30">
         <v>12018242369</v>
       </c>
-      <c r="E51" s="11" t="s">
+      <c r="E51" s="29" t="s">
         <v>350</v>
       </c>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="8"/>
-      <c r="L51" s="8"/>
-      <c r="M51" s="8"/>
-      <c r="N51" s="8"/>
-      <c r="O51" s="8"/>
-      <c r="P51" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="F51" s="31">
+        <v>60</v>
+      </c>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="31"/>
+      <c r="K51" s="31"/>
+      <c r="L51" s="31"/>
+      <c r="M51" s="31"/>
+      <c r="N51" s="31"/>
+      <c r="O51" s="31"/>
+      <c r="P51" s="11">
+        <f t="shared" si="0"/>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:P45">
-    <sortState ref="A5:T44">
+  <autoFilter ref="A2:P45" xr:uid="{00000000-0009-0000-0000-000003000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:T44">
       <sortCondition ref="C2:C3"/>
     </sortState>
   </autoFilter>
@@ -8776,11 +8958,11 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="P2:P3"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Assignment Number" sqref="F2:O2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:O3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Input Score" sqref="F4:O51">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Assignment Number" sqref="F2:O2" xr:uid="{00000000-0002-0000-0300-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:O3" xr:uid="{00000000-0002-0000-0300-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Input Score" sqref="F4:O51" xr:uid="{00000000-0002-0000-0300-000002000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/Grade 2018/HomeAssignment/HA_Summary_YC_2018.xlsx
+++ b/Grade 2018/HomeAssignment/HA_Summary_YC_2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NIIT\NIIT教案\Sept-2020---Jan-2021\Grade 2018\HomeAssignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D9C9EC-5A05-4EEC-B5CD-B1C529E79CBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09A69638-4C7E-4360-BF44-C36875F324B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="15" windowWidth="20490" windowHeight="10125" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="392">
   <si>
     <t>No</t>
   </si>
@@ -1440,6 +1440,36 @@
     <xf numFmtId="177" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="8" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1464,6 +1494,30 @@
     <xf numFmtId="16" fontId="3" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="8" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="8" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1473,73 +1527,19 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="4" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="4" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="16" fontId="4" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="8" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="8" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="8" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1850,41 +1850,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="17" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="28" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -1917,16 +1917,16 @@
       <c r="O2" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="P2" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="19"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="29"/>
       <c r="F3" s="3">
         <v>44094</v>
       </c>
@@ -1957,7 +1957,7 @@
       <c r="O3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P3" s="13"/>
+      <c r="P3" s="23"/>
     </row>
     <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
@@ -3658,41 +3658,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="17" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="28" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -3725,16 +3725,16 @@
       <c r="O2" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="P2" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="19"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="29"/>
       <c r="F3" s="3">
         <v>40441</v>
       </c>
@@ -3765,7 +3765,7 @@
       <c r="O3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P3" s="13"/>
+      <c r="P3" s="23"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
@@ -5479,8 +5479,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C15" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F33" sqref="A1:P51"/>
+    <sheetView tabSelected="1" topLeftCell="C27" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5500,1695 +5500,1695 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="33" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="34" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="F2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="G2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="37" t="s">
+      <c r="I2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="37" t="s">
+      <c r="J2" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="37" t="s">
+      <c r="K2" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="37" t="s">
+      <c r="L2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="37" t="s">
+      <c r="M2" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="37" t="s">
+      <c r="N2" s="16" t="s">
         <v>362</v>
       </c>
-      <c r="O2" s="37" t="s">
+      <c r="O2" s="16" t="s">
         <v>363</v>
       </c>
-      <c r="P2" s="34" t="s">
+      <c r="P2" s="32" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A3" s="38"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="41">
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="17">
         <v>44095</v>
       </c>
-      <c r="G3" s="41" t="s">
+      <c r="G3" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="41" t="s">
+      <c r="H3" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="41" t="s">
+      <c r="I3" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="41" t="s">
+      <c r="J3" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="41" t="s">
+      <c r="K3" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="41" t="s">
+      <c r="L3" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="41" t="s">
+      <c r="M3" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="41" t="s">
+      <c r="N3" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="41" t="s">
+      <c r="O3" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="P3" s="38"/>
+      <c r="P3" s="33"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A4" s="42">
+      <c r="A4" s="18">
         <v>1</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="17" t="s">
         <v>378</v>
       </c>
-      <c r="D4" s="43">
+      <c r="D4" s="19">
         <v>12014244255</v>
       </c>
-      <c r="E4" s="41" t="e">
+      <c r="E4" s="17" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F4" s="44">
+      <c r="F4" s="20">
         <v>0</v>
       </c>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="44"/>
-      <c r="P4" s="45">
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="21">
         <f t="shared" ref="P4:P45" si="0">AVERAGE(F4:O4)</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A5" s="42">
+      <c r="A5" s="18">
         <v>2</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="D5" s="43">
+      <c r="D5" s="19">
         <v>12018242212</v>
       </c>
-      <c r="E5" s="41" t="s">
+      <c r="E5" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="F5" s="44">
-        <v>100</v>
-      </c>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="44"/>
-      <c r="O5" s="44"/>
-      <c r="P5" s="45">
+      <c r="F5" s="20">
+        <v>100</v>
+      </c>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="21">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A6" s="42">
+      <c r="A6" s="18">
         <v>3</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="43">
+      <c r="D6" s="19">
         <v>12018242213</v>
       </c>
-      <c r="E6" s="41" t="s">
+      <c r="E6" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="F6" s="44">
+      <c r="F6" s="20">
         <v>80</v>
       </c>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="44"/>
-      <c r="P6" s="45">
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="21">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A7" s="42">
+      <c r="A7" s="18">
         <v>4</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="D7" s="43">
+      <c r="D7" s="19">
         <v>12018242214</v>
       </c>
-      <c r="E7" s="41" t="s">
+      <c r="E7" s="17" t="s">
         <v>250</v>
       </c>
-      <c r="F7" s="44">
-        <v>100</v>
-      </c>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="44"/>
-      <c r="P7" s="45">
+      <c r="F7" s="20">
+        <v>100</v>
+      </c>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="21">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A8" s="42">
+      <c r="A8" s="18">
         <v>5</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="17" t="s">
         <v>379</v>
       </c>
-      <c r="D8" s="43">
+      <c r="D8" s="19">
         <v>12018242215</v>
       </c>
-      <c r="E8" s="41" t="s">
+      <c r="E8" s="17" t="s">
         <v>380</v>
       </c>
-      <c r="F8" s="44">
-        <v>100</v>
-      </c>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="44"/>
-      <c r="P8" s="45">
+      <c r="F8" s="20">
+        <v>100</v>
+      </c>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="21">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A9" s="42">
+      <c r="A9" s="18">
         <v>6</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="D9" s="43">
+      <c r="D9" s="19">
         <v>12018242216</v>
       </c>
-      <c r="E9" s="41" t="s">
+      <c r="E9" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="F9" s="44">
+      <c r="F9" s="20">
         <v>60</v>
       </c>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="44"/>
-      <c r="N9" s="44"/>
-      <c r="O9" s="44"/>
-      <c r="P9" s="45">
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="21">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A10" s="42">
+      <c r="A10" s="18">
         <v>7</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="C10" s="41" t="s">
+      <c r="C10" s="17" t="s">
         <v>288</v>
       </c>
-      <c r="D10" s="43">
+      <c r="D10" s="19">
         <v>12018242220</v>
       </c>
-      <c r="E10" s="41" t="s">
+      <c r="E10" s="17" t="s">
         <v>329</v>
       </c>
-      <c r="F10" s="44">
+      <c r="F10" s="20">
         <v>60</v>
       </c>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="44"/>
-      <c r="M10" s="44"/>
-      <c r="N10" s="44"/>
-      <c r="O10" s="44"/>
-      <c r="P10" s="45">
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="21">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A11" s="42">
+      <c r="A11" s="18">
         <v>8</v>
       </c>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="C11" s="41" t="s">
+      <c r="C11" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="43">
+      <c r="D11" s="19">
         <v>12018242224</v>
       </c>
-      <c r="E11" s="41" t="s">
+      <c r="E11" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="44">
-        <v>90</v>
-      </c>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="44"/>
-      <c r="M11" s="44"/>
-      <c r="N11" s="44"/>
-      <c r="O11" s="44"/>
-      <c r="P11" s="45">
+      <c r="F11" s="20">
+        <v>90</v>
+      </c>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="21">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A12" s="42">
+      <c r="A12" s="18">
         <v>9</v>
       </c>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="C12" s="41" t="s">
+      <c r="C12" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="43">
+      <c r="D12" s="19">
         <v>12018242229</v>
       </c>
-      <c r="E12" s="41" t="s">
+      <c r="E12" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="F12" s="44">
+      <c r="F12" s="20">
         <v>80</v>
       </c>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="44"/>
-      <c r="M12" s="44"/>
-      <c r="N12" s="44"/>
-      <c r="O12" s="44"/>
-      <c r="P12" s="45">
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="21">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A13" s="42">
+      <c r="A13" s="18">
         <v>10</v>
       </c>
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="C13" s="41" t="s">
+      <c r="C13" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="D13" s="43">
+      <c r="D13" s="19">
         <v>12018242230</v>
       </c>
-      <c r="E13" s="41" t="s">
+      <c r="E13" s="17" t="s">
         <v>381</v>
       </c>
-      <c r="F13" s="44">
+      <c r="F13" s="20">
         <v>60</v>
       </c>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="44"/>
-      <c r="M13" s="44"/>
-      <c r="N13" s="44"/>
-      <c r="O13" s="44"/>
-      <c r="P13" s="45">
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="21">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A14" s="42">
+      <c r="A14" s="18">
         <v>11</v>
       </c>
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="C14" s="41" t="s">
+      <c r="C14" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="D14" s="43">
+      <c r="D14" s="19">
         <v>12018242233</v>
       </c>
-      <c r="E14" s="41" t="s">
+      <c r="E14" s="17" t="s">
         <v>382</v>
       </c>
-      <c r="F14" s="44">
-        <v>90</v>
-      </c>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="44"/>
-      <c r="M14" s="44"/>
-      <c r="N14" s="44"/>
-      <c r="O14" s="44"/>
-      <c r="P14" s="45">
+      <c r="F14" s="20">
+        <v>90</v>
+      </c>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="21">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A15" s="42">
+      <c r="A15" s="18">
         <v>12</v>
       </c>
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="C15" s="41" t="s">
+      <c r="C15" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="D15" s="43">
+      <c r="D15" s="19">
         <v>12018242253</v>
       </c>
-      <c r="E15" s="41" t="s">
+      <c r="E15" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="F15" s="44">
-        <v>100</v>
-      </c>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="44"/>
-      <c r="M15" s="44"/>
-      <c r="N15" s="44"/>
-      <c r="O15" s="44"/>
-      <c r="P15" s="45">
+      <c r="F15" s="20">
+        <v>100</v>
+      </c>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="21">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A16" s="42">
+      <c r="A16" s="18">
         <v>13</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="C16" s="41" t="s">
+      <c r="C16" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="D16" s="43">
+      <c r="D16" s="19">
         <v>12018242261</v>
       </c>
-      <c r="E16" s="41" t="s">
+      <c r="E16" s="17" t="s">
         <v>257</v>
       </c>
-      <c r="F16" s="44">
-        <v>100</v>
-      </c>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="44"/>
-      <c r="M16" s="44"/>
-      <c r="N16" s="44"/>
-      <c r="O16" s="44"/>
-      <c r="P16" s="45">
+      <c r="F16" s="20">
+        <v>100</v>
+      </c>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="21">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A17" s="42">
+      <c r="A17" s="18">
         <v>14</v>
       </c>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="C17" s="41" t="s">
+      <c r="C17" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="43">
+      <c r="D17" s="19">
         <v>12018242262</v>
       </c>
-      <c r="E17" s="41" t="s">
+      <c r="E17" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="F17" s="44">
-        <v>90</v>
-      </c>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="44"/>
-      <c r="M17" s="44"/>
-      <c r="N17" s="44"/>
-      <c r="O17" s="44"/>
-      <c r="P17" s="45">
+      <c r="F17" s="20">
+        <v>90</v>
+      </c>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="21">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A18" s="42">
+      <c r="A18" s="18">
         <v>15</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="C18" s="41" t="s">
+      <c r="C18" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="43">
+      <c r="D18" s="19">
         <v>12018242264</v>
       </c>
-      <c r="E18" s="41" t="s">
+      <c r="E18" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="F18" s="44">
+      <c r="F18" s="20">
         <v>60</v>
       </c>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="44"/>
-      <c r="M18" s="44"/>
-      <c r="N18" s="44"/>
-      <c r="O18" s="44"/>
-      <c r="P18" s="45">
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="21">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A19" s="42">
+      <c r="A19" s="18">
         <v>16</v>
       </c>
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="C19" s="41" t="s">
+      <c r="C19" s="17" t="s">
         <v>298</v>
       </c>
-      <c r="D19" s="43">
+      <c r="D19" s="19">
         <v>12018242270</v>
       </c>
-      <c r="E19" s="41" t="s">
+      <c r="E19" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="F19" s="44">
-        <v>100</v>
-      </c>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="44"/>
-      <c r="K19" s="44"/>
-      <c r="L19" s="44"/>
-      <c r="M19" s="44"/>
-      <c r="N19" s="44"/>
-      <c r="O19" s="44"/>
-      <c r="P19" s="45">
+      <c r="F19" s="20">
+        <v>100</v>
+      </c>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="21">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A20" s="42">
+      <c r="A20" s="18">
         <v>17</v>
       </c>
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="C20" s="41" t="s">
+      <c r="C20" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="D20" s="43">
+      <c r="D20" s="19">
         <v>12018242274</v>
       </c>
-      <c r="E20" s="41" t="s">
+      <c r="E20" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="F20" s="44">
+      <c r="F20" s="20">
         <v>80</v>
       </c>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="44"/>
-      <c r="M20" s="44"/>
-      <c r="N20" s="44"/>
-      <c r="O20" s="44"/>
-      <c r="P20" s="45">
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="21">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A21" s="42">
+      <c r="A21" s="18">
         <v>18</v>
       </c>
-      <c r="B21" s="41" t="s">
+      <c r="B21" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="C21" s="41" t="s">
+      <c r="C21" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="D21" s="43">
+      <c r="D21" s="19">
         <v>12018242276</v>
       </c>
-      <c r="E21" s="41" t="s">
+      <c r="E21" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="F21" s="44">
+      <c r="F21" s="20">
         <v>60</v>
       </c>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="44"/>
-      <c r="M21" s="44"/>
-      <c r="N21" s="44"/>
-      <c r="O21" s="44"/>
-      <c r="P21" s="45">
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="21">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A22" s="42">
+      <c r="A22" s="18">
         <v>19</v>
       </c>
-      <c r="B22" s="41" t="s">
+      <c r="B22" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="C22" s="41" t="s">
+      <c r="C22" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="D22" s="43">
+      <c r="D22" s="19">
         <v>12018242278</v>
       </c>
-      <c r="E22" s="41" t="s">
+      <c r="E22" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="F22" s="44">
+      <c r="F22" s="20">
         <v>60</v>
       </c>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="44"/>
-      <c r="M22" s="44"/>
-      <c r="N22" s="44"/>
-      <c r="O22" s="44"/>
-      <c r="P22" s="45">
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="21">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A23" s="42">
+      <c r="A23" s="18">
         <v>20</v>
       </c>
-      <c r="B23" s="41" t="s">
+      <c r="B23" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="C23" s="41" t="s">
+      <c r="C23" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="D23" s="43">
+      <c r="D23" s="19">
         <v>12018242284</v>
       </c>
-      <c r="E23" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="F23" s="44">
+      <c r="E23" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="F23" s="20">
         <v>80</v>
       </c>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="44"/>
-      <c r="M23" s="44"/>
-      <c r="N23" s="44"/>
-      <c r="O23" s="44"/>
-      <c r="P23" s="45">
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="21">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A24" s="42">
+      <c r="A24" s="18">
         <v>21</v>
       </c>
-      <c r="B24" s="41" t="s">
+      <c r="B24" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="C24" s="41" t="s">
+      <c r="C24" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="D24" s="43">
+      <c r="D24" s="19">
         <v>12018242287</v>
       </c>
-      <c r="E24" s="41" t="s">
+      <c r="E24" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="F24" s="44">
-        <v>100</v>
-      </c>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="44"/>
-      <c r="K24" s="44"/>
-      <c r="L24" s="44"/>
-      <c r="M24" s="44"/>
-      <c r="N24" s="44"/>
-      <c r="O24" s="44"/>
-      <c r="P24" s="45">
+      <c r="F24" s="20">
+        <v>100</v>
+      </c>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="21">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A25" s="42">
+      <c r="A25" s="18">
         <v>22</v>
       </c>
-      <c r="B25" s="41" t="s">
+      <c r="B25" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="C25" s="41" t="s">
+      <c r="C25" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="D25" s="43">
+      <c r="D25" s="19">
         <v>12018242299</v>
       </c>
-      <c r="E25" s="41" t="s">
+      <c r="E25" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="F25" s="44">
+      <c r="F25" s="20">
         <v>60</v>
       </c>
-      <c r="G25" s="44"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="44"/>
-      <c r="K25" s="44"/>
-      <c r="L25" s="44"/>
-      <c r="M25" s="44"/>
-      <c r="N25" s="44"/>
-      <c r="O25" s="44"/>
-      <c r="P25" s="45">
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="21">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A26" s="42">
+      <c r="A26" s="18">
         <v>23</v>
       </c>
-      <c r="B26" s="41" t="s">
+      <c r="B26" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="C26" s="41" t="s">
+      <c r="C26" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="D26" s="43">
+      <c r="D26" s="19">
         <v>12018242302</v>
       </c>
-      <c r="E26" s="41" t="s">
+      <c r="E26" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="F26" s="44">
+      <c r="F26" s="20">
         <v>80</v>
       </c>
-      <c r="G26" s="44"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="44"/>
-      <c r="J26" s="44"/>
-      <c r="K26" s="44"/>
-      <c r="L26" s="44"/>
-      <c r="M26" s="44"/>
-      <c r="N26" s="44"/>
-      <c r="O26" s="44"/>
-      <c r="P26" s="45">
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="20"/>
+      <c r="O26" s="20"/>
+      <c r="P26" s="21">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A27" s="42">
+      <c r="A27" s="18">
         <v>24</v>
       </c>
-      <c r="B27" s="41" t="s">
+      <c r="B27" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="C27" s="41" t="s">
+      <c r="C27" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="D27" s="43">
+      <c r="D27" s="19">
         <v>12018242303</v>
       </c>
-      <c r="E27" s="41" t="s">
+      <c r="E27" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="F27" s="44">
-        <v>100</v>
-      </c>
-      <c r="G27" s="44"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="44"/>
-      <c r="J27" s="44"/>
-      <c r="K27" s="44"/>
-      <c r="L27" s="44"/>
-      <c r="M27" s="44"/>
-      <c r="N27" s="44"/>
-      <c r="O27" s="44"/>
-      <c r="P27" s="45">
+      <c r="F27" s="20">
+        <v>100</v>
+      </c>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="20"/>
+      <c r="O27" s="20"/>
+      <c r="P27" s="21">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A28" s="42">
+      <c r="A28" s="18">
         <v>25</v>
       </c>
-      <c r="B28" s="41" t="s">
+      <c r="B28" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="C28" s="41" t="s">
+      <c r="C28" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="D28" s="43">
+      <c r="D28" s="19">
         <v>12018242308</v>
       </c>
-      <c r="E28" s="41" t="s">
+      <c r="E28" s="17" t="s">
         <v>383</v>
       </c>
-      <c r="F28" s="44">
-        <v>100</v>
-      </c>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="44"/>
-      <c r="K28" s="44"/>
-      <c r="L28" s="44"/>
-      <c r="M28" s="44"/>
-      <c r="N28" s="44"/>
-      <c r="O28" s="44"/>
-      <c r="P28" s="45">
+      <c r="F28" s="20">
+        <v>100</v>
+      </c>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="20"/>
+      <c r="O28" s="20"/>
+      <c r="P28" s="21">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A29" s="42">
+      <c r="A29" s="18">
         <v>26</v>
       </c>
-      <c r="B29" s="41" t="s">
+      <c r="B29" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="C29" s="41" t="s">
+      <c r="C29" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="D29" s="43">
+      <c r="D29" s="19">
         <v>12018242310</v>
       </c>
-      <c r="E29" s="41" t="s">
+      <c r="E29" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="F29" s="44">
-        <v>100</v>
-      </c>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="44"/>
-      <c r="K29" s="44"/>
-      <c r="L29" s="44"/>
-      <c r="M29" s="44"/>
-      <c r="N29" s="44"/>
-      <c r="O29" s="44"/>
-      <c r="P29" s="45">
+      <c r="F29" s="20">
+        <v>100</v>
+      </c>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="21">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A30" s="42">
+      <c r="A30" s="18">
         <v>27</v>
       </c>
-      <c r="B30" s="41" t="s">
+      <c r="B30" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="C30" s="41" t="s">
+      <c r="C30" s="17" t="s">
         <v>305</v>
       </c>
-      <c r="D30" s="43">
+      <c r="D30" s="19">
         <v>12018242311</v>
       </c>
-      <c r="E30" s="41" t="s">
+      <c r="E30" s="17" t="s">
         <v>340</v>
       </c>
-      <c r="F30" s="44">
+      <c r="F30" s="20">
         <v>80</v>
       </c>
-      <c r="G30" s="44"/>
-      <c r="H30" s="44"/>
-      <c r="I30" s="44"/>
-      <c r="J30" s="44"/>
-      <c r="K30" s="44"/>
-      <c r="L30" s="44"/>
-      <c r="M30" s="44"/>
-      <c r="N30" s="44"/>
-      <c r="O30" s="44"/>
-      <c r="P30" s="45">
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="20"/>
+      <c r="O30" s="20"/>
+      <c r="P30" s="21">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A31" s="42">
+      <c r="A31" s="18">
         <v>28</v>
       </c>
-      <c r="B31" s="41" t="s">
+      <c r="B31" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="C31" s="41" t="s">
+      <c r="C31" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="D31" s="43">
+      <c r="D31" s="19">
         <v>12018242320</v>
       </c>
-      <c r="E31" s="41" t="s">
+      <c r="E31" s="17" t="s">
         <v>361</v>
       </c>
-      <c r="F31" s="44">
+      <c r="F31" s="20">
         <v>60</v>
       </c>
-      <c r="G31" s="44"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="44"/>
-      <c r="K31" s="44"/>
-      <c r="L31" s="44"/>
-      <c r="M31" s="44"/>
-      <c r="N31" s="44"/>
-      <c r="O31" s="44"/>
-      <c r="P31" s="45">
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="20"/>
+      <c r="O31" s="20"/>
+      <c r="P31" s="21">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A32" s="42">
+      <c r="A32" s="18">
         <v>29</v>
       </c>
-      <c r="B32" s="41" t="s">
+      <c r="B32" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="C32" s="41" t="s">
+      <c r="C32" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="D32" s="43">
+      <c r="D32" s="19">
         <v>12018242327</v>
       </c>
-      <c r="E32" s="41" t="s">
+      <c r="E32" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="F32" s="44">
-        <v>90</v>
-      </c>
-      <c r="G32" s="44"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="44"/>
-      <c r="K32" s="44"/>
-      <c r="L32" s="44"/>
-      <c r="M32" s="44"/>
-      <c r="N32" s="44"/>
-      <c r="O32" s="44"/>
-      <c r="P32" s="45">
+      <c r="F32" s="20">
+        <v>90</v>
+      </c>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="20"/>
+      <c r="N32" s="20"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="21">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A33" s="42">
+      <c r="A33" s="18">
         <v>30</v>
       </c>
-      <c r="B33" s="41" t="s">
+      <c r="B33" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="C33" s="41" t="s">
+      <c r="C33" s="17" t="s">
         <v>309</v>
       </c>
-      <c r="D33" s="43">
+      <c r="D33" s="19">
         <v>12018242329</v>
       </c>
-      <c r="E33" s="41" t="s">
+      <c r="E33" s="17" t="s">
         <v>344</v>
       </c>
-      <c r="F33" s="44">
+      <c r="F33" s="20">
         <v>60</v>
       </c>
-      <c r="G33" s="44"/>
-      <c r="H33" s="44"/>
-      <c r="I33" s="44"/>
-      <c r="J33" s="44"/>
-      <c r="K33" s="44"/>
-      <c r="L33" s="44"/>
-      <c r="M33" s="44"/>
-      <c r="N33" s="44"/>
-      <c r="O33" s="44"/>
-      <c r="P33" s="45">
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="20"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="21">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A34" s="42">
+      <c r="A34" s="18">
         <v>31</v>
       </c>
-      <c r="B34" s="41" t="s">
+      <c r="B34" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="C34" s="41" t="s">
+      <c r="C34" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="D34" s="43">
+      <c r="D34" s="19">
         <v>12018242335</v>
       </c>
-      <c r="E34" s="41" t="s">
+      <c r="E34" s="17" t="s">
         <v>267</v>
       </c>
-      <c r="F34" s="44">
+      <c r="F34" s="20">
         <v>80</v>
       </c>
-      <c r="G34" s="44"/>
-      <c r="H34" s="44"/>
-      <c r="I34" s="44"/>
-      <c r="J34" s="44"/>
-      <c r="K34" s="44"/>
-      <c r="L34" s="44"/>
-      <c r="M34" s="44"/>
-      <c r="N34" s="44"/>
-      <c r="O34" s="44"/>
-      <c r="P34" s="45">
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="20"/>
+      <c r="O34" s="20"/>
+      <c r="P34" s="21">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A35" s="42">
+      <c r="A35" s="18">
         <v>32</v>
       </c>
-      <c r="B35" s="41" t="s">
+      <c r="B35" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="C35" s="41" t="s">
+      <c r="C35" s="17" t="s">
         <v>312</v>
       </c>
-      <c r="D35" s="43">
+      <c r="D35" s="19">
         <v>12018242340</v>
       </c>
-      <c r="E35" s="41" t="s">
+      <c r="E35" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="F35" s="44">
+      <c r="F35" s="20">
         <v>60</v>
       </c>
-      <c r="G35" s="44"/>
-      <c r="H35" s="44"/>
-      <c r="I35" s="44"/>
-      <c r="J35" s="44"/>
-      <c r="K35" s="44"/>
-      <c r="L35" s="44"/>
-      <c r="M35" s="44"/>
-      <c r="N35" s="44"/>
-      <c r="O35" s="44"/>
-      <c r="P35" s="45">
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="20"/>
+      <c r="N35" s="20"/>
+      <c r="O35" s="20"/>
+      <c r="P35" s="21">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A36" s="42">
+      <c r="A36" s="18">
         <v>33</v>
       </c>
-      <c r="B36" s="41" t="s">
+      <c r="B36" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="C36" s="41" t="s">
+      <c r="C36" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="D36" s="43">
+      <c r="D36" s="19">
         <v>12018242342</v>
       </c>
-      <c r="E36" s="41" t="s">
+      <c r="E36" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="F36" s="44">
-        <v>100</v>
-      </c>
-      <c r="G36" s="44"/>
-      <c r="H36" s="44"/>
-      <c r="I36" s="44"/>
-      <c r="J36" s="44"/>
-      <c r="K36" s="44"/>
-      <c r="L36" s="44"/>
-      <c r="M36" s="44"/>
-      <c r="N36" s="44"/>
-      <c r="O36" s="44"/>
-      <c r="P36" s="45">
+      <c r="F36" s="20">
+        <v>100</v>
+      </c>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="20"/>
+      <c r="L36" s="20"/>
+      <c r="M36" s="20"/>
+      <c r="N36" s="20"/>
+      <c r="O36" s="20"/>
+      <c r="P36" s="21">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A37" s="42">
+      <c r="A37" s="18">
         <v>34</v>
       </c>
-      <c r="B37" s="41" t="s">
+      <c r="B37" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="C37" s="41" t="s">
+      <c r="C37" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="D37" s="43">
+      <c r="D37" s="19">
         <v>12018242343</v>
       </c>
-      <c r="E37" s="41" t="s">
+      <c r="E37" s="17" t="s">
         <v>268</v>
       </c>
-      <c r="F37" s="44">
-        <v>100</v>
-      </c>
-      <c r="G37" s="44"/>
-      <c r="H37" s="44"/>
-      <c r="I37" s="44"/>
-      <c r="J37" s="44"/>
-      <c r="K37" s="44"/>
-      <c r="L37" s="44"/>
-      <c r="M37" s="44"/>
-      <c r="N37" s="44"/>
-      <c r="O37" s="44"/>
-      <c r="P37" s="45">
+      <c r="F37" s="20">
+        <v>100</v>
+      </c>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="20"/>
+      <c r="M37" s="20"/>
+      <c r="N37" s="20"/>
+      <c r="O37" s="20"/>
+      <c r="P37" s="21">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A38" s="42">
+      <c r="A38" s="18">
         <v>35</v>
       </c>
-      <c r="B38" s="41" t="s">
+      <c r="B38" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="C38" s="41" t="s">
+      <c r="C38" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="D38" s="43">
+      <c r="D38" s="19">
         <v>12018242353</v>
       </c>
-      <c r="E38" s="41" t="s">
+      <c r="E38" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="F38" s="44">
+      <c r="F38" s="20">
         <v>60</v>
       </c>
-      <c r="G38" s="44"/>
-      <c r="H38" s="44"/>
-      <c r="I38" s="44"/>
-      <c r="J38" s="44"/>
-      <c r="K38" s="44"/>
-      <c r="L38" s="44"/>
-      <c r="M38" s="44"/>
-      <c r="N38" s="44"/>
-      <c r="O38" s="44"/>
-      <c r="P38" s="45">
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="20"/>
+      <c r="N38" s="20"/>
+      <c r="O38" s="20"/>
+      <c r="P38" s="21">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A39" s="42">
+      <c r="A39" s="18">
         <v>36</v>
       </c>
-      <c r="B39" s="41" t="s">
+      <c r="B39" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="C39" s="41" t="s">
+      <c r="C39" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="D39" s="43">
+      <c r="D39" s="19">
         <v>12018242354</v>
       </c>
-      <c r="E39" s="41" t="s">
+      <c r="E39" s="17" t="s">
         <v>271</v>
       </c>
-      <c r="F39" s="44">
-        <v>100</v>
-      </c>
-      <c r="G39" s="44"/>
-      <c r="H39" s="44"/>
-      <c r="I39" s="44"/>
-      <c r="J39" s="44"/>
-      <c r="K39" s="44"/>
-      <c r="L39" s="44"/>
-      <c r="M39" s="44"/>
-      <c r="N39" s="44"/>
-      <c r="O39" s="44"/>
-      <c r="P39" s="45">
+      <c r="F39" s="20">
+        <v>100</v>
+      </c>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="20"/>
+      <c r="M39" s="20"/>
+      <c r="N39" s="20"/>
+      <c r="O39" s="20"/>
+      <c r="P39" s="21">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A40" s="42">
+      <c r="A40" s="18">
         <v>37</v>
       </c>
-      <c r="B40" s="41" t="s">
+      <c r="B40" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="C40" s="41" t="s">
+      <c r="C40" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="D40" s="43">
+      <c r="D40" s="19">
         <v>12018242356</v>
       </c>
-      <c r="E40" s="41" t="s">
+      <c r="E40" s="17" t="s">
         <v>272</v>
       </c>
-      <c r="F40" s="44">
-        <v>100</v>
-      </c>
-      <c r="G40" s="44"/>
-      <c r="H40" s="44"/>
-      <c r="I40" s="44"/>
-      <c r="J40" s="44"/>
-      <c r="K40" s="44"/>
-      <c r="L40" s="44"/>
-      <c r="M40" s="44"/>
-      <c r="N40" s="44"/>
-      <c r="O40" s="44"/>
-      <c r="P40" s="45">
+      <c r="F40" s="20">
+        <v>100</v>
+      </c>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="20"/>
+      <c r="L40" s="20"/>
+      <c r="M40" s="20"/>
+      <c r="N40" s="20"/>
+      <c r="O40" s="20"/>
+      <c r="P40" s="21">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A41" s="42">
+      <c r="A41" s="18">
         <v>38</v>
       </c>
-      <c r="B41" s="41" t="s">
+      <c r="B41" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="C41" s="41" t="s">
+      <c r="C41" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="D41" s="43">
+      <c r="D41" s="19">
         <v>12018242359</v>
       </c>
-      <c r="E41" s="41" t="s">
+      <c r="E41" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="F41" s="44">
-        <v>100</v>
-      </c>
-      <c r="G41" s="44"/>
-      <c r="H41" s="44"/>
-      <c r="I41" s="44"/>
-      <c r="J41" s="44"/>
-      <c r="K41" s="44"/>
-      <c r="L41" s="44"/>
-      <c r="M41" s="44"/>
-      <c r="N41" s="44"/>
-      <c r="O41" s="44"/>
-      <c r="P41" s="45">
+      <c r="F41" s="20">
+        <v>100</v>
+      </c>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="20"/>
+      <c r="K41" s="20"/>
+      <c r="L41" s="20"/>
+      <c r="M41" s="20"/>
+      <c r="N41" s="20"/>
+      <c r="O41" s="20"/>
+      <c r="P41" s="21">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A42" s="42">
+      <c r="A42" s="18">
         <v>39</v>
       </c>
-      <c r="B42" s="41" t="s">
+      <c r="B42" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="C42" s="41" t="s">
+      <c r="C42" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="D42" s="43">
+      <c r="D42" s="19">
         <v>12018242361</v>
       </c>
-      <c r="E42" s="41" t="s">
+      <c r="E42" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="F42" s="44">
-        <v>90</v>
-      </c>
-      <c r="G42" s="44"/>
-      <c r="H42" s="44"/>
-      <c r="I42" s="44"/>
-      <c r="J42" s="44"/>
-      <c r="K42" s="44"/>
-      <c r="L42" s="44"/>
-      <c r="M42" s="44"/>
-      <c r="N42" s="44"/>
-      <c r="O42" s="44"/>
-      <c r="P42" s="45">
+      <c r="F42" s="20">
+        <v>90</v>
+      </c>
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="20"/>
+      <c r="K42" s="20"/>
+      <c r="L42" s="20"/>
+      <c r="M42" s="20"/>
+      <c r="N42" s="20"/>
+      <c r="O42" s="20"/>
+      <c r="P42" s="21">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A43" s="42">
+      <c r="A43" s="18">
         <v>40</v>
       </c>
-      <c r="B43" s="41" t="s">
+      <c r="B43" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="C43" s="41" t="s">
+      <c r="C43" s="17" t="s">
         <v>315</v>
       </c>
-      <c r="D43" s="43">
+      <c r="D43" s="19">
         <v>12018242367</v>
       </c>
-      <c r="E43" s="41" t="s">
+      <c r="E43" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="F43" s="44">
+      <c r="F43" s="20">
         <v>60</v>
       </c>
-      <c r="G43" s="44"/>
-      <c r="H43" s="44"/>
-      <c r="I43" s="44"/>
-      <c r="J43" s="44"/>
-      <c r="K43" s="44"/>
-      <c r="L43" s="44"/>
-      <c r="M43" s="44"/>
-      <c r="N43" s="44"/>
-      <c r="O43" s="44"/>
-      <c r="P43" s="45">
+      <c r="G43" s="20"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="20"/>
+      <c r="K43" s="20"/>
+      <c r="L43" s="20"/>
+      <c r="M43" s="20"/>
+      <c r="N43" s="20"/>
+      <c r="O43" s="20"/>
+      <c r="P43" s="21">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A44" s="42">
+      <c r="A44" s="18">
         <v>41</v>
       </c>
-      <c r="B44" s="41" t="s">
+      <c r="B44" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="C44" s="41" t="s">
+      <c r="C44" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="D44" s="43">
+      <c r="D44" s="19">
         <v>12018242370</v>
       </c>
-      <c r="E44" s="41" t="s">
+      <c r="E44" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="F44" s="44">
+      <c r="F44" s="20">
         <v>80</v>
       </c>
-      <c r="G44" s="44"/>
-      <c r="H44" s="44"/>
-      <c r="I44" s="44"/>
-      <c r="J44" s="44"/>
-      <c r="K44" s="44"/>
-      <c r="L44" s="44"/>
-      <c r="M44" s="44"/>
-      <c r="N44" s="44"/>
-      <c r="O44" s="44"/>
-      <c r="P44" s="45">
+      <c r="G44" s="20"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="20"/>
+      <c r="K44" s="20"/>
+      <c r="L44" s="20"/>
+      <c r="M44" s="20"/>
+      <c r="N44" s="20"/>
+      <c r="O44" s="20"/>
+      <c r="P44" s="21">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A45" s="42">
+      <c r="A45" s="18">
         <v>42</v>
       </c>
-      <c r="B45" s="41" t="s">
+      <c r="B45" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="C45" s="41" t="s">
+      <c r="C45" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="D45" s="43">
+      <c r="D45" s="19">
         <v>12018242371</v>
       </c>
-      <c r="E45" s="41" t="s">
+      <c r="E45" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="F45" s="44">
-        <v>90</v>
-      </c>
-      <c r="G45" s="44"/>
-      <c r="H45" s="44"/>
-      <c r="I45" s="44"/>
-      <c r="J45" s="44"/>
-      <c r="K45" s="44"/>
-      <c r="L45" s="44"/>
-      <c r="M45" s="44"/>
-      <c r="N45" s="44"/>
-      <c r="O45" s="44"/>
-      <c r="P45" s="45">
+      <c r="F45" s="20">
+        <v>90</v>
+      </c>
+      <c r="G45" s="20"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="20"/>
+      <c r="K45" s="20"/>
+      <c r="L45" s="20"/>
+      <c r="M45" s="20"/>
+      <c r="N45" s="20"/>
+      <c r="O45" s="20"/>
+      <c r="P45" s="21">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A46" s="42">
+      <c r="A46" s="18">
         <v>43</v>
       </c>
-      <c r="B46" s="41" t="s">
+      <c r="B46" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="C46" s="41" t="s">
+      <c r="C46" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="D46" s="43">
+      <c r="D46" s="19">
         <v>12018242372</v>
       </c>
-      <c r="E46" s="41" t="s">
+      <c r="E46" s="17" t="s">
         <v>275</v>
       </c>
-      <c r="F46" s="44">
+      <c r="F46" s="20">
         <v>70</v>
       </c>
-      <c r="G46" s="44"/>
-      <c r="H46" s="44"/>
-      <c r="I46" s="44"/>
-      <c r="J46" s="44"/>
-      <c r="K46" s="44"/>
-      <c r="L46" s="44"/>
-      <c r="M46" s="44"/>
-      <c r="N46" s="44"/>
-      <c r="O46" s="44"/>
-      <c r="P46" s="45">
+      <c r="G46" s="20"/>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="20"/>
+      <c r="K46" s="20"/>
+      <c r="L46" s="20"/>
+      <c r="M46" s="20"/>
+      <c r="N46" s="20"/>
+      <c r="O46" s="20"/>
+      <c r="P46" s="21">
         <f t="shared" ref="P46:P51" si="1">AVERAGE(F46:O46)</f>
         <v>70</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A47" s="42">
+      <c r="A47" s="18">
         <v>44</v>
       </c>
-      <c r="B47" s="41" t="s">
+      <c r="B47" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="C47" s="41" t="s">
+      <c r="C47" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="D47" s="43">
+      <c r="D47" s="19">
         <v>12018242373</v>
       </c>
-      <c r="E47" s="41" t="s">
+      <c r="E47" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="F47" s="44">
-        <v>90</v>
-      </c>
-      <c r="G47" s="44"/>
-      <c r="H47" s="44"/>
-      <c r="I47" s="44"/>
-      <c r="J47" s="44"/>
-      <c r="K47" s="44"/>
-      <c r="L47" s="44"/>
-      <c r="M47" s="44"/>
-      <c r="N47" s="44"/>
-      <c r="O47" s="44"/>
-      <c r="P47" s="45">
+      <c r="F47" s="20">
+        <v>90</v>
+      </c>
+      <c r="G47" s="20"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="20"/>
+      <c r="K47" s="20"/>
+      <c r="L47" s="20"/>
+      <c r="M47" s="20"/>
+      <c r="N47" s="20"/>
+      <c r="O47" s="20"/>
+      <c r="P47" s="21">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A48" s="42">
+      <c r="A48" s="18">
         <v>45</v>
       </c>
-      <c r="B48" s="41" t="s">
+      <c r="B48" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="C48" s="41" t="s">
+      <c r="C48" s="17" t="s">
         <v>318</v>
       </c>
-      <c r="D48" s="43">
+      <c r="D48" s="19">
         <v>12018242380</v>
       </c>
-      <c r="E48" s="41" t="s">
+      <c r="E48" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="F48" s="44">
-        <v>100</v>
-      </c>
-      <c r="G48" s="44"/>
-      <c r="H48" s="44"/>
-      <c r="I48" s="44"/>
-      <c r="J48" s="44"/>
-      <c r="K48" s="44"/>
-      <c r="L48" s="44"/>
-      <c r="M48" s="44"/>
-      <c r="N48" s="44"/>
-      <c r="O48" s="44"/>
-      <c r="P48" s="45">
+      <c r="F48" s="20">
+        <v>100</v>
+      </c>
+      <c r="G48" s="20"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="20"/>
+      <c r="K48" s="20"/>
+      <c r="L48" s="20"/>
+      <c r="M48" s="20"/>
+      <c r="N48" s="20"/>
+      <c r="O48" s="20"/>
+      <c r="P48" s="21">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A49" s="42">
+      <c r="A49" s="18">
         <v>46</v>
       </c>
-      <c r="B49" s="41" t="s">
+      <c r="B49" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="C49" s="41" t="s">
+      <c r="C49" s="17" t="s">
         <v>322</v>
       </c>
-      <c r="D49" s="43">
+      <c r="D49" s="19">
         <v>12018242827</v>
       </c>
-      <c r="E49" s="41" t="s">
+      <c r="E49" s="17" t="s">
         <v>355</v>
       </c>
-      <c r="F49" s="44">
+      <c r="F49" s="20">
         <v>60</v>
       </c>
-      <c r="G49" s="44"/>
-      <c r="H49" s="44"/>
-      <c r="I49" s="44"/>
-      <c r="J49" s="44"/>
-      <c r="K49" s="44"/>
-      <c r="L49" s="44"/>
-      <c r="M49" s="44"/>
-      <c r="N49" s="44"/>
-      <c r="O49" s="44"/>
-      <c r="P49" s="45">
+      <c r="G49" s="20"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="20"/>
+      <c r="K49" s="20"/>
+      <c r="L49" s="20"/>
+      <c r="M49" s="20"/>
+      <c r="N49" s="20"/>
+      <c r="O49" s="20"/>
+      <c r="P49" s="21">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A50" s="42">
+      <c r="A50" s="18">
         <v>47</v>
       </c>
-      <c r="B50" s="41" t="s">
+      <c r="B50" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="C50" s="41" t="s">
+      <c r="C50" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="D50" s="43">
+      <c r="D50" s="19">
         <v>12018243559</v>
       </c>
-      <c r="E50" s="41" t="s">
+      <c r="E50" s="17" t="s">
         <v>283</v>
       </c>
-      <c r="F50" s="44">
-        <v>100</v>
-      </c>
-      <c r="G50" s="44"/>
-      <c r="H50" s="44"/>
-      <c r="I50" s="44"/>
-      <c r="J50" s="44"/>
-      <c r="K50" s="44"/>
-      <c r="L50" s="44"/>
-      <c r="M50" s="44"/>
-      <c r="N50" s="44"/>
-      <c r="O50" s="44"/>
-      <c r="P50" s="45">
+      <c r="F50" s="20">
+        <v>100</v>
+      </c>
+      <c r="G50" s="20"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="20"/>
+      <c r="K50" s="20"/>
+      <c r="L50" s="20"/>
+      <c r="M50" s="20"/>
+      <c r="N50" s="20"/>
+      <c r="O50" s="20"/>
+      <c r="P50" s="21">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A51" s="42">
+      <c r="A51" s="18">
         <v>48</v>
       </c>
-      <c r="B51" s="41" t="s">
+      <c r="B51" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="C51" s="41" t="s">
+      <c r="C51" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="D51" s="43">
+      <c r="D51" s="19">
         <v>12018244554</v>
       </c>
-      <c r="E51" s="41" t="s">
+      <c r="E51" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="F51" s="44">
-        <v>90</v>
-      </c>
-      <c r="G51" s="44"/>
-      <c r="H51" s="44"/>
-      <c r="I51" s="44"/>
-      <c r="J51" s="44"/>
-      <c r="K51" s="44"/>
-      <c r="L51" s="44"/>
-      <c r="M51" s="44"/>
-      <c r="N51" s="44"/>
-      <c r="O51" s="44"/>
-      <c r="P51" s="45">
+      <c r="F51" s="20">
+        <v>90</v>
+      </c>
+      <c r="G51" s="20"/>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="20"/>
+      <c r="K51" s="20"/>
+      <c r="L51" s="20"/>
+      <c r="M51" s="20"/>
+      <c r="N51" s="20"/>
+      <c r="O51" s="20"/>
+      <c r="P51" s="21">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
@@ -7225,8 +7225,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7249,88 +7249,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="21" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="25" t="s">
+      <c r="J2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="25" t="s">
+      <c r="K2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="25" t="s">
+      <c r="L2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="25" t="s">
+      <c r="M2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="25" t="s">
+      <c r="N2" s="12" t="s">
         <v>362</v>
       </c>
-      <c r="O2" s="25" t="s">
+      <c r="O2" s="12" t="s">
         <v>363</v>
       </c>
-      <c r="P2" s="22" t="s">
+      <c r="P2" s="40" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="28"/>
+      <c r="A3" s="41"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="45"/>
       <c r="F3" s="9">
         <v>45191</v>
       </c>
-      <c r="G3" s="9" t="s">
-        <v>22</v>
+      <c r="G3" s="9">
+        <v>38645</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>22</v>
@@ -7356,7 +7356,7 @@
       <c r="O3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="P3" s="26"/>
+      <c r="P3" s="41"/>
     </row>
     <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
@@ -7365,30 +7365,32 @@
       <c r="B4" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="30">
+      <c r="D4" s="14">
         <v>12018242209</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="31">
-        <v>100</v>
-      </c>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
+      <c r="F4" s="15">
+        <v>100</v>
+      </c>
+      <c r="G4" s="15">
+        <v>95</v>
+      </c>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
       <c r="P4" s="11">
         <f t="shared" ref="P4:P51" si="0">AVERAGE(F4:O4)</f>
-        <v>100</v>
+        <v>97.5</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -7398,30 +7400,32 @@
       <c r="B5" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="30">
+      <c r="D5" s="14">
         <v>12018242210</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="F5" s="31">
-        <v>100</v>
-      </c>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
+      <c r="F5" s="15">
+        <v>100</v>
+      </c>
+      <c r="G5" s="15">
+        <v>90</v>
+      </c>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
       <c r="P5" s="11">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -7431,30 +7435,32 @@
       <c r="B6" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="30">
+      <c r="D6" s="14">
         <v>12018242211</v>
       </c>
-      <c r="E6" s="29" t="s">
+      <c r="E6" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="F6" s="31">
+      <c r="F6" s="15">
         <v>75</v>
       </c>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
+      <c r="G6" s="15">
+        <v>95</v>
+      </c>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
       <c r="P6" s="11">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -7464,30 +7470,32 @@
       <c r="B7" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="D7" s="30">
+      <c r="D7" s="14">
         <v>12018242218</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="F7" s="31">
-        <v>100</v>
-      </c>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31"/>
+      <c r="F7" s="15">
+        <v>100</v>
+      </c>
+      <c r="G7" s="15">
+        <v>90</v>
+      </c>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
       <c r="P7" s="11">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -7497,30 +7505,32 @@
       <c r="B8" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="30">
+      <c r="D8" s="14">
         <v>12018242222</v>
       </c>
-      <c r="E8" s="29" t="s">
+      <c r="E8" s="13" t="s">
         <v>385</v>
       </c>
-      <c r="F8" s="31">
+      <c r="F8" s="15">
         <v>80</v>
       </c>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
+      <c r="G8" s="15">
+        <v>95</v>
+      </c>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
       <c r="P8" s="11">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -7530,27 +7540,29 @@
       <c r="B9" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="13" t="s">
         <v>289</v>
       </c>
-      <c r="D9" s="30">
+      <c r="D9" s="14">
         <v>12018242225</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="13" t="s">
         <v>330</v>
       </c>
-      <c r="F9" s="31">
-        <v>90</v>
-      </c>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
+      <c r="F9" s="15">
+        <v>90</v>
+      </c>
+      <c r="G9" s="15">
+        <v>90</v>
+      </c>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
       <c r="P9" s="11">
         <f t="shared" si="0"/>
         <v>90</v>
@@ -7563,30 +7575,32 @@
       <c r="B10" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="D10" s="30">
+      <c r="D10" s="14">
         <v>12018242227</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="F10" s="31">
-        <v>90</v>
-      </c>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31"/>
+      <c r="F10" s="15">
+        <v>90</v>
+      </c>
+      <c r="G10" s="15">
+        <v>95</v>
+      </c>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
       <c r="P10" s="11">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>92.5</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -7596,30 +7610,32 @@
       <c r="B11" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="30">
+      <c r="D11" s="14">
         <v>12018242228</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="E11" s="13" t="s">
         <v>386</v>
       </c>
-      <c r="F11" s="31">
-        <v>100</v>
-      </c>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31"/>
+      <c r="F11" s="15">
+        <v>100</v>
+      </c>
+      <c r="G11" s="15">
+        <v>90</v>
+      </c>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
       <c r="P11" s="11">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -7629,30 +7645,32 @@
       <c r="B12" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="D12" s="30">
+      <c r="D12" s="14">
         <v>12018242234</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="13" t="s">
         <v>387</v>
       </c>
-      <c r="F12" s="31">
-        <v>90</v>
-      </c>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31"/>
+      <c r="F12" s="15">
+        <v>90</v>
+      </c>
+      <c r="G12" s="15">
+        <v>95</v>
+      </c>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
       <c r="P12" s="11">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>92.5</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -7662,30 +7680,32 @@
       <c r="B13" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="30">
+      <c r="D13" s="14">
         <v>12018242237</v>
       </c>
-      <c r="E13" s="29" t="s">
+      <c r="E13" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="F13" s="31">
+      <c r="F13" s="15">
         <v>70</v>
       </c>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="31"/>
+      <c r="G13" s="15">
+        <v>90</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
       <c r="P13" s="11">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -7695,30 +7715,32 @@
       <c r="B14" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="30">
+      <c r="D14" s="14">
         <v>12018242238</v>
       </c>
-      <c r="E14" s="29" t="s">
+      <c r="E14" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="F14" s="31">
-        <v>100</v>
-      </c>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="31"/>
+      <c r="F14" s="15">
+        <v>100</v>
+      </c>
+      <c r="G14" s="15">
+        <v>95</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
       <c r="P14" s="11">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>97.5</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -7728,30 +7750,32 @@
       <c r="B15" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="30">
+      <c r="D15" s="14">
         <v>12018242239</v>
       </c>
-      <c r="E15" s="29" t="s">
+      <c r="E15" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="31">
-        <v>100</v>
-      </c>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="31"/>
+      <c r="F15" s="15">
+        <v>100</v>
+      </c>
+      <c r="G15" s="15">
+        <v>90</v>
+      </c>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
       <c r="P15" s="11">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -7761,30 +7785,32 @@
       <c r="B16" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="30">
+      <c r="D16" s="14">
         <v>12018242242</v>
       </c>
-      <c r="E16" s="29" t="s">
+      <c r="E16" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="F16" s="31">
+      <c r="F16" s="15">
         <v>60</v>
       </c>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="31"/>
+      <c r="G16" s="15">
+        <v>90</v>
+      </c>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
       <c r="P16" s="11">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -7794,30 +7820,32 @@
       <c r="B17" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="13" t="s">
         <v>292</v>
       </c>
-      <c r="D17" s="30">
+      <c r="D17" s="14">
         <v>12018242244</v>
       </c>
-      <c r="E17" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="F17" s="31">
+      <c r="E17" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="F17" s="15">
         <v>75</v>
       </c>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
-      <c r="O17" s="31"/>
+      <c r="G17" s="15">
+        <v>90</v>
+      </c>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
       <c r="P17" s="11">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>82.5</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -7827,27 +7855,29 @@
       <c r="B18" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="D18" s="30">
+      <c r="D18" s="14">
         <v>12018242245</v>
       </c>
-      <c r="E18" s="29" t="s">
+      <c r="E18" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="F18" s="31">
-        <v>90</v>
-      </c>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31"/>
+      <c r="F18" s="15">
+        <v>90</v>
+      </c>
+      <c r="G18" s="15">
+        <v>90</v>
+      </c>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
       <c r="P18" s="11">
         <f t="shared" si="0"/>
         <v>90</v>
@@ -7860,30 +7890,32 @@
       <c r="B19" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="D19" s="30">
+      <c r="D19" s="14">
         <v>12018242247</v>
       </c>
-      <c r="E19" s="29" t="s">
+      <c r="E19" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="F19" s="31">
-        <v>100</v>
-      </c>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31"/>
+      <c r="F19" s="15">
+        <v>100</v>
+      </c>
+      <c r="G19" s="15">
+        <v>90</v>
+      </c>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
       <c r="P19" s="11">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -7893,30 +7925,32 @@
       <c r="B20" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="D20" s="30">
+      <c r="D20" s="14">
         <v>12018242250</v>
       </c>
-      <c r="E20" s="29" t="s">
+      <c r="E20" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="F20" s="31">
-        <v>100</v>
-      </c>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31"/>
+      <c r="F20" s="15">
+        <v>100</v>
+      </c>
+      <c r="G20" s="15">
+        <v>95</v>
+      </c>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
       <c r="P20" s="11">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>97.5</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -7926,30 +7960,32 @@
       <c r="B21" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="D21" s="30">
+      <c r="D21" s="14">
         <v>12018242259</v>
       </c>
-      <c r="E21" s="29" t="s">
+      <c r="E21" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="F21" s="31">
-        <v>100</v>
-      </c>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="31"/>
+      <c r="F21" s="15">
+        <v>100</v>
+      </c>
+      <c r="G21" s="15">
+        <v>90</v>
+      </c>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
       <c r="P21" s="11">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -7959,30 +7995,32 @@
       <c r="B22" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="C22" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="D22" s="30">
+      <c r="D22" s="14">
         <v>12018242265</v>
       </c>
-      <c r="E22" s="29" t="s">
+      <c r="E22" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F22" s="31">
-        <v>100</v>
-      </c>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="31"/>
-      <c r="O22" s="31"/>
+      <c r="F22" s="15">
+        <v>100</v>
+      </c>
+      <c r="G22" s="15">
+        <v>90</v>
+      </c>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
       <c r="P22" s="11">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -7992,30 +8030,32 @@
       <c r="B23" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="D23" s="30">
+      <c r="D23" s="14">
         <v>12018242272</v>
       </c>
-      <c r="E23" s="29" t="s">
+      <c r="E23" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="F23" s="31">
-        <v>100</v>
-      </c>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="31"/>
-      <c r="N23" s="31"/>
-      <c r="O23" s="31"/>
+      <c r="F23" s="15">
+        <v>100</v>
+      </c>
+      <c r="G23" s="15">
+        <v>90</v>
+      </c>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
       <c r="P23" s="11">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -8025,30 +8065,32 @@
       <c r="B24" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C24" s="29" t="s">
+      <c r="C24" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="D24" s="30">
+      <c r="D24" s="14">
         <v>12018242275</v>
       </c>
-      <c r="E24" s="29" t="s">
+      <c r="E24" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="F24" s="31">
-        <v>100</v>
-      </c>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="31"/>
-      <c r="O24" s="31"/>
+      <c r="F24" s="15">
+        <v>100</v>
+      </c>
+      <c r="G24" s="15">
+        <v>0</v>
+      </c>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
       <c r="P24" s="11">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -8058,30 +8100,32 @@
       <c r="B25" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C25" s="29" t="s">
+      <c r="C25" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="D25" s="30">
+      <c r="D25" s="14">
         <v>12018242279</v>
       </c>
-      <c r="E25" s="29" t="s">
+      <c r="E25" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="F25" s="31">
-        <v>100</v>
-      </c>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="31"/>
-      <c r="O25" s="31"/>
+      <c r="F25" s="15">
+        <v>100</v>
+      </c>
+      <c r="G25" s="15">
+        <v>95</v>
+      </c>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
       <c r="P25" s="11">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>97.5</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -8091,30 +8135,32 @@
       <c r="B26" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C26" s="29" t="s">
+      <c r="C26" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D26" s="30">
+      <c r="D26" s="14">
         <v>12018242280</v>
       </c>
-      <c r="E26" s="29" t="s">
+      <c r="E26" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F26" s="31">
+      <c r="F26" s="15">
         <v>70</v>
       </c>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="31"/>
-      <c r="L26" s="31"/>
-      <c r="M26" s="31"/>
-      <c r="N26" s="31"/>
-      <c r="O26" s="31"/>
+      <c r="G26" s="15">
+        <v>90</v>
+      </c>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
       <c r="P26" s="11">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -8124,27 +8170,29 @@
       <c r="B27" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C27" s="29" t="s">
+      <c r="C27" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="D27" s="30">
+      <c r="D27" s="14">
         <v>12018242283</v>
       </c>
-      <c r="E27" s="29" t="s">
+      <c r="E27" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F27" s="31">
-        <v>90</v>
-      </c>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="31"/>
-      <c r="L27" s="31"/>
-      <c r="M27" s="31"/>
-      <c r="N27" s="31"/>
-      <c r="O27" s="31"/>
+      <c r="F27" s="15">
+        <v>90</v>
+      </c>
+      <c r="G27" s="15">
+        <v>90</v>
+      </c>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
       <c r="P27" s="11">
         <f t="shared" si="0"/>
         <v>90</v>
@@ -8157,30 +8205,32 @@
       <c r="B28" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C28" s="29" t="s">
+      <c r="C28" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="D28" s="30">
+      <c r="D28" s="14">
         <v>12018242285</v>
       </c>
-      <c r="E28" s="29" t="s">
+      <c r="E28" s="13" t="s">
         <v>261</v>
       </c>
-      <c r="F28" s="31">
-        <v>100</v>
-      </c>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="31"/>
-      <c r="L28" s="31"/>
-      <c r="M28" s="31"/>
-      <c r="N28" s="31"/>
-      <c r="O28" s="31"/>
+      <c r="F28" s="15">
+        <v>100</v>
+      </c>
+      <c r="G28" s="15">
+        <v>95</v>
+      </c>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
       <c r="P28" s="11">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>97.5</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -8190,27 +8240,29 @@
       <c r="B29" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C29" s="29" t="s">
+      <c r="C29" s="13" t="s">
         <v>299</v>
       </c>
-      <c r="D29" s="30">
+      <c r="D29" s="14">
         <v>12018242286</v>
       </c>
-      <c r="E29" s="29" t="s">
+      <c r="E29" s="13" t="s">
         <v>335</v>
       </c>
-      <c r="F29" s="31">
-        <v>90</v>
-      </c>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="31"/>
-      <c r="L29" s="31"/>
-      <c r="M29" s="31"/>
-      <c r="N29" s="31"/>
-      <c r="O29" s="31"/>
+      <c r="F29" s="15">
+        <v>90</v>
+      </c>
+      <c r="G29" s="15">
+        <v>90</v>
+      </c>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
       <c r="P29" s="11">
         <f t="shared" si="0"/>
         <v>90</v>
@@ -8223,27 +8275,29 @@
       <c r="B30" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C30" s="29" t="s">
+      <c r="C30" s="13" t="s">
         <v>300</v>
       </c>
-      <c r="D30" s="30">
+      <c r="D30" s="14">
         <v>12018242289</v>
       </c>
-      <c r="E30" s="29" t="s">
+      <c r="E30" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="F30" s="31">
-        <v>90</v>
-      </c>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="31"/>
-      <c r="L30" s="31"/>
-      <c r="M30" s="31"/>
-      <c r="N30" s="31"/>
-      <c r="O30" s="31"/>
+      <c r="F30" s="15">
+        <v>90</v>
+      </c>
+      <c r="G30" s="15">
+        <v>90</v>
+      </c>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="15"/>
       <c r="P30" s="11">
         <f t="shared" si="0"/>
         <v>90</v>
@@ -8256,30 +8310,32 @@
       <c r="B31" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C31" s="29" t="s">
+      <c r="C31" s="13" t="s">
         <v>301</v>
       </c>
-      <c r="D31" s="30">
+      <c r="D31" s="14">
         <v>12018242290</v>
       </c>
-      <c r="E31" s="29" t="s">
+      <c r="E31" s="13" t="s">
         <v>336</v>
       </c>
-      <c r="F31" s="31">
+      <c r="F31" s="15">
         <v>50</v>
       </c>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="31"/>
-      <c r="J31" s="31"/>
-      <c r="K31" s="31"/>
-      <c r="L31" s="31"/>
-      <c r="M31" s="31"/>
-      <c r="N31" s="31"/>
-      <c r="O31" s="31"/>
+      <c r="G31" s="15">
+        <v>90</v>
+      </c>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="15"/>
       <c r="P31" s="11">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -8289,30 +8345,32 @@
       <c r="B32" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C32" s="29" t="s">
+      <c r="C32" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="D32" s="30">
+      <c r="D32" s="14">
         <v>12018242293</v>
       </c>
-      <c r="E32" s="29" t="s">
+      <c r="E32" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="F32" s="31">
-        <v>90</v>
-      </c>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="31"/>
-      <c r="J32" s="31"/>
-      <c r="K32" s="31"/>
-      <c r="L32" s="31"/>
-      <c r="M32" s="31"/>
-      <c r="N32" s="31"/>
-      <c r="O32" s="31"/>
+      <c r="F32" s="15">
+        <v>90</v>
+      </c>
+      <c r="G32" s="15">
+        <v>99</v>
+      </c>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="15"/>
       <c r="P32" s="11">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>94.5</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -8322,27 +8380,29 @@
       <c r="B33" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C33" s="29" t="s">
+      <c r="C33" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="D33" s="30">
+      <c r="D33" s="14">
         <v>12018242294</v>
       </c>
-      <c r="E33" s="29" t="s">
+      <c r="E33" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="F33" s="31">
+      <c r="F33" s="15">
         <v>85</v>
       </c>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="31"/>
-      <c r="K33" s="31"/>
-      <c r="L33" s="31"/>
-      <c r="M33" s="31"/>
-      <c r="N33" s="31"/>
-      <c r="O33" s="31"/>
+      <c r="G33" s="15">
+        <v>85</v>
+      </c>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="15"/>
       <c r="P33" s="11">
         <f t="shared" si="0"/>
         <v>85</v>
@@ -8355,30 +8415,32 @@
       <c r="B34" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C34" s="29" t="s">
+      <c r="C34" s="13" t="s">
         <v>388</v>
       </c>
-      <c r="D34" s="30">
+      <c r="D34" s="14">
         <v>12018242300</v>
       </c>
-      <c r="E34" s="29" t="s">
+      <c r="E34" s="13" t="s">
         <v>339</v>
       </c>
-      <c r="F34" s="31">
+      <c r="F34" s="15">
         <v>70</v>
       </c>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="31"/>
-      <c r="K34" s="31"/>
-      <c r="L34" s="31"/>
-      <c r="M34" s="31"/>
-      <c r="N34" s="31"/>
-      <c r="O34" s="31"/>
+      <c r="G34" s="15">
+        <v>90</v>
+      </c>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="15"/>
+      <c r="O34" s="15"/>
       <c r="P34" s="11">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -8388,30 +8450,32 @@
       <c r="B35" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C35" s="29" t="s">
+      <c r="C35" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="D35" s="30">
+      <c r="D35" s="14">
         <v>12018242305</v>
       </c>
-      <c r="E35" s="29" t="s">
+      <c r="E35" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="F35" s="31">
-        <v>90</v>
-      </c>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="31"/>
-      <c r="K35" s="31"/>
-      <c r="L35" s="31"/>
-      <c r="M35" s="31"/>
-      <c r="N35" s="31"/>
-      <c r="O35" s="31"/>
+      <c r="F35" s="15">
+        <v>90</v>
+      </c>
+      <c r="G35" s="15">
+        <v>95</v>
+      </c>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="15"/>
       <c r="P35" s="11">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>92.5</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -8421,30 +8485,32 @@
       <c r="B36" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C36" s="29" t="s">
+      <c r="C36" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="D36" s="30">
+      <c r="D36" s="14">
         <v>12018242306</v>
       </c>
-      <c r="E36" s="29" t="s">
+      <c r="E36" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="F36" s="31">
-        <v>90</v>
-      </c>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="31"/>
-      <c r="K36" s="31"/>
-      <c r="L36" s="31"/>
-      <c r="M36" s="31"/>
-      <c r="N36" s="31"/>
-      <c r="O36" s="31"/>
+      <c r="F36" s="15">
+        <v>90</v>
+      </c>
+      <c r="G36" s="15">
+        <v>95</v>
+      </c>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="15"/>
+      <c r="N36" s="15"/>
+      <c r="O36" s="15"/>
       <c r="P36" s="11">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>92.5</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -8454,30 +8520,32 @@
       <c r="B37" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C37" s="29" t="s">
+      <c r="C37" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="D37" s="30">
+      <c r="D37" s="14">
         <v>12018242314</v>
       </c>
-      <c r="E37" s="29" t="s">
+      <c r="E37" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="F37" s="31">
-        <v>100</v>
-      </c>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="31"/>
-      <c r="K37" s="31"/>
-      <c r="L37" s="31"/>
-      <c r="M37" s="31"/>
-      <c r="N37" s="31"/>
-      <c r="O37" s="31"/>
+      <c r="F37" s="15">
+        <v>100</v>
+      </c>
+      <c r="G37" s="15">
+        <v>90</v>
+      </c>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="15"/>
+      <c r="L37" s="15"/>
+      <c r="M37" s="15"/>
+      <c r="N37" s="15"/>
+      <c r="O37" s="15"/>
       <c r="P37" s="11">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -8487,30 +8555,32 @@
       <c r="B38" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C38" s="29" t="s">
+      <c r="C38" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="D38" s="30">
+      <c r="D38" s="14">
         <v>12018242317</v>
       </c>
-      <c r="E38" s="29" t="s">
+      <c r="E38" s="13" t="s">
         <v>341</v>
       </c>
-      <c r="F38" s="31">
+      <c r="F38" s="15">
         <v>60</v>
       </c>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="31"/>
-      <c r="K38" s="31"/>
-      <c r="L38" s="31"/>
-      <c r="M38" s="31"/>
-      <c r="N38" s="31"/>
-      <c r="O38" s="31"/>
+      <c r="G38" s="15">
+        <v>90</v>
+      </c>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="15"/>
+      <c r="L38" s="15"/>
+      <c r="M38" s="15"/>
+      <c r="N38" s="15"/>
+      <c r="O38" s="15"/>
       <c r="P38" s="11">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -8520,30 +8590,32 @@
       <c r="B39" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C39" s="29" t="s">
+      <c r="C39" s="13" t="s">
         <v>306</v>
       </c>
-      <c r="D39" s="30">
+      <c r="D39" s="14">
         <v>12018242319</v>
       </c>
-      <c r="E39" s="29" t="s">
+      <c r="E39" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="F39" s="31">
+      <c r="F39" s="15">
         <v>75</v>
       </c>
-      <c r="G39" s="31"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="31"/>
-      <c r="K39" s="31"/>
-      <c r="L39" s="31"/>
-      <c r="M39" s="31"/>
-      <c r="N39" s="31"/>
-      <c r="O39" s="31"/>
+      <c r="G39" s="15">
+        <v>90</v>
+      </c>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="15"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="15"/>
+      <c r="O39" s="15"/>
       <c r="P39" s="11">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>82.5</v>
       </c>
     </row>
     <row r="40" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -8553,30 +8625,32 @@
       <c r="B40" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C40" s="29" t="s">
+      <c r="C40" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="D40" s="30">
+      <c r="D40" s="14">
         <v>12018242321</v>
       </c>
-      <c r="E40" s="29" t="s">
+      <c r="E40" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F40" s="31">
+      <c r="F40" s="15">
         <v>85</v>
       </c>
-      <c r="G40" s="31"/>
-      <c r="H40" s="31"/>
-      <c r="I40" s="31"/>
-      <c r="J40" s="31"/>
-      <c r="K40" s="31"/>
-      <c r="L40" s="31"/>
-      <c r="M40" s="31"/>
-      <c r="N40" s="31"/>
-      <c r="O40" s="31"/>
+      <c r="G40" s="15">
+        <v>90</v>
+      </c>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="15"/>
+      <c r="L40" s="15"/>
+      <c r="M40" s="15"/>
+      <c r="N40" s="15"/>
+      <c r="O40" s="15"/>
       <c r="P40" s="11">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="41" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -8586,30 +8660,32 @@
       <c r="B41" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C41" s="29" t="s">
+      <c r="C41" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="D41" s="30">
+      <c r="D41" s="14">
         <v>12018242322</v>
       </c>
-      <c r="E41" s="29" t="s">
+      <c r="E41" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="F41" s="31">
-        <v>100</v>
-      </c>
-      <c r="G41" s="31"/>
-      <c r="H41" s="31"/>
-      <c r="I41" s="31"/>
-      <c r="J41" s="31"/>
-      <c r="K41" s="31"/>
-      <c r="L41" s="31"/>
-      <c r="M41" s="31"/>
-      <c r="N41" s="31"/>
-      <c r="O41" s="31"/>
+      <c r="F41" s="15">
+        <v>100</v>
+      </c>
+      <c r="G41" s="15">
+        <v>85</v>
+      </c>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="15"/>
+      <c r="L41" s="15"/>
+      <c r="M41" s="15"/>
+      <c r="N41" s="15"/>
+      <c r="O41" s="15"/>
       <c r="P41" s="11">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>92.5</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -8619,30 +8695,32 @@
       <c r="B42" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C42" s="29" t="s">
+      <c r="C42" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="D42" s="30">
+      <c r="D42" s="14">
         <v>12018242331</v>
       </c>
-      <c r="E42" s="29" t="s">
+      <c r="E42" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="F42" s="31">
-        <v>100</v>
-      </c>
-      <c r="G42" s="31"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="31"/>
-      <c r="K42" s="31"/>
-      <c r="L42" s="31"/>
-      <c r="M42" s="31"/>
-      <c r="N42" s="31"/>
-      <c r="O42" s="31"/>
+      <c r="F42" s="15">
+        <v>100</v>
+      </c>
+      <c r="G42" s="15">
+        <v>95</v>
+      </c>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15"/>
+      <c r="K42" s="15"/>
+      <c r="L42" s="15"/>
+      <c r="M42" s="15"/>
+      <c r="N42" s="15"/>
+      <c r="O42" s="15"/>
       <c r="P42" s="11">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>97.5</v>
       </c>
     </row>
     <row r="43" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -8652,30 +8730,32 @@
       <c r="B43" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C43" s="29" t="s">
+      <c r="C43" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="D43" s="30">
+      <c r="D43" s="14">
         <v>12018242336</v>
       </c>
-      <c r="E43" s="29" t="s">
+      <c r="E43" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="F43" s="31">
-        <v>100</v>
-      </c>
-      <c r="G43" s="31"/>
-      <c r="H43" s="31"/>
-      <c r="I43" s="31"/>
-      <c r="J43" s="31"/>
-      <c r="K43" s="31"/>
-      <c r="L43" s="31"/>
-      <c r="M43" s="31"/>
-      <c r="N43" s="31"/>
-      <c r="O43" s="31"/>
+      <c r="F43" s="15">
+        <v>100</v>
+      </c>
+      <c r="G43" s="15">
+        <v>90</v>
+      </c>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="15"/>
+      <c r="K43" s="15"/>
+      <c r="L43" s="15"/>
+      <c r="M43" s="15"/>
+      <c r="N43" s="15"/>
+      <c r="O43" s="15"/>
       <c r="P43" s="11">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="44" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -8685,30 +8765,32 @@
       <c r="B44" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C44" s="29" t="s">
+      <c r="C44" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="D44" s="30">
+      <c r="D44" s="14">
         <v>12018242344</v>
       </c>
-      <c r="E44" s="29" t="s">
+      <c r="E44" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="F44" s="31">
-        <v>100</v>
-      </c>
-      <c r="G44" s="31"/>
-      <c r="H44" s="31"/>
-      <c r="I44" s="31"/>
-      <c r="J44" s="31"/>
-      <c r="K44" s="31"/>
-      <c r="L44" s="31"/>
-      <c r="M44" s="31"/>
-      <c r="N44" s="31"/>
-      <c r="O44" s="31"/>
+      <c r="F44" s="15">
+        <v>100</v>
+      </c>
+      <c r="G44" s="15">
+        <v>95</v>
+      </c>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="15"/>
+      <c r="K44" s="15"/>
+      <c r="L44" s="15"/>
+      <c r="M44" s="15"/>
+      <c r="N44" s="15"/>
+      <c r="O44" s="15"/>
       <c r="P44" s="11">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>97.5</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -8718,30 +8800,32 @@
       <c r="B45" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C45" s="29" t="s">
+      <c r="C45" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="D45" s="30">
+      <c r="D45" s="14">
         <v>12018242345</v>
       </c>
-      <c r="E45" s="29" t="s">
+      <c r="E45" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="F45" s="31">
-        <v>100</v>
-      </c>
-      <c r="G45" s="31"/>
-      <c r="H45" s="31"/>
-      <c r="I45" s="31"/>
-      <c r="J45" s="31"/>
-      <c r="K45" s="31"/>
-      <c r="L45" s="31"/>
-      <c r="M45" s="31"/>
-      <c r="N45" s="31"/>
-      <c r="O45" s="31"/>
+      <c r="F45" s="15">
+        <v>100</v>
+      </c>
+      <c r="G45" s="15">
+        <v>90</v>
+      </c>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="15"/>
+      <c r="K45" s="15"/>
+      <c r="L45" s="15"/>
+      <c r="M45" s="15"/>
+      <c r="N45" s="15"/>
+      <c r="O45" s="15"/>
       <c r="P45" s="11">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -8751,27 +8835,29 @@
       <c r="B46" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C46" s="29" t="s">
+      <c r="C46" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="D46" s="30">
+      <c r="D46" s="14">
         <v>12018242346</v>
       </c>
-      <c r="E46" s="29" t="s">
+      <c r="E46" s="13" t="s">
         <v>348</v>
       </c>
-      <c r="F46" s="31">
-        <v>90</v>
-      </c>
-      <c r="G46" s="31"/>
-      <c r="H46" s="31"/>
-      <c r="I46" s="31"/>
-      <c r="J46" s="31"/>
-      <c r="K46" s="31"/>
-      <c r="L46" s="31"/>
-      <c r="M46" s="31"/>
-      <c r="N46" s="31"/>
-      <c r="O46" s="31"/>
+      <c r="F46" s="15">
+        <v>90</v>
+      </c>
+      <c r="G46" s="15">
+        <v>90</v>
+      </c>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="15"/>
+      <c r="K46" s="15"/>
+      <c r="L46" s="15"/>
+      <c r="M46" s="15"/>
+      <c r="N46" s="15"/>
+      <c r="O46" s="15"/>
       <c r="P46" s="11">
         <f t="shared" si="0"/>
         <v>90</v>
@@ -8784,30 +8870,32 @@
       <c r="B47" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C47" s="29" t="s">
+      <c r="C47" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="D47" s="30">
+      <c r="D47" s="14">
         <v>12018242352</v>
       </c>
-      <c r="E47" s="29" t="s">
+      <c r="E47" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="F47" s="31">
-        <v>100</v>
-      </c>
-      <c r="G47" s="31"/>
-      <c r="H47" s="31"/>
-      <c r="I47" s="31"/>
-      <c r="J47" s="31"/>
-      <c r="K47" s="31"/>
-      <c r="L47" s="31"/>
-      <c r="M47" s="31"/>
-      <c r="N47" s="31"/>
-      <c r="O47" s="31"/>
+      <c r="F47" s="15">
+        <v>100</v>
+      </c>
+      <c r="G47" s="15">
+        <v>90</v>
+      </c>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="15"/>
+      <c r="K47" s="15"/>
+      <c r="L47" s="15"/>
+      <c r="M47" s="15"/>
+      <c r="N47" s="15"/>
+      <c r="O47" s="15"/>
       <c r="P47" s="11">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="48" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -8817,27 +8905,29 @@
       <c r="B48" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C48" s="29" t="s">
+      <c r="C48" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="D48" s="30">
+      <c r="D48" s="14">
         <v>12018242355</v>
       </c>
-      <c r="E48" s="29" t="s">
+      <c r="E48" s="13" t="s">
         <v>349</v>
       </c>
-      <c r="F48" s="31">
-        <v>90</v>
-      </c>
-      <c r="G48" s="31"/>
-      <c r="H48" s="31"/>
-      <c r="I48" s="31"/>
-      <c r="J48" s="31"/>
-      <c r="K48" s="31"/>
-      <c r="L48" s="31"/>
-      <c r="M48" s="31"/>
-      <c r="N48" s="31"/>
-      <c r="O48" s="31"/>
+      <c r="F48" s="15">
+        <v>90</v>
+      </c>
+      <c r="G48" s="15">
+        <v>90</v>
+      </c>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="15"/>
+      <c r="L48" s="15"/>
+      <c r="M48" s="15"/>
+      <c r="N48" s="15"/>
+      <c r="O48" s="15"/>
       <c r="P48" s="11">
         <f t="shared" si="0"/>
         <v>90</v>
@@ -8850,30 +8940,32 @@
       <c r="B49" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C49" s="29" t="s">
+      <c r="C49" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="D49" s="30">
+      <c r="D49" s="14">
         <v>12018242358</v>
       </c>
-      <c r="E49" s="29" t="s">
+      <c r="E49" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="F49" s="31">
-        <v>100</v>
-      </c>
-      <c r="G49" s="31"/>
-      <c r="H49" s="31"/>
-      <c r="I49" s="31"/>
-      <c r="J49" s="31"/>
-      <c r="K49" s="31"/>
-      <c r="L49" s="31"/>
-      <c r="M49" s="31"/>
-      <c r="N49" s="31"/>
-      <c r="O49" s="31"/>
+      <c r="F49" s="15">
+        <v>100</v>
+      </c>
+      <c r="G49" s="15">
+        <v>90</v>
+      </c>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="15"/>
+      <c r="K49" s="15"/>
+      <c r="L49" s="15"/>
+      <c r="M49" s="15"/>
+      <c r="N49" s="15"/>
+      <c r="O49" s="15"/>
       <c r="P49" s="11">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="50" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -8883,30 +8975,32 @@
       <c r="B50" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C50" s="29" t="s">
+      <c r="C50" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="D50" s="30">
+      <c r="D50" s="14">
         <v>12018242364</v>
       </c>
-      <c r="E50" s="29" t="s">
+      <c r="E50" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="F50" s="31">
-        <v>90</v>
-      </c>
-      <c r="G50" s="31"/>
-      <c r="H50" s="31"/>
-      <c r="I50" s="31"/>
-      <c r="J50" s="31"/>
-      <c r="K50" s="31"/>
-      <c r="L50" s="31"/>
-      <c r="M50" s="31"/>
-      <c r="N50" s="31"/>
-      <c r="O50" s="31"/>
+      <c r="F50" s="15">
+        <v>90</v>
+      </c>
+      <c r="G50" s="15">
+        <v>95</v>
+      </c>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="15"/>
+      <c r="K50" s="15"/>
+      <c r="L50" s="15"/>
+      <c r="M50" s="15"/>
+      <c r="N50" s="15"/>
+      <c r="O50" s="15"/>
       <c r="P50" s="11">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>92.5</v>
       </c>
     </row>
     <row r="51" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -8916,30 +9010,32 @@
       <c r="B51" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C51" s="29" t="s">
+      <c r="C51" s="13" t="s">
         <v>316</v>
       </c>
-      <c r="D51" s="30">
+      <c r="D51" s="14">
         <v>12018242369</v>
       </c>
-      <c r="E51" s="29" t="s">
+      <c r="E51" s="13" t="s">
         <v>350</v>
       </c>
-      <c r="F51" s="31">
+      <c r="F51" s="15">
         <v>60</v>
       </c>
-      <c r="G51" s="31"/>
-      <c r="H51" s="31"/>
-      <c r="I51" s="31"/>
-      <c r="J51" s="31"/>
-      <c r="K51" s="31"/>
-      <c r="L51" s="31"/>
-      <c r="M51" s="31"/>
-      <c r="N51" s="31"/>
-      <c r="O51" s="31"/>
+      <c r="G51" s="15">
+        <v>90</v>
+      </c>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="15"/>
+      <c r="K51" s="15"/>
+      <c r="L51" s="15"/>
+      <c r="M51" s="15"/>
+      <c r="N51" s="15"/>
+      <c r="O51" s="15"/>
       <c r="P51" s="11">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/Grade 2018/HomeAssignment/HA_Summary_YC_2018.xlsx
+++ b/Grade 2018/HomeAssignment/HA_Summary_YC_2018.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NIIT\NIIT教案\Sept-2020---Jan-2021\Grade 2018\HomeAssignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09A69638-4C7E-4360-BF44-C36875F324B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA783523-37DE-446F-9F6E-6BBE4955C447}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="20490" windowHeight="10125" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="20490" windowHeight="10125" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CS1" sheetId="2" r:id="rId1"/>
@@ -5479,7 +5479,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C27" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="C27" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
@@ -7225,8 +7225,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8078,7 +8078,7 @@
         <v>100</v>
       </c>
       <c r="G24" s="15">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="H24" s="15"/>
       <c r="I24" s="15"/>
@@ -8090,7 +8090,7 @@
       <c r="O24" s="15"/>
       <c r="P24" s="11">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">

--- a/Grade 2018/HomeAssignment/HA_Summary_YC_2018.xlsx
+++ b/Grade 2018/HomeAssignment/HA_Summary_YC_2018.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NIIT\NIIT教案\Sept-2020---Jan-2021\Grade 2018\HomeAssignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA783523-37DE-446F-9F6E-6BBE4955C447}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E34DE4E3-734A-40EE-810C-004D256CEE6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="20490" windowHeight="10125" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="795" windowWidth="20490" windowHeight="10125" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CS1" sheetId="2" r:id="rId1"/>
@@ -5479,8 +5479,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView topLeftCell="C27" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="C34" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5628,7 +5628,9 @@
       <c r="F4" s="20">
         <v>0</v>
       </c>
-      <c r="G4" s="20"/>
+      <c r="G4" s="20">
+        <v>0</v>
+      </c>
       <c r="H4" s="20"/>
       <c r="I4" s="20"/>
       <c r="J4" s="20"/>
@@ -5661,7 +5663,9 @@
       <c r="F5" s="20">
         <v>100</v>
       </c>
-      <c r="G5" s="20"/>
+      <c r="G5" s="20">
+        <v>85</v>
+      </c>
       <c r="H5" s="20"/>
       <c r="I5" s="20"/>
       <c r="J5" s="20"/>
@@ -5672,7 +5676,7 @@
       <c r="O5" s="20"/>
       <c r="P5" s="21">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>92.5</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
@@ -5694,7 +5698,9 @@
       <c r="F6" s="20">
         <v>80</v>
       </c>
-      <c r="G6" s="20"/>
+      <c r="G6" s="20">
+        <v>80</v>
+      </c>
       <c r="H6" s="20"/>
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
@@ -5727,7 +5733,9 @@
       <c r="F7" s="20">
         <v>100</v>
       </c>
-      <c r="G7" s="20"/>
+      <c r="G7" s="20">
+        <v>95</v>
+      </c>
       <c r="H7" s="20"/>
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
@@ -5738,7 +5746,7 @@
       <c r="O7" s="20"/>
       <c r="P7" s="21">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>97.5</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
@@ -5760,7 +5768,9 @@
       <c r="F8" s="20">
         <v>100</v>
       </c>
-      <c r="G8" s="20"/>
+      <c r="G8" s="20">
+        <v>100</v>
+      </c>
       <c r="H8" s="20"/>
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
@@ -5793,7 +5803,9 @@
       <c r="F9" s="20">
         <v>60</v>
       </c>
-      <c r="G9" s="20"/>
+      <c r="G9" s="20">
+        <v>80</v>
+      </c>
       <c r="H9" s="20"/>
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
@@ -5804,7 +5816,7 @@
       <c r="O9" s="20"/>
       <c r="P9" s="21">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
@@ -5826,7 +5838,9 @@
       <c r="F10" s="20">
         <v>60</v>
       </c>
-      <c r="G10" s="20"/>
+      <c r="G10" s="20">
+        <v>80</v>
+      </c>
       <c r="H10" s="20"/>
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
@@ -5837,7 +5851,7 @@
       <c r="O10" s="20"/>
       <c r="P10" s="21">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.15">
@@ -5859,7 +5873,9 @@
       <c r="F11" s="20">
         <v>90</v>
       </c>
-      <c r="G11" s="20"/>
+      <c r="G11" s="20">
+        <v>75</v>
+      </c>
       <c r="H11" s="20"/>
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
@@ -5870,7 +5886,7 @@
       <c r="O11" s="20"/>
       <c r="P11" s="21">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>82.5</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
@@ -5892,7 +5908,9 @@
       <c r="F12" s="20">
         <v>80</v>
       </c>
-      <c r="G12" s="20"/>
+      <c r="G12" s="20">
+        <v>80</v>
+      </c>
       <c r="H12" s="20"/>
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
@@ -5925,7 +5943,9 @@
       <c r="F13" s="20">
         <v>60</v>
       </c>
-      <c r="G13" s="20"/>
+      <c r="G13" s="20">
+        <v>90</v>
+      </c>
       <c r="H13" s="20"/>
       <c r="I13" s="20"/>
       <c r="J13" s="20"/>
@@ -5936,7 +5956,7 @@
       <c r="O13" s="20"/>
       <c r="P13" s="21">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
@@ -5958,7 +5978,9 @@
       <c r="F14" s="20">
         <v>90</v>
       </c>
-      <c r="G14" s="20"/>
+      <c r="G14" s="20">
+        <v>80</v>
+      </c>
       <c r="H14" s="20"/>
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
@@ -5969,7 +5991,7 @@
       <c r="O14" s="20"/>
       <c r="P14" s="21">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.15">
@@ -5991,7 +6013,9 @@
       <c r="F15" s="20">
         <v>100</v>
       </c>
-      <c r="G15" s="20"/>
+      <c r="G15" s="20">
+        <v>85</v>
+      </c>
       <c r="H15" s="20"/>
       <c r="I15" s="20"/>
       <c r="J15" s="20"/>
@@ -6002,7 +6026,7 @@
       <c r="O15" s="20"/>
       <c r="P15" s="21">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>92.5</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.15">
@@ -6024,7 +6048,9 @@
       <c r="F16" s="20">
         <v>100</v>
       </c>
-      <c r="G16" s="20"/>
+      <c r="G16" s="20">
+        <v>95</v>
+      </c>
       <c r="H16" s="20"/>
       <c r="I16" s="20"/>
       <c r="J16" s="20"/>
@@ -6035,7 +6061,7 @@
       <c r="O16" s="20"/>
       <c r="P16" s="21">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>97.5</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.15">
@@ -6057,7 +6083,9 @@
       <c r="F17" s="20">
         <v>90</v>
       </c>
-      <c r="G17" s="20"/>
+      <c r="G17" s="20">
+        <v>70</v>
+      </c>
       <c r="H17" s="20"/>
       <c r="I17" s="20"/>
       <c r="J17" s="20"/>
@@ -6068,7 +6096,7 @@
       <c r="O17" s="20"/>
       <c r="P17" s="21">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.15">
@@ -6090,7 +6118,9 @@
       <c r="F18" s="20">
         <v>60</v>
       </c>
-      <c r="G18" s="20"/>
+      <c r="G18" s="20">
+        <v>80</v>
+      </c>
       <c r="H18" s="20"/>
       <c r="I18" s="20"/>
       <c r="J18" s="20"/>
@@ -6101,7 +6131,7 @@
       <c r="O18" s="20"/>
       <c r="P18" s="21">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.15">
@@ -6123,7 +6153,9 @@
       <c r="F19" s="20">
         <v>100</v>
       </c>
-      <c r="G19" s="20"/>
+      <c r="G19" s="20">
+        <v>100</v>
+      </c>
       <c r="H19" s="20"/>
       <c r="I19" s="20"/>
       <c r="J19" s="20"/>
@@ -6156,7 +6188,9 @@
       <c r="F20" s="20">
         <v>80</v>
       </c>
-      <c r="G20" s="20"/>
+      <c r="G20" s="20">
+        <v>95</v>
+      </c>
       <c r="H20" s="20"/>
       <c r="I20" s="20"/>
       <c r="J20" s="20"/>
@@ -6167,7 +6201,7 @@
       <c r="O20" s="20"/>
       <c r="P20" s="21">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.15">
@@ -6189,7 +6223,9 @@
       <c r="F21" s="20">
         <v>60</v>
       </c>
-      <c r="G21" s="20"/>
+      <c r="G21" s="20">
+        <v>85</v>
+      </c>
       <c r="H21" s="20"/>
       <c r="I21" s="20"/>
       <c r="J21" s="20"/>
@@ -6200,7 +6236,7 @@
       <c r="O21" s="20"/>
       <c r="P21" s="21">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>72.5</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.15">
@@ -6222,7 +6258,9 @@
       <c r="F22" s="20">
         <v>60</v>
       </c>
-      <c r="G22" s="20"/>
+      <c r="G22" s="20">
+        <v>95</v>
+      </c>
       <c r="H22" s="20"/>
       <c r="I22" s="20"/>
       <c r="J22" s="20"/>
@@ -6233,7 +6271,7 @@
       <c r="O22" s="20"/>
       <c r="P22" s="21">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>77.5</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.15">
@@ -6255,7 +6293,9 @@
       <c r="F23" s="20">
         <v>80</v>
       </c>
-      <c r="G23" s="20"/>
+      <c r="G23" s="20">
+        <v>80</v>
+      </c>
       <c r="H23" s="20"/>
       <c r="I23" s="20"/>
       <c r="J23" s="20"/>
@@ -6288,7 +6328,9 @@
       <c r="F24" s="20">
         <v>100</v>
       </c>
-      <c r="G24" s="20"/>
+      <c r="G24" s="20">
+        <v>95</v>
+      </c>
       <c r="H24" s="20"/>
       <c r="I24" s="20"/>
       <c r="J24" s="20"/>
@@ -6299,7 +6341,7 @@
       <c r="O24" s="20"/>
       <c r="P24" s="21">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>97.5</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.15">
@@ -6321,7 +6363,9 @@
       <c r="F25" s="20">
         <v>60</v>
       </c>
-      <c r="G25" s="20"/>
+      <c r="G25" s="20">
+        <v>80</v>
+      </c>
       <c r="H25" s="20"/>
       <c r="I25" s="20"/>
       <c r="J25" s="20"/>
@@ -6332,7 +6376,7 @@
       <c r="O25" s="20"/>
       <c r="P25" s="21">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.15">
@@ -6354,7 +6398,9 @@
       <c r="F26" s="20">
         <v>80</v>
       </c>
-      <c r="G26" s="20"/>
+      <c r="G26" s="20">
+        <v>75</v>
+      </c>
       <c r="H26" s="20"/>
       <c r="I26" s="20"/>
       <c r="J26" s="20"/>
@@ -6365,7 +6411,7 @@
       <c r="O26" s="20"/>
       <c r="P26" s="21">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>77.5</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.15">
@@ -6387,7 +6433,9 @@
       <c r="F27" s="20">
         <v>100</v>
       </c>
-      <c r="G27" s="20"/>
+      <c r="G27" s="20">
+        <v>100</v>
+      </c>
       <c r="H27" s="20"/>
       <c r="I27" s="20"/>
       <c r="J27" s="20"/>
@@ -6420,7 +6468,9 @@
       <c r="F28" s="20">
         <v>100</v>
       </c>
-      <c r="G28" s="20"/>
+      <c r="G28" s="20">
+        <v>100</v>
+      </c>
       <c r="H28" s="20"/>
       <c r="I28" s="20"/>
       <c r="J28" s="20"/>
@@ -6453,7 +6503,9 @@
       <c r="F29" s="20">
         <v>100</v>
       </c>
-      <c r="G29" s="20"/>
+      <c r="G29" s="20">
+        <v>100</v>
+      </c>
       <c r="H29" s="20"/>
       <c r="I29" s="20"/>
       <c r="J29" s="20"/>
@@ -6486,7 +6538,9 @@
       <c r="F30" s="20">
         <v>80</v>
       </c>
-      <c r="G30" s="20"/>
+      <c r="G30" s="20">
+        <v>80</v>
+      </c>
       <c r="H30" s="20"/>
       <c r="I30" s="20"/>
       <c r="J30" s="20"/>
@@ -6519,7 +6573,9 @@
       <c r="F31" s="20">
         <v>60</v>
       </c>
-      <c r="G31" s="20"/>
+      <c r="G31" s="20">
+        <v>80</v>
+      </c>
       <c r="H31" s="20"/>
       <c r="I31" s="20"/>
       <c r="J31" s="20"/>
@@ -6530,7 +6586,7 @@
       <c r="O31" s="20"/>
       <c r="P31" s="21">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.15">
@@ -6552,7 +6608,9 @@
       <c r="F32" s="20">
         <v>90</v>
       </c>
-      <c r="G32" s="20"/>
+      <c r="G32" s="20">
+        <v>100</v>
+      </c>
       <c r="H32" s="20"/>
       <c r="I32" s="20"/>
       <c r="J32" s="20"/>
@@ -6563,7 +6621,7 @@
       <c r="O32" s="20"/>
       <c r="P32" s="21">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.15">
@@ -6585,7 +6643,9 @@
       <c r="F33" s="20">
         <v>60</v>
       </c>
-      <c r="G33" s="20"/>
+      <c r="G33" s="20">
+        <v>80</v>
+      </c>
       <c r="H33" s="20"/>
       <c r="I33" s="20"/>
       <c r="J33" s="20"/>
@@ -6596,7 +6656,7 @@
       <c r="O33" s="20"/>
       <c r="P33" s="21">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.15">
@@ -6618,7 +6678,9 @@
       <c r="F34" s="20">
         <v>80</v>
       </c>
-      <c r="G34" s="20"/>
+      <c r="G34" s="20">
+        <v>80</v>
+      </c>
       <c r="H34" s="20"/>
       <c r="I34" s="20"/>
       <c r="J34" s="20"/>
@@ -6651,7 +6713,9 @@
       <c r="F35" s="20">
         <v>60</v>
       </c>
-      <c r="G35" s="20"/>
+      <c r="G35" s="20">
+        <v>80</v>
+      </c>
       <c r="H35" s="20"/>
       <c r="I35" s="20"/>
       <c r="J35" s="20"/>
@@ -6662,7 +6726,7 @@
       <c r="O35" s="20"/>
       <c r="P35" s="21">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.15">
@@ -6684,7 +6748,9 @@
       <c r="F36" s="20">
         <v>100</v>
       </c>
-      <c r="G36" s="20"/>
+      <c r="G36" s="20">
+        <v>100</v>
+      </c>
       <c r="H36" s="20"/>
       <c r="I36" s="20"/>
       <c r="J36" s="20"/>
@@ -6717,7 +6783,9 @@
       <c r="F37" s="20">
         <v>100</v>
       </c>
-      <c r="G37" s="20"/>
+      <c r="G37" s="20">
+        <v>100</v>
+      </c>
       <c r="H37" s="20"/>
       <c r="I37" s="20"/>
       <c r="J37" s="20"/>
@@ -6750,7 +6818,9 @@
       <c r="F38" s="20">
         <v>60</v>
       </c>
-      <c r="G38" s="20"/>
+      <c r="G38" s="20">
+        <v>0</v>
+      </c>
       <c r="H38" s="20"/>
       <c r="I38" s="20"/>
       <c r="J38" s="20"/>
@@ -6761,7 +6831,7 @@
       <c r="O38" s="20"/>
       <c r="P38" s="21">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.15">
@@ -6783,7 +6853,9 @@
       <c r="F39" s="20">
         <v>100</v>
       </c>
-      <c r="G39" s="20"/>
+      <c r="G39" s="20">
+        <v>100</v>
+      </c>
       <c r="H39" s="20"/>
       <c r="I39" s="20"/>
       <c r="J39" s="20"/>
@@ -6816,7 +6888,9 @@
       <c r="F40" s="20">
         <v>100</v>
       </c>
-      <c r="G40" s="20"/>
+      <c r="G40" s="20">
+        <v>100</v>
+      </c>
       <c r="H40" s="20"/>
       <c r="I40" s="20"/>
       <c r="J40" s="20"/>
@@ -6849,7 +6923,9 @@
       <c r="F41" s="20">
         <v>100</v>
       </c>
-      <c r="G41" s="20"/>
+      <c r="G41" s="20">
+        <v>100</v>
+      </c>
       <c r="H41" s="20"/>
       <c r="I41" s="20"/>
       <c r="J41" s="20"/>
@@ -6882,7 +6958,9 @@
       <c r="F42" s="20">
         <v>90</v>
       </c>
-      <c r="G42" s="20"/>
+      <c r="G42" s="20">
+        <v>70</v>
+      </c>
       <c r="H42" s="20"/>
       <c r="I42" s="20"/>
       <c r="J42" s="20"/>
@@ -6893,7 +6971,7 @@
       <c r="O42" s="20"/>
       <c r="P42" s="21">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.15">
@@ -6915,7 +6993,9 @@
       <c r="F43" s="20">
         <v>60</v>
       </c>
-      <c r="G43" s="20"/>
+      <c r="G43" s="20">
+        <v>100</v>
+      </c>
       <c r="H43" s="20"/>
       <c r="I43" s="20"/>
       <c r="J43" s="20"/>
@@ -6926,7 +7006,7 @@
       <c r="O43" s="20"/>
       <c r="P43" s="21">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.15">
@@ -6948,7 +7028,9 @@
       <c r="F44" s="20">
         <v>80</v>
       </c>
-      <c r="G44" s="20"/>
+      <c r="G44" s="20">
+        <v>80</v>
+      </c>
       <c r="H44" s="20"/>
       <c r="I44" s="20"/>
       <c r="J44" s="20"/>
@@ -6981,7 +7063,9 @@
       <c r="F45" s="20">
         <v>90</v>
       </c>
-      <c r="G45" s="20"/>
+      <c r="G45" s="20">
+        <v>100</v>
+      </c>
       <c r="H45" s="20"/>
       <c r="I45" s="20"/>
       <c r="J45" s="20"/>
@@ -6992,7 +7076,7 @@
       <c r="O45" s="20"/>
       <c r="P45" s="21">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.15">
@@ -7014,7 +7098,9 @@
       <c r="F46" s="20">
         <v>70</v>
       </c>
-      <c r="G46" s="20"/>
+      <c r="G46" s="20">
+        <v>100</v>
+      </c>
       <c r="H46" s="20"/>
       <c r="I46" s="20"/>
       <c r="J46" s="20"/>
@@ -7025,7 +7111,7 @@
       <c r="O46" s="20"/>
       <c r="P46" s="21">
         <f t="shared" ref="P46:P51" si="1">AVERAGE(F46:O46)</f>
-        <v>70</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.15">
@@ -7047,7 +7133,9 @@
       <c r="F47" s="20">
         <v>90</v>
       </c>
-      <c r="G47" s="20"/>
+      <c r="G47" s="20">
+        <v>80</v>
+      </c>
       <c r="H47" s="20"/>
       <c r="I47" s="20"/>
       <c r="J47" s="20"/>
@@ -7058,7 +7146,7 @@
       <c r="O47" s="20"/>
       <c r="P47" s="21">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.15">
@@ -7080,7 +7168,9 @@
       <c r="F48" s="20">
         <v>100</v>
       </c>
-      <c r="G48" s="20"/>
+      <c r="G48" s="20">
+        <v>100</v>
+      </c>
       <c r="H48" s="20"/>
       <c r="I48" s="20"/>
       <c r="J48" s="20"/>
@@ -7113,7 +7203,9 @@
       <c r="F49" s="20">
         <v>60</v>
       </c>
-      <c r="G49" s="20"/>
+      <c r="G49" s="20">
+        <v>85</v>
+      </c>
       <c r="H49" s="20"/>
       <c r="I49" s="20"/>
       <c r="J49" s="20"/>
@@ -7124,7 +7216,7 @@
       <c r="O49" s="20"/>
       <c r="P49" s="21">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>72.5</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.15">
@@ -7146,7 +7238,9 @@
       <c r="F50" s="20">
         <v>100</v>
       </c>
-      <c r="G50" s="20"/>
+      <c r="G50" s="20">
+        <v>95</v>
+      </c>
       <c r="H50" s="20"/>
       <c r="I50" s="20"/>
       <c r="J50" s="20"/>
@@ -7157,7 +7251,7 @@
       <c r="O50" s="20"/>
       <c r="P50" s="21">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>97.5</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.15">
@@ -7179,7 +7273,9 @@
       <c r="F51" s="20">
         <v>90</v>
       </c>
-      <c r="G51" s="20"/>
+      <c r="G51" s="20">
+        <v>100</v>
+      </c>
       <c r="H51" s="20"/>
       <c r="I51" s="20"/>
       <c r="J51" s="20"/>
@@ -7190,7 +7286,7 @@
       <c r="O51" s="20"/>
       <c r="P51" s="21">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -7225,7 +7321,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>

--- a/Grade 2018/HomeAssignment/HA_Summary_YC_2018.xlsx
+++ b/Grade 2018/HomeAssignment/HA_Summary_YC_2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NIIT\NIIT教案\Sept-2020---Jan-2021\Grade 2018\HomeAssignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E34DE4E3-734A-40EE-810C-004D256CEE6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6709FBC0-0416-45EF-9A72-F55A8E1445DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="795" windowWidth="20490" windowHeight="10125" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5479,8 +5479,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C34" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" topLeftCell="C28" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6819,7 +6819,7 @@
         <v>60</v>
       </c>
       <c r="G38" s="20">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="H38" s="20"/>
       <c r="I38" s="20"/>
@@ -6831,7 +6831,7 @@
       <c r="O38" s="20"/>
       <c r="P38" s="21">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.15">

--- a/Grade 2018/HomeAssignment/HA_Summary_YC_2018.xlsx
+++ b/Grade 2018/HomeAssignment/HA_Summary_YC_2018.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NIIT\NIIT教案\Sept-2020---Jan-2021\Grade 2018\HomeAssignment\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6709FBC0-0416-45EF-9A72-F55A8E1445DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="795" windowWidth="20490" windowHeight="10125" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="792" windowWidth="20496" windowHeight="10128" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CS1" sheetId="2" r:id="rId1"/>
@@ -24,7 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">NE!$A$2:$P$45</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">SE!$A$2:$P$45</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="393">
   <si>
     <t>No</t>
   </si>
@@ -1215,12 +1209,16 @@
   </si>
   <si>
     <t>Anne</t>
+  </si>
+  <si>
+    <t>dd/mm/yy</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="[$-804]d\-mmm"/>
     <numFmt numFmtId="177" formatCode="0.00_);\(0.00\)"/>
@@ -1545,9 +1543,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="常规 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="常规 4" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="常规 2 3" xfId="1"/>
+    <cellStyle name="常规 3" xfId="3"/>
+    <cellStyle name="常规 4" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1817,39 +1815,39 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView topLeftCell="C19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.625" customWidth="1"/>
-    <col min="7" max="8" width="15.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="15.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="15.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" customWidth="1"/>
+    <col min="7" max="8" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>10</v>
       </c>
@@ -1871,7 +1869,7 @@
       <c r="O1" s="27"/>
       <c r="P1" s="27"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
@@ -1921,7 +1919,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="23"/>
       <c r="B3" s="23"/>
       <c r="C3" s="23"/>
@@ -1933,8 +1931,8 @@
       <c r="G3" s="3">
         <v>44101</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>22</v>
+      <c r="H3" s="3">
+        <v>44117</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>22</v>
@@ -1959,7 +1957,7 @@
       </c>
       <c r="P3" s="23"/>
     </row>
-    <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -1981,7 +1979,9 @@
       <c r="G4" s="8">
         <v>70</v>
       </c>
-      <c r="H4" s="8"/>
+      <c r="H4" s="8">
+        <v>100</v>
+      </c>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -1991,10 +1991,10 @@
       <c r="O4" s="8"/>
       <c r="P4" s="7">
         <f t="shared" ref="P4:P48" si="0">AVERAGE(F4:O4)</f>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -2016,7 +2016,9 @@
       <c r="G5" s="8">
         <v>100</v>
       </c>
-      <c r="H5" s="8"/>
+      <c r="H5" s="8">
+        <v>100</v>
+      </c>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -2026,10 +2028,10 @@
       <c r="O5" s="8"/>
       <c r="P5" s="7">
         <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+        <v>93.333333333333329</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -2051,7 +2053,9 @@
       <c r="G6" s="8">
         <v>90</v>
       </c>
-      <c r="H6" s="8"/>
+      <c r="H6" s="8">
+        <v>90</v>
+      </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
@@ -2064,7 +2068,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -2086,7 +2090,9 @@
       <c r="G7" s="8">
         <v>100</v>
       </c>
-      <c r="H7" s="8"/>
+      <c r="H7" s="8">
+        <v>100</v>
+      </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
@@ -2096,10 +2102,10 @@
       <c r="O7" s="8"/>
       <c r="P7" s="7">
         <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+        <v>93.333333333333329</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -2121,7 +2127,9 @@
       <c r="G8" s="8">
         <v>100</v>
       </c>
-      <c r="H8" s="8"/>
+      <c r="H8" s="8">
+        <v>100</v>
+      </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
@@ -2134,7 +2142,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -2156,7 +2164,9 @@
       <c r="G9" s="8">
         <v>100</v>
       </c>
-      <c r="H9" s="8"/>
+      <c r="H9" s="8">
+        <v>100</v>
+      </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
@@ -2166,10 +2176,10 @@
       <c r="O9" s="8"/>
       <c r="P9" s="7">
         <f t="shared" si="0"/>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -2191,7 +2201,9 @@
       <c r="G10" s="8">
         <v>90</v>
       </c>
-      <c r="H10" s="8"/>
+      <c r="H10" s="8">
+        <v>90</v>
+      </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
@@ -2204,7 +2216,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -2226,7 +2238,9 @@
       <c r="G11" s="8">
         <v>90</v>
       </c>
-      <c r="H11" s="8"/>
+      <c r="H11" s="8">
+        <v>100</v>
+      </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
@@ -2236,10 +2250,10 @@
       <c r="O11" s="8"/>
       <c r="P11" s="7">
         <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+        <v>93.333333333333329</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -2261,7 +2275,9 @@
       <c r="G12" s="8">
         <v>90</v>
       </c>
-      <c r="H12" s="8"/>
+      <c r="H12" s="8">
+        <v>100</v>
+      </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
@@ -2271,10 +2287,10 @@
       <c r="O12" s="8"/>
       <c r="P12" s="7">
         <f t="shared" si="0"/>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -2296,7 +2312,9 @@
       <c r="G13" s="8">
         <v>90</v>
       </c>
-      <c r="H13" s="8"/>
+      <c r="H13" s="8">
+        <v>100</v>
+      </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
@@ -2306,10 +2324,10 @@
       <c r="O13" s="8"/>
       <c r="P13" s="7">
         <f t="shared" si="0"/>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+        <v>96.666666666666671</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -2331,7 +2349,9 @@
       <c r="G14" s="8">
         <v>70</v>
       </c>
-      <c r="H14" s="8"/>
+      <c r="H14" s="8">
+        <v>100</v>
+      </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
@@ -2341,10 +2361,10 @@
       <c r="O14" s="8"/>
       <c r="P14" s="7">
         <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+        <v>86.666666666666671</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -2366,7 +2386,9 @@
       <c r="G15" s="8">
         <v>100</v>
       </c>
-      <c r="H15" s="8"/>
+      <c r="H15" s="8">
+        <v>100</v>
+      </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
@@ -2379,7 +2401,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -2401,7 +2423,9 @@
       <c r="G16" s="8">
         <v>100</v>
       </c>
-      <c r="H16" s="8"/>
+      <c r="H16" s="8">
+        <v>100</v>
+      </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
@@ -2411,10 +2435,10 @@
       <c r="O16" s="8"/>
       <c r="P16" s="7">
         <f t="shared" si="0"/>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -2436,7 +2460,9 @@
       <c r="G17" s="8">
         <v>100</v>
       </c>
-      <c r="H17" s="8"/>
+      <c r="H17" s="8">
+        <v>100</v>
+      </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
@@ -2446,10 +2472,10 @@
       <c r="O17" s="8"/>
       <c r="P17" s="7">
         <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+        <v>93.333333333333329</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -2471,7 +2497,9 @@
       <c r="G18" s="8">
         <v>100</v>
       </c>
-      <c r="H18" s="8"/>
+      <c r="H18" s="8">
+        <v>100</v>
+      </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
@@ -2484,7 +2512,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -2506,7 +2534,9 @@
       <c r="G19" s="8">
         <v>90</v>
       </c>
-      <c r="H19" s="8"/>
+      <c r="H19" s="8">
+        <v>90</v>
+      </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
@@ -2516,10 +2546,10 @@
       <c r="O19" s="8"/>
       <c r="P19" s="7">
         <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -2541,7 +2571,9 @@
       <c r="G20" s="8">
         <v>100</v>
       </c>
-      <c r="H20" s="8"/>
+      <c r="H20" s="8">
+        <v>100</v>
+      </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
@@ -2554,7 +2586,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -2576,7 +2608,9 @@
       <c r="G21" s="8">
         <v>90</v>
       </c>
-      <c r="H21" s="8"/>
+      <c r="H21" s="8">
+        <v>100</v>
+      </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
@@ -2586,10 +2620,10 @@
       <c r="O21" s="8"/>
       <c r="P21" s="7">
         <f t="shared" si="0"/>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+        <v>96.666666666666671</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -2611,7 +2645,9 @@
       <c r="G22" s="8">
         <v>90</v>
       </c>
-      <c r="H22" s="8"/>
+      <c r="H22" s="8">
+        <v>100</v>
+      </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
@@ -2621,10 +2657,10 @@
       <c r="O22" s="8"/>
       <c r="P22" s="7">
         <f t="shared" si="0"/>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -2646,7 +2682,9 @@
       <c r="G23" s="8">
         <v>90</v>
       </c>
-      <c r="H23" s="8"/>
+      <c r="H23" s="8">
+        <v>100</v>
+      </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
@@ -2656,10 +2694,10 @@
       <c r="O23" s="8"/>
       <c r="P23" s="7">
         <f t="shared" si="0"/>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+        <v>96.666666666666671</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -2681,7 +2719,9 @@
       <c r="G24" s="8">
         <v>100</v>
       </c>
-      <c r="H24" s="8"/>
+      <c r="H24" s="8">
+        <v>80</v>
+      </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
@@ -2691,10 +2731,10 @@
       <c r="O24" s="8"/>
       <c r="P24" s="7">
         <f t="shared" si="0"/>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -2716,7 +2756,9 @@
       <c r="G25" s="8">
         <v>100</v>
       </c>
-      <c r="H25" s="8"/>
+      <c r="H25" s="8">
+        <v>100</v>
+      </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
@@ -2729,7 +2771,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -2751,7 +2793,9 @@
       <c r="G26" s="8">
         <v>90</v>
       </c>
-      <c r="H26" s="8"/>
+      <c r="H26" s="8">
+        <v>100</v>
+      </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
@@ -2761,10 +2805,10 @@
       <c r="O26" s="8"/>
       <c r="P26" s="7">
         <f t="shared" si="0"/>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+        <v>96.666666666666671</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -2786,7 +2830,9 @@
       <c r="G27" s="8">
         <v>90</v>
       </c>
-      <c r="H27" s="8"/>
+      <c r="H27" s="8">
+        <v>100</v>
+      </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
@@ -2796,10 +2842,10 @@
       <c r="O27" s="8"/>
       <c r="P27" s="7">
         <f t="shared" si="0"/>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+        <v>96.666666666666671</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -2821,7 +2867,9 @@
       <c r="G28" s="8">
         <v>90</v>
       </c>
-      <c r="H28" s="8"/>
+      <c r="H28" s="8">
+        <v>100</v>
+      </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
@@ -2831,10 +2879,10 @@
       <c r="O28" s="8"/>
       <c r="P28" s="7">
         <f t="shared" si="0"/>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -2856,7 +2904,9 @@
       <c r="G29" s="8">
         <v>100</v>
       </c>
-      <c r="H29" s="8"/>
+      <c r="H29" s="8">
+        <v>100</v>
+      </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
@@ -2866,10 +2916,10 @@
       <c r="O29" s="8"/>
       <c r="P29" s="7">
         <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+        <v>93.333333333333329</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -2891,7 +2941,9 @@
       <c r="G30" s="8">
         <v>100</v>
       </c>
-      <c r="H30" s="8"/>
+      <c r="H30" s="8">
+        <v>100</v>
+      </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
@@ -2901,10 +2953,10 @@
       <c r="O30" s="8"/>
       <c r="P30" s="7">
         <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+        <v>93.333333333333329</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>28</v>
       </c>
@@ -2926,7 +2978,9 @@
       <c r="G31" s="8">
         <v>100</v>
       </c>
-      <c r="H31" s="8"/>
+      <c r="H31" s="8">
+        <v>100</v>
+      </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
@@ -2936,10 +2990,10 @@
       <c r="O31" s="8"/>
       <c r="P31" s="7">
         <f t="shared" si="0"/>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+        <v>96.666666666666671</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>29</v>
       </c>
@@ -2961,7 +3015,9 @@
       <c r="G32" s="8">
         <v>100</v>
       </c>
-      <c r="H32" s="8"/>
+      <c r="H32" s="8">
+        <v>100</v>
+      </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
@@ -2974,7 +3030,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>30</v>
       </c>
@@ -2996,7 +3052,9 @@
       <c r="G33" s="8">
         <v>100</v>
       </c>
-      <c r="H33" s="8"/>
+      <c r="H33" s="8">
+        <v>100</v>
+      </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
@@ -3006,10 +3064,10 @@
       <c r="O33" s="8"/>
       <c r="P33" s="7">
         <f t="shared" si="0"/>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+        <v>96.666666666666671</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>31</v>
       </c>
@@ -3031,7 +3089,9 @@
       <c r="G34" s="8">
         <v>100</v>
       </c>
-      <c r="H34" s="8"/>
+      <c r="H34" s="8">
+        <v>90</v>
+      </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
@@ -3041,10 +3101,10 @@
       <c r="O34" s="8"/>
       <c r="P34" s="7">
         <f t="shared" si="0"/>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+        <v>93.333333333333329</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>32</v>
       </c>
@@ -3066,7 +3126,9 @@
       <c r="G35" s="8">
         <v>100</v>
       </c>
-      <c r="H35" s="8"/>
+      <c r="H35" s="8">
+        <v>100</v>
+      </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
@@ -3076,10 +3138,10 @@
       <c r="O35" s="8"/>
       <c r="P35" s="7">
         <f t="shared" si="0"/>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>33</v>
       </c>
@@ -3101,7 +3163,9 @@
       <c r="G36" s="8">
         <v>100</v>
       </c>
-      <c r="H36" s="8"/>
+      <c r="H36" s="8">
+        <v>100</v>
+      </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
@@ -3114,7 +3178,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>34</v>
       </c>
@@ -3136,7 +3200,9 @@
       <c r="G37" s="8">
         <v>100</v>
       </c>
-      <c r="H37" s="8"/>
+      <c r="H37" s="8">
+        <v>100</v>
+      </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
@@ -3149,7 +3215,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>35</v>
       </c>
@@ -3171,7 +3237,9 @@
       <c r="G38" s="8">
         <v>100</v>
       </c>
-      <c r="H38" s="8"/>
+      <c r="H38" s="8">
+        <v>100</v>
+      </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
@@ -3181,10 +3249,10 @@
       <c r="O38" s="8"/>
       <c r="P38" s="7">
         <f t="shared" si="0"/>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+        <v>96.666666666666671</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>36</v>
       </c>
@@ -3206,7 +3274,9 @@
       <c r="G39" s="8">
         <v>90</v>
       </c>
-      <c r="H39" s="8"/>
+      <c r="H39" s="8">
+        <v>100</v>
+      </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
@@ -3216,10 +3286,10 @@
       <c r="O39" s="8"/>
       <c r="P39" s="7">
         <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+        <v>93.333333333333329</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>37</v>
       </c>
@@ -3241,7 +3311,9 @@
       <c r="G40" s="8">
         <v>90</v>
       </c>
-      <c r="H40" s="8"/>
+      <c r="H40" s="8">
+        <v>100</v>
+      </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
@@ -3251,10 +3323,10 @@
       <c r="O40" s="8"/>
       <c r="P40" s="7">
         <f t="shared" si="0"/>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+        <v>96.666666666666671</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>38</v>
       </c>
@@ -3276,7 +3348,9 @@
       <c r="G41" s="8">
         <v>100</v>
       </c>
-      <c r="H41" s="8"/>
+      <c r="H41" s="8">
+        <v>100</v>
+      </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
@@ -3289,7 +3363,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>39</v>
       </c>
@@ -3311,7 +3385,9 @@
       <c r="G42" s="8">
         <v>100</v>
       </c>
-      <c r="H42" s="8"/>
+      <c r="H42" s="8">
+        <v>100</v>
+      </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
@@ -3321,10 +3397,10 @@
       <c r="O42" s="8"/>
       <c r="P42" s="7">
         <f t="shared" si="0"/>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+        <v>96.666666666666671</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>40</v>
       </c>
@@ -3346,7 +3422,9 @@
       <c r="G43" s="8">
         <v>100</v>
       </c>
-      <c r="H43" s="8"/>
+      <c r="H43" s="8">
+        <v>100</v>
+      </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
@@ -3356,10 +3434,10 @@
       <c r="O43" s="8"/>
       <c r="P43" s="7">
         <f t="shared" si="0"/>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+        <v>96.666666666666671</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>41</v>
       </c>
@@ -3381,7 +3459,9 @@
       <c r="G44" s="8">
         <v>90</v>
       </c>
-      <c r="H44" s="8"/>
+      <c r="H44" s="8">
+        <v>100</v>
+      </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
@@ -3391,10 +3471,10 @@
       <c r="O44" s="8"/>
       <c r="P44" s="7">
         <f t="shared" si="0"/>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+        <v>96.666666666666671</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>42</v>
       </c>
@@ -3416,7 +3496,9 @@
       <c r="G45" s="8">
         <v>90</v>
       </c>
-      <c r="H45" s="8"/>
+      <c r="H45" s="8">
+        <v>100</v>
+      </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
@@ -3426,10 +3508,10 @@
       <c r="O45" s="8"/>
       <c r="P45" s="7">
         <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+        <v>93.333333333333329</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>43</v>
       </c>
@@ -3451,7 +3533,9 @@
       <c r="G46" s="8">
         <v>100</v>
       </c>
-      <c r="H46" s="8"/>
+      <c r="H46" s="8">
+        <v>100</v>
+      </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
@@ -3464,7 +3548,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>44</v>
       </c>
@@ -3486,7 +3570,9 @@
       <c r="G47" s="8">
         <v>100</v>
       </c>
-      <c r="H47" s="8"/>
+      <c r="H47" s="8">
+        <v>100</v>
+      </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
@@ -3496,10 +3582,10 @@
       <c r="O47" s="8"/>
       <c r="P47" s="7">
         <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+        <v>93.333333333333329</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>45</v>
       </c>
@@ -3521,7 +3607,9 @@
       <c r="G48" s="8">
         <v>80</v>
       </c>
-      <c r="H48" s="8"/>
+      <c r="H48" s="8">
+        <v>100</v>
+      </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
@@ -3531,10 +3619,10 @@
       <c r="O48" s="8"/>
       <c r="P48" s="7">
         <f t="shared" si="0"/>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>46</v>
       </c>
@@ -3556,7 +3644,9 @@
       <c r="G49" s="8">
         <v>100</v>
       </c>
-      <c r="H49" s="8"/>
+      <c r="H49" s="8">
+        <v>100</v>
+      </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
@@ -3569,7 +3659,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>47</v>
       </c>
@@ -3591,7 +3681,9 @@
       <c r="G50" s="8">
         <v>90</v>
       </c>
-      <c r="H50" s="8"/>
+      <c r="H50" s="8">
+        <v>100</v>
+      </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
@@ -3601,12 +3693,12 @@
       <c r="O50" s="8"/>
       <c r="P50" s="7">
         <f t="shared" si="1"/>
-        <v>95</v>
+        <v>96.666666666666671</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:P50" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:R44">
+  <autoFilter ref="A2:P50">
+    <sortState ref="A5:R44">
       <sortCondition ref="C2:C3"/>
     </sortState>
   </autoFilter>
@@ -3622,9 +3714,9 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations xWindow="519" yWindow="339" count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Input Score" sqref="N4:O50 K4:K50" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Assignment Number" sqref="F2:O2" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:O3" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Input Score" sqref="N4:O50 K4:K50"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Assignment Number" sqref="F2:O2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:O3"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3632,32 +3724,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="15.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="15.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="15.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>10</v>
       </c>
@@ -3679,7 +3771,7 @@
       <c r="O1" s="27"/>
       <c r="P1" s="27"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
@@ -3729,7 +3821,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="23"/>
       <c r="B3" s="23"/>
       <c r="C3" s="23"/>
@@ -3741,8 +3833,8 @@
       <c r="G3" s="3">
         <v>44101</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>22</v>
+      <c r="H3" s="3">
+        <v>44117</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>22</v>
@@ -3767,7 +3859,7 @@
       </c>
       <c r="P3" s="23"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -3789,7 +3881,9 @@
       <c r="G4" s="8">
         <v>100</v>
       </c>
-      <c r="H4" s="8"/>
+      <c r="H4" s="8">
+        <v>100</v>
+      </c>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -3799,10 +3893,10 @@
       <c r="O4" s="8"/>
       <c r="P4" s="7">
         <f t="shared" ref="P4:P50" si="0">AVERAGE(F4:O4)</f>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -3824,7 +3918,9 @@
       <c r="G5" s="8">
         <v>100</v>
       </c>
-      <c r="H5" s="8"/>
+      <c r="H5" s="8">
+        <v>100</v>
+      </c>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -3837,7 +3933,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -3859,7 +3955,9 @@
       <c r="G6" s="8">
         <v>80</v>
       </c>
-      <c r="H6" s="8"/>
+      <c r="H6" s="8">
+        <v>100</v>
+      </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
@@ -3869,10 +3967,10 @@
       <c r="O6" s="8"/>
       <c r="P6" s="7">
         <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -3894,7 +3992,9 @@
       <c r="G7" s="8">
         <v>100</v>
       </c>
-      <c r="H7" s="8"/>
+      <c r="H7" s="8">
+        <v>100</v>
+      </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
@@ -3907,7 +4007,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -3929,7 +4029,9 @@
       <c r="G8" s="8">
         <v>100</v>
       </c>
-      <c r="H8" s="8"/>
+      <c r="H8" s="8">
+        <v>100</v>
+      </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
@@ -3942,7 +4044,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -3964,7 +4066,9 @@
       <c r="G9" s="8">
         <v>80</v>
       </c>
-      <c r="H9" s="8"/>
+      <c r="H9" s="8">
+        <v>100</v>
+      </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
@@ -3974,10 +4078,10 @@
       <c r="O9" s="8"/>
       <c r="P9" s="7">
         <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+        <v>93.333333333333329</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -3999,7 +4103,9 @@
       <c r="G10" s="8">
         <v>90</v>
       </c>
-      <c r="H10" s="8"/>
+      <c r="H10" s="8">
+        <v>100</v>
+      </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
@@ -4009,10 +4115,10 @@
       <c r="O10" s="8"/>
       <c r="P10" s="7">
         <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+        <v>83.333333333333329</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -4034,7 +4140,9 @@
       <c r="G11" s="8">
         <v>100</v>
       </c>
-      <c r="H11" s="8"/>
+      <c r="H11" s="8">
+        <v>100</v>
+      </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
@@ -4047,7 +4155,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -4069,7 +4177,9 @@
       <c r="G12" s="8">
         <v>100</v>
       </c>
-      <c r="H12" s="8"/>
+      <c r="H12" s="8">
+        <v>100</v>
+      </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
@@ -4082,7 +4192,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -4104,7 +4214,9 @@
       <c r="G13" s="8">
         <v>100</v>
       </c>
-      <c r="H13" s="8"/>
+      <c r="H13" s="8">
+        <v>100</v>
+      </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
@@ -4117,7 +4229,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -4139,7 +4251,9 @@
       <c r="G14" s="8">
         <v>80</v>
       </c>
-      <c r="H14" s="8"/>
+      <c r="H14" s="8">
+        <v>100</v>
+      </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
@@ -4149,10 +4263,10 @@
       <c r="O14" s="8"/>
       <c r="P14" s="7">
         <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+        <v>93.333333333333329</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -4174,7 +4288,9 @@
       <c r="G15" s="8">
         <v>100</v>
       </c>
-      <c r="H15" s="8"/>
+      <c r="H15" s="8">
+        <v>100</v>
+      </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
@@ -4187,7 +4303,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -4209,7 +4325,9 @@
       <c r="G16" s="8">
         <v>100</v>
       </c>
-      <c r="H16" s="8"/>
+      <c r="H16" s="8">
+        <v>100</v>
+      </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
@@ -4219,10 +4337,10 @@
       <c r="O16" s="8"/>
       <c r="P16" s="7">
         <f t="shared" si="0"/>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+        <v>96.666666666666671</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -4244,7 +4362,9 @@
       <c r="G17" s="8">
         <v>90</v>
       </c>
-      <c r="H17" s="8"/>
+      <c r="H17" s="8">
+        <v>90</v>
+      </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
@@ -4254,10 +4374,10 @@
       <c r="O17" s="8"/>
       <c r="P17" s="7">
         <f t="shared" si="0"/>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+        <v>93.333333333333329</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -4279,7 +4399,9 @@
       <c r="G18" s="8">
         <v>100</v>
       </c>
-      <c r="H18" s="8"/>
+      <c r="H18" s="8">
+        <v>100</v>
+      </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
@@ -4292,7 +4414,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -4314,7 +4436,9 @@
       <c r="G19" s="8">
         <v>100</v>
       </c>
-      <c r="H19" s="8"/>
+      <c r="H19" s="8">
+        <v>100</v>
+      </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
@@ -4327,7 +4451,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -4349,7 +4473,9 @@
       <c r="G20" s="8">
         <v>90</v>
       </c>
-      <c r="H20" s="8"/>
+      <c r="H20" s="8">
+        <v>100</v>
+      </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
@@ -4359,10 +4485,10 @@
       <c r="O20" s="8"/>
       <c r="P20" s="7">
         <f t="shared" si="0"/>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+        <v>96.666666666666671</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -4384,7 +4510,9 @@
       <c r="G21" s="8">
         <v>90</v>
       </c>
-      <c r="H21" s="8"/>
+      <c r="H21" s="8">
+        <v>100</v>
+      </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
@@ -4394,10 +4522,10 @@
       <c r="O21" s="8"/>
       <c r="P21" s="7">
         <f t="shared" si="0"/>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+        <v>96.666666666666671</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -4419,7 +4547,9 @@
       <c r="G22" s="8">
         <v>90</v>
       </c>
-      <c r="H22" s="8"/>
+      <c r="H22" s="8">
+        <v>100</v>
+      </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
@@ -4429,10 +4559,10 @@
       <c r="O22" s="8"/>
       <c r="P22" s="7">
         <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+        <v>93.333333333333329</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -4454,7 +4584,9 @@
       <c r="G23" s="8">
         <v>90</v>
       </c>
-      <c r="H23" s="8"/>
+      <c r="H23" s="8">
+        <v>90</v>
+      </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
@@ -4464,10 +4596,10 @@
       <c r="O23" s="8"/>
       <c r="P23" s="7">
         <f t="shared" si="0"/>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+        <v>93.333333333333329</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -4489,7 +4621,9 @@
       <c r="G24" s="8">
         <v>100</v>
       </c>
-      <c r="H24" s="8"/>
+      <c r="H24" s="8">
+        <v>100</v>
+      </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
@@ -4502,7 +4636,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -4524,7 +4658,9 @@
       <c r="G25" s="8">
         <v>80</v>
       </c>
-      <c r="H25" s="8"/>
+      <c r="H25" s="8">
+        <v>100</v>
+      </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
@@ -4534,10 +4670,10 @@
       <c r="O25" s="8"/>
       <c r="P25" s="7">
         <f t="shared" si="0"/>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -4559,7 +4695,9 @@
       <c r="G26" s="8">
         <v>80</v>
       </c>
-      <c r="H26" s="8"/>
+      <c r="H26" s="8">
+        <v>100</v>
+      </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
@@ -4569,10 +4707,10 @@
       <c r="O26" s="8"/>
       <c r="P26" s="7">
         <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+        <v>93.333333333333329</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -4594,7 +4732,9 @@
       <c r="G27" s="8">
         <v>90</v>
       </c>
-      <c r="H27" s="8"/>
+      <c r="H27" s="8">
+        <v>100</v>
+      </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
@@ -4604,10 +4744,10 @@
       <c r="O27" s="8"/>
       <c r="P27" s="7">
         <f t="shared" si="0"/>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+        <v>96.666666666666671</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -4629,7 +4769,9 @@
       <c r="G28" s="8">
         <v>100</v>
       </c>
-      <c r="H28" s="8"/>
+      <c r="H28" s="8">
+        <v>100</v>
+      </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
@@ -4642,7 +4784,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -4664,7 +4806,9 @@
       <c r="G29" s="8">
         <v>90</v>
       </c>
-      <c r="H29" s="8"/>
+      <c r="H29" s="8">
+        <v>100</v>
+      </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
@@ -4674,10 +4818,10 @@
       <c r="O29" s="8"/>
       <c r="P29" s="7">
         <f t="shared" si="0"/>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+        <v>96.666666666666671</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -4699,7 +4843,9 @@
       <c r="G30" s="8">
         <v>80</v>
       </c>
-      <c r="H30" s="8"/>
+      <c r="H30" s="8">
+        <v>100</v>
+      </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
@@ -4709,10 +4855,10 @@
       <c r="O30" s="8"/>
       <c r="P30" s="7">
         <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+        <v>93.333333333333329</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>28</v>
       </c>
@@ -4734,7 +4880,9 @@
       <c r="G31" s="8">
         <v>80</v>
       </c>
-      <c r="H31" s="8"/>
+      <c r="H31" s="8">
+        <v>100</v>
+      </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
@@ -4744,10 +4892,10 @@
       <c r="O31" s="8"/>
       <c r="P31" s="7">
         <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+        <v>93.333333333333329</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>29</v>
       </c>
@@ -4769,7 +4917,9 @@
       <c r="G32" s="8">
         <v>70</v>
       </c>
-      <c r="H32" s="8"/>
+      <c r="H32" s="8">
+        <v>100</v>
+      </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
@@ -4779,10 +4929,10 @@
       <c r="O32" s="8"/>
       <c r="P32" s="7">
         <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+        <v>76.666666666666671</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>30</v>
       </c>
@@ -4804,7 +4954,9 @@
       <c r="G33" s="8">
         <v>90</v>
       </c>
-      <c r="H33" s="8"/>
+      <c r="H33" s="8">
+        <v>100</v>
+      </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
@@ -4814,10 +4966,10 @@
       <c r="O33" s="8"/>
       <c r="P33" s="7">
         <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+        <v>86.666666666666671</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>31</v>
       </c>
@@ -4839,7 +4991,9 @@
       <c r="G34" s="8">
         <v>100</v>
       </c>
-      <c r="H34" s="8"/>
+      <c r="H34" s="8">
+        <v>100</v>
+      </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
@@ -4852,7 +5006,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>32</v>
       </c>
@@ -4874,7 +5028,9 @@
       <c r="G35" s="8">
         <v>100</v>
       </c>
-      <c r="H35" s="8"/>
+      <c r="H35" s="8">
+        <v>100</v>
+      </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
@@ -4887,7 +5043,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>33</v>
       </c>
@@ -4909,7 +5065,9 @@
       <c r="G36" s="8">
         <v>100</v>
       </c>
-      <c r="H36" s="8"/>
+      <c r="H36" s="8">
+        <v>100</v>
+      </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
@@ -4919,10 +5077,10 @@
       <c r="O36" s="8"/>
       <c r="P36" s="7">
         <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+        <v>83.333333333333329</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>34</v>
       </c>
@@ -4944,7 +5102,9 @@
       <c r="G37" s="8">
         <v>100</v>
       </c>
-      <c r="H37" s="8"/>
+      <c r="H37" s="8">
+        <v>100</v>
+      </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
@@ -4954,10 +5114,10 @@
       <c r="O37" s="8"/>
       <c r="P37" s="7">
         <f t="shared" si="0"/>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+        <v>96.666666666666671</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>35</v>
       </c>
@@ -4979,7 +5139,9 @@
       <c r="G38" s="8">
         <v>100</v>
       </c>
-      <c r="H38" s="8"/>
+      <c r="H38" s="8">
+        <v>100</v>
+      </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
@@ -4989,10 +5151,10 @@
       <c r="O38" s="8"/>
       <c r="P38" s="7">
         <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+        <v>93.333333333333329</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>36</v>
       </c>
@@ -5014,7 +5176,9 @@
       <c r="G39" s="8">
         <v>100</v>
       </c>
-      <c r="H39" s="8"/>
+      <c r="H39" s="8">
+        <v>100</v>
+      </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
@@ -5024,10 +5188,10 @@
       <c r="O39" s="8"/>
       <c r="P39" s="7">
         <f t="shared" si="0"/>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>37</v>
       </c>
@@ -5049,7 +5213,9 @@
       <c r="G40" s="8">
         <v>100</v>
       </c>
-      <c r="H40" s="8"/>
+      <c r="H40" s="8">
+        <v>100</v>
+      </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
@@ -5062,7 +5228,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>38</v>
       </c>
@@ -5084,7 +5250,9 @@
       <c r="G41" s="8">
         <v>90</v>
       </c>
-      <c r="H41" s="8"/>
+      <c r="H41" s="8">
+        <v>100</v>
+      </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
@@ -5094,10 +5262,10 @@
       <c r="O41" s="8"/>
       <c r="P41" s="7">
         <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.15">
+        <v>93.333333333333329</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>39</v>
       </c>
@@ -5119,7 +5287,9 @@
       <c r="G42" s="8">
         <v>100</v>
       </c>
-      <c r="H42" s="8"/>
+      <c r="H42" s="8">
+        <v>100</v>
+      </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
@@ -5132,7 +5302,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>40</v>
       </c>
@@ -5154,7 +5324,9 @@
       <c r="G43" s="8">
         <v>100</v>
       </c>
-      <c r="H43" s="8"/>
+      <c r="H43" s="8">
+        <v>100</v>
+      </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
@@ -5167,7 +5339,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>41</v>
       </c>
@@ -5189,7 +5361,9 @@
       <c r="G44" s="8">
         <v>100</v>
       </c>
-      <c r="H44" s="8"/>
+      <c r="H44" s="8">
+        <v>100</v>
+      </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
@@ -5202,7 +5376,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>42</v>
       </c>
@@ -5224,7 +5398,9 @@
       <c r="G45" s="8">
         <v>100</v>
       </c>
-      <c r="H45" s="8"/>
+      <c r="H45" s="8">
+        <v>100</v>
+      </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
@@ -5234,10 +5410,10 @@
       <c r="O45" s="8"/>
       <c r="P45" s="7">
         <f t="shared" si="0"/>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.15">
+        <v>96.666666666666671</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>43</v>
       </c>
@@ -5259,7 +5435,9 @@
       <c r="G46" s="8">
         <v>100</v>
       </c>
-      <c r="H46" s="8"/>
+      <c r="H46" s="8">
+        <v>100</v>
+      </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
@@ -5272,7 +5450,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>44</v>
       </c>
@@ -5294,7 +5472,9 @@
       <c r="G47" s="8">
         <v>100</v>
       </c>
-      <c r="H47" s="8"/>
+      <c r="H47" s="8">
+        <v>100</v>
+      </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
@@ -5307,7 +5487,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>45</v>
       </c>
@@ -5329,7 +5509,9 @@
       <c r="G48" s="8">
         <v>100</v>
       </c>
-      <c r="H48" s="8"/>
+      <c r="H48" s="8">
+        <v>100</v>
+      </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
@@ -5339,10 +5521,10 @@
       <c r="O48" s="8"/>
       <c r="P48" s="7">
         <f t="shared" si="0"/>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.15">
+        <v>96.666666666666671</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>46</v>
       </c>
@@ -5364,7 +5546,9 @@
       <c r="G49" s="8">
         <v>100</v>
       </c>
-      <c r="H49" s="8"/>
+      <c r="H49" s="8">
+        <v>100</v>
+      </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
@@ -5374,10 +5558,10 @@
       <c r="O49" s="8"/>
       <c r="P49" s="7">
         <f t="shared" si="0"/>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.15">
+        <v>96.666666666666671</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>47</v>
       </c>
@@ -5399,7 +5583,9 @@
       <c r="G50" s="8">
         <v>100</v>
       </c>
-      <c r="H50" s="8"/>
+      <c r="H50" s="8">
+        <v>100</v>
+      </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
@@ -5412,7 +5598,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>48</v>
       </c>
@@ -5434,7 +5620,9 @@
       <c r="G51" s="8">
         <v>100</v>
       </c>
-      <c r="H51" s="8"/>
+      <c r="H51" s="8">
+        <v>100</v>
+      </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
@@ -5444,12 +5632,12 @@
       <c r="O51" s="8"/>
       <c r="P51" s="7">
         <f t="shared" ref="P51" si="1">AVERAGE(F51:O51)</f>
-        <v>95</v>
+        <v>96.666666666666671</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:P51" xr:uid="{00000000-0009-0000-0000-000001000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:R44">
+  <autoFilter ref="A2:P51">
+    <sortState ref="A5:R44">
       <sortCondition ref="C2:C3"/>
     </sortState>
   </autoFilter>
@@ -5465,9 +5653,9 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations xWindow="1225" yWindow="391" count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Input Score" sqref="F4:O51" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:O3" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Assignment Number" sqref="F2:O2" xr:uid="{00000000-0002-0000-0100-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Input Score" sqref="F4:O51"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:O3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Assignment Number" sqref="F2:O2"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5475,31 +5663,31 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C28" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="11.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="11.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="11.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="11.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>10</v>
       </c>
@@ -5521,7 +5709,7 @@
       <c r="O1" s="31"/>
       <c r="P1" s="31"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>0</v>
       </c>
@@ -5571,7 +5759,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="33"/>
       <c r="B3" s="33"/>
       <c r="C3" s="33"/>
@@ -5581,7 +5769,7 @@
         <v>44095</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>22</v>
+        <v>392</v>
       </c>
       <c r="H3" s="17" t="s">
         <v>22</v>
@@ -5609,7 +5797,7 @@
       </c>
       <c r="P3" s="33"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="18">
         <v>1</v>
       </c>
@@ -5644,7 +5832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="18">
         <v>2</v>
       </c>
@@ -5679,7 +5867,7 @@
         <v>92.5</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="18">
         <v>3</v>
       </c>
@@ -5714,7 +5902,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="18">
         <v>4</v>
       </c>
@@ -5749,7 +5937,7 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="18">
         <v>5</v>
       </c>
@@ -5784,7 +5972,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="18">
         <v>6</v>
       </c>
@@ -5819,7 +6007,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="18">
         <v>7</v>
       </c>
@@ -5854,7 +6042,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="18">
         <v>8</v>
       </c>
@@ -5889,7 +6077,7 @@
         <v>82.5</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="18">
         <v>9</v>
       </c>
@@ -5924,7 +6112,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="18">
         <v>10</v>
       </c>
@@ -5959,7 +6147,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="18">
         <v>11</v>
       </c>
@@ -5994,7 +6182,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="18">
         <v>12</v>
       </c>
@@ -6029,7 +6217,7 @@
         <v>92.5</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="18">
         <v>13</v>
       </c>
@@ -6064,7 +6252,7 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="18">
         <v>14</v>
       </c>
@@ -6099,7 +6287,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="18">
         <v>15</v>
       </c>
@@ -6134,7 +6322,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="18">
         <v>16</v>
       </c>
@@ -6169,7 +6357,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="18">
         <v>17</v>
       </c>
@@ -6204,7 +6392,7 @@
         <v>87.5</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="18">
         <v>18</v>
       </c>
@@ -6239,7 +6427,7 @@
         <v>72.5</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="18">
         <v>19</v>
       </c>
@@ -6274,7 +6462,7 @@
         <v>77.5</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="18">
         <v>20</v>
       </c>
@@ -6309,7 +6497,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="18">
         <v>21</v>
       </c>
@@ -6344,7 +6532,7 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="18">
         <v>22</v>
       </c>
@@ -6379,7 +6567,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="18">
         <v>23</v>
       </c>
@@ -6414,7 +6602,7 @@
         <v>77.5</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="18">
         <v>24</v>
       </c>
@@ -6449,7 +6637,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="18">
         <v>25</v>
       </c>
@@ -6484,7 +6672,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="18">
         <v>26</v>
       </c>
@@ -6519,7 +6707,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="18">
         <v>27</v>
       </c>
@@ -6554,7 +6742,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="18">
         <v>28</v>
       </c>
@@ -6589,7 +6777,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="18">
         <v>29</v>
       </c>
@@ -6624,7 +6812,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="18">
         <v>30</v>
       </c>
@@ -6659,7 +6847,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="18">
         <v>31</v>
       </c>
@@ -6694,7 +6882,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="18">
         <v>32</v>
       </c>
@@ -6729,7 +6917,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="18">
         <v>33</v>
       </c>
@@ -6764,7 +6952,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="18">
         <v>34</v>
       </c>
@@ -6799,7 +6987,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="18">
         <v>35</v>
       </c>
@@ -6834,7 +7022,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="18">
         <v>36</v>
       </c>
@@ -6869,7 +7057,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="18">
         <v>37</v>
       </c>
@@ -6904,7 +7092,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="18">
         <v>38</v>
       </c>
@@ -6939,7 +7127,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="18">
         <v>39</v>
       </c>
@@ -6974,7 +7162,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="18">
         <v>40</v>
       </c>
@@ -7009,7 +7197,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="18">
         <v>41</v>
       </c>
@@ -7044,7 +7232,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="18">
         <v>42</v>
       </c>
@@ -7079,7 +7267,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="18">
         <v>43</v>
       </c>
@@ -7114,7 +7302,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="18">
         <v>44</v>
       </c>
@@ -7149,7 +7337,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="18">
         <v>45</v>
       </c>
@@ -7184,7 +7372,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="18">
         <v>46</v>
       </c>
@@ -7219,7 +7407,7 @@
         <v>72.5</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="18">
         <v>47</v>
       </c>
@@ -7254,7 +7442,7 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="18">
         <v>48</v>
       </c>
@@ -7290,8 +7478,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:P45" xr:uid="{00000000-0009-0000-0000-000002000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:R44">
+  <autoFilter ref="A2:P45">
+    <sortState ref="A5:R44">
       <sortCondition ref="C2:C3"/>
     </sortState>
   </autoFilter>
@@ -7307,9 +7495,9 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Input Score" sqref="F4:O51" xr:uid="{00000000-0002-0000-0200-000000000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:O3" xr:uid="{00000000-0002-0000-0200-000001000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Assignment Number" sqref="F2:O2" xr:uid="{00000000-0002-0000-0200-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Input Score" sqref="F4:O51"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:O3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Assignment Number" sqref="F2:O2"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7317,7 +7505,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:P51"/>
   <sheetViews>
@@ -7325,26 +7513,26 @@
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="9.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.875" style="4" customWidth="1"/>
-    <col min="13" max="14" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.88671875" style="4" customWidth="1"/>
+    <col min="13" max="14" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.88671875" style="4" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="25" style="4" customWidth="1"/>
-    <col min="27" max="27" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>10</v>
       </c>
@@ -7366,7 +7554,7 @@
       <c r="O1" s="39"/>
       <c r="P1" s="39"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
         <v>0</v>
       </c>
@@ -7416,7 +7604,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="41"/>
       <c r="B3" s="41"/>
       <c r="C3" s="41"/>
@@ -7454,7 +7642,7 @@
       </c>
       <c r="P3" s="41"/>
     </row>
-    <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -7489,7 +7677,7 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -7524,7 +7712,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -7559,7 +7747,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -7594,7 +7782,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -7629,7 +7817,7 @@
         <v>87.5</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -7664,7 +7852,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -7699,7 +7887,7 @@
         <v>92.5</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -7734,7 +7922,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -7769,7 +7957,7 @@
         <v>92.5</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -7804,7 +7992,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -7839,7 +8027,7 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -7874,7 +8062,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -7909,7 +8097,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -7944,7 +8132,7 @@
         <v>82.5</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -7979,7 +8167,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -8014,7 +8202,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -8049,7 +8237,7 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -8084,7 +8272,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -8119,7 +8307,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -8154,7 +8342,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -8189,7 +8377,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -8224,7 +8412,7 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -8259,7 +8447,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -8294,7 +8482,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -8329,7 +8517,7 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -8364,7 +8552,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -8399,7 +8587,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>28</v>
       </c>
@@ -8434,7 +8622,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>29</v>
       </c>
@@ -8469,7 +8657,7 @@
         <v>94.5</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>30</v>
       </c>
@@ -8504,7 +8692,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>31</v>
       </c>
@@ -8539,7 +8727,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>32</v>
       </c>
@@ -8574,7 +8762,7 @@
         <v>92.5</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>33</v>
       </c>
@@ -8609,7 +8797,7 @@
         <v>92.5</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>34</v>
       </c>
@@ -8644,7 +8832,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>35</v>
       </c>
@@ -8679,7 +8867,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>36</v>
       </c>
@@ -8714,7 +8902,7 @@
         <v>82.5</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>37</v>
       </c>
@@ -8749,7 +8937,7 @@
         <v>87.5</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>38</v>
       </c>
@@ -8784,7 +8972,7 @@
         <v>92.5</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>39</v>
       </c>
@@ -8819,7 +9007,7 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>40</v>
       </c>
@@ -8854,7 +9042,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>41</v>
       </c>
@@ -8889,7 +9077,7 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>42</v>
       </c>
@@ -8924,7 +9112,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>43</v>
       </c>
@@ -8959,7 +9147,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>44</v>
       </c>
@@ -8994,7 +9182,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>45</v>
       </c>
@@ -9029,7 +9217,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>46</v>
       </c>
@@ -9064,7 +9252,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>47</v>
       </c>
@@ -9099,7 +9287,7 @@
         <v>92.5</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>48</v>
       </c>
@@ -9135,8 +9323,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:P45" xr:uid="{00000000-0009-0000-0000-000003000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:T44">
+  <autoFilter ref="A2:P45">
+    <sortState ref="A5:T44">
       <sortCondition ref="C2:C3"/>
     </sortState>
   </autoFilter>
@@ -9152,9 +9340,9 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Assignment Number" sqref="F2:O2" xr:uid="{00000000-0002-0000-0300-000000000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:O3" xr:uid="{00000000-0002-0000-0300-000001000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Input Score" sqref="F4:O51" xr:uid="{00000000-0002-0000-0300-000002000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Assignment Number" sqref="F2:O2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:O3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Input Score" sqref="F4:O51">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/Grade 2018/HomeAssignment/HA_Summary_YC_2018.xlsx
+++ b/Grade 2018/HomeAssignment/HA_Summary_YC_2018.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NIIT\NIIT教案\Sept-2020---Jan-2021\Grade 2018\HomeAssignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6709FBC0-0416-45EF-9A72-F55A8E1445DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73FFC84E-92D8-44D6-B2E9-1E775B68A4D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="795" windowWidth="20490" windowHeight="10125" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CS1" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="392">
   <si>
     <t>No</t>
   </si>
@@ -1301,7 +1301,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1342,6 +1342,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFD966"/>
         <bgColor rgb="FFFFFF99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1407,7 +1413,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1540,6 +1546,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="4" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5479,8 +5488,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C28" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView topLeftCell="C37" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5580,11 +5589,11 @@
       <c r="F3" s="17">
         <v>44095</v>
       </c>
-      <c r="G3" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>22</v>
+      <c r="G3" s="17">
+        <v>44124</v>
+      </c>
+      <c r="H3" s="17">
+        <v>44133</v>
       </c>
       <c r="I3" s="17" t="s">
         <v>22</v>
@@ -5625,13 +5634,15 @@
       <c r="E4" s="17" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="46">
         <v>0</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4" s="46">
         <v>0</v>
       </c>
-      <c r="H4" s="20"/>
+      <c r="H4" s="46">
+        <v>0</v>
+      </c>
       <c r="I4" s="20"/>
       <c r="J4" s="20"/>
       <c r="K4" s="20"/>
@@ -5666,7 +5677,9 @@
       <c r="G5" s="20">
         <v>85</v>
       </c>
-      <c r="H5" s="20"/>
+      <c r="H5" s="20">
+        <v>100</v>
+      </c>
       <c r="I5" s="20"/>
       <c r="J5" s="20"/>
       <c r="K5" s="20"/>
@@ -5676,7 +5689,7 @@
       <c r="O5" s="20"/>
       <c r="P5" s="21">
         <f t="shared" si="0"/>
-        <v>92.5</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
@@ -5701,7 +5714,9 @@
       <c r="G6" s="20">
         <v>80</v>
       </c>
-      <c r="H6" s="20"/>
+      <c r="H6" s="20">
+        <v>100</v>
+      </c>
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
@@ -5711,7 +5726,7 @@
       <c r="O6" s="20"/>
       <c r="P6" s="21">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>86.666666666666671</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
@@ -5736,7 +5751,9 @@
       <c r="G7" s="20">
         <v>95</v>
       </c>
-      <c r="H7" s="20"/>
+      <c r="H7" s="20">
+        <v>100</v>
+      </c>
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
       <c r="K7" s="20"/>
@@ -5746,7 +5763,7 @@
       <c r="O7" s="20"/>
       <c r="P7" s="21">
         <f t="shared" si="0"/>
-        <v>97.5</v>
+        <v>98.333333333333329</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
@@ -5771,7 +5788,9 @@
       <c r="G8" s="20">
         <v>100</v>
       </c>
-      <c r="H8" s="20"/>
+      <c r="H8" s="20">
+        <v>100</v>
+      </c>
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
       <c r="K8" s="20"/>
@@ -5806,7 +5825,9 @@
       <c r="G9" s="20">
         <v>80</v>
       </c>
-      <c r="H9" s="20"/>
+      <c r="H9" s="20">
+        <v>95</v>
+      </c>
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
       <c r="K9" s="20"/>
@@ -5816,7 +5837,7 @@
       <c r="O9" s="20"/>
       <c r="P9" s="21">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>78.333333333333329</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
@@ -5841,7 +5862,9 @@
       <c r="G10" s="20">
         <v>80</v>
       </c>
-      <c r="H10" s="20"/>
+      <c r="H10" s="20">
+        <v>60</v>
+      </c>
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
       <c r="K10" s="20"/>
@@ -5851,7 +5874,7 @@
       <c r="O10" s="20"/>
       <c r="P10" s="21">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>66.666666666666671</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.15">
@@ -5876,7 +5899,9 @@
       <c r="G11" s="20">
         <v>75</v>
       </c>
-      <c r="H11" s="20"/>
+      <c r="H11" s="20">
+        <v>100</v>
+      </c>
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
       <c r="K11" s="20"/>
@@ -5886,7 +5911,7 @@
       <c r="O11" s="20"/>
       <c r="P11" s="21">
         <f t="shared" si="0"/>
-        <v>82.5</v>
+        <v>88.333333333333329</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
@@ -5911,7 +5936,9 @@
       <c r="G12" s="20">
         <v>80</v>
       </c>
-      <c r="H12" s="20"/>
+      <c r="H12" s="20">
+        <v>100</v>
+      </c>
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
       <c r="K12" s="20"/>
@@ -5921,7 +5948,7 @@
       <c r="O12" s="20"/>
       <c r="P12" s="21">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>86.666666666666671</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.15">
@@ -5946,7 +5973,9 @@
       <c r="G13" s="20">
         <v>90</v>
       </c>
-      <c r="H13" s="20"/>
+      <c r="H13" s="20">
+        <v>95</v>
+      </c>
       <c r="I13" s="20"/>
       <c r="J13" s="20"/>
       <c r="K13" s="20"/>
@@ -5956,7 +5985,7 @@
       <c r="O13" s="20"/>
       <c r="P13" s="21">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>81.666666666666671</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
@@ -5981,7 +6010,9 @@
       <c r="G14" s="20">
         <v>80</v>
       </c>
-      <c r="H14" s="20"/>
+      <c r="H14" s="20">
+        <v>100</v>
+      </c>
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
       <c r="K14" s="20"/>
@@ -5991,7 +6022,7 @@
       <c r="O14" s="20"/>
       <c r="P14" s="21">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.15">
@@ -6016,7 +6047,9 @@
       <c r="G15" s="20">
         <v>85</v>
       </c>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20">
+        <v>100</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="20"/>
       <c r="K15" s="20"/>
@@ -6026,7 +6059,7 @@
       <c r="O15" s="20"/>
       <c r="P15" s="21">
         <f t="shared" si="0"/>
-        <v>92.5</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.15">
@@ -6051,7 +6084,9 @@
       <c r="G16" s="20">
         <v>95</v>
       </c>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20">
+        <v>95</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="20"/>
       <c r="K16" s="20"/>
@@ -6061,7 +6096,7 @@
       <c r="O16" s="20"/>
       <c r="P16" s="21">
         <f t="shared" si="0"/>
-        <v>97.5</v>
+        <v>96.666666666666671</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.15">
@@ -6086,7 +6121,9 @@
       <c r="G17" s="20">
         <v>70</v>
       </c>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20">
+        <v>100</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="20"/>
       <c r="K17" s="20"/>
@@ -6096,7 +6133,7 @@
       <c r="O17" s="20"/>
       <c r="P17" s="21">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>86.666666666666671</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.15">
@@ -6121,7 +6158,9 @@
       <c r="G18" s="20">
         <v>80</v>
       </c>
-      <c r="H18" s="20"/>
+      <c r="H18" s="20">
+        <v>100</v>
+      </c>
       <c r="I18" s="20"/>
       <c r="J18" s="20"/>
       <c r="K18" s="20"/>
@@ -6131,7 +6170,7 @@
       <c r="O18" s="20"/>
       <c r="P18" s="21">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.15">
@@ -6156,7 +6195,9 @@
       <c r="G19" s="20">
         <v>100</v>
       </c>
-      <c r="H19" s="20"/>
+      <c r="H19" s="20">
+        <v>95</v>
+      </c>
       <c r="I19" s="20"/>
       <c r="J19" s="20"/>
       <c r="K19" s="20"/>
@@ -6166,7 +6207,7 @@
       <c r="O19" s="20"/>
       <c r="P19" s="21">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>98.333333333333329</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.15">
@@ -6191,7 +6232,9 @@
       <c r="G20" s="20">
         <v>95</v>
       </c>
-      <c r="H20" s="20"/>
+      <c r="H20" s="20">
+        <v>100</v>
+      </c>
       <c r="I20" s="20"/>
       <c r="J20" s="20"/>
       <c r="K20" s="20"/>
@@ -6201,7 +6244,7 @@
       <c r="O20" s="20"/>
       <c r="P20" s="21">
         <f t="shared" si="0"/>
-        <v>87.5</v>
+        <v>91.666666666666671</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.15">
@@ -6226,7 +6269,9 @@
       <c r="G21" s="20">
         <v>85</v>
       </c>
-      <c r="H21" s="20"/>
+      <c r="H21" s="20">
+        <v>100</v>
+      </c>
       <c r="I21" s="20"/>
       <c r="J21" s="20"/>
       <c r="K21" s="20"/>
@@ -6236,7 +6281,7 @@
       <c r="O21" s="20"/>
       <c r="P21" s="21">
         <f t="shared" si="0"/>
-        <v>72.5</v>
+        <v>81.666666666666671</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.15">
@@ -6261,7 +6306,9 @@
       <c r="G22" s="20">
         <v>95</v>
       </c>
-      <c r="H22" s="20"/>
+      <c r="H22" s="20">
+        <v>95</v>
+      </c>
       <c r="I22" s="20"/>
       <c r="J22" s="20"/>
       <c r="K22" s="20"/>
@@ -6271,7 +6318,7 @@
       <c r="O22" s="20"/>
       <c r="P22" s="21">
         <f t="shared" si="0"/>
-        <v>77.5</v>
+        <v>83.333333333333329</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.15">
@@ -6296,7 +6343,9 @@
       <c r="G23" s="20">
         <v>80</v>
       </c>
-      <c r="H23" s="20"/>
+      <c r="H23" s="20">
+        <v>100</v>
+      </c>
       <c r="I23" s="20"/>
       <c r="J23" s="20"/>
       <c r="K23" s="20"/>
@@ -6306,7 +6355,7 @@
       <c r="O23" s="20"/>
       <c r="P23" s="21">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>86.666666666666671</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.15">
@@ -6331,7 +6380,9 @@
       <c r="G24" s="20">
         <v>95</v>
       </c>
-      <c r="H24" s="20"/>
+      <c r="H24" s="20">
+        <v>95</v>
+      </c>
       <c r="I24" s="20"/>
       <c r="J24" s="20"/>
       <c r="K24" s="20"/>
@@ -6341,7 +6392,7 @@
       <c r="O24" s="20"/>
       <c r="P24" s="21">
         <f t="shared" si="0"/>
-        <v>97.5</v>
+        <v>96.666666666666671</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.15">
@@ -6366,7 +6417,9 @@
       <c r="G25" s="20">
         <v>80</v>
       </c>
-      <c r="H25" s="20"/>
+      <c r="H25" s="20">
+        <v>100</v>
+      </c>
       <c r="I25" s="20"/>
       <c r="J25" s="20"/>
       <c r="K25" s="20"/>
@@ -6376,7 +6429,7 @@
       <c r="O25" s="20"/>
       <c r="P25" s="21">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.15">
@@ -6401,7 +6454,9 @@
       <c r="G26" s="20">
         <v>75</v>
       </c>
-      <c r="H26" s="20"/>
+      <c r="H26" s="20">
+        <v>10</v>
+      </c>
       <c r="I26" s="20"/>
       <c r="J26" s="20"/>
       <c r="K26" s="20"/>
@@ -6411,7 +6466,7 @@
       <c r="O26" s="20"/>
       <c r="P26" s="21">
         <f t="shared" si="0"/>
-        <v>77.5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.15">
@@ -6436,7 +6491,9 @@
       <c r="G27" s="20">
         <v>100</v>
       </c>
-      <c r="H27" s="20"/>
+      <c r="H27" s="20">
+        <v>95</v>
+      </c>
       <c r="I27" s="20"/>
       <c r="J27" s="20"/>
       <c r="K27" s="20"/>
@@ -6446,7 +6503,7 @@
       <c r="O27" s="20"/>
       <c r="P27" s="21">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>98.333333333333329</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.15">
@@ -6471,7 +6528,9 @@
       <c r="G28" s="20">
         <v>100</v>
       </c>
-      <c r="H28" s="20"/>
+      <c r="H28" s="20">
+        <v>95</v>
+      </c>
       <c r="I28" s="20"/>
       <c r="J28" s="20"/>
       <c r="K28" s="20"/>
@@ -6481,7 +6540,7 @@
       <c r="O28" s="20"/>
       <c r="P28" s="21">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>98.333333333333329</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.15">
@@ -6506,7 +6565,9 @@
       <c r="G29" s="20">
         <v>100</v>
       </c>
-      <c r="H29" s="20"/>
+      <c r="H29" s="20">
+        <v>100</v>
+      </c>
       <c r="I29" s="20"/>
       <c r="J29" s="20"/>
       <c r="K29" s="20"/>
@@ -6541,7 +6602,9 @@
       <c r="G30" s="20">
         <v>80</v>
       </c>
-      <c r="H30" s="20"/>
+      <c r="H30" s="20">
+        <v>100</v>
+      </c>
       <c r="I30" s="20"/>
       <c r="J30" s="20"/>
       <c r="K30" s="20"/>
@@ -6551,7 +6614,7 @@
       <c r="O30" s="20"/>
       <c r="P30" s="21">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>86.666666666666671</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.15">
@@ -6576,7 +6639,9 @@
       <c r="G31" s="20">
         <v>80</v>
       </c>
-      <c r="H31" s="20"/>
+      <c r="H31" s="20">
+        <v>100</v>
+      </c>
       <c r="I31" s="20"/>
       <c r="J31" s="20"/>
       <c r="K31" s="20"/>
@@ -6586,7 +6651,7 @@
       <c r="O31" s="20"/>
       <c r="P31" s="21">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.15">
@@ -6611,7 +6676,9 @@
       <c r="G32" s="20">
         <v>100</v>
       </c>
-      <c r="H32" s="20"/>
+      <c r="H32" s="20">
+        <v>100</v>
+      </c>
       <c r="I32" s="20"/>
       <c r="J32" s="20"/>
       <c r="K32" s="20"/>
@@ -6621,7 +6688,7 @@
       <c r="O32" s="20"/>
       <c r="P32" s="21">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>96.666666666666671</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.15">
@@ -6646,7 +6713,9 @@
       <c r="G33" s="20">
         <v>80</v>
       </c>
-      <c r="H33" s="20"/>
+      <c r="H33" s="20">
+        <v>100</v>
+      </c>
       <c r="I33" s="20"/>
       <c r="J33" s="20"/>
       <c r="K33" s="20"/>
@@ -6656,7 +6725,7 @@
       <c r="O33" s="20"/>
       <c r="P33" s="21">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.15">
@@ -6681,7 +6750,9 @@
       <c r="G34" s="20">
         <v>80</v>
       </c>
-      <c r="H34" s="20"/>
+      <c r="H34" s="20">
+        <v>60</v>
+      </c>
       <c r="I34" s="20"/>
       <c r="J34" s="20"/>
       <c r="K34" s="20"/>
@@ -6691,7 +6762,7 @@
       <c r="O34" s="20"/>
       <c r="P34" s="21">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>73.333333333333329</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.15">
@@ -6716,7 +6787,9 @@
       <c r="G35" s="20">
         <v>80</v>
       </c>
-      <c r="H35" s="20"/>
+      <c r="H35" s="20">
+        <v>100</v>
+      </c>
       <c r="I35" s="20"/>
       <c r="J35" s="20"/>
       <c r="K35" s="20"/>
@@ -6726,7 +6799,7 @@
       <c r="O35" s="20"/>
       <c r="P35" s="21">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.15">
@@ -6751,7 +6824,9 @@
       <c r="G36" s="20">
         <v>100</v>
       </c>
-      <c r="H36" s="20"/>
+      <c r="H36" s="20">
+        <v>100</v>
+      </c>
       <c r="I36" s="20"/>
       <c r="J36" s="20"/>
       <c r="K36" s="20"/>
@@ -6786,7 +6861,9 @@
       <c r="G37" s="20">
         <v>100</v>
       </c>
-      <c r="H37" s="20"/>
+      <c r="H37" s="20">
+        <v>100</v>
+      </c>
       <c r="I37" s="20"/>
       <c r="J37" s="20"/>
       <c r="K37" s="20"/>
@@ -6821,7 +6898,9 @@
       <c r="G38" s="20">
         <v>80</v>
       </c>
-      <c r="H38" s="20"/>
+      <c r="H38" s="20">
+        <v>60</v>
+      </c>
       <c r="I38" s="20"/>
       <c r="J38" s="20"/>
       <c r="K38" s="20"/>
@@ -6831,7 +6910,7 @@
       <c r="O38" s="20"/>
       <c r="P38" s="21">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>66.666666666666671</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.15">
@@ -6856,7 +6935,9 @@
       <c r="G39" s="20">
         <v>100</v>
       </c>
-      <c r="H39" s="20"/>
+      <c r="H39" s="20">
+        <v>100</v>
+      </c>
       <c r="I39" s="20"/>
       <c r="J39" s="20"/>
       <c r="K39" s="20"/>
@@ -6891,7 +6972,9 @@
       <c r="G40" s="20">
         <v>100</v>
       </c>
-      <c r="H40" s="20"/>
+      <c r="H40" s="20">
+        <v>100</v>
+      </c>
       <c r="I40" s="20"/>
       <c r="J40" s="20"/>
       <c r="K40" s="20"/>
@@ -6926,7 +7009,9 @@
       <c r="G41" s="20">
         <v>100</v>
       </c>
-      <c r="H41" s="20"/>
+      <c r="H41" s="20">
+        <v>100</v>
+      </c>
       <c r="I41" s="20"/>
       <c r="J41" s="20"/>
       <c r="K41" s="20"/>
@@ -6961,7 +7046,9 @@
       <c r="G42" s="20">
         <v>70</v>
       </c>
-      <c r="H42" s="20"/>
+      <c r="H42" s="20">
+        <v>100</v>
+      </c>
       <c r="I42" s="20"/>
       <c r="J42" s="20"/>
       <c r="K42" s="20"/>
@@ -6971,7 +7058,7 @@
       <c r="O42" s="20"/>
       <c r="P42" s="21">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>86.666666666666671</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.15">
@@ -6996,7 +7083,9 @@
       <c r="G43" s="20">
         <v>100</v>
       </c>
-      <c r="H43" s="20"/>
+      <c r="H43" s="20">
+        <v>100</v>
+      </c>
       <c r="I43" s="20"/>
       <c r="J43" s="20"/>
       <c r="K43" s="20"/>
@@ -7006,7 +7095,7 @@
       <c r="O43" s="20"/>
       <c r="P43" s="21">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>86.666666666666671</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.15">
@@ -7031,7 +7120,9 @@
       <c r="G44" s="20">
         <v>80</v>
       </c>
-      <c r="H44" s="20"/>
+      <c r="H44" s="20">
+        <v>100</v>
+      </c>
       <c r="I44" s="20"/>
       <c r="J44" s="20"/>
       <c r="K44" s="20"/>
@@ -7041,7 +7132,7 @@
       <c r="O44" s="20"/>
       <c r="P44" s="21">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>86.666666666666671</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.15">
@@ -7066,7 +7157,9 @@
       <c r="G45" s="20">
         <v>100</v>
       </c>
-      <c r="H45" s="20"/>
+      <c r="H45" s="20">
+        <v>95</v>
+      </c>
       <c r="I45" s="20"/>
       <c r="J45" s="20"/>
       <c r="K45" s="20"/>
@@ -7101,7 +7194,9 @@
       <c r="G46" s="20">
         <v>100</v>
       </c>
-      <c r="H46" s="20"/>
+      <c r="H46" s="20">
+        <v>100</v>
+      </c>
       <c r="I46" s="20"/>
       <c r="J46" s="20"/>
       <c r="K46" s="20"/>
@@ -7111,7 +7206,7 @@
       <c r="O46" s="20"/>
       <c r="P46" s="21">
         <f t="shared" ref="P46:P51" si="1">AVERAGE(F46:O46)</f>
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.15">
@@ -7136,7 +7231,9 @@
       <c r="G47" s="20">
         <v>80</v>
       </c>
-      <c r="H47" s="20"/>
+      <c r="H47" s="20">
+        <v>60</v>
+      </c>
       <c r="I47" s="20"/>
       <c r="J47" s="20"/>
       <c r="K47" s="20"/>
@@ -7146,7 +7243,7 @@
       <c r="O47" s="20"/>
       <c r="P47" s="21">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>76.666666666666671</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.15">
@@ -7171,7 +7268,9 @@
       <c r="G48" s="20">
         <v>100</v>
       </c>
-      <c r="H48" s="20"/>
+      <c r="H48" s="20">
+        <v>100</v>
+      </c>
       <c r="I48" s="20"/>
       <c r="J48" s="20"/>
       <c r="K48" s="20"/>
@@ -7206,7 +7305,9 @@
       <c r="G49" s="20">
         <v>85</v>
       </c>
-      <c r="H49" s="20"/>
+      <c r="H49" s="20">
+        <v>100</v>
+      </c>
       <c r="I49" s="20"/>
       <c r="J49" s="20"/>
       <c r="K49" s="20"/>
@@ -7216,7 +7317,7 @@
       <c r="O49" s="20"/>
       <c r="P49" s="21">
         <f t="shared" si="1"/>
-        <v>72.5</v>
+        <v>81.666666666666671</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.15">
@@ -7241,7 +7342,9 @@
       <c r="G50" s="20">
         <v>95</v>
       </c>
-      <c r="H50" s="20"/>
+      <c r="H50" s="20">
+        <v>95</v>
+      </c>
       <c r="I50" s="20"/>
       <c r="J50" s="20"/>
       <c r="K50" s="20"/>
@@ -7251,7 +7354,7 @@
       <c r="O50" s="20"/>
       <c r="P50" s="21">
         <f t="shared" si="1"/>
-        <v>97.5</v>
+        <v>96.666666666666671</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.15">
@@ -7276,7 +7379,9 @@
       <c r="G51" s="20">
         <v>100</v>
       </c>
-      <c r="H51" s="20"/>
+      <c r="H51" s="20">
+        <v>100</v>
+      </c>
       <c r="I51" s="20"/>
       <c r="J51" s="20"/>
       <c r="K51" s="20"/>
@@ -7286,7 +7391,7 @@
       <c r="O51" s="20"/>
       <c r="P51" s="21">
         <f t="shared" si="1"/>
-        <v>95</v>
+        <v>96.666666666666671</v>
       </c>
     </row>
   </sheetData>
@@ -7321,8 +7426,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7476,7 +7581,9 @@
       <c r="G4" s="15">
         <v>95</v>
       </c>
-      <c r="H4" s="15"/>
+      <c r="H4" s="15">
+        <v>100</v>
+      </c>
       <c r="I4" s="15"/>
       <c r="J4" s="15"/>
       <c r="K4" s="15"/>
@@ -7486,7 +7593,7 @@
       <c r="O4" s="15"/>
       <c r="P4" s="11">
         <f t="shared" ref="P4:P51" si="0">AVERAGE(F4:O4)</f>
-        <v>97.5</v>
+        <v>98.333333333333329</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -7511,7 +7618,9 @@
       <c r="G5" s="15">
         <v>90</v>
       </c>
-      <c r="H5" s="15"/>
+      <c r="H5" s="15">
+        <v>100</v>
+      </c>
       <c r="I5" s="15"/>
       <c r="J5" s="15"/>
       <c r="K5" s="15"/>
@@ -7521,7 +7630,7 @@
       <c r="O5" s="15"/>
       <c r="P5" s="11">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>96.666666666666671</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -7546,7 +7655,9 @@
       <c r="G6" s="15">
         <v>95</v>
       </c>
-      <c r="H6" s="15"/>
+      <c r="H6" s="15">
+        <v>100</v>
+      </c>
       <c r="I6" s="15"/>
       <c r="J6" s="15"/>
       <c r="K6" s="15"/>
@@ -7556,7 +7667,7 @@
       <c r="O6" s="15"/>
       <c r="P6" s="11">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -7581,7 +7692,9 @@
       <c r="G7" s="15">
         <v>90</v>
       </c>
-      <c r="H7" s="15"/>
+      <c r="H7" s="15">
+        <v>100</v>
+      </c>
       <c r="I7" s="15"/>
       <c r="J7" s="15"/>
       <c r="K7" s="15"/>
@@ -7591,7 +7704,7 @@
       <c r="O7" s="15"/>
       <c r="P7" s="11">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>96.666666666666671</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -7616,7 +7729,9 @@
       <c r="G8" s="15">
         <v>95</v>
       </c>
-      <c r="H8" s="15"/>
+      <c r="H8" s="15">
+        <v>60</v>
+      </c>
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
@@ -7626,7 +7741,7 @@
       <c r="O8" s="15"/>
       <c r="P8" s="11">
         <f t="shared" si="0"/>
-        <v>87.5</v>
+        <v>78.333333333333329</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -7651,7 +7766,9 @@
       <c r="G9" s="15">
         <v>90</v>
       </c>
-      <c r="H9" s="15"/>
+      <c r="H9" s="15">
+        <v>100</v>
+      </c>
       <c r="I9" s="15"/>
       <c r="J9" s="15"/>
       <c r="K9" s="15"/>
@@ -7661,7 +7778,7 @@
       <c r="O9" s="15"/>
       <c r="P9" s="11">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>93.333333333333329</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -7686,7 +7803,9 @@
       <c r="G10" s="15">
         <v>95</v>
       </c>
-      <c r="H10" s="15"/>
+      <c r="H10" s="15">
+        <v>95</v>
+      </c>
       <c r="I10" s="15"/>
       <c r="J10" s="15"/>
       <c r="K10" s="15"/>
@@ -7696,7 +7815,7 @@
       <c r="O10" s="15"/>
       <c r="P10" s="11">
         <f t="shared" si="0"/>
-        <v>92.5</v>
+        <v>93.333333333333329</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -7721,7 +7840,9 @@
       <c r="G11" s="15">
         <v>90</v>
       </c>
-      <c r="H11" s="15"/>
+      <c r="H11" s="15">
+        <v>100</v>
+      </c>
       <c r="I11" s="15"/>
       <c r="J11" s="15"/>
       <c r="K11" s="15"/>
@@ -7731,7 +7852,7 @@
       <c r="O11" s="15"/>
       <c r="P11" s="11">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>96.666666666666671</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -7756,7 +7877,9 @@
       <c r="G12" s="15">
         <v>95</v>
       </c>
-      <c r="H12" s="15"/>
+      <c r="H12" s="15">
+        <v>100</v>
+      </c>
       <c r="I12" s="15"/>
       <c r="J12" s="15"/>
       <c r="K12" s="15"/>
@@ -7766,7 +7889,7 @@
       <c r="O12" s="15"/>
       <c r="P12" s="11">
         <f t="shared" si="0"/>
-        <v>92.5</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -7826,7 +7949,9 @@
       <c r="G14" s="15">
         <v>95</v>
       </c>
-      <c r="H14" s="15"/>
+      <c r="H14" s="15">
+        <v>100</v>
+      </c>
       <c r="I14" s="15"/>
       <c r="J14" s="15"/>
       <c r="K14" s="15"/>
@@ -7836,7 +7961,7 @@
       <c r="O14" s="15"/>
       <c r="P14" s="11">
         <f t="shared" si="0"/>
-        <v>97.5</v>
+        <v>98.333333333333329</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -7861,7 +7986,9 @@
       <c r="G15" s="15">
         <v>90</v>
       </c>
-      <c r="H15" s="15"/>
+      <c r="H15" s="15">
+        <v>100</v>
+      </c>
       <c r="I15" s="15"/>
       <c r="J15" s="15"/>
       <c r="K15" s="15"/>
@@ -7871,7 +7998,7 @@
       <c r="O15" s="15"/>
       <c r="P15" s="11">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>96.666666666666671</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -7896,7 +8023,9 @@
       <c r="G16" s="15">
         <v>90</v>
       </c>
-      <c r="H16" s="15"/>
+      <c r="H16" s="15">
+        <v>60</v>
+      </c>
       <c r="I16" s="15"/>
       <c r="J16" s="15"/>
       <c r="K16" s="15"/>
@@ -7906,7 +8035,7 @@
       <c r="O16" s="15"/>
       <c r="P16" s="11">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -7931,7 +8060,9 @@
       <c r="G17" s="15">
         <v>90</v>
       </c>
-      <c r="H17" s="15"/>
+      <c r="H17" s="15">
+        <v>100</v>
+      </c>
       <c r="I17" s="15"/>
       <c r="J17" s="15"/>
       <c r="K17" s="15"/>
@@ -7941,7 +8072,7 @@
       <c r="O17" s="15"/>
       <c r="P17" s="11">
         <f t="shared" si="0"/>
-        <v>82.5</v>
+        <v>88.333333333333329</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -7966,7 +8097,9 @@
       <c r="G18" s="15">
         <v>90</v>
       </c>
-      <c r="H18" s="15"/>
+      <c r="H18" s="15">
+        <v>100</v>
+      </c>
       <c r="I18" s="15"/>
       <c r="J18" s="15"/>
       <c r="K18" s="15"/>
@@ -7976,7 +8109,7 @@
       <c r="O18" s="15"/>
       <c r="P18" s="11">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>93.333333333333329</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -8001,7 +8134,9 @@
       <c r="G19" s="15">
         <v>90</v>
       </c>
-      <c r="H19" s="15"/>
+      <c r="H19" s="15">
+        <v>100</v>
+      </c>
       <c r="I19" s="15"/>
       <c r="J19" s="15"/>
       <c r="K19" s="15"/>
@@ -8011,7 +8146,7 @@
       <c r="O19" s="15"/>
       <c r="P19" s="11">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>96.666666666666671</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -8036,7 +8171,9 @@
       <c r="G20" s="15">
         <v>95</v>
       </c>
-      <c r="H20" s="15"/>
+      <c r="H20" s="15">
+        <v>100</v>
+      </c>
       <c r="I20" s="15"/>
       <c r="J20" s="15"/>
       <c r="K20" s="15"/>
@@ -8046,7 +8183,7 @@
       <c r="O20" s="15"/>
       <c r="P20" s="11">
         <f t="shared" si="0"/>
-        <v>97.5</v>
+        <v>98.333333333333329</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -8071,7 +8208,9 @@
       <c r="G21" s="15">
         <v>90</v>
       </c>
-      <c r="H21" s="15"/>
+      <c r="H21" s="15">
+        <v>100</v>
+      </c>
       <c r="I21" s="15"/>
       <c r="J21" s="15"/>
       <c r="K21" s="15"/>
@@ -8081,7 +8220,7 @@
       <c r="O21" s="15"/>
       <c r="P21" s="11">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>96.666666666666671</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -8106,7 +8245,9 @@
       <c r="G22" s="15">
         <v>90</v>
       </c>
-      <c r="H22" s="15"/>
+      <c r="H22" s="15">
+        <v>100</v>
+      </c>
       <c r="I22" s="15"/>
       <c r="J22" s="15"/>
       <c r="K22" s="15"/>
@@ -8116,7 +8257,7 @@
       <c r="O22" s="15"/>
       <c r="P22" s="11">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>96.666666666666671</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -8141,7 +8282,9 @@
       <c r="G23" s="15">
         <v>90</v>
       </c>
-      <c r="H23" s="15"/>
+      <c r="H23" s="15">
+        <v>100</v>
+      </c>
       <c r="I23" s="15"/>
       <c r="J23" s="15"/>
       <c r="K23" s="15"/>
@@ -8151,7 +8294,7 @@
       <c r="O23" s="15"/>
       <c r="P23" s="11">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>96.666666666666671</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -8176,7 +8319,9 @@
       <c r="G24" s="15">
         <v>90</v>
       </c>
-      <c r="H24" s="15"/>
+      <c r="H24" s="15">
+        <v>60</v>
+      </c>
       <c r="I24" s="15"/>
       <c r="J24" s="15"/>
       <c r="K24" s="15"/>
@@ -8186,7 +8331,7 @@
       <c r="O24" s="15"/>
       <c r="P24" s="11">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>83.333333333333329</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -8211,7 +8356,9 @@
       <c r="G25" s="15">
         <v>95</v>
       </c>
-      <c r="H25" s="15"/>
+      <c r="H25" s="15">
+        <v>100</v>
+      </c>
       <c r="I25" s="15"/>
       <c r="J25" s="15"/>
       <c r="K25" s="15"/>
@@ -8221,7 +8368,7 @@
       <c r="O25" s="15"/>
       <c r="P25" s="11">
         <f t="shared" si="0"/>
-        <v>97.5</v>
+        <v>98.333333333333329</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -8246,7 +8393,9 @@
       <c r="G26" s="15">
         <v>90</v>
       </c>
-      <c r="H26" s="15"/>
+      <c r="H26" s="15">
+        <v>60</v>
+      </c>
       <c r="I26" s="15"/>
       <c r="J26" s="15"/>
       <c r="K26" s="15"/>
@@ -8256,7 +8405,7 @@
       <c r="O26" s="15"/>
       <c r="P26" s="11">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>73.333333333333329</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -8281,7 +8430,9 @@
       <c r="G27" s="15">
         <v>90</v>
       </c>
-      <c r="H27" s="15"/>
+      <c r="H27" s="15">
+        <v>100</v>
+      </c>
       <c r="I27" s="15"/>
       <c r="J27" s="15"/>
       <c r="K27" s="15"/>
@@ -8291,7 +8442,7 @@
       <c r="O27" s="15"/>
       <c r="P27" s="11">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>93.333333333333329</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -8316,7 +8467,9 @@
       <c r="G28" s="15">
         <v>95</v>
       </c>
-      <c r="H28" s="15"/>
+      <c r="H28" s="15">
+        <v>100</v>
+      </c>
       <c r="I28" s="15"/>
       <c r="J28" s="15"/>
       <c r="K28" s="15"/>
@@ -8326,7 +8479,7 @@
       <c r="O28" s="15"/>
       <c r="P28" s="11">
         <f t="shared" si="0"/>
-        <v>97.5</v>
+        <v>98.333333333333329</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -8351,7 +8504,9 @@
       <c r="G29" s="15">
         <v>90</v>
       </c>
-      <c r="H29" s="15"/>
+      <c r="H29" s="15">
+        <v>100</v>
+      </c>
       <c r="I29" s="15"/>
       <c r="J29" s="15"/>
       <c r="K29" s="15"/>
@@ -8361,7 +8516,7 @@
       <c r="O29" s="15"/>
       <c r="P29" s="11">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>93.333333333333329</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -8386,7 +8541,9 @@
       <c r="G30" s="15">
         <v>90</v>
       </c>
-      <c r="H30" s="15"/>
+      <c r="H30" s="15">
+        <v>100</v>
+      </c>
       <c r="I30" s="15"/>
       <c r="J30" s="15"/>
       <c r="K30" s="15"/>
@@ -8396,7 +8553,7 @@
       <c r="O30" s="15"/>
       <c r="P30" s="11">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>93.333333333333329</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -8421,7 +8578,9 @@
       <c r="G31" s="15">
         <v>90</v>
       </c>
-      <c r="H31" s="15"/>
+      <c r="H31" s="15">
+        <v>100</v>
+      </c>
       <c r="I31" s="15"/>
       <c r="J31" s="15"/>
       <c r="K31" s="15"/>
@@ -8431,7 +8590,7 @@
       <c r="O31" s="15"/>
       <c r="P31" s="11">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -8456,7 +8615,9 @@
       <c r="G32" s="15">
         <v>99</v>
       </c>
-      <c r="H32" s="15"/>
+      <c r="H32" s="15">
+        <v>100</v>
+      </c>
       <c r="I32" s="15"/>
       <c r="J32" s="15"/>
       <c r="K32" s="15"/>
@@ -8466,7 +8627,7 @@
       <c r="O32" s="15"/>
       <c r="P32" s="11">
         <f t="shared" si="0"/>
-        <v>94.5</v>
+        <v>96.333333333333329</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -8491,7 +8652,9 @@
       <c r="G33" s="15">
         <v>85</v>
       </c>
-      <c r="H33" s="15"/>
+      <c r="H33" s="15">
+        <v>100</v>
+      </c>
       <c r="I33" s="15"/>
       <c r="J33" s="15"/>
       <c r="K33" s="15"/>
@@ -8501,7 +8664,7 @@
       <c r="O33" s="15"/>
       <c r="P33" s="11">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -8526,7 +8689,9 @@
       <c r="G34" s="15">
         <v>90</v>
       </c>
-      <c r="H34" s="15"/>
+      <c r="H34" s="15">
+        <v>100</v>
+      </c>
       <c r="I34" s="15"/>
       <c r="J34" s="15"/>
       <c r="K34" s="15"/>
@@ -8536,7 +8701,7 @@
       <c r="O34" s="15"/>
       <c r="P34" s="11">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>86.666666666666671</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -8561,7 +8726,9 @@
       <c r="G35" s="15">
         <v>95</v>
       </c>
-      <c r="H35" s="15"/>
+      <c r="H35" s="15">
+        <v>100</v>
+      </c>
       <c r="I35" s="15"/>
       <c r="J35" s="15"/>
       <c r="K35" s="15"/>
@@ -8571,7 +8738,7 @@
       <c r="O35" s="15"/>
       <c r="P35" s="11">
         <f t="shared" si="0"/>
-        <v>92.5</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -8631,7 +8798,9 @@
       <c r="G37" s="15">
         <v>90</v>
       </c>
-      <c r="H37" s="15"/>
+      <c r="H37" s="15">
+        <v>100</v>
+      </c>
       <c r="I37" s="15"/>
       <c r="J37" s="15"/>
       <c r="K37" s="15"/>
@@ -8641,7 +8810,7 @@
       <c r="O37" s="15"/>
       <c r="P37" s="11">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>96.666666666666671</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -8666,7 +8835,9 @@
       <c r="G38" s="15">
         <v>90</v>
       </c>
-      <c r="H38" s="15"/>
+      <c r="H38" s="15">
+        <v>100</v>
+      </c>
       <c r="I38" s="15"/>
       <c r="J38" s="15"/>
       <c r="K38" s="15"/>
@@ -8676,7 +8847,7 @@
       <c r="O38" s="15"/>
       <c r="P38" s="11">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>83.333333333333329</v>
       </c>
     </row>
     <row r="39" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -8701,7 +8872,9 @@
       <c r="G39" s="15">
         <v>90</v>
       </c>
-      <c r="H39" s="15"/>
+      <c r="H39" s="15">
+        <v>100</v>
+      </c>
       <c r="I39" s="15"/>
       <c r="J39" s="15"/>
       <c r="K39" s="15"/>
@@ -8711,7 +8884,7 @@
       <c r="O39" s="15"/>
       <c r="P39" s="11">
         <f t="shared" si="0"/>
-        <v>82.5</v>
+        <v>88.333333333333329</v>
       </c>
     </row>
     <row r="40" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -8736,7 +8909,9 @@
       <c r="G40" s="15">
         <v>90</v>
       </c>
-      <c r="H40" s="15"/>
+      <c r="H40" s="15">
+        <v>100</v>
+      </c>
       <c r="I40" s="15"/>
       <c r="J40" s="15"/>
       <c r="K40" s="15"/>
@@ -8746,7 +8921,7 @@
       <c r="O40" s="15"/>
       <c r="P40" s="11">
         <f t="shared" si="0"/>
-        <v>87.5</v>
+        <v>91.666666666666671</v>
       </c>
     </row>
     <row r="41" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -8771,7 +8946,9 @@
       <c r="G41" s="15">
         <v>85</v>
       </c>
-      <c r="H41" s="15"/>
+      <c r="H41" s="15">
+        <v>100</v>
+      </c>
       <c r="I41" s="15"/>
       <c r="J41" s="15"/>
       <c r="K41" s="15"/>
@@ -8781,7 +8958,7 @@
       <c r="O41" s="15"/>
       <c r="P41" s="11">
         <f t="shared" si="0"/>
-        <v>92.5</v>
+        <v>95</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -8806,7 +8983,9 @@
       <c r="G42" s="15">
         <v>95</v>
       </c>
-      <c r="H42" s="15"/>
+      <c r="H42" s="15">
+        <v>100</v>
+      </c>
       <c r="I42" s="15"/>
       <c r="J42" s="15"/>
       <c r="K42" s="15"/>
@@ -8816,7 +8995,7 @@
       <c r="O42" s="15"/>
       <c r="P42" s="11">
         <f t="shared" si="0"/>
-        <v>97.5</v>
+        <v>98.333333333333329</v>
       </c>
     </row>
     <row r="43" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -8841,7 +9020,9 @@
       <c r="G43" s="15">
         <v>90</v>
       </c>
-      <c r="H43" s="15"/>
+      <c r="H43" s="15">
+        <v>100</v>
+      </c>
       <c r="I43" s="15"/>
       <c r="J43" s="15"/>
       <c r="K43" s="15"/>
@@ -8851,7 +9032,7 @@
       <c r="O43" s="15"/>
       <c r="P43" s="11">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>96.666666666666671</v>
       </c>
     </row>
     <row r="44" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -8876,7 +9057,9 @@
       <c r="G44" s="15">
         <v>95</v>
       </c>
-      <c r="H44" s="15"/>
+      <c r="H44" s="15">
+        <v>100</v>
+      </c>
       <c r="I44" s="15"/>
       <c r="J44" s="15"/>
       <c r="K44" s="15"/>
@@ -8886,7 +9069,7 @@
       <c r="O44" s="15"/>
       <c r="P44" s="11">
         <f t="shared" si="0"/>
-        <v>97.5</v>
+        <v>98.333333333333329</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -8911,7 +9094,9 @@
       <c r="G45" s="15">
         <v>90</v>
       </c>
-      <c r="H45" s="15"/>
+      <c r="H45" s="15">
+        <v>100</v>
+      </c>
       <c r="I45" s="15"/>
       <c r="J45" s="15"/>
       <c r="K45" s="15"/>
@@ -8921,7 +9106,7 @@
       <c r="O45" s="15"/>
       <c r="P45" s="11">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>96.666666666666671</v>
       </c>
     </row>
     <row r="46" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -8946,7 +9131,9 @@
       <c r="G46" s="15">
         <v>90</v>
       </c>
-      <c r="H46" s="15"/>
+      <c r="H46" s="15">
+        <v>100</v>
+      </c>
       <c r="I46" s="15"/>
       <c r="J46" s="15"/>
       <c r="K46" s="15"/>
@@ -8956,7 +9143,7 @@
       <c r="O46" s="15"/>
       <c r="P46" s="11">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>93.333333333333329</v>
       </c>
     </row>
     <row r="47" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -8981,7 +9168,9 @@
       <c r="G47" s="15">
         <v>90</v>
       </c>
-      <c r="H47" s="15"/>
+      <c r="H47" s="15">
+        <v>100</v>
+      </c>
       <c r="I47" s="15"/>
       <c r="J47" s="15"/>
       <c r="K47" s="15"/>
@@ -8991,7 +9180,7 @@
       <c r="O47" s="15"/>
       <c r="P47" s="11">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>96.666666666666671</v>
       </c>
     </row>
     <row r="48" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -9016,7 +9205,9 @@
       <c r="G48" s="15">
         <v>90</v>
       </c>
-      <c r="H48" s="15"/>
+      <c r="H48" s="15">
+        <v>100</v>
+      </c>
       <c r="I48" s="15"/>
       <c r="J48" s="15"/>
       <c r="K48" s="15"/>
@@ -9026,7 +9217,7 @@
       <c r="O48" s="15"/>
       <c r="P48" s="11">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>93.333333333333329</v>
       </c>
     </row>
     <row r="49" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -9051,7 +9242,9 @@
       <c r="G49" s="15">
         <v>90</v>
       </c>
-      <c r="H49" s="15"/>
+      <c r="H49" s="15">
+        <v>100</v>
+      </c>
       <c r="I49" s="15"/>
       <c r="J49" s="15"/>
       <c r="K49" s="15"/>
@@ -9061,7 +9254,7 @@
       <c r="O49" s="15"/>
       <c r="P49" s="11">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>96.666666666666671</v>
       </c>
     </row>
     <row r="50" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -9086,7 +9279,9 @@
       <c r="G50" s="15">
         <v>95</v>
       </c>
-      <c r="H50" s="15"/>
+      <c r="H50" s="15">
+        <v>100</v>
+      </c>
       <c r="I50" s="15"/>
       <c r="J50" s="15"/>
       <c r="K50" s="15"/>
@@ -9096,7 +9291,7 @@
       <c r="O50" s="15"/>
       <c r="P50" s="11">
         <f t="shared" si="0"/>
-        <v>92.5</v>
+        <v>95</v>
       </c>
     </row>
     <row r="51" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -9121,7 +9316,9 @@
       <c r="G51" s="15">
         <v>90</v>
       </c>
-      <c r="H51" s="15"/>
+      <c r="H51" s="15">
+        <v>100</v>
+      </c>
       <c r="I51" s="15"/>
       <c r="J51" s="15"/>
       <c r="K51" s="15"/>
@@ -9131,7 +9328,7 @@
       <c r="O51" s="15"/>
       <c r="P51" s="11">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>83.333333333333329</v>
       </c>
     </row>
   </sheetData>

--- a/Grade 2018/HomeAssignment/HA_Summary_YC_2018.xlsx
+++ b/Grade 2018/HomeAssignment/HA_Summary_YC_2018.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NIIT\NIIT教案\Sept-2020---Jan-2021\Grade 2018\HomeAssignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73FFC84E-92D8-44D6-B2E9-1E775B68A4D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B878E2-FE7D-410A-A8B9-2F02EB19B479}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="0" windowWidth="12435" windowHeight="10125" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CS1" sheetId="2" r:id="rId1"/>
@@ -1476,6 +1476,9 @@
     <xf numFmtId="2" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="8" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1546,9 +1549,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="4" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1859,41 +1859,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="27" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="29" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -1926,16 +1926,16 @@
       <c r="O2" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="P2" s="22" t="s">
+      <c r="P2" s="23" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="29"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="30"/>
       <c r="F3" s="3">
         <v>44094</v>
       </c>
@@ -1966,7 +1966,7 @@
       <c r="O3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P3" s="23"/>
+      <c r="P3" s="24"/>
     </row>
     <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
@@ -3667,41 +3667,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="27" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="29" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -3734,16 +3734,16 @@
       <c r="O2" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="P2" s="22" t="s">
+      <c r="P2" s="23" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="29"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="30"/>
       <c r="F3" s="3">
         <v>40441</v>
       </c>
@@ -3774,7 +3774,7 @@
       <c r="O3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P3" s="23"/>
+      <c r="P3" s="24"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
@@ -5509,41 +5509,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="31" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="37" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="16" t="s">
@@ -5576,16 +5576,16 @@
       <c r="O2" s="16" t="s">
         <v>363</v>
       </c>
-      <c r="P2" s="32" t="s">
+      <c r="P2" s="33" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A3" s="33"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="37"/>
+      <c r="A3" s="34"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="38"/>
       <c r="F3" s="17">
         <v>44095</v>
       </c>
@@ -5616,7 +5616,7 @@
       <c r="O3" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="P3" s="33"/>
+      <c r="P3" s="34"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="18">
@@ -5634,13 +5634,13 @@
       <c r="E4" s="17" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F4" s="46">
+      <c r="F4" s="22">
         <v>0</v>
       </c>
-      <c r="G4" s="46">
+      <c r="G4" s="22">
         <v>0</v>
       </c>
-      <c r="H4" s="46">
+      <c r="H4" s="22">
         <v>0</v>
       </c>
       <c r="I4" s="20"/>
@@ -7426,8 +7426,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="C10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7450,41 +7450,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="39" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="45" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="12" t="s">
@@ -7517,16 +7517,16 @@
       <c r="O2" s="12" t="s">
         <v>363</v>
       </c>
-      <c r="P2" s="40" t="s">
+      <c r="P2" s="41" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A3" s="41"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="45"/>
+      <c r="A3" s="42"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="46"/>
       <c r="F3" s="9">
         <v>45191</v>
       </c>
@@ -7557,7 +7557,7 @@
       <c r="O3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="P3" s="41"/>
+      <c r="P3" s="42"/>
     </row>
     <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
@@ -7914,7 +7914,9 @@
       <c r="G13" s="15">
         <v>90</v>
       </c>
-      <c r="H13" s="15"/>
+      <c r="H13" s="15">
+        <v>100</v>
+      </c>
       <c r="I13" s="15"/>
       <c r="J13" s="15"/>
       <c r="K13" s="15"/>
@@ -7924,7 +7926,7 @@
       <c r="O13" s="15"/>
       <c r="P13" s="11">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>86.666666666666671</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -8763,7 +8765,9 @@
       <c r="G36" s="15">
         <v>95</v>
       </c>
-      <c r="H36" s="15"/>
+      <c r="H36" s="15">
+        <v>0</v>
+      </c>
       <c r="I36" s="15"/>
       <c r="J36" s="15"/>
       <c r="K36" s="15"/>
@@ -8773,7 +8777,7 @@
       <c r="O36" s="15"/>
       <c r="P36" s="11">
         <f t="shared" si="0"/>
-        <v>92.5</v>
+        <v>61.666666666666664</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">

--- a/Grade 2018/HomeAssignment/HA_Summary_YC_2018.xlsx
+++ b/Grade 2018/HomeAssignment/HA_Summary_YC_2018.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NIIT\NIIT教案\Sept-2020---Jan-2021\Grade 2018\HomeAssignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B878E2-FE7D-410A-A8B9-2F02EB19B479}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C3F675-0335-4147-ABA1-78FD3BD8522F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="0" windowWidth="12435" windowHeight="10125" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CS1" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="392">
   <si>
     <t>No</t>
   </si>
@@ -511,9 +511,6 @@
   </si>
   <si>
     <t>伏剑</t>
-  </si>
-  <si>
-    <t>马雨洁</t>
   </si>
   <si>
     <t>何羽萱</t>
@@ -1215,6 +1212,10 @@
   </si>
   <si>
     <t>Anne</t>
+  </si>
+  <si>
+    <t>马玉洁</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1413,7 +1414,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1549,6 +1550,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="4" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1900,19 +1904,19 @@
         <v>5</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>359</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>360</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>14</v>
@@ -1921,10 +1925,10 @@
         <v>15</v>
       </c>
       <c r="N2" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>362</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>363</v>
       </c>
       <c r="P2" s="23" t="s">
         <v>9</v>
@@ -1973,16 +1977,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>364</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>365</v>
       </c>
       <c r="D4" s="10">
         <v>12016242362</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F4" s="8">
         <v>70</v>
@@ -2008,16 +2012,16 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D5" s="10">
         <v>12018241691</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F5" s="8">
         <v>80</v>
@@ -2043,7 +2047,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>44</v>
@@ -2078,7 +2082,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>45</v>
@@ -2113,7 +2117,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>123</v>
@@ -2122,7 +2126,7 @@
         <v>12018242204</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F8" s="8">
         <v>100</v>
@@ -2148,7 +2152,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>46</v>
@@ -2183,7 +2187,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>127</v>
@@ -2192,7 +2196,7 @@
         <v>12018242219</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F10" s="8">
         <v>90</v>
@@ -2218,7 +2222,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>128</v>
@@ -2227,7 +2231,7 @@
         <v>12018242221</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F11" s="8">
         <v>90</v>
@@ -2253,7 +2257,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>52</v>
@@ -2288,7 +2292,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>56</v>
@@ -2323,7 +2327,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>130</v>
@@ -2358,7 +2362,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>131</v>
@@ -2367,7 +2371,7 @@
         <v>12018242241</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F15" s="8">
         <v>100</v>
@@ -2393,7 +2397,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>60</v>
@@ -2428,7 +2432,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>62</v>
@@ -2463,7 +2467,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>133</v>
@@ -2472,7 +2476,7 @@
         <v>12018242252</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F18" s="8">
         <v>100</v>
@@ -2498,7 +2502,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>63</v>
@@ -2533,7 +2537,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>136</v>
@@ -2542,7 +2546,7 @@
         <v>12018242268</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F20" s="8">
         <v>100</v>
@@ -2568,7 +2572,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>68</v>
@@ -2603,7 +2607,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>69</v>
@@ -2638,7 +2642,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>70</v>
@@ -2673,7 +2677,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>143</v>
@@ -2682,7 +2686,7 @@
         <v>12018242304</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F24" s="8">
         <v>90</v>
@@ -2708,7 +2712,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>145</v>
@@ -2717,7 +2721,7 @@
         <v>12018242307</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F25" s="8">
         <v>100</v>
@@ -2743,7 +2747,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>73</v>
@@ -2778,7 +2782,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>74</v>
@@ -2787,7 +2791,7 @@
         <v>12018242312</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F27" s="8">
         <v>100</v>
@@ -2813,7 +2817,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>75</v>
@@ -2848,7 +2852,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>76</v>
@@ -2883,7 +2887,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>77</v>
@@ -2918,7 +2922,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>79</v>
@@ -2953,10 +2957,10 @@
         <v>29</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D32" s="10">
         <v>12018242326</v>
@@ -2988,7 +2992,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C33" s="10" t="s">
         <v>149</v>
@@ -3023,7 +3027,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>150</v>
@@ -3032,7 +3036,7 @@
         <v>12018242334</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F34" s="8">
         <v>90</v>
@@ -3058,7 +3062,7 @@
         <v>32</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C35" s="10" t="s">
         <v>152</v>
@@ -3093,7 +3097,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C36" s="10" t="s">
         <v>153</v>
@@ -3128,7 +3132,7 @@
         <v>34</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C37" s="10" t="s">
         <v>154</v>
@@ -3163,7 +3167,7 @@
         <v>35</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C38" s="10" t="s">
         <v>35</v>
@@ -3172,7 +3176,7 @@
         <v>12018242349</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F38" s="8">
         <v>90</v>
@@ -3198,7 +3202,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C39" s="10" t="s">
         <v>156</v>
@@ -3207,7 +3211,7 @@
         <v>12018242350</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F39" s="8">
         <v>90</v>
@@ -3233,7 +3237,7 @@
         <v>37</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C40" s="10" t="s">
         <v>82</v>
@@ -3242,7 +3246,7 @@
         <v>12018242357</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F40" s="8">
         <v>100</v>
@@ -3268,16 +3272,16 @@
         <v>38</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D41" s="10">
         <v>12018242362</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F41" s="8">
         <v>100</v>
@@ -3303,16 +3307,16 @@
         <v>39</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D42" s="10">
         <v>12018242363</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F42" s="8">
         <v>90</v>
@@ -3338,16 +3342,16 @@
         <v>40</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D43" s="10">
         <v>12018242365</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F43" s="8">
         <v>90</v>
@@ -3373,7 +3377,7 @@
         <v>41</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C44" s="10" t="s">
         <v>84</v>
@@ -3408,16 +3412,16 @@
         <v>42</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D45" s="10">
         <v>12018242374</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F45" s="8">
         <v>90</v>
@@ -3443,16 +3447,16 @@
         <v>43</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D46" s="10">
         <v>12018242381</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F46" s="8">
         <v>100</v>
@@ -3478,7 +3482,7 @@
         <v>44</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C47" s="10" t="s">
         <v>86</v>
@@ -3513,7 +3517,7 @@
         <v>45</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C48" s="9" t="s">
         <v>87</v>
@@ -3548,16 +3552,16 @@
         <v>46</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D49" s="10">
         <v>12018243877</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F49" s="8">
         <v>100</v>
@@ -3583,7 +3587,7 @@
         <v>47</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C50" s="10" t="s">
         <v>89</v>
@@ -3729,10 +3733,10 @@
         <v>15</v>
       </c>
       <c r="N2" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>362</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>363</v>
       </c>
       <c r="P2" s="23" t="s">
         <v>9</v>
@@ -3781,16 +3785,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>370</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>371</v>
       </c>
       <c r="D4" s="5">
         <v>12018241690</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F4" s="8">
         <v>70</v>
@@ -3816,10 +3820,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D5" s="5">
         <v>12018242201</v>
@@ -3851,16 +3855,16 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D6" s="5">
         <v>12018242205</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F6" s="8">
         <v>60</v>
@@ -3886,16 +3890,16 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D7" s="5">
         <v>12018242207</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F7" s="8">
         <v>100</v>
@@ -3921,16 +3925,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D8" s="5">
         <v>12018242208</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F8" s="8">
         <v>100</v>
@@ -3956,16 +3960,16 @@
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D9" s="5">
         <v>12018242217</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F9" s="8">
         <v>100</v>
@@ -3991,16 +3995,16 @@
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D10" s="5">
         <v>12018242226</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F10" s="8">
         <v>60</v>
@@ -4026,10 +4030,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D11" s="5">
         <v>12018242231</v>
@@ -4061,16 +4065,16 @@
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D12" s="5">
         <v>12018242232</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F12" s="8">
         <v>100</v>
@@ -4096,16 +4100,16 @@
         <v>10</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D13" s="5">
         <v>12018242246</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F13" s="8">
         <v>100</v>
@@ -4131,16 +4135,16 @@
         <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D14" s="5">
         <v>12018242249</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F14" s="8">
         <v>100</v>
@@ -4166,16 +4170,16 @@
         <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D15" s="5">
         <v>12018242251</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F15" s="8">
         <v>100</v>
@@ -4201,10 +4205,10 @@
         <v>13</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D16" s="5">
         <v>12018242255</v>
@@ -4236,16 +4240,16 @@
         <v>14</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D17" s="5">
         <v>12018242256</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F17" s="8">
         <v>100</v>
@@ -4271,10 +4275,10 @@
         <v>15</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D18" s="5">
         <v>12018242258</v>
@@ -4306,16 +4310,16 @@
         <v>16</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D19" s="5">
         <v>12018242260</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F19" s="8">
         <v>100</v>
@@ -4341,7 +4345,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>16</v>
@@ -4376,16 +4380,16 @@
         <v>18</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D21" s="5">
         <v>12018242266</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F21" s="8">
         <v>100</v>
@@ -4411,10 +4415,10 @@
         <v>19</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D22" s="5">
         <v>12018242267</v>
@@ -4446,10 +4450,10 @@
         <v>20</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D23" s="5">
         <v>12018242271</v>
@@ -4481,16 +4485,16 @@
         <v>21</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D24" s="5">
         <v>12018242277</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F24" s="8">
         <v>100</v>
@@ -4516,16 +4520,16 @@
         <v>22</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D25" s="5">
         <v>12018242281</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F25" s="8">
         <v>90</v>
@@ -4551,16 +4555,16 @@
         <v>23</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D26" s="5">
         <v>12018242296</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F26" s="8">
         <v>100</v>
@@ -4586,16 +4590,16 @@
         <v>24</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D27" s="5">
         <v>12018242297</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F27" s="8">
         <v>100</v>
@@ -4621,16 +4625,16 @@
         <v>25</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D28" s="5">
         <v>12018242298</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F28" s="8">
         <v>100</v>
@@ -4656,10 +4660,10 @@
         <v>26</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D29" s="5">
         <v>12018242313</v>
@@ -4691,16 +4695,16 @@
         <v>27</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D30" s="5">
         <v>12018242323</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F30" s="8">
         <v>100</v>
@@ -4726,16 +4730,16 @@
         <v>28</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D31" s="5">
         <v>12018242325</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F31" s="8">
         <v>100</v>
@@ -4761,7 +4765,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>23</v>
@@ -4770,7 +4774,7 @@
         <v>12018242328</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F32" s="8">
         <v>60</v>
@@ -4796,16 +4800,16 @@
         <v>30</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D33" s="5">
         <v>12018242330</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F33" s="8">
         <v>70</v>
@@ -4831,16 +4835,16 @@
         <v>31</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D34" s="5">
         <v>12018242333</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F34" s="8">
         <v>100</v>
@@ -4866,16 +4870,16 @@
         <v>32</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D35" s="5">
         <v>12018242338</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F35" s="8">
         <v>100</v>
@@ -4901,16 +4905,16 @@
         <v>33</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D36" s="5">
         <v>12018242347</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F36" s="8">
         <v>50</v>
@@ -4936,16 +4940,16 @@
         <v>34</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D37" s="5">
         <v>12018242348</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F37" s="8">
         <v>90</v>
@@ -4971,10 +4975,10 @@
         <v>35</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D38" s="5">
         <v>12018242351</v>
@@ -5006,10 +5010,10 @@
         <v>36</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D39" s="5">
         <v>12018242360</v>
@@ -5041,16 +5045,16 @@
         <v>37</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D40" s="5">
         <v>12018242366</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F40" s="8">
         <v>100</v>
@@ -5076,16 +5080,16 @@
         <v>38</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D41" s="5">
         <v>12018242375</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F41" s="8">
         <v>90</v>
@@ -5111,16 +5115,16 @@
         <v>39</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D42" s="5">
         <v>12018242377</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F42" s="8">
         <v>100</v>
@@ -5146,16 +5150,16 @@
         <v>40</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D43" s="5">
         <v>12018243351</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F43" s="8">
         <v>100</v>
@@ -5181,10 +5185,10 @@
         <v>41</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D44" s="5">
         <v>12018243476</v>
@@ -5216,16 +5220,16 @@
         <v>42</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D45" s="5">
         <v>12018243578</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F45" s="8">
         <v>90</v>
@@ -5251,16 +5255,16 @@
         <v>43</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D46" s="5">
         <v>12018243864</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F46" s="8">
         <v>100</v>
@@ -5286,16 +5290,16 @@
         <v>44</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D47" s="5">
         <v>12018244410</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F47" s="8">
         <v>100</v>
@@ -5321,10 +5325,10 @@
         <v>45</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D48" s="5">
         <v>12018247887</v>
@@ -5356,16 +5360,16 @@
         <v>46</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D49" s="5">
         <v>12018247890</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F49" s="8">
         <v>90</v>
@@ -5391,16 +5395,16 @@
         <v>47</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D50" s="5">
         <v>12018250064</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F50" s="8">
         <v>100</v>
@@ -5426,16 +5430,16 @@
         <v>48</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D51" s="5">
         <v>12015242813</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F51" s="8">
         <v>90</v>
@@ -5488,8 +5492,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView topLeftCell="C37" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5571,10 +5575,10 @@
         <v>15</v>
       </c>
       <c r="N2" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="O2" s="16" t="s">
         <v>362</v>
-      </c>
-      <c r="O2" s="16" t="s">
-        <v>363</v>
       </c>
       <c r="P2" s="33" t="s">
         <v>9</v>
@@ -5595,8 +5599,8 @@
       <c r="H3" s="17">
         <v>44133</v>
       </c>
-      <c r="I3" s="17" t="s">
-        <v>22</v>
+      <c r="I3" s="17">
+        <v>44147</v>
       </c>
       <c r="J3" s="17" t="s">
         <v>22</v>
@@ -5623,10 +5627,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="17" t="s">
+        <v>376</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>377</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>378</v>
       </c>
       <c r="D4" s="19">
         <v>12014244255</v>
@@ -5643,7 +5647,9 @@
       <c r="H4" s="22">
         <v>0</v>
       </c>
-      <c r="I4" s="20"/>
+      <c r="I4" s="22">
+        <v>0</v>
+      </c>
       <c r="J4" s="20"/>
       <c r="K4" s="20"/>
       <c r="L4" s="20"/>
@@ -5660,7 +5666,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>124</v>
@@ -5669,7 +5675,7 @@
         <v>12018242212</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F5" s="20">
         <v>100</v>
@@ -5680,7 +5686,9 @@
       <c r="H5" s="20">
         <v>100</v>
       </c>
-      <c r="I5" s="20"/>
+      <c r="I5" s="22">
+        <v>0</v>
+      </c>
       <c r="J5" s="20"/>
       <c r="K5" s="20"/>
       <c r="L5" s="20"/>
@@ -5689,7 +5697,7 @@
       <c r="O5" s="20"/>
       <c r="P5" s="21">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>71.25</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
@@ -5697,7 +5705,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>50</v>
@@ -5717,7 +5725,9 @@
       <c r="H6" s="20">
         <v>100</v>
       </c>
-      <c r="I6" s="20"/>
+      <c r="I6" s="20">
+        <v>100</v>
+      </c>
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
       <c r="L6" s="20"/>
@@ -5726,7 +5736,7 @@
       <c r="O6" s="20"/>
       <c r="P6" s="21">
         <f t="shared" si="0"/>
-        <v>86.666666666666671</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
@@ -5734,16 +5744,16 @@
         <v>4</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D7" s="19">
         <v>12018242214</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F7" s="20">
         <v>100</v>
@@ -5754,7 +5764,9 @@
       <c r="H7" s="20">
         <v>100</v>
       </c>
-      <c r="I7" s="20"/>
+      <c r="I7" s="20">
+        <v>100</v>
+      </c>
       <c r="J7" s="20"/>
       <c r="K7" s="20"/>
       <c r="L7" s="20"/>
@@ -5763,7 +5775,7 @@
       <c r="O7" s="20"/>
       <c r="P7" s="21">
         <f t="shared" si="0"/>
-        <v>98.333333333333329</v>
+        <v>98.75</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
@@ -5771,16 +5783,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D8" s="19">
         <v>12018242215</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F8" s="20">
         <v>100</v>
@@ -5791,7 +5803,9 @@
       <c r="H8" s="20">
         <v>100</v>
       </c>
-      <c r="I8" s="20"/>
+      <c r="I8" s="20">
+        <v>100</v>
+      </c>
       <c r="J8" s="20"/>
       <c r="K8" s="20"/>
       <c r="L8" s="20"/>
@@ -5808,7 +5822,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>125</v>
@@ -5817,7 +5831,7 @@
         <v>12018242216</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F9" s="20">
         <v>60</v>
@@ -5828,7 +5842,9 @@
       <c r="H9" s="20">
         <v>95</v>
       </c>
-      <c r="I9" s="20"/>
+      <c r="I9" s="20">
+        <v>70</v>
+      </c>
       <c r="J9" s="20"/>
       <c r="K9" s="20"/>
       <c r="L9" s="20"/>
@@ -5837,7 +5853,7 @@
       <c r="O9" s="20"/>
       <c r="P9" s="21">
         <f t="shared" si="0"/>
-        <v>78.333333333333329</v>
+        <v>76.25</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
@@ -5845,16 +5861,16 @@
         <v>7</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D10" s="19">
         <v>12018242220</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F10" s="20">
         <v>60</v>
@@ -5865,7 +5881,9 @@
       <c r="H10" s="20">
         <v>60</v>
       </c>
-      <c r="I10" s="20"/>
+      <c r="I10" s="20">
+        <v>100</v>
+      </c>
       <c r="J10" s="20"/>
       <c r="K10" s="20"/>
       <c r="L10" s="20"/>
@@ -5874,7 +5892,7 @@
       <c r="O10" s="20"/>
       <c r="P10" s="21">
         <f t="shared" si="0"/>
-        <v>66.666666666666671</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.15">
@@ -5882,7 +5900,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>53</v>
@@ -5902,7 +5920,9 @@
       <c r="H11" s="20">
         <v>100</v>
       </c>
-      <c r="I11" s="20"/>
+      <c r="I11" s="20">
+        <v>100</v>
+      </c>
       <c r="J11" s="20"/>
       <c r="K11" s="20"/>
       <c r="L11" s="20"/>
@@ -5911,7 +5931,7 @@
       <c r="O11" s="20"/>
       <c r="P11" s="21">
         <f t="shared" si="0"/>
-        <v>88.333333333333329</v>
+        <v>91.25</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
@@ -5919,7 +5939,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>55</v>
@@ -5939,7 +5959,9 @@
       <c r="H12" s="20">
         <v>100</v>
       </c>
-      <c r="I12" s="20"/>
+      <c r="I12" s="20">
+        <v>100</v>
+      </c>
       <c r="J12" s="20"/>
       <c r="K12" s="20"/>
       <c r="L12" s="20"/>
@@ -5948,7 +5970,7 @@
       <c r="O12" s="20"/>
       <c r="P12" s="21">
         <f t="shared" si="0"/>
-        <v>86.666666666666671</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.15">
@@ -5956,16 +5978,16 @@
         <v>10</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D13" s="19">
         <v>12018242230</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F13" s="20">
         <v>60</v>
@@ -5976,7 +5998,9 @@
       <c r="H13" s="20">
         <v>95</v>
       </c>
-      <c r="I13" s="20"/>
+      <c r="I13" s="20">
+        <v>100</v>
+      </c>
       <c r="J13" s="20"/>
       <c r="K13" s="20"/>
       <c r="L13" s="20"/>
@@ -5985,7 +6009,7 @@
       <c r="O13" s="20"/>
       <c r="P13" s="21">
         <f t="shared" si="0"/>
-        <v>81.666666666666671</v>
+        <v>86.25</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
@@ -5993,16 +6017,16 @@
         <v>11</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D14" s="19">
         <v>12018242233</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F14" s="20">
         <v>90</v>
@@ -6013,7 +6037,9 @@
       <c r="H14" s="20">
         <v>100</v>
       </c>
-      <c r="I14" s="20"/>
+      <c r="I14" s="22">
+        <v>0</v>
+      </c>
       <c r="J14" s="20"/>
       <c r="K14" s="20"/>
       <c r="L14" s="20"/>
@@ -6022,7 +6048,7 @@
       <c r="O14" s="20"/>
       <c r="P14" s="21">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>67.5</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.15">
@@ -6030,16 +6056,16 @@
         <v>12</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D15" s="19">
         <v>12018242253</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F15" s="20">
         <v>100</v>
@@ -6050,7 +6076,9 @@
       <c r="H15" s="20">
         <v>100</v>
       </c>
-      <c r="I15" s="20"/>
+      <c r="I15" s="20">
+        <v>100</v>
+      </c>
       <c r="J15" s="20"/>
       <c r="K15" s="20"/>
       <c r="L15" s="20"/>
@@ -6059,7 +6087,7 @@
       <c r="O15" s="20"/>
       <c r="P15" s="21">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>96.25</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.15">
@@ -6067,16 +6095,16 @@
         <v>13</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D16" s="19">
         <v>12018242261</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F16" s="20">
         <v>100</v>
@@ -6087,7 +6115,9 @@
       <c r="H16" s="20">
         <v>95</v>
       </c>
-      <c r="I16" s="20"/>
+      <c r="I16" s="20">
+        <v>100</v>
+      </c>
       <c r="J16" s="20"/>
       <c r="K16" s="20"/>
       <c r="L16" s="20"/>
@@ -6096,7 +6126,7 @@
       <c r="O16" s="20"/>
       <c r="P16" s="21">
         <f t="shared" si="0"/>
-        <v>96.666666666666671</v>
+        <v>97.5</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.15">
@@ -6104,7 +6134,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C17" s="17" t="s">
         <v>64</v>
@@ -6124,7 +6154,9 @@
       <c r="H17" s="20">
         <v>100</v>
       </c>
-      <c r="I17" s="20"/>
+      <c r="I17" s="22">
+        <v>0</v>
+      </c>
       <c r="J17" s="20"/>
       <c r="K17" s="20"/>
       <c r="L17" s="20"/>
@@ -6133,7 +6165,7 @@
       <c r="O17" s="20"/>
       <c r="P17" s="21">
         <f t="shared" si="0"/>
-        <v>86.666666666666671</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.15">
@@ -6141,7 +6173,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C18" s="17" t="s">
         <v>65</v>
@@ -6161,7 +6193,9 @@
       <c r="H18" s="20">
         <v>100</v>
       </c>
-      <c r="I18" s="20"/>
+      <c r="I18" s="20">
+        <v>100</v>
+      </c>
       <c r="J18" s="20"/>
       <c r="K18" s="20"/>
       <c r="L18" s="20"/>
@@ -6170,7 +6204,7 @@
       <c r="O18" s="20"/>
       <c r="P18" s="21">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.15">
@@ -6178,16 +6212,16 @@
         <v>16</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D19" s="19">
         <v>12018242270</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F19" s="20">
         <v>100</v>
@@ -6198,7 +6232,9 @@
       <c r="H19" s="20">
         <v>95</v>
       </c>
-      <c r="I19" s="20"/>
+      <c r="I19" s="20">
+        <v>100</v>
+      </c>
       <c r="J19" s="20"/>
       <c r="K19" s="20"/>
       <c r="L19" s="20"/>
@@ -6207,7 +6243,7 @@
       <c r="O19" s="20"/>
       <c r="P19" s="21">
         <f t="shared" si="0"/>
-        <v>98.333333333333329</v>
+        <v>98.75</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.15">
@@ -6215,16 +6251,16 @@
         <v>17</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D20" s="19">
         <v>12018242274</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F20" s="20">
         <v>80</v>
@@ -6235,7 +6271,9 @@
       <c r="H20" s="20">
         <v>100</v>
       </c>
-      <c r="I20" s="20"/>
+      <c r="I20" s="20">
+        <v>100</v>
+      </c>
       <c r="J20" s="20"/>
       <c r="K20" s="20"/>
       <c r="L20" s="20"/>
@@ -6244,7 +6282,7 @@
       <c r="O20" s="20"/>
       <c r="P20" s="21">
         <f t="shared" si="0"/>
-        <v>91.666666666666671</v>
+        <v>93.75</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.15">
@@ -6252,7 +6290,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C21" s="17" t="s">
         <v>138</v>
@@ -6261,7 +6299,7 @@
         <v>12018242276</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F21" s="20">
         <v>60</v>
@@ -6272,7 +6310,9 @@
       <c r="H21" s="20">
         <v>100</v>
       </c>
-      <c r="I21" s="20"/>
+      <c r="I21" s="20">
+        <v>70</v>
+      </c>
       <c r="J21" s="20"/>
       <c r="K21" s="20"/>
       <c r="L21" s="20"/>
@@ -6281,7 +6321,7 @@
       <c r="O21" s="20"/>
       <c r="P21" s="21">
         <f t="shared" si="0"/>
-        <v>81.666666666666671</v>
+        <v>78.75</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.15">
@@ -6289,16 +6329,16 @@
         <v>19</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D22" s="19">
         <v>12018242278</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F22" s="20">
         <v>60</v>
@@ -6309,7 +6349,9 @@
       <c r="H22" s="20">
         <v>95</v>
       </c>
-      <c r="I22" s="20"/>
+      <c r="I22" s="20">
+        <v>100</v>
+      </c>
       <c r="J22" s="20"/>
       <c r="K22" s="20"/>
       <c r="L22" s="20"/>
@@ -6318,7 +6360,7 @@
       <c r="O22" s="20"/>
       <c r="P22" s="21">
         <f t="shared" si="0"/>
-        <v>83.333333333333329</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.15">
@@ -6326,10 +6368,10 @@
         <v>20</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D23" s="19">
         <v>12018242284</v>
@@ -6346,7 +6388,9 @@
       <c r="H23" s="20">
         <v>100</v>
       </c>
-      <c r="I23" s="20"/>
+      <c r="I23" s="20">
+        <v>100</v>
+      </c>
       <c r="J23" s="20"/>
       <c r="K23" s="20"/>
       <c r="L23" s="20"/>
@@ -6355,7 +6399,7 @@
       <c r="O23" s="20"/>
       <c r="P23" s="21">
         <f t="shared" si="0"/>
-        <v>86.666666666666671</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.15">
@@ -6363,7 +6407,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C24" s="17" t="s">
         <v>140</v>
@@ -6372,7 +6416,7 @@
         <v>12018242287</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F24" s="20">
         <v>100</v>
@@ -6383,7 +6427,9 @@
       <c r="H24" s="20">
         <v>95</v>
       </c>
-      <c r="I24" s="20"/>
+      <c r="I24" s="20">
+        <v>100</v>
+      </c>
       <c r="J24" s="20"/>
       <c r="K24" s="20"/>
       <c r="L24" s="20"/>
@@ -6392,7 +6438,7 @@
       <c r="O24" s="20"/>
       <c r="P24" s="21">
         <f t="shared" si="0"/>
-        <v>96.666666666666671</v>
+        <v>97.5</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.15">
@@ -6400,7 +6446,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C25" s="17" t="s">
         <v>71</v>
@@ -6420,7 +6466,9 @@
       <c r="H25" s="20">
         <v>100</v>
       </c>
-      <c r="I25" s="20"/>
+      <c r="I25" s="20">
+        <v>100</v>
+      </c>
       <c r="J25" s="20"/>
       <c r="K25" s="20"/>
       <c r="L25" s="20"/>
@@ -6429,7 +6477,7 @@
       <c r="O25" s="20"/>
       <c r="P25" s="21">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.15">
@@ -6437,7 +6485,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C26" s="17" t="s">
         <v>72</v>
@@ -6457,7 +6505,9 @@
       <c r="H26" s="20">
         <v>10</v>
       </c>
-      <c r="I26" s="20"/>
+      <c r="I26" s="20">
+        <v>100</v>
+      </c>
       <c r="J26" s="20"/>
       <c r="K26" s="20"/>
       <c r="L26" s="20"/>
@@ -6466,7 +6516,7 @@
       <c r="O26" s="20"/>
       <c r="P26" s="21">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>66.25</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.15">
@@ -6474,7 +6524,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C27" s="17" t="s">
         <v>142</v>
@@ -6494,7 +6544,9 @@
       <c r="H27" s="20">
         <v>95</v>
       </c>
-      <c r="I27" s="20"/>
+      <c r="I27" s="20">
+        <v>100</v>
+      </c>
       <c r="J27" s="20"/>
       <c r="K27" s="20"/>
       <c r="L27" s="20"/>
@@ -6503,7 +6555,7 @@
       <c r="O27" s="20"/>
       <c r="P27" s="21">
         <f t="shared" si="0"/>
-        <v>98.333333333333329</v>
+        <v>98.75</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.15">
@@ -6511,16 +6563,16 @@
         <v>25</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D28" s="19">
         <v>12018242308</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F28" s="20">
         <v>100</v>
@@ -6531,7 +6583,9 @@
       <c r="H28" s="20">
         <v>95</v>
       </c>
-      <c r="I28" s="20"/>
+      <c r="I28" s="20">
+        <v>100</v>
+      </c>
       <c r="J28" s="20"/>
       <c r="K28" s="20"/>
       <c r="L28" s="20"/>
@@ -6540,7 +6594,7 @@
       <c r="O28" s="20"/>
       <c r="P28" s="21">
         <f t="shared" si="0"/>
-        <v>98.333333333333329</v>
+        <v>98.75</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.15">
@@ -6548,7 +6602,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C29" s="17" t="s">
         <v>146</v>
@@ -6557,7 +6611,7 @@
         <v>12018242310</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F29" s="20">
         <v>100</v>
@@ -6568,7 +6622,9 @@
       <c r="H29" s="20">
         <v>100</v>
       </c>
-      <c r="I29" s="20"/>
+      <c r="I29" s="20">
+        <v>100</v>
+      </c>
       <c r="J29" s="20"/>
       <c r="K29" s="20"/>
       <c r="L29" s="20"/>
@@ -6585,16 +6641,16 @@
         <v>27</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D30" s="19">
         <v>12018242311</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F30" s="20">
         <v>80</v>
@@ -6605,7 +6661,9 @@
       <c r="H30" s="20">
         <v>100</v>
       </c>
-      <c r="I30" s="20"/>
+      <c r="I30" s="20">
+        <v>100</v>
+      </c>
       <c r="J30" s="20"/>
       <c r="K30" s="20"/>
       <c r="L30" s="20"/>
@@ -6614,7 +6672,7 @@
       <c r="O30" s="20"/>
       <c r="P30" s="21">
         <f t="shared" si="0"/>
-        <v>86.666666666666671</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.15">
@@ -6622,7 +6680,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C31" s="17" t="s">
         <v>78</v>
@@ -6631,7 +6689,7 @@
         <v>12018242320</v>
       </c>
       <c r="E31" s="17" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F31" s="20">
         <v>60</v>
@@ -6642,7 +6700,9 @@
       <c r="H31" s="20">
         <v>100</v>
       </c>
-      <c r="I31" s="20"/>
+      <c r="I31" s="20">
+        <v>100</v>
+      </c>
       <c r="J31" s="20"/>
       <c r="K31" s="20"/>
       <c r="L31" s="20"/>
@@ -6651,7 +6711,7 @@
       <c r="O31" s="20"/>
       <c r="P31" s="21">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.15">
@@ -6659,7 +6719,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C32" s="17" t="s">
         <v>80</v>
@@ -6679,7 +6739,9 @@
       <c r="H32" s="20">
         <v>100</v>
       </c>
-      <c r="I32" s="20"/>
+      <c r="I32" s="20">
+        <v>100</v>
+      </c>
       <c r="J32" s="20"/>
       <c r="K32" s="20"/>
       <c r="L32" s="20"/>
@@ -6688,7 +6750,7 @@
       <c r="O32" s="20"/>
       <c r="P32" s="21">
         <f t="shared" si="0"/>
-        <v>96.666666666666671</v>
+        <v>97.5</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.15">
@@ -6696,16 +6758,16 @@
         <v>30</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D33" s="19">
         <v>12018242329</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F33" s="20">
         <v>60</v>
@@ -6716,7 +6778,9 @@
       <c r="H33" s="20">
         <v>100</v>
       </c>
-      <c r="I33" s="20"/>
+      <c r="I33" s="20">
+        <v>100</v>
+      </c>
       <c r="J33" s="20"/>
       <c r="K33" s="20"/>
       <c r="L33" s="20"/>
@@ -6725,7 +6789,7 @@
       <c r="O33" s="20"/>
       <c r="P33" s="21">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.15">
@@ -6733,16 +6797,16 @@
         <v>31</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D34" s="19">
         <v>12018242335</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F34" s="20">
         <v>80</v>
@@ -6753,7 +6817,9 @@
       <c r="H34" s="20">
         <v>60</v>
       </c>
-      <c r="I34" s="20"/>
+      <c r="I34" s="22">
+        <v>0</v>
+      </c>
       <c r="J34" s="20"/>
       <c r="K34" s="20"/>
       <c r="L34" s="20"/>
@@ -6762,7 +6828,7 @@
       <c r="O34" s="20"/>
       <c r="P34" s="21">
         <f t="shared" si="0"/>
-        <v>73.333333333333329</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.15">
@@ -6770,16 +6836,16 @@
         <v>32</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D35" s="19">
         <v>12018242340</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F35" s="20">
         <v>60</v>
@@ -6790,7 +6856,9 @@
       <c r="H35" s="20">
         <v>100</v>
       </c>
-      <c r="I35" s="20"/>
+      <c r="I35" s="20">
+        <v>100</v>
+      </c>
       <c r="J35" s="20"/>
       <c r="K35" s="20"/>
       <c r="L35" s="20"/>
@@ -6799,7 +6867,7 @@
       <c r="O35" s="20"/>
       <c r="P35" s="21">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.15">
@@ -6807,10 +6875,10 @@
         <v>33</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D36" s="19">
         <v>12018242342</v>
@@ -6827,7 +6895,9 @@
       <c r="H36" s="20">
         <v>100</v>
       </c>
-      <c r="I36" s="20"/>
+      <c r="I36" s="20">
+        <v>100</v>
+      </c>
       <c r="J36" s="20"/>
       <c r="K36" s="20"/>
       <c r="L36" s="20"/>
@@ -6844,16 +6914,16 @@
         <v>34</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D37" s="19">
         <v>12018242343</v>
       </c>
       <c r="E37" s="17" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F37" s="20">
         <v>100</v>
@@ -6864,7 +6934,9 @@
       <c r="H37" s="20">
         <v>100</v>
       </c>
-      <c r="I37" s="20"/>
+      <c r="I37" s="20">
+        <v>100</v>
+      </c>
       <c r="J37" s="20"/>
       <c r="K37" s="20"/>
       <c r="L37" s="20"/>
@@ -6881,7 +6953,7 @@
         <v>35</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C38" s="17" t="s">
         <v>158</v>
@@ -6890,7 +6962,7 @@
         <v>12018242353</v>
       </c>
       <c r="E38" s="17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F38" s="20">
         <v>60</v>
@@ -6901,7 +6973,9 @@
       <c r="H38" s="20">
         <v>60</v>
       </c>
-      <c r="I38" s="20"/>
+      <c r="I38" s="20">
+        <v>100</v>
+      </c>
       <c r="J38" s="20"/>
       <c r="K38" s="20"/>
       <c r="L38" s="20"/>
@@ -6910,7 +6984,7 @@
       <c r="O38" s="20"/>
       <c r="P38" s="21">
         <f t="shared" si="0"/>
-        <v>66.666666666666671</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.15">
@@ -6918,16 +6992,16 @@
         <v>36</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D39" s="19">
         <v>12018242354</v>
       </c>
       <c r="E39" s="17" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F39" s="20">
         <v>100</v>
@@ -6938,7 +7012,9 @@
       <c r="H39" s="20">
         <v>100</v>
       </c>
-      <c r="I39" s="20"/>
+      <c r="I39" s="20">
+        <v>100</v>
+      </c>
       <c r="J39" s="20"/>
       <c r="K39" s="20"/>
       <c r="L39" s="20"/>
@@ -6955,16 +7031,16 @@
         <v>37</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D40" s="19">
         <v>12018242356</v>
       </c>
       <c r="E40" s="17" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F40" s="20">
         <v>100</v>
@@ -6975,7 +7051,9 @@
       <c r="H40" s="20">
         <v>100</v>
       </c>
-      <c r="I40" s="20"/>
+      <c r="I40" s="20">
+        <v>100</v>
+      </c>
       <c r="J40" s="20"/>
       <c r="K40" s="20"/>
       <c r="L40" s="20"/>
@@ -6992,16 +7070,16 @@
         <v>38</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D41" s="19">
         <v>12018242359</v>
       </c>
       <c r="E41" s="17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F41" s="20">
         <v>100</v>
@@ -7012,7 +7090,9 @@
       <c r="H41" s="20">
         <v>100</v>
       </c>
-      <c r="I41" s="20"/>
+      <c r="I41" s="20">
+        <v>100</v>
+      </c>
       <c r="J41" s="20"/>
       <c r="K41" s="20"/>
       <c r="L41" s="20"/>
@@ -7029,7 +7109,7 @@
         <v>39</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C42" s="17" t="s">
         <v>83</v>
@@ -7049,7 +7129,9 @@
       <c r="H42" s="20">
         <v>100</v>
       </c>
-      <c r="I42" s="20"/>
+      <c r="I42" s="20">
+        <v>100</v>
+      </c>
       <c r="J42" s="20"/>
       <c r="K42" s="20"/>
       <c r="L42" s="20"/>
@@ -7058,7 +7140,7 @@
       <c r="O42" s="20"/>
       <c r="P42" s="21">
         <f t="shared" si="0"/>
-        <v>86.666666666666671</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.15">
@@ -7066,10 +7148,10 @@
         <v>40</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D43" s="19">
         <v>12018242367</v>
@@ -7086,7 +7168,9 @@
       <c r="H43" s="20">
         <v>100</v>
       </c>
-      <c r="I43" s="20"/>
+      <c r="I43" s="20">
+        <v>100</v>
+      </c>
       <c r="J43" s="20"/>
       <c r="K43" s="20"/>
       <c r="L43" s="20"/>
@@ -7095,7 +7179,7 @@
       <c r="O43" s="20"/>
       <c r="P43" s="21">
         <f t="shared" si="0"/>
-        <v>86.666666666666671</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.15">
@@ -7103,7 +7187,7 @@
         <v>41</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C44" s="17" t="s">
         <v>85</v>
@@ -7123,7 +7207,9 @@
       <c r="H44" s="20">
         <v>100</v>
       </c>
-      <c r="I44" s="20"/>
+      <c r="I44" s="20">
+        <v>100</v>
+      </c>
       <c r="J44" s="20"/>
       <c r="K44" s="20"/>
       <c r="L44" s="20"/>
@@ -7132,7 +7218,7 @@
       <c r="O44" s="20"/>
       <c r="P44" s="21">
         <f t="shared" si="0"/>
-        <v>86.666666666666671</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.15">
@@ -7140,16 +7226,16 @@
         <v>42</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D45" s="19">
         <v>12018242371</v>
       </c>
       <c r="E45" s="17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F45" s="20">
         <v>90</v>
@@ -7160,7 +7246,9 @@
       <c r="H45" s="20">
         <v>95</v>
       </c>
-      <c r="I45" s="20"/>
+      <c r="I45" s="20">
+        <v>100</v>
+      </c>
       <c r="J45" s="20"/>
       <c r="K45" s="20"/>
       <c r="L45" s="20"/>
@@ -7169,7 +7257,7 @@
       <c r="O45" s="20"/>
       <c r="P45" s="21">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>96.25</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.15">
@@ -7177,16 +7265,16 @@
         <v>43</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D46" s="19">
         <v>12018242372</v>
       </c>
       <c r="E46" s="17" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F46" s="20">
         <v>70</v>
@@ -7197,7 +7285,9 @@
       <c r="H46" s="20">
         <v>100</v>
       </c>
-      <c r="I46" s="20"/>
+      <c r="I46" s="22">
+        <v>0</v>
+      </c>
       <c r="J46" s="20"/>
       <c r="K46" s="20"/>
       <c r="L46" s="20"/>
@@ -7206,7 +7296,7 @@
       <c r="O46" s="20"/>
       <c r="P46" s="21">
         <f t="shared" ref="P46:P51" si="1">AVERAGE(F46:O46)</f>
-        <v>90</v>
+        <v>67.5</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.15">
@@ -7214,16 +7304,16 @@
         <v>44</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D47" s="19">
         <v>12018242373</v>
       </c>
       <c r="E47" s="17" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F47" s="20">
         <v>90</v>
@@ -7234,7 +7324,9 @@
       <c r="H47" s="20">
         <v>60</v>
       </c>
-      <c r="I47" s="20"/>
+      <c r="I47" s="20">
+        <v>100</v>
+      </c>
       <c r="J47" s="20"/>
       <c r="K47" s="20"/>
       <c r="L47" s="20"/>
@@ -7243,7 +7335,7 @@
       <c r="O47" s="20"/>
       <c r="P47" s="21">
         <f t="shared" si="1"/>
-        <v>76.666666666666671</v>
+        <v>82.5</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.15">
@@ -7251,10 +7343,10 @@
         <v>45</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D48" s="19">
         <v>12018242380</v>
@@ -7271,7 +7363,9 @@
       <c r="H48" s="20">
         <v>100</v>
       </c>
-      <c r="I48" s="20"/>
+      <c r="I48" s="20">
+        <v>100</v>
+      </c>
       <c r="J48" s="20"/>
       <c r="K48" s="20"/>
       <c r="L48" s="20"/>
@@ -7288,16 +7382,16 @@
         <v>46</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D49" s="19">
         <v>12018242827</v>
       </c>
       <c r="E49" s="17" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F49" s="20">
         <v>60</v>
@@ -7308,7 +7402,9 @@
       <c r="H49" s="20">
         <v>100</v>
       </c>
-      <c r="I49" s="20"/>
+      <c r="I49" s="20">
+        <v>100</v>
+      </c>
       <c r="J49" s="20"/>
       <c r="K49" s="20"/>
       <c r="L49" s="20"/>
@@ -7317,7 +7413,7 @@
       <c r="O49" s="20"/>
       <c r="P49" s="21">
         <f t="shared" si="1"/>
-        <v>81.666666666666671</v>
+        <v>86.25</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.15">
@@ -7325,16 +7421,16 @@
         <v>47</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D50" s="19">
         <v>12018243559</v>
       </c>
       <c r="E50" s="17" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F50" s="20">
         <v>100</v>
@@ -7345,7 +7441,9 @@
       <c r="H50" s="20">
         <v>95</v>
       </c>
-      <c r="I50" s="20"/>
+      <c r="I50" s="20">
+        <v>100</v>
+      </c>
       <c r="J50" s="20"/>
       <c r="K50" s="20"/>
       <c r="L50" s="20"/>
@@ -7354,7 +7452,7 @@
       <c r="O50" s="20"/>
       <c r="P50" s="21">
         <f t="shared" si="1"/>
-        <v>96.666666666666671</v>
+        <v>97.5</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.15">
@@ -7362,7 +7460,7 @@
         <v>48</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C51" s="17" t="s">
         <v>88</v>
@@ -7382,7 +7480,9 @@
       <c r="H51" s="20">
         <v>100</v>
       </c>
-      <c r="I51" s="20"/>
+      <c r="I51" s="22">
+        <v>0</v>
+      </c>
       <c r="J51" s="20"/>
       <c r="K51" s="20"/>
       <c r="L51" s="20"/>
@@ -7391,7 +7491,7 @@
       <c r="O51" s="20"/>
       <c r="P51" s="21">
         <f t="shared" si="1"/>
-        <v>96.666666666666671</v>
+        <v>72.5</v>
       </c>
     </row>
   </sheetData>
@@ -7412,9 +7512,9 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Input Score" sqref="F4:O51" xr:uid="{00000000-0002-0000-0200-000000000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:O3" xr:uid="{00000000-0002-0000-0200-000001000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Assignment Number" sqref="F2:O2" xr:uid="{00000000-0002-0000-0200-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Input Score" sqref="F4:O51" xr:uid="{00000000-0002-0000-0200-000000000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7426,8 +7526,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView topLeftCell="C4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7512,10 +7612,10 @@
         <v>15</v>
       </c>
       <c r="N2" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="O2" s="12" t="s">
         <v>362</v>
-      </c>
-      <c r="O2" s="12" t="s">
-        <v>363</v>
       </c>
       <c r="P2" s="41" t="s">
         <v>9</v>
@@ -7533,11 +7633,11 @@
       <c r="G3" s="9">
         <v>38645</v>
       </c>
-      <c r="H3" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>22</v>
+      <c r="H3" s="9">
+        <v>44133</v>
+      </c>
+      <c r="I3" s="9">
+        <v>44147</v>
       </c>
       <c r="J3" s="9" t="s">
         <v>22</v>
@@ -7564,7 +7664,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>47</v>
@@ -7584,7 +7684,9 @@
       <c r="H4" s="15">
         <v>100</v>
       </c>
-      <c r="I4" s="15"/>
+      <c r="I4" s="15">
+        <v>100</v>
+      </c>
       <c r="J4" s="15"/>
       <c r="K4" s="15"/>
       <c r="L4" s="15"/>
@@ -7593,7 +7695,7 @@
       <c r="O4" s="15"/>
       <c r="P4" s="11">
         <f t="shared" ref="P4:P51" si="0">AVERAGE(F4:O4)</f>
-        <v>98.333333333333329</v>
+        <v>98.75</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -7601,7 +7703,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>48</v>
@@ -7621,7 +7723,9 @@
       <c r="H5" s="15">
         <v>100</v>
       </c>
-      <c r="I5" s="15"/>
+      <c r="I5" s="15">
+        <v>100</v>
+      </c>
       <c r="J5" s="15"/>
       <c r="K5" s="15"/>
       <c r="L5" s="15"/>
@@ -7630,7 +7734,7 @@
       <c r="O5" s="15"/>
       <c r="P5" s="11">
         <f t="shared" si="0"/>
-        <v>96.666666666666671</v>
+        <v>97.5</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -7638,7 +7742,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>49</v>
@@ -7658,7 +7762,9 @@
       <c r="H6" s="15">
         <v>100</v>
       </c>
-      <c r="I6" s="15"/>
+      <c r="I6" s="15">
+        <v>100</v>
+      </c>
       <c r="J6" s="15"/>
       <c r="K6" s="15"/>
       <c r="L6" s="15"/>
@@ -7667,7 +7773,7 @@
       <c r="O6" s="15"/>
       <c r="P6" s="11">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>92.5</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -7675,7 +7781,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>126</v>
@@ -7684,7 +7790,7 @@
         <v>12018242218</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F7" s="15">
         <v>100</v>
@@ -7695,7 +7801,9 @@
       <c r="H7" s="15">
         <v>100</v>
       </c>
-      <c r="I7" s="15"/>
+      <c r="I7" s="47">
+        <v>0</v>
+      </c>
       <c r="J7" s="15"/>
       <c r="K7" s="15"/>
       <c r="L7" s="15"/>
@@ -7704,7 +7812,7 @@
       <c r="O7" s="15"/>
       <c r="P7" s="11">
         <f t="shared" si="0"/>
-        <v>96.666666666666671</v>
+        <v>72.5</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -7712,7 +7820,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>51</v>
@@ -7721,7 +7829,7 @@
         <v>12018242222</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F8" s="15">
         <v>80</v>
@@ -7732,7 +7840,9 @@
       <c r="H8" s="15">
         <v>60</v>
       </c>
-      <c r="I8" s="15"/>
+      <c r="I8" s="47">
+        <v>0</v>
+      </c>
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
@@ -7741,7 +7851,7 @@
       <c r="O8" s="15"/>
       <c r="P8" s="11">
         <f t="shared" si="0"/>
-        <v>78.333333333333329</v>
+        <v>58.75</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -7749,16 +7859,16 @@
         <v>6</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D9" s="14">
         <v>12018242225</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F9" s="15">
         <v>90</v>
@@ -7769,7 +7879,9 @@
       <c r="H9" s="15">
         <v>100</v>
       </c>
-      <c r="I9" s="15"/>
+      <c r="I9" s="15">
+        <v>100</v>
+      </c>
       <c r="J9" s="15"/>
       <c r="K9" s="15"/>
       <c r="L9" s="15"/>
@@ -7778,7 +7890,7 @@
       <c r="O9" s="15"/>
       <c r="P9" s="11">
         <f t="shared" si="0"/>
-        <v>93.333333333333329</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -7786,7 +7898,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>129</v>
@@ -7795,7 +7907,7 @@
         <v>12018242227</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F10" s="15">
         <v>90</v>
@@ -7806,7 +7918,9 @@
       <c r="H10" s="15">
         <v>95</v>
       </c>
-      <c r="I10" s="15"/>
+      <c r="I10" s="15">
+        <v>100</v>
+      </c>
       <c r="J10" s="15"/>
       <c r="K10" s="15"/>
       <c r="L10" s="15"/>
@@ -7815,7 +7929,7 @@
       <c r="O10" s="15"/>
       <c r="P10" s="11">
         <f t="shared" si="0"/>
-        <v>93.333333333333329</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -7823,7 +7937,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>54</v>
@@ -7832,7 +7946,7 @@
         <v>12018242228</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F11" s="15">
         <v>100</v>
@@ -7843,7 +7957,9 @@
       <c r="H11" s="15">
         <v>100</v>
       </c>
-      <c r="I11" s="15"/>
+      <c r="I11" s="15">
+        <v>100</v>
+      </c>
       <c r="J11" s="15"/>
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
@@ -7852,7 +7968,7 @@
       <c r="O11" s="15"/>
       <c r="P11" s="11">
         <f t="shared" si="0"/>
-        <v>96.666666666666671</v>
+        <v>97.5</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -7860,16 +7976,16 @@
         <v>9</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D12" s="14">
         <v>12018242234</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F12" s="15">
         <v>90</v>
@@ -7880,7 +7996,9 @@
       <c r="H12" s="15">
         <v>100</v>
       </c>
-      <c r="I12" s="15"/>
+      <c r="I12" s="15">
+        <v>100</v>
+      </c>
       <c r="J12" s="15"/>
       <c r="K12" s="15"/>
       <c r="L12" s="15"/>
@@ -7889,7 +8007,7 @@
       <c r="O12" s="15"/>
       <c r="P12" s="11">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>96.25</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -7897,7 +8015,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>57</v>
@@ -7917,7 +8035,9 @@
       <c r="H13" s="15">
         <v>100</v>
       </c>
-      <c r="I13" s="15"/>
+      <c r="I13" s="15">
+        <v>100</v>
+      </c>
       <c r="J13" s="15"/>
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
@@ -7926,7 +8046,7 @@
       <c r="O13" s="15"/>
       <c r="P13" s="11">
         <f t="shared" si="0"/>
-        <v>86.666666666666671</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -7934,7 +8054,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>58</v>
@@ -7954,7 +8074,9 @@
       <c r="H14" s="15">
         <v>100</v>
       </c>
-      <c r="I14" s="15"/>
+      <c r="I14" s="15">
+        <v>100</v>
+      </c>
       <c r="J14" s="15"/>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
@@ -7963,7 +8085,7 @@
       <c r="O14" s="15"/>
       <c r="P14" s="11">
         <f t="shared" si="0"/>
-        <v>98.333333333333329</v>
+        <v>98.75</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -7971,7 +8093,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>59</v>
@@ -7991,7 +8113,9 @@
       <c r="H15" s="15">
         <v>100</v>
       </c>
-      <c r="I15" s="15"/>
+      <c r="I15" s="15">
+        <v>100</v>
+      </c>
       <c r="J15" s="15"/>
       <c r="K15" s="15"/>
       <c r="L15" s="15"/>
@@ -8000,7 +8124,7 @@
       <c r="O15" s="15"/>
       <c r="P15" s="11">
         <f t="shared" si="0"/>
-        <v>96.666666666666671</v>
+        <v>97.5</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -8008,7 +8132,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>36</v>
@@ -8017,7 +8141,7 @@
         <v>12018242242</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F16" s="15">
         <v>60</v>
@@ -8028,7 +8152,9 @@
       <c r="H16" s="15">
         <v>60</v>
       </c>
-      <c r="I16" s="15"/>
+      <c r="I16" s="15">
+        <v>100</v>
+      </c>
       <c r="J16" s="15"/>
       <c r="K16" s="15"/>
       <c r="L16" s="15"/>
@@ -8037,7 +8163,7 @@
       <c r="O16" s="15"/>
       <c r="P16" s="11">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>77.5</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -8045,10 +8171,10 @@
         <v>14</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D17" s="14">
         <v>12018242244</v>
@@ -8065,7 +8191,9 @@
       <c r="H17" s="15">
         <v>100</v>
       </c>
-      <c r="I17" s="15"/>
+      <c r="I17" s="15">
+        <v>100</v>
+      </c>
       <c r="J17" s="15"/>
       <c r="K17" s="15"/>
       <c r="L17" s="15"/>
@@ -8074,7 +8202,7 @@
       <c r="O17" s="15"/>
       <c r="P17" s="11">
         <f t="shared" si="0"/>
-        <v>88.333333333333329</v>
+        <v>91.25</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -8082,7 +8210,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>132</v>
@@ -8091,7 +8219,7 @@
         <v>12018242245</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F18" s="15">
         <v>90</v>
@@ -8102,7 +8230,9 @@
       <c r="H18" s="15">
         <v>100</v>
       </c>
-      <c r="I18" s="15"/>
+      <c r="I18" s="15">
+        <v>100</v>
+      </c>
       <c r="J18" s="15"/>
       <c r="K18" s="15"/>
       <c r="L18" s="15"/>
@@ -8111,7 +8241,7 @@
       <c r="O18" s="15"/>
       <c r="P18" s="11">
         <f t="shared" si="0"/>
-        <v>93.333333333333329</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -8119,7 +8249,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>61</v>
@@ -8139,7 +8269,9 @@
       <c r="H19" s="15">
         <v>100</v>
       </c>
-      <c r="I19" s="15"/>
+      <c r="I19" s="15">
+        <v>100</v>
+      </c>
       <c r="J19" s="15"/>
       <c r="K19" s="15"/>
       <c r="L19" s="15"/>
@@ -8148,7 +8280,7 @@
       <c r="O19" s="15"/>
       <c r="P19" s="11">
         <f t="shared" si="0"/>
-        <v>96.666666666666671</v>
+        <v>97.5</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -8156,16 +8288,16 @@
         <v>17</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D20" s="14">
         <v>12018242250</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F20" s="15">
         <v>100</v>
@@ -8176,7 +8308,9 @@
       <c r="H20" s="15">
         <v>100</v>
       </c>
-      <c r="I20" s="15"/>
+      <c r="I20" s="15">
+        <v>100</v>
+      </c>
       <c r="J20" s="15"/>
       <c r="K20" s="15"/>
       <c r="L20" s="15"/>
@@ -8185,7 +8319,7 @@
       <c r="O20" s="15"/>
       <c r="P20" s="11">
         <f t="shared" si="0"/>
-        <v>98.333333333333329</v>
+        <v>98.75</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -8193,7 +8327,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>134</v>
@@ -8202,7 +8336,7 @@
         <v>12018242259</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F21" s="15">
         <v>100</v>
@@ -8213,7 +8347,9 @@
       <c r="H21" s="15">
         <v>100</v>
       </c>
-      <c r="I21" s="15"/>
+      <c r="I21" s="47">
+        <v>0</v>
+      </c>
       <c r="J21" s="15"/>
       <c r="K21" s="15"/>
       <c r="L21" s="15"/>
@@ -8222,7 +8358,7 @@
       <c r="O21" s="15"/>
       <c r="P21" s="11">
         <f t="shared" si="0"/>
-        <v>96.666666666666671</v>
+        <v>72.5</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -8230,7 +8366,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>135</v>
@@ -8250,7 +8386,9 @@
       <c r="H22" s="15">
         <v>100</v>
       </c>
-      <c r="I22" s="15"/>
+      <c r="I22" s="15">
+        <v>100</v>
+      </c>
       <c r="J22" s="15"/>
       <c r="K22" s="15"/>
       <c r="L22" s="15"/>
@@ -8259,7 +8397,7 @@
       <c r="O22" s="15"/>
       <c r="P22" s="11">
         <f t="shared" si="0"/>
-        <v>96.666666666666671</v>
+        <v>97.5</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -8267,7 +8405,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>66</v>
@@ -8287,7 +8425,9 @@
       <c r="H23" s="15">
         <v>100</v>
       </c>
-      <c r="I23" s="15"/>
+      <c r="I23" s="15">
+        <v>100</v>
+      </c>
       <c r="J23" s="15"/>
       <c r="K23" s="15"/>
       <c r="L23" s="15"/>
@@ -8296,7 +8436,7 @@
       <c r="O23" s="15"/>
       <c r="P23" s="11">
         <f t="shared" si="0"/>
-        <v>96.666666666666671</v>
+        <v>97.5</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -8304,7 +8444,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C24" s="13" t="s">
         <v>137</v>
@@ -8313,7 +8453,7 @@
         <v>12018242275</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F24" s="15">
         <v>100</v>
@@ -8324,7 +8464,9 @@
       <c r="H24" s="15">
         <v>60</v>
       </c>
-      <c r="I24" s="15"/>
+      <c r="I24" s="47">
+        <v>0</v>
+      </c>
       <c r="J24" s="15"/>
       <c r="K24" s="15"/>
       <c r="L24" s="15"/>
@@ -8333,7 +8475,7 @@
       <c r="O24" s="15"/>
       <c r="P24" s="11">
         <f t="shared" si="0"/>
-        <v>83.333333333333329</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -8341,10 +8483,10 @@
         <v>22</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D25" s="14">
         <v>12018242279</v>
@@ -8361,7 +8503,9 @@
       <c r="H25" s="15">
         <v>100</v>
       </c>
-      <c r="I25" s="15"/>
+      <c r="I25" s="15">
+        <v>100</v>
+      </c>
       <c r="J25" s="15"/>
       <c r="K25" s="15"/>
       <c r="L25" s="15"/>
@@ -8370,7 +8514,7 @@
       <c r="O25" s="15"/>
       <c r="P25" s="11">
         <f t="shared" si="0"/>
-        <v>98.333333333333329</v>
+        <v>98.75</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -8378,7 +8522,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C26" s="13" t="s">
         <v>67</v>
@@ -8398,7 +8542,9 @@
       <c r="H26" s="15">
         <v>60</v>
       </c>
-      <c r="I26" s="15"/>
+      <c r="I26" s="15">
+        <v>100</v>
+      </c>
       <c r="J26" s="15"/>
       <c r="K26" s="15"/>
       <c r="L26" s="15"/>
@@ -8407,7 +8553,7 @@
       <c r="O26" s="15"/>
       <c r="P26" s="11">
         <f t="shared" si="0"/>
-        <v>73.333333333333329</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -8415,7 +8561,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C27" s="13" t="s">
         <v>139</v>
@@ -8435,7 +8581,9 @@
       <c r="H27" s="15">
         <v>100</v>
       </c>
-      <c r="I27" s="15"/>
+      <c r="I27" s="15">
+        <v>100</v>
+      </c>
       <c r="J27" s="15"/>
       <c r="K27" s="15"/>
       <c r="L27" s="15"/>
@@ -8444,7 +8592,7 @@
       <c r="O27" s="15"/>
       <c r="P27" s="11">
         <f t="shared" si="0"/>
-        <v>93.333333333333329</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -8452,16 +8600,16 @@
         <v>25</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D28" s="14">
         <v>12018242285</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F28" s="15">
         <v>100</v>
@@ -8472,7 +8620,9 @@
       <c r="H28" s="15">
         <v>100</v>
       </c>
-      <c r="I28" s="15"/>
+      <c r="I28" s="15">
+        <v>100</v>
+      </c>
       <c r="J28" s="15"/>
       <c r="K28" s="15"/>
       <c r="L28" s="15"/>
@@ -8481,7 +8631,7 @@
       <c r="O28" s="15"/>
       <c r="P28" s="11">
         <f t="shared" si="0"/>
-        <v>98.333333333333329</v>
+        <v>98.75</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -8489,16 +8639,16 @@
         <v>26</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D29" s="14">
         <v>12018242286</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F29" s="15">
         <v>90</v>
@@ -8509,7 +8659,9 @@
       <c r="H29" s="15">
         <v>100</v>
       </c>
-      <c r="I29" s="15"/>
+      <c r="I29" s="15">
+        <v>100</v>
+      </c>
       <c r="J29" s="15"/>
       <c r="K29" s="15"/>
       <c r="L29" s="15"/>
@@ -8518,7 +8670,7 @@
       <c r="O29" s="15"/>
       <c r="P29" s="11">
         <f t="shared" si="0"/>
-        <v>93.333333333333329</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -8526,10 +8678,10 @@
         <v>27</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D30" s="14">
         <v>12018242289</v>
@@ -8546,7 +8698,9 @@
       <c r="H30" s="15">
         <v>100</v>
       </c>
-      <c r="I30" s="15"/>
+      <c r="I30" s="15">
+        <v>100</v>
+      </c>
       <c r="J30" s="15"/>
       <c r="K30" s="15"/>
       <c r="L30" s="15"/>
@@ -8555,7 +8709,7 @@
       <c r="O30" s="15"/>
       <c r="P30" s="11">
         <f t="shared" si="0"/>
-        <v>93.333333333333329</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -8563,16 +8717,16 @@
         <v>28</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D31" s="14">
         <v>12018242290</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F31" s="15">
         <v>50</v>
@@ -8583,7 +8737,9 @@
       <c r="H31" s="15">
         <v>100</v>
       </c>
-      <c r="I31" s="15"/>
+      <c r="I31" s="15">
+        <v>100</v>
+      </c>
       <c r="J31" s="15"/>
       <c r="K31" s="15"/>
       <c r="L31" s="15"/>
@@ -8592,7 +8748,7 @@
       <c r="O31" s="15"/>
       <c r="P31" s="11">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -8600,7 +8756,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C32" s="13" t="s">
         <v>141</v>
@@ -8609,7 +8765,7 @@
         <v>12018242293</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F32" s="15">
         <v>90</v>
@@ -8620,7 +8776,9 @@
       <c r="H32" s="15">
         <v>100</v>
       </c>
-      <c r="I32" s="15"/>
+      <c r="I32" s="15">
+        <v>100</v>
+      </c>
       <c r="J32" s="15"/>
       <c r="K32" s="15"/>
       <c r="L32" s="15"/>
@@ -8629,7 +8787,7 @@
       <c r="O32" s="15"/>
       <c r="P32" s="11">
         <f t="shared" si="0"/>
-        <v>96.333333333333329</v>
+        <v>97.25</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -8637,16 +8795,16 @@
         <v>30</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D33" s="14">
         <v>12018242294</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F33" s="15">
         <v>85</v>
@@ -8657,7 +8815,9 @@
       <c r="H33" s="15">
         <v>100</v>
       </c>
-      <c r="I33" s="15"/>
+      <c r="I33" s="15">
+        <v>100</v>
+      </c>
       <c r="J33" s="15"/>
       <c r="K33" s="15"/>
       <c r="L33" s="15"/>
@@ -8666,7 +8826,7 @@
       <c r="O33" s="15"/>
       <c r="P33" s="11">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>92.5</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -8674,16 +8834,16 @@
         <v>31</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D34" s="14">
         <v>12018242300</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F34" s="15">
         <v>70</v>
@@ -8694,7 +8854,9 @@
       <c r="H34" s="15">
         <v>100</v>
       </c>
-      <c r="I34" s="15"/>
+      <c r="I34" s="15">
+        <v>100</v>
+      </c>
       <c r="J34" s="15"/>
       <c r="K34" s="15"/>
       <c r="L34" s="15"/>
@@ -8703,7 +8865,7 @@
       <c r="O34" s="15"/>
       <c r="P34" s="11">
         <f t="shared" si="0"/>
-        <v>86.666666666666671</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -8711,7 +8873,7 @@
         <v>32</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C35" s="13" t="s">
         <v>144</v>
@@ -8720,7 +8882,7 @@
         <v>12018242305</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F35" s="15">
         <v>90</v>
@@ -8731,7 +8893,9 @@
       <c r="H35" s="15">
         <v>100</v>
       </c>
-      <c r="I35" s="15"/>
+      <c r="I35" s="47">
+        <v>0</v>
+      </c>
       <c r="J35" s="15"/>
       <c r="K35" s="15"/>
       <c r="L35" s="15"/>
@@ -8740,7 +8904,7 @@
       <c r="O35" s="15"/>
       <c r="P35" s="11">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>71.25</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -8748,16 +8912,16 @@
         <v>33</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D36" s="14">
         <v>12018242306</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F36" s="15">
         <v>90</v>
@@ -8768,7 +8932,9 @@
       <c r="H36" s="15">
         <v>0</v>
       </c>
-      <c r="I36" s="15"/>
+      <c r="I36" s="15">
+        <v>100</v>
+      </c>
       <c r="J36" s="15"/>
       <c r="K36" s="15"/>
       <c r="L36" s="15"/>
@@ -8777,7 +8943,7 @@
       <c r="O36" s="15"/>
       <c r="P36" s="11">
         <f t="shared" si="0"/>
-        <v>61.666666666666664</v>
+        <v>71.25</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -8785,7 +8951,7 @@
         <v>34</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C37" s="13" t="s">
         <v>147</v>
@@ -8794,7 +8960,7 @@
         <v>12018242314</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F37" s="15">
         <v>100</v>
@@ -8805,7 +8971,9 @@
       <c r="H37" s="15">
         <v>100</v>
       </c>
-      <c r="I37" s="15"/>
+      <c r="I37" s="15">
+        <v>100</v>
+      </c>
       <c r="J37" s="15"/>
       <c r="K37" s="15"/>
       <c r="L37" s="15"/>
@@ -8814,7 +8982,7 @@
       <c r="O37" s="15"/>
       <c r="P37" s="11">
         <f t="shared" si="0"/>
-        <v>96.666666666666671</v>
+        <v>97.5</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -8822,16 +8990,16 @@
         <v>35</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D38" s="14">
         <v>12018242317</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F38" s="15">
         <v>60</v>
@@ -8842,7 +9010,9 @@
       <c r="H38" s="15">
         <v>100</v>
       </c>
-      <c r="I38" s="15"/>
+      <c r="I38" s="47">
+        <v>0</v>
+      </c>
       <c r="J38" s="15"/>
       <c r="K38" s="15"/>
       <c r="L38" s="15"/>
@@ -8851,7 +9021,7 @@
       <c r="O38" s="15"/>
       <c r="P38" s="11">
         <f t="shared" si="0"/>
-        <v>83.333333333333329</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="39" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -8859,16 +9029,16 @@
         <v>36</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D39" s="14">
         <v>12018242319</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F39" s="15">
         <v>75</v>
@@ -8879,7 +9049,9 @@
       <c r="H39" s="15">
         <v>100</v>
       </c>
-      <c r="I39" s="15"/>
+      <c r="I39" s="15">
+        <v>100</v>
+      </c>
       <c r="J39" s="15"/>
       <c r="K39" s="15"/>
       <c r="L39" s="15"/>
@@ -8888,7 +9060,7 @@
       <c r="O39" s="15"/>
       <c r="P39" s="11">
         <f t="shared" si="0"/>
-        <v>88.333333333333329</v>
+        <v>91.25</v>
       </c>
     </row>
     <row r="40" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -8896,7 +9068,7 @@
         <v>37</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C40" s="13" t="s">
         <v>148</v>
@@ -8916,7 +9088,9 @@
       <c r="H40" s="15">
         <v>100</v>
       </c>
-      <c r="I40" s="15"/>
+      <c r="I40" s="47">
+        <v>0</v>
+      </c>
       <c r="J40" s="15"/>
       <c r="K40" s="15"/>
       <c r="L40" s="15"/>
@@ -8925,7 +9099,7 @@
       <c r="O40" s="15"/>
       <c r="P40" s="11">
         <f t="shared" si="0"/>
-        <v>91.666666666666671</v>
+        <v>68.75</v>
       </c>
     </row>
     <row r="41" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -8933,16 +9107,16 @@
         <v>38</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D41" s="14">
         <v>12018242322</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F41" s="15">
         <v>100</v>
@@ -8953,7 +9127,9 @@
       <c r="H41" s="15">
         <v>100</v>
       </c>
-      <c r="I41" s="15"/>
+      <c r="I41" s="15">
+        <v>100</v>
+      </c>
       <c r="J41" s="15"/>
       <c r="K41" s="15"/>
       <c r="L41" s="15"/>
@@ -8962,7 +9138,7 @@
       <c r="O41" s="15"/>
       <c r="P41" s="11">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>96.25</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -8970,16 +9146,16 @@
         <v>39</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D42" s="14">
         <v>12018242331</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F42" s="15">
         <v>100</v>
@@ -8990,7 +9166,9 @@
       <c r="H42" s="15">
         <v>100</v>
       </c>
-      <c r="I42" s="15"/>
+      <c r="I42" s="15">
+        <v>100</v>
+      </c>
       <c r="J42" s="15"/>
       <c r="K42" s="15"/>
       <c r="L42" s="15"/>
@@ -8999,7 +9177,7 @@
       <c r="O42" s="15"/>
       <c r="P42" s="11">
         <f t="shared" si="0"/>
-        <v>98.333333333333329</v>
+        <v>98.75</v>
       </c>
     </row>
     <row r="43" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -9007,7 +9185,7 @@
         <v>40</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C43" s="13" t="s">
         <v>151</v>
@@ -9016,7 +9194,7 @@
         <v>12018242336</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F43" s="15">
         <v>100</v>
@@ -9027,7 +9205,9 @@
       <c r="H43" s="15">
         <v>100</v>
       </c>
-      <c r="I43" s="15"/>
+      <c r="I43" s="47">
+        <v>0</v>
+      </c>
       <c r="J43" s="15"/>
       <c r="K43" s="15"/>
       <c r="L43" s="15"/>
@@ -9036,7 +9216,7 @@
       <c r="O43" s="15"/>
       <c r="P43" s="11">
         <f t="shared" si="0"/>
-        <v>96.666666666666671</v>
+        <v>72.5</v>
       </c>
     </row>
     <row r="44" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -9044,7 +9224,7 @@
         <v>41</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C44" s="13" t="s">
         <v>155</v>
@@ -9053,7 +9233,7 @@
         <v>12018242344</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F44" s="15">
         <v>100</v>
@@ -9064,7 +9244,9 @@
       <c r="H44" s="15">
         <v>100</v>
       </c>
-      <c r="I44" s="15"/>
+      <c r="I44" s="15">
+        <v>100</v>
+      </c>
       <c r="J44" s="15"/>
       <c r="K44" s="15"/>
       <c r="L44" s="15"/>
@@ -9073,7 +9255,7 @@
       <c r="O44" s="15"/>
       <c r="P44" s="11">
         <f t="shared" si="0"/>
-        <v>98.333333333333329</v>
+        <v>98.75</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -9081,7 +9263,7 @@
         <v>42</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C45" s="13" t="s">
         <v>81</v>
@@ -9101,7 +9283,9 @@
       <c r="H45" s="15">
         <v>100</v>
       </c>
-      <c r="I45" s="15"/>
+      <c r="I45" s="15">
+        <v>100</v>
+      </c>
       <c r="J45" s="15"/>
       <c r="K45" s="15"/>
       <c r="L45" s="15"/>
@@ -9110,7 +9294,7 @@
       <c r="O45" s="15"/>
       <c r="P45" s="11">
         <f t="shared" si="0"/>
-        <v>96.666666666666671</v>
+        <v>97.5</v>
       </c>
     </row>
     <row r="46" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -9118,16 +9302,16 @@
         <v>43</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D46" s="14">
         <v>12018242346</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F46" s="15">
         <v>90</v>
@@ -9138,7 +9322,9 @@
       <c r="H46" s="15">
         <v>100</v>
       </c>
-      <c r="I46" s="15"/>
+      <c r="I46" s="15">
+        <v>100</v>
+      </c>
       <c r="J46" s="15"/>
       <c r="K46" s="15"/>
       <c r="L46" s="15"/>
@@ -9147,7 +9333,7 @@
       <c r="O46" s="15"/>
       <c r="P46" s="11">
         <f t="shared" si="0"/>
-        <v>93.333333333333329</v>
+        <v>95</v>
       </c>
     </row>
     <row r="47" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -9155,7 +9341,7 @@
         <v>44</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C47" s="13" t="s">
         <v>157</v>
@@ -9175,7 +9361,9 @@
       <c r="H47" s="15">
         <v>100</v>
       </c>
-      <c r="I47" s="15"/>
+      <c r="I47" s="47">
+        <v>0</v>
+      </c>
       <c r="J47" s="15"/>
       <c r="K47" s="15"/>
       <c r="L47" s="15"/>
@@ -9184,7 +9372,7 @@
       <c r="O47" s="15"/>
       <c r="P47" s="11">
         <f t="shared" si="0"/>
-        <v>96.666666666666671</v>
+        <v>72.5</v>
       </c>
     </row>
     <row r="48" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -9192,16 +9380,16 @@
         <v>45</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D48" s="14">
         <v>12018242355</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F48" s="15">
         <v>90</v>
@@ -9212,7 +9400,9 @@
       <c r="H48" s="15">
         <v>100</v>
       </c>
-      <c r="I48" s="15"/>
+      <c r="I48" s="15">
+        <v>100</v>
+      </c>
       <c r="J48" s="15"/>
       <c r="K48" s="15"/>
       <c r="L48" s="15"/>
@@ -9221,7 +9411,7 @@
       <c r="O48" s="15"/>
       <c r="P48" s="11">
         <f t="shared" si="0"/>
-        <v>93.333333333333329</v>
+        <v>95</v>
       </c>
     </row>
     <row r="49" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -9229,16 +9419,16 @@
         <v>46</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>159</v>
+        <v>391</v>
       </c>
       <c r="D49" s="14">
         <v>12018242358</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F49" s="15">
         <v>100</v>
@@ -9249,7 +9439,9 @@
       <c r="H49" s="15">
         <v>100</v>
       </c>
-      <c r="I49" s="15"/>
+      <c r="I49" s="15">
+        <v>100</v>
+      </c>
       <c r="J49" s="15"/>
       <c r="K49" s="15"/>
       <c r="L49" s="15"/>
@@ -9258,7 +9450,7 @@
       <c r="O49" s="15"/>
       <c r="P49" s="11">
         <f t="shared" si="0"/>
-        <v>96.666666666666671</v>
+        <v>97.5</v>
       </c>
     </row>
     <row r="50" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -9266,16 +9458,16 @@
         <v>47</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D50" s="14">
         <v>12018242364</v>
       </c>
       <c r="E50" s="13" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F50" s="15">
         <v>90</v>
@@ -9286,7 +9478,9 @@
       <c r="H50" s="15">
         <v>100</v>
       </c>
-      <c r="I50" s="15"/>
+      <c r="I50" s="15">
+        <v>100</v>
+      </c>
       <c r="J50" s="15"/>
       <c r="K50" s="15"/>
       <c r="L50" s="15"/>
@@ -9295,7 +9489,7 @@
       <c r="O50" s="15"/>
       <c r="P50" s="11">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>96.25</v>
       </c>
     </row>
     <row r="51" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -9303,16 +9497,16 @@
         <v>48</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D51" s="14">
         <v>12018242369</v>
       </c>
       <c r="E51" s="13" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F51" s="15">
         <v>60</v>
@@ -9323,7 +9517,9 @@
       <c r="H51" s="15">
         <v>100</v>
       </c>
-      <c r="I51" s="15"/>
+      <c r="I51" s="15">
+        <v>100</v>
+      </c>
       <c r="J51" s="15"/>
       <c r="K51" s="15"/>
       <c r="L51" s="15"/>
@@ -9332,7 +9528,7 @@
       <c r="O51" s="15"/>
       <c r="P51" s="11">
         <f t="shared" si="0"/>
-        <v>83.333333333333329</v>
+        <v>87.5</v>
       </c>
     </row>
   </sheetData>

--- a/Grade 2018/HomeAssignment/HA_Summary_YC_2018.xlsx
+++ b/Grade 2018/HomeAssignment/HA_Summary_YC_2018.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="393">
   <si>
     <t>No</t>
   </si>
@@ -1815,7 +1815,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1826,8 +1826,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView topLeftCell="C19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K51" sqref="K51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1836,7 +1836,7 @@
     <col min="2" max="2" width="24.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" customWidth="1"/>
     <col min="6" max="6" width="16.6640625" customWidth="1"/>
     <col min="7" max="8" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
@@ -1934,14 +1934,14 @@
       <c r="H3" s="3">
         <v>44117</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>22</v>
+      <c r="I3" s="3">
+        <v>44124</v>
+      </c>
+      <c r="J3" s="3">
+        <v>44127</v>
+      </c>
+      <c r="K3" s="3">
+        <v>44148</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>22</v>
@@ -1982,16 +1982,22 @@
       <c r="H4" s="8">
         <v>100</v>
       </c>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
+      <c r="I4" s="8">
+        <v>70</v>
+      </c>
+      <c r="J4" s="8">
+        <v>80</v>
+      </c>
+      <c r="K4" s="8">
+        <v>80</v>
+      </c>
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
       <c r="P4" s="7">
         <f t="shared" ref="P4:P48" si="0">AVERAGE(F4:O4)</f>
-        <v>80</v>
+        <v>78.333333333333329</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2019,16 +2025,22 @@
       <c r="H5" s="8">
         <v>100</v>
       </c>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
+      <c r="I5" s="8">
+        <v>70</v>
+      </c>
+      <c r="J5" s="8">
+        <v>100</v>
+      </c>
+      <c r="K5" s="8">
+        <v>80</v>
+      </c>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
       <c r="P5" s="7">
         <f t="shared" si="0"/>
-        <v>93.333333333333329</v>
+        <v>88.333333333333329</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2056,9 +2068,15 @@
       <c r="H6" s="8">
         <v>90</v>
       </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
+      <c r="I6" s="8">
+        <v>80</v>
+      </c>
+      <c r="J6" s="8">
+        <v>90</v>
+      </c>
+      <c r="K6" s="8">
+        <v>100</v>
+      </c>
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
@@ -2093,9 +2111,15 @@
       <c r="H7" s="8">
         <v>100</v>
       </c>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
+      <c r="I7" s="8">
+        <v>90</v>
+      </c>
+      <c r="J7" s="8">
+        <v>100</v>
+      </c>
+      <c r="K7" s="8">
+        <v>90</v>
+      </c>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
@@ -2130,9 +2154,15 @@
       <c r="H8" s="8">
         <v>100</v>
       </c>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
+      <c r="I8" s="8">
+        <v>100</v>
+      </c>
+      <c r="J8" s="8">
+        <v>100</v>
+      </c>
+      <c r="K8" s="8">
+        <v>100</v>
+      </c>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
@@ -2167,9 +2197,15 @@
       <c r="H9" s="8">
         <v>100</v>
       </c>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
+      <c r="I9" s="8">
+        <v>100</v>
+      </c>
+      <c r="J9" s="8">
+        <v>70</v>
+      </c>
+      <c r="K9" s="8">
+        <v>100</v>
+      </c>
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
@@ -2204,9 +2240,15 @@
       <c r="H10" s="8">
         <v>90</v>
       </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
+      <c r="I10" s="8">
+        <v>100</v>
+      </c>
+      <c r="J10" s="8">
+        <v>70</v>
+      </c>
+      <c r="K10" s="8">
+        <v>100</v>
+      </c>
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
@@ -2241,16 +2283,22 @@
       <c r="H11" s="8">
         <v>100</v>
       </c>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
+      <c r="I11" s="8">
+        <v>90</v>
+      </c>
+      <c r="J11" s="8">
+        <v>100</v>
+      </c>
+      <c r="K11" s="8">
+        <v>100</v>
+      </c>
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
       <c r="O11" s="8"/>
       <c r="P11" s="7">
         <f t="shared" si="0"/>
-        <v>93.333333333333329</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2278,16 +2326,22 @@
       <c r="H12" s="8">
         <v>100</v>
       </c>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
+      <c r="I12" s="8">
+        <v>90</v>
+      </c>
+      <c r="J12" s="8">
+        <v>80</v>
+      </c>
+      <c r="K12" s="8">
+        <v>90</v>
+      </c>
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
       <c r="O12" s="8"/>
       <c r="P12" s="7">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>88.333333333333329</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2315,16 +2369,22 @@
       <c r="H13" s="8">
         <v>100</v>
       </c>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
+      <c r="I13" s="8">
+        <v>100</v>
+      </c>
+      <c r="J13" s="8">
+        <v>100</v>
+      </c>
+      <c r="K13" s="8">
+        <v>80</v>
+      </c>
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
       <c r="O13" s="8"/>
       <c r="P13" s="7">
         <f t="shared" si="0"/>
-        <v>96.666666666666671</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2352,16 +2412,22 @@
       <c r="H14" s="8">
         <v>100</v>
       </c>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
+      <c r="I14" s="8">
+        <v>90</v>
+      </c>
+      <c r="J14" s="8">
+        <v>100</v>
+      </c>
+      <c r="K14" s="8">
+        <v>100</v>
+      </c>
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
       <c r="N14" s="8"/>
       <c r="O14" s="8"/>
       <c r="P14" s="7">
         <f t="shared" si="0"/>
-        <v>86.666666666666671</v>
+        <v>91.666666666666671</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2389,16 +2455,22 @@
       <c r="H15" s="8">
         <v>100</v>
       </c>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
+      <c r="I15" s="8">
+        <v>100</v>
+      </c>
+      <c r="J15" s="8">
+        <v>90</v>
+      </c>
+      <c r="K15" s="8">
+        <v>100</v>
+      </c>
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
       <c r="O15" s="8"/>
       <c r="P15" s="7">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>98.333333333333329</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2426,16 +2498,22 @@
       <c r="H16" s="8">
         <v>100</v>
       </c>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
+      <c r="I16" s="8">
+        <v>90</v>
+      </c>
+      <c r="J16" s="8">
+        <v>100</v>
+      </c>
+      <c r="K16" s="8">
+        <v>90</v>
+      </c>
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
       <c r="O16" s="8"/>
       <c r="P16" s="7">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>91.666666666666671</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2463,16 +2541,22 @@
       <c r="H17" s="8">
         <v>100</v>
       </c>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
+      <c r="I17" s="8">
+        <v>100</v>
+      </c>
+      <c r="J17" s="8">
+        <v>70</v>
+      </c>
+      <c r="K17" s="8">
+        <v>80</v>
+      </c>
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
       <c r="O17" s="8"/>
       <c r="P17" s="7">
         <f t="shared" si="0"/>
-        <v>93.333333333333329</v>
+        <v>88.333333333333329</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2500,9 +2584,15 @@
       <c r="H18" s="8">
         <v>100</v>
       </c>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
+      <c r="I18" s="8">
+        <v>100</v>
+      </c>
+      <c r="J18" s="8">
+        <v>100</v>
+      </c>
+      <c r="K18" s="8">
+        <v>100</v>
+      </c>
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
@@ -2537,16 +2627,22 @@
       <c r="H19" s="8">
         <v>90</v>
       </c>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
+      <c r="I19" s="8">
+        <v>90</v>
+      </c>
+      <c r="J19" s="8">
+        <v>100</v>
+      </c>
+      <c r="K19" s="8">
+        <v>90</v>
+      </c>
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
       <c r="N19" s="8"/>
       <c r="O19" s="8"/>
       <c r="P19" s="7">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>86.666666666666671</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2574,16 +2670,22 @@
       <c r="H20" s="8">
         <v>100</v>
       </c>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
+      <c r="I20" s="8">
+        <v>100</v>
+      </c>
+      <c r="J20" s="8">
+        <v>90</v>
+      </c>
+      <c r="K20" s="8">
+        <v>100</v>
+      </c>
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
       <c r="N20" s="8"/>
       <c r="O20" s="8"/>
       <c r="P20" s="7">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>98.333333333333329</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2611,16 +2713,22 @@
       <c r="H21" s="8">
         <v>100</v>
       </c>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
+      <c r="I21" s="8">
+        <v>100</v>
+      </c>
+      <c r="J21" s="8">
+        <v>100</v>
+      </c>
+      <c r="K21" s="8">
+        <v>80</v>
+      </c>
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
       <c r="N21" s="8"/>
       <c r="O21" s="8"/>
       <c r="P21" s="7">
         <f t="shared" si="0"/>
-        <v>96.666666666666671</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2648,16 +2756,22 @@
       <c r="H22" s="8">
         <v>100</v>
       </c>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
+      <c r="I22" s="8">
+        <v>90</v>
+      </c>
+      <c r="J22" s="8">
+        <v>100</v>
+      </c>
+      <c r="K22" s="8">
+        <v>90</v>
+      </c>
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
       <c r="N22" s="8"/>
       <c r="O22" s="8"/>
       <c r="P22" s="7">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>91.666666666666671</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2685,16 +2799,22 @@
       <c r="H23" s="8">
         <v>100</v>
       </c>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
+      <c r="I23" s="8">
+        <v>100</v>
+      </c>
+      <c r="J23" s="8">
+        <v>100</v>
+      </c>
+      <c r="K23" s="8">
+        <v>80</v>
+      </c>
       <c r="L23" s="8"/>
       <c r="M23" s="8"/>
       <c r="N23" s="8"/>
       <c r="O23" s="8"/>
       <c r="P23" s="7">
         <f t="shared" si="0"/>
-        <v>96.666666666666671</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2722,16 +2842,22 @@
       <c r="H24" s="8">
         <v>80</v>
       </c>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
+      <c r="I24" s="8">
+        <v>90</v>
+      </c>
+      <c r="J24" s="8">
+        <v>100</v>
+      </c>
+      <c r="K24" s="8">
+        <v>90</v>
+      </c>
       <c r="L24" s="8"/>
       <c r="M24" s="8"/>
       <c r="N24" s="8"/>
       <c r="O24" s="8"/>
       <c r="P24" s="7">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>91.666666666666671</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2759,9 +2885,15 @@
       <c r="H25" s="8">
         <v>100</v>
       </c>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
+      <c r="I25" s="8">
+        <v>100</v>
+      </c>
+      <c r="J25" s="8">
+        <v>100</v>
+      </c>
+      <c r="K25" s="8">
+        <v>100</v>
+      </c>
       <c r="L25" s="8"/>
       <c r="M25" s="8"/>
       <c r="N25" s="8"/>
@@ -2796,16 +2928,22 @@
       <c r="H26" s="8">
         <v>100</v>
       </c>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
+      <c r="I26" s="8">
+        <v>100</v>
+      </c>
+      <c r="J26" s="8">
+        <v>100</v>
+      </c>
+      <c r="K26" s="8">
+        <v>80</v>
+      </c>
       <c r="L26" s="8"/>
       <c r="M26" s="8"/>
       <c r="N26" s="8"/>
       <c r="O26" s="8"/>
       <c r="P26" s="7">
         <f t="shared" si="0"/>
-        <v>96.666666666666671</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2833,16 +2971,22 @@
       <c r="H27" s="8">
         <v>100</v>
       </c>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
+      <c r="I27" s="8">
+        <v>70</v>
+      </c>
+      <c r="J27" s="8">
+        <v>90</v>
+      </c>
+      <c r="K27" s="8">
+        <v>90</v>
+      </c>
       <c r="L27" s="8"/>
       <c r="M27" s="8"/>
       <c r="N27" s="8"/>
       <c r="O27" s="8"/>
       <c r="P27" s="7">
         <f t="shared" si="0"/>
-        <v>96.666666666666671</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2870,16 +3014,22 @@
       <c r="H28" s="8">
         <v>100</v>
       </c>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
+      <c r="I28" s="8">
+        <v>100</v>
+      </c>
+      <c r="J28" s="8">
+        <v>70</v>
+      </c>
+      <c r="K28" s="8">
+        <v>90</v>
+      </c>
       <c r="L28" s="8"/>
       <c r="M28" s="8"/>
       <c r="N28" s="8"/>
       <c r="O28" s="8"/>
       <c r="P28" s="7">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>88.333333333333329</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2907,16 +3057,22 @@
       <c r="H29" s="8">
         <v>100</v>
       </c>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
+      <c r="I29" s="8">
+        <v>90</v>
+      </c>
+      <c r="J29" s="8">
+        <v>70</v>
+      </c>
+      <c r="K29" s="8">
+        <v>80</v>
+      </c>
       <c r="L29" s="8"/>
       <c r="M29" s="8"/>
       <c r="N29" s="8"/>
       <c r="O29" s="8"/>
       <c r="P29" s="7">
         <f t="shared" si="0"/>
-        <v>93.333333333333329</v>
+        <v>86.666666666666671</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2944,9 +3100,15 @@
       <c r="H30" s="8">
         <v>100</v>
       </c>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
+      <c r="I30" s="8">
+        <v>100</v>
+      </c>
+      <c r="J30" s="8">
+        <v>100</v>
+      </c>
+      <c r="K30" s="8">
+        <v>80</v>
+      </c>
       <c r="L30" s="8"/>
       <c r="M30" s="8"/>
       <c r="N30" s="8"/>
@@ -2981,16 +3143,22 @@
       <c r="H31" s="8">
         <v>100</v>
       </c>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
+      <c r="I31" s="8">
+        <v>100</v>
+      </c>
+      <c r="J31" s="8">
+        <v>100</v>
+      </c>
+      <c r="K31" s="8">
+        <v>100</v>
+      </c>
       <c r="L31" s="8"/>
       <c r="M31" s="8"/>
       <c r="N31" s="8"/>
       <c r="O31" s="8"/>
       <c r="P31" s="7">
         <f t="shared" si="0"/>
-        <v>96.666666666666671</v>
+        <v>98.333333333333329</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -3018,16 +3186,22 @@
       <c r="H32" s="8">
         <v>100</v>
       </c>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
+      <c r="I32" s="8">
+        <v>70</v>
+      </c>
+      <c r="J32" s="8">
+        <v>70</v>
+      </c>
+      <c r="K32" s="8">
+        <v>100</v>
+      </c>
       <c r="L32" s="8"/>
       <c r="M32" s="8"/>
       <c r="N32" s="8"/>
       <c r="O32" s="8"/>
       <c r="P32" s="7">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -3055,9 +3229,15 @@
       <c r="H33" s="8">
         <v>100</v>
       </c>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
+      <c r="I33" s="8">
+        <v>90</v>
+      </c>
+      <c r="J33" s="8">
+        <v>100</v>
+      </c>
+      <c r="K33" s="8">
+        <v>100</v>
+      </c>
       <c r="L33" s="8"/>
       <c r="M33" s="8"/>
       <c r="N33" s="8"/>
@@ -3092,16 +3272,22 @@
       <c r="H34" s="8">
         <v>90</v>
       </c>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
+      <c r="I34" s="8">
+        <v>90</v>
+      </c>
+      <c r="J34" s="8">
+        <v>100</v>
+      </c>
+      <c r="K34" s="8">
+        <v>100</v>
+      </c>
       <c r="L34" s="8"/>
       <c r="M34" s="8"/>
       <c r="N34" s="8"/>
       <c r="O34" s="8"/>
       <c r="P34" s="7">
         <f t="shared" si="0"/>
-        <v>93.333333333333329</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -3129,9 +3315,15 @@
       <c r="H35" s="8">
         <v>100</v>
       </c>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
+      <c r="I35" s="8">
+        <v>100</v>
+      </c>
+      <c r="J35" s="8">
+        <v>70</v>
+      </c>
+      <c r="K35" s="8">
+        <v>100</v>
+      </c>
       <c r="L35" s="8"/>
       <c r="M35" s="8"/>
       <c r="N35" s="8"/>
@@ -3166,16 +3358,22 @@
       <c r="H36" s="8">
         <v>100</v>
       </c>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
+      <c r="I36" s="8">
+        <v>100</v>
+      </c>
+      <c r="J36" s="8">
+        <v>90</v>
+      </c>
+      <c r="K36" s="8">
+        <v>100</v>
+      </c>
       <c r="L36" s="8"/>
       <c r="M36" s="8"/>
       <c r="N36" s="8"/>
       <c r="O36" s="8"/>
       <c r="P36" s="7">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>98.333333333333329</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -3203,16 +3401,22 @@
       <c r="H37" s="8">
         <v>100</v>
       </c>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
+      <c r="I37" s="8">
+        <v>100</v>
+      </c>
+      <c r="J37" s="8">
+        <v>90</v>
+      </c>
+      <c r="K37" s="8">
+        <v>100</v>
+      </c>
       <c r="L37" s="8"/>
       <c r="M37" s="8"/>
       <c r="N37" s="8"/>
       <c r="O37" s="8"/>
       <c r="P37" s="7">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>98.333333333333329</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -3240,9 +3444,15 @@
       <c r="H38" s="8">
         <v>100</v>
       </c>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
+      <c r="I38" s="8">
+        <v>90</v>
+      </c>
+      <c r="J38" s="8">
+        <v>100</v>
+      </c>
+      <c r="K38" s="8">
+        <v>100</v>
+      </c>
       <c r="L38" s="8"/>
       <c r="M38" s="8"/>
       <c r="N38" s="8"/>
@@ -3277,16 +3487,22 @@
       <c r="H39" s="8">
         <v>100</v>
       </c>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
+      <c r="I39" s="8">
+        <v>90</v>
+      </c>
+      <c r="J39" s="8">
+        <v>100</v>
+      </c>
+      <c r="K39" s="8">
+        <v>100</v>
+      </c>
       <c r="L39" s="8"/>
       <c r="M39" s="8"/>
       <c r="N39" s="8"/>
       <c r="O39" s="8"/>
       <c r="P39" s="7">
         <f t="shared" si="0"/>
-        <v>93.333333333333329</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -3314,16 +3530,22 @@
       <c r="H40" s="8">
         <v>100</v>
       </c>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
+      <c r="I40" s="8">
+        <v>100</v>
+      </c>
+      <c r="J40" s="8">
+        <v>100</v>
+      </c>
+      <c r="K40" s="8">
+        <v>80</v>
+      </c>
       <c r="L40" s="8"/>
       <c r="M40" s="8"/>
       <c r="N40" s="8"/>
       <c r="O40" s="8"/>
       <c r="P40" s="7">
         <f t="shared" si="0"/>
-        <v>96.666666666666671</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -3351,9 +3573,15 @@
       <c r="H41" s="8">
         <v>100</v>
       </c>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
+      <c r="I41" s="8">
+        <v>100</v>
+      </c>
+      <c r="J41" s="8">
+        <v>100</v>
+      </c>
+      <c r="K41" s="8">
+        <v>100</v>
+      </c>
       <c r="L41" s="8"/>
       <c r="M41" s="8"/>
       <c r="N41" s="8"/>
@@ -3388,16 +3616,22 @@
       <c r="H42" s="8">
         <v>100</v>
       </c>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
+      <c r="I42" s="8">
+        <v>80</v>
+      </c>
+      <c r="J42" s="8">
+        <v>70</v>
+      </c>
+      <c r="K42" s="8">
+        <v>100</v>
+      </c>
       <c r="L42" s="8"/>
       <c r="M42" s="8"/>
       <c r="N42" s="8"/>
       <c r="O42" s="8"/>
       <c r="P42" s="7">
         <f t="shared" si="0"/>
-        <v>96.666666666666671</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -3425,16 +3659,22 @@
       <c r="H43" s="8">
         <v>100</v>
       </c>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
+      <c r="I43" s="8">
+        <v>100</v>
+      </c>
+      <c r="J43" s="8">
+        <v>80</v>
+      </c>
+      <c r="K43" s="8">
+        <v>100</v>
+      </c>
       <c r="L43" s="8"/>
       <c r="M43" s="8"/>
       <c r="N43" s="8"/>
       <c r="O43" s="8"/>
       <c r="P43" s="7">
         <f t="shared" si="0"/>
-        <v>96.666666666666671</v>
+        <v>95</v>
       </c>
     </row>
     <row r="44" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -3462,16 +3702,22 @@
       <c r="H44" s="8">
         <v>100</v>
       </c>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
+      <c r="I44" s="8">
+        <v>90</v>
+      </c>
+      <c r="J44" s="8">
+        <v>100</v>
+      </c>
+      <c r="K44" s="8">
+        <v>90</v>
+      </c>
       <c r="L44" s="8"/>
       <c r="M44" s="8"/>
       <c r="N44" s="8"/>
       <c r="O44" s="8"/>
       <c r="P44" s="7">
         <f t="shared" si="0"/>
-        <v>96.666666666666671</v>
+        <v>95</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -3499,16 +3745,22 @@
       <c r="H45" s="8">
         <v>100</v>
       </c>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
+      <c r="I45" s="8">
+        <v>100</v>
+      </c>
+      <c r="J45" s="8">
+        <v>70</v>
+      </c>
+      <c r="K45" s="8">
+        <v>100</v>
+      </c>
       <c r="L45" s="8"/>
       <c r="M45" s="8"/>
       <c r="N45" s="8"/>
       <c r="O45" s="8"/>
       <c r="P45" s="7">
         <f t="shared" si="0"/>
-        <v>93.333333333333329</v>
+        <v>91.666666666666671</v>
       </c>
     </row>
     <row r="46" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -3536,16 +3788,22 @@
       <c r="H46" s="8">
         <v>100</v>
       </c>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="8"/>
+      <c r="I46" s="8">
+        <v>100</v>
+      </c>
+      <c r="J46" s="8">
+        <v>70</v>
+      </c>
+      <c r="K46" s="8">
+        <v>100</v>
+      </c>
       <c r="L46" s="8"/>
       <c r="M46" s="8"/>
       <c r="N46" s="8"/>
       <c r="O46" s="8"/>
       <c r="P46" s="7">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="47" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -3573,16 +3831,22 @@
       <c r="H47" s="8">
         <v>100</v>
       </c>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8"/>
+      <c r="I47" s="8">
+        <v>90</v>
+      </c>
+      <c r="J47" s="8">
+        <v>100</v>
+      </c>
+      <c r="K47" s="8">
+        <v>100</v>
+      </c>
       <c r="L47" s="8"/>
       <c r="M47" s="8"/>
       <c r="N47" s="8"/>
       <c r="O47" s="8"/>
       <c r="P47" s="7">
         <f t="shared" si="0"/>
-        <v>93.333333333333329</v>
+        <v>95</v>
       </c>
     </row>
     <row r="48" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -3610,16 +3874,22 @@
       <c r="H48" s="8">
         <v>100</v>
       </c>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="8"/>
+      <c r="I48" s="8">
+        <v>100</v>
+      </c>
+      <c r="J48" s="8">
+        <v>40</v>
+      </c>
+      <c r="K48" s="8">
+        <v>90</v>
+      </c>
       <c r="L48" s="8"/>
       <c r="M48" s="8"/>
       <c r="N48" s="8"/>
       <c r="O48" s="8"/>
       <c r="P48" s="7">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>83.333333333333329</v>
       </c>
     </row>
     <row r="49" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -3647,16 +3917,22 @@
       <c r="H49" s="8">
         <v>100</v>
       </c>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="8"/>
+      <c r="I49" s="8">
+        <v>90</v>
+      </c>
+      <c r="J49" s="8">
+        <v>90</v>
+      </c>
+      <c r="K49" s="8">
+        <v>80</v>
+      </c>
       <c r="L49" s="8"/>
       <c r="M49" s="8"/>
       <c r="N49" s="8"/>
       <c r="O49" s="8"/>
       <c r="P49" s="7">
         <f t="shared" ref="P49:P50" si="1">AVERAGE(F49:O49)</f>
-        <v>100</v>
+        <v>93.333333333333329</v>
       </c>
     </row>
     <row r="50" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -3684,9 +3960,15 @@
       <c r="H50" s="8">
         <v>100</v>
       </c>
-      <c r="I50" s="8"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="8"/>
+      <c r="I50" s="8">
+        <v>100</v>
+      </c>
+      <c r="J50" s="8">
+        <v>100</v>
+      </c>
+      <c r="K50" s="8">
+        <v>90</v>
+      </c>
       <c r="L50" s="8"/>
       <c r="M50" s="8"/>
       <c r="N50" s="8"/>
@@ -3728,8 +4010,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K52" sqref="K52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3836,14 +4118,14 @@
       <c r="H3" s="3">
         <v>44117</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>22</v>
+      <c r="I3" s="3">
+        <v>44124</v>
+      </c>
+      <c r="J3" s="3">
+        <v>44127</v>
+      </c>
+      <c r="K3" s="3">
+        <v>44148</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>22</v>
@@ -3884,16 +4166,22 @@
       <c r="H4" s="8">
         <v>100</v>
       </c>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
+      <c r="I4" s="8">
+        <v>90</v>
+      </c>
+      <c r="J4" s="8">
+        <v>90</v>
+      </c>
+      <c r="K4" s="8">
+        <v>80</v>
+      </c>
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
       <c r="P4" s="7">
         <f t="shared" ref="P4:P50" si="0">AVERAGE(F4:O4)</f>
-        <v>90</v>
+        <v>88.333333333333329</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -3921,16 +4209,22 @@
       <c r="H5" s="8">
         <v>100</v>
       </c>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
+      <c r="I5" s="8">
+        <v>80</v>
+      </c>
+      <c r="J5" s="8">
+        <v>100</v>
+      </c>
+      <c r="K5" s="8">
+        <v>100</v>
+      </c>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
       <c r="P5" s="7">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>96.666666666666671</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -3958,16 +4252,22 @@
       <c r="H6" s="8">
         <v>100</v>
       </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
+      <c r="I6" s="8">
+        <v>100</v>
+      </c>
+      <c r="J6" s="8">
+        <v>90</v>
+      </c>
+      <c r="K6" s="8">
+        <v>80</v>
+      </c>
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
       <c r="P6" s="7">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -3995,9 +4295,15 @@
       <c r="H7" s="8">
         <v>100</v>
       </c>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
+      <c r="I7" s="8">
+        <v>100</v>
+      </c>
+      <c r="J7" s="8">
+        <v>100</v>
+      </c>
+      <c r="K7" s="8">
+        <v>100</v>
+      </c>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
@@ -4032,16 +4338,22 @@
       <c r="H8" s="8">
         <v>100</v>
       </c>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
+      <c r="I8" s="8">
+        <v>80</v>
+      </c>
+      <c r="J8" s="8">
+        <v>100</v>
+      </c>
+      <c r="K8" s="8">
+        <v>100</v>
+      </c>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
       <c r="P8" s="7">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>96.666666666666671</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -4069,16 +4381,22 @@
       <c r="H9" s="8">
         <v>100</v>
       </c>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
+      <c r="I9" s="8">
+        <v>100</v>
+      </c>
+      <c r="J9" s="8">
+        <v>100</v>
+      </c>
+      <c r="K9" s="8">
+        <v>100</v>
+      </c>
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
       <c r="O9" s="8"/>
       <c r="P9" s="7">
         <f t="shared" si="0"/>
-        <v>93.333333333333329</v>
+        <v>96.666666666666671</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -4106,16 +4424,22 @@
       <c r="H10" s="8">
         <v>100</v>
       </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
+      <c r="I10" s="8">
+        <v>100</v>
+      </c>
+      <c r="J10" s="8">
+        <v>90</v>
+      </c>
+      <c r="K10" s="8">
+        <v>100</v>
+      </c>
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
       <c r="O10" s="8"/>
       <c r="P10" s="7">
         <f t="shared" si="0"/>
-        <v>83.333333333333329</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -4143,16 +4467,22 @@
       <c r="H11" s="8">
         <v>100</v>
       </c>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
+      <c r="I11" s="8">
+        <v>80</v>
+      </c>
+      <c r="J11" s="8">
+        <v>100</v>
+      </c>
+      <c r="K11" s="8">
+        <v>100</v>
+      </c>
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
       <c r="O11" s="8"/>
       <c r="P11" s="7">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>96.666666666666671</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -4180,9 +4510,15 @@
       <c r="H12" s="8">
         <v>100</v>
       </c>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
+      <c r="I12" s="8">
+        <v>100</v>
+      </c>
+      <c r="J12" s="8">
+        <v>100</v>
+      </c>
+      <c r="K12" s="8">
+        <v>100</v>
+      </c>
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
@@ -4217,16 +4553,22 @@
       <c r="H13" s="8">
         <v>100</v>
       </c>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
+      <c r="I13" s="8">
+        <v>100</v>
+      </c>
+      <c r="J13" s="8">
+        <v>90</v>
+      </c>
+      <c r="K13" s="8">
+        <v>100</v>
+      </c>
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
       <c r="O13" s="8"/>
       <c r="P13" s="7">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>98.333333333333329</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -4254,16 +4596,22 @@
       <c r="H14" s="8">
         <v>100</v>
       </c>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
+      <c r="I14" s="8">
+        <v>90</v>
+      </c>
+      <c r="J14" s="8">
+        <v>80</v>
+      </c>
+      <c r="K14" s="8">
+        <v>100</v>
+      </c>
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
       <c r="N14" s="8"/>
       <c r="O14" s="8"/>
       <c r="P14" s="7">
         <f t="shared" si="0"/>
-        <v>93.333333333333329</v>
+        <v>91.666666666666671</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -4291,16 +4639,22 @@
       <c r="H15" s="8">
         <v>100</v>
       </c>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
+      <c r="I15" s="8">
+        <v>90</v>
+      </c>
+      <c r="J15" s="8">
+        <v>100</v>
+      </c>
+      <c r="K15" s="8">
+        <v>100</v>
+      </c>
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
       <c r="O15" s="8"/>
       <c r="P15" s="7">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>98.333333333333329</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -4328,9 +4682,15 @@
       <c r="H16" s="8">
         <v>100</v>
       </c>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
+      <c r="I16" s="8">
+        <v>90</v>
+      </c>
+      <c r="J16" s="8">
+        <v>100</v>
+      </c>
+      <c r="K16" s="8">
+        <v>100</v>
+      </c>
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
@@ -4365,9 +4725,15 @@
       <c r="H17" s="8">
         <v>90</v>
       </c>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
+      <c r="I17" s="8">
+        <v>80</v>
+      </c>
+      <c r="J17" s="8">
+        <v>100</v>
+      </c>
+      <c r="K17" s="8">
+        <v>100</v>
+      </c>
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
@@ -4402,16 +4768,22 @@
       <c r="H18" s="8">
         <v>100</v>
       </c>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
+      <c r="I18" s="8">
+        <v>90</v>
+      </c>
+      <c r="J18" s="8">
+        <v>100</v>
+      </c>
+      <c r="K18" s="8">
+        <v>100</v>
+      </c>
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
       <c r="O18" s="8"/>
       <c r="P18" s="7">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>98.333333333333329</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
@@ -4439,9 +4811,15 @@
       <c r="H19" s="8">
         <v>100</v>
       </c>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
+      <c r="I19" s="8">
+        <v>100</v>
+      </c>
+      <c r="J19" s="8">
+        <v>100</v>
+      </c>
+      <c r="K19" s="8">
+        <v>100</v>
+      </c>
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
       <c r="N19" s="8"/>
@@ -4476,16 +4854,22 @@
       <c r="H20" s="8">
         <v>100</v>
       </c>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
+      <c r="I20" s="8">
+        <v>100</v>
+      </c>
+      <c r="J20" s="8">
+        <v>100</v>
+      </c>
+      <c r="K20" s="8">
+        <v>100</v>
+      </c>
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
       <c r="N20" s="8"/>
       <c r="O20" s="8"/>
       <c r="P20" s="7">
         <f t="shared" si="0"/>
-        <v>96.666666666666671</v>
+        <v>98.333333333333329</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
@@ -4513,9 +4897,15 @@
       <c r="H21" s="8">
         <v>100</v>
       </c>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
+      <c r="I21" s="8">
+        <v>90</v>
+      </c>
+      <c r="J21" s="8">
+        <v>100</v>
+      </c>
+      <c r="K21" s="8">
+        <v>100</v>
+      </c>
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
       <c r="N21" s="8"/>
@@ -4550,16 +4940,22 @@
       <c r="H22" s="8">
         <v>100</v>
       </c>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
+      <c r="I22" s="8">
+        <v>70</v>
+      </c>
+      <c r="J22" s="8">
+        <v>90</v>
+      </c>
+      <c r="K22" s="8">
+        <v>90</v>
+      </c>
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
       <c r="N22" s="8"/>
       <c r="O22" s="8"/>
       <c r="P22" s="7">
         <f t="shared" si="0"/>
-        <v>93.333333333333329</v>
+        <v>88.333333333333329</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
@@ -4587,9 +4983,15 @@
       <c r="H23" s="8">
         <v>90</v>
       </c>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
+      <c r="I23" s="8">
+        <v>80</v>
+      </c>
+      <c r="J23" s="8">
+        <v>100</v>
+      </c>
+      <c r="K23" s="8">
+        <v>100</v>
+      </c>
       <c r="L23" s="8"/>
       <c r="M23" s="8"/>
       <c r="N23" s="8"/>
@@ -4624,9 +5026,15 @@
       <c r="H24" s="8">
         <v>100</v>
       </c>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
+      <c r="I24" s="8">
+        <v>100</v>
+      </c>
+      <c r="J24" s="8">
+        <v>100</v>
+      </c>
+      <c r="K24" s="8">
+        <v>100</v>
+      </c>
       <c r="L24" s="8"/>
       <c r="M24" s="8"/>
       <c r="N24" s="8"/>
@@ -4661,16 +5069,22 @@
       <c r="H25" s="8">
         <v>100</v>
       </c>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
+      <c r="I25" s="8">
+        <v>100</v>
+      </c>
+      <c r="J25" s="8">
+        <v>100</v>
+      </c>
+      <c r="K25" s="8">
+        <v>100</v>
+      </c>
       <c r="L25" s="8"/>
       <c r="M25" s="8"/>
       <c r="N25" s="8"/>
       <c r="O25" s="8"/>
       <c r="P25" s="7">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
@@ -4698,16 +5112,22 @@
       <c r="H26" s="8">
         <v>100</v>
       </c>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
+      <c r="I26" s="8">
+        <v>100</v>
+      </c>
+      <c r="J26" s="8">
+        <v>100</v>
+      </c>
+      <c r="K26" s="8">
+        <v>100</v>
+      </c>
       <c r="L26" s="8"/>
       <c r="M26" s="8"/>
       <c r="N26" s="8"/>
       <c r="O26" s="8"/>
       <c r="P26" s="7">
         <f t="shared" si="0"/>
-        <v>93.333333333333329</v>
+        <v>96.666666666666671</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
@@ -4735,16 +5155,22 @@
       <c r="H27" s="8">
         <v>100</v>
       </c>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
+      <c r="I27" s="8">
+        <v>100</v>
+      </c>
+      <c r="J27" s="8">
+        <v>100</v>
+      </c>
+      <c r="K27" s="8">
+        <v>100</v>
+      </c>
       <c r="L27" s="8"/>
       <c r="M27" s="8"/>
       <c r="N27" s="8"/>
       <c r="O27" s="8"/>
       <c r="P27" s="7">
         <f t="shared" si="0"/>
-        <v>96.666666666666671</v>
+        <v>98.333333333333329</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
@@ -4772,16 +5198,22 @@
       <c r="H28" s="8">
         <v>100</v>
       </c>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
+      <c r="I28" s="8">
+        <v>90</v>
+      </c>
+      <c r="J28" s="8">
+        <v>100</v>
+      </c>
+      <c r="K28" s="8">
+        <v>100</v>
+      </c>
       <c r="L28" s="8"/>
       <c r="M28" s="8"/>
       <c r="N28" s="8"/>
       <c r="O28" s="8"/>
       <c r="P28" s="7">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>98.333333333333329</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
@@ -4809,16 +5241,22 @@
       <c r="H29" s="8">
         <v>100</v>
       </c>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
+      <c r="I29" s="8">
+        <v>80</v>
+      </c>
+      <c r="J29" s="8">
+        <v>100</v>
+      </c>
+      <c r="K29" s="8">
+        <v>100</v>
+      </c>
       <c r="L29" s="8"/>
       <c r="M29" s="8"/>
       <c r="N29" s="8"/>
       <c r="O29" s="8"/>
       <c r="P29" s="7">
         <f t="shared" si="0"/>
-        <v>96.666666666666671</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
@@ -4846,16 +5284,22 @@
       <c r="H30" s="8">
         <v>100</v>
       </c>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
+      <c r="I30" s="8">
+        <v>100</v>
+      </c>
+      <c r="J30" s="8">
+        <v>100</v>
+      </c>
+      <c r="K30" s="8">
+        <v>100</v>
+      </c>
       <c r="L30" s="8"/>
       <c r="M30" s="8"/>
       <c r="N30" s="8"/>
       <c r="O30" s="8"/>
       <c r="P30" s="7">
         <f t="shared" si="0"/>
-        <v>93.333333333333329</v>
+        <v>96.666666666666671</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
@@ -4883,16 +5327,22 @@
       <c r="H31" s="8">
         <v>100</v>
       </c>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
+      <c r="I31" s="8">
+        <v>100</v>
+      </c>
+      <c r="J31" s="8">
+        <v>100</v>
+      </c>
+      <c r="K31" s="8">
+        <v>100</v>
+      </c>
       <c r="L31" s="8"/>
       <c r="M31" s="8"/>
       <c r="N31" s="8"/>
       <c r="O31" s="8"/>
       <c r="P31" s="7">
         <f t="shared" si="0"/>
-        <v>93.333333333333329</v>
+        <v>96.666666666666671</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
@@ -4920,16 +5370,22 @@
       <c r="H32" s="8">
         <v>100</v>
       </c>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
+      <c r="I32" s="8">
+        <v>100</v>
+      </c>
+      <c r="J32" s="8">
+        <v>90</v>
+      </c>
+      <c r="K32" s="8">
+        <v>90</v>
+      </c>
       <c r="L32" s="8"/>
       <c r="M32" s="8"/>
       <c r="N32" s="8"/>
       <c r="O32" s="8"/>
       <c r="P32" s="7">
         <f t="shared" si="0"/>
-        <v>76.666666666666671</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
@@ -4957,16 +5413,22 @@
       <c r="H33" s="8">
         <v>100</v>
       </c>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
+      <c r="I33" s="8">
+        <v>100</v>
+      </c>
+      <c r="J33" s="8">
+        <v>90</v>
+      </c>
+      <c r="K33" s="8">
+        <v>100</v>
+      </c>
       <c r="L33" s="8"/>
       <c r="M33" s="8"/>
       <c r="N33" s="8"/>
       <c r="O33" s="8"/>
       <c r="P33" s="7">
         <f t="shared" si="0"/>
-        <v>86.666666666666671</v>
+        <v>91.666666666666671</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
@@ -4994,16 +5456,22 @@
       <c r="H34" s="8">
         <v>100</v>
       </c>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
+      <c r="I34" s="8">
+        <v>90</v>
+      </c>
+      <c r="J34" s="8">
+        <v>100</v>
+      </c>
+      <c r="K34" s="8">
+        <v>100</v>
+      </c>
       <c r="L34" s="8"/>
       <c r="M34" s="8"/>
       <c r="N34" s="8"/>
       <c r="O34" s="8"/>
       <c r="P34" s="7">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>98.333333333333329</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
@@ -5031,16 +5499,22 @@
       <c r="H35" s="8">
         <v>100</v>
       </c>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
+      <c r="I35" s="8">
+        <v>80</v>
+      </c>
+      <c r="J35" s="8">
+        <v>100</v>
+      </c>
+      <c r="K35" s="8">
+        <v>100</v>
+      </c>
       <c r="L35" s="8"/>
       <c r="M35" s="8"/>
       <c r="N35" s="8"/>
       <c r="O35" s="8"/>
       <c r="P35" s="7">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>96.666666666666671</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
@@ -5068,16 +5542,22 @@
       <c r="H36" s="8">
         <v>100</v>
       </c>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
+      <c r="I36" s="8">
+        <v>90</v>
+      </c>
+      <c r="J36" s="8">
+        <v>100</v>
+      </c>
+      <c r="K36" s="8">
+        <v>100</v>
+      </c>
       <c r="L36" s="8"/>
       <c r="M36" s="8"/>
       <c r="N36" s="8"/>
       <c r="O36" s="8"/>
       <c r="P36" s="7">
         <f t="shared" si="0"/>
-        <v>83.333333333333329</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
@@ -5105,16 +5585,22 @@
       <c r="H37" s="8">
         <v>100</v>
       </c>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
+      <c r="I37" s="8">
+        <v>90</v>
+      </c>
+      <c r="J37" s="8">
+        <v>100</v>
+      </c>
+      <c r="K37" s="8">
+        <v>80</v>
+      </c>
       <c r="L37" s="8"/>
       <c r="M37" s="8"/>
       <c r="N37" s="8"/>
       <c r="O37" s="8"/>
       <c r="P37" s="7">
         <f t="shared" si="0"/>
-        <v>96.666666666666671</v>
+        <v>93.333333333333329</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
@@ -5142,16 +5628,22 @@
       <c r="H38" s="8">
         <v>100</v>
       </c>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
+      <c r="I38" s="8">
+        <v>90</v>
+      </c>
+      <c r="J38" s="8">
+        <v>100</v>
+      </c>
+      <c r="K38" s="8">
+        <v>100</v>
+      </c>
       <c r="L38" s="8"/>
       <c r="M38" s="8"/>
       <c r="N38" s="8"/>
       <c r="O38" s="8"/>
       <c r="P38" s="7">
         <f t="shared" si="0"/>
-        <v>93.333333333333329</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
@@ -5179,16 +5671,22 @@
       <c r="H39" s="8">
         <v>100</v>
       </c>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
+      <c r="I39" s="8">
+        <v>100</v>
+      </c>
+      <c r="J39" s="8">
+        <v>90</v>
+      </c>
+      <c r="K39" s="8">
+        <v>100</v>
+      </c>
       <c r="L39" s="8"/>
       <c r="M39" s="8"/>
       <c r="N39" s="8"/>
       <c r="O39" s="8"/>
       <c r="P39" s="7">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>93.333333333333329</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
@@ -5216,9 +5714,15 @@
       <c r="H40" s="8">
         <v>100</v>
       </c>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
+      <c r="I40" s="8">
+        <v>100</v>
+      </c>
+      <c r="J40" s="8">
+        <v>100</v>
+      </c>
+      <c r="K40" s="8">
+        <v>100</v>
+      </c>
       <c r="L40" s="8"/>
       <c r="M40" s="8"/>
       <c r="N40" s="8"/>
@@ -5253,16 +5757,22 @@
       <c r="H41" s="8">
         <v>100</v>
       </c>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
+      <c r="I41" s="8">
+        <v>60</v>
+      </c>
+      <c r="J41" s="8">
+        <v>90</v>
+      </c>
+      <c r="K41" s="8">
+        <v>100</v>
+      </c>
       <c r="L41" s="8"/>
       <c r="M41" s="8"/>
       <c r="N41" s="8"/>
       <c r="O41" s="8"/>
       <c r="P41" s="7">
         <f t="shared" si="0"/>
-        <v>93.333333333333329</v>
+        <v>88.333333333333329</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
@@ -5290,9 +5800,15 @@
       <c r="H42" s="8">
         <v>100</v>
       </c>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
+      <c r="I42" s="8">
+        <v>100</v>
+      </c>
+      <c r="J42" s="8">
+        <v>100</v>
+      </c>
+      <c r="K42" s="8">
+        <v>100</v>
+      </c>
       <c r="L42" s="8"/>
       <c r="M42" s="8"/>
       <c r="N42" s="8"/>
@@ -5327,9 +5843,15 @@
       <c r="H43" s="8">
         <v>100</v>
       </c>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
+      <c r="I43" s="8">
+        <v>100</v>
+      </c>
+      <c r="J43" s="8">
+        <v>100</v>
+      </c>
+      <c r="K43" s="8">
+        <v>100</v>
+      </c>
       <c r="L43" s="8"/>
       <c r="M43" s="8"/>
       <c r="N43" s="8"/>
@@ -5364,9 +5886,15 @@
       <c r="H44" s="8">
         <v>100</v>
       </c>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
+      <c r="I44" s="8">
+        <v>100</v>
+      </c>
+      <c r="J44" s="8">
+        <v>100</v>
+      </c>
+      <c r="K44" s="8">
+        <v>100</v>
+      </c>
       <c r="L44" s="8"/>
       <c r="M44" s="8"/>
       <c r="N44" s="8"/>
@@ -5401,16 +5929,22 @@
       <c r="H45" s="8">
         <v>100</v>
       </c>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
+      <c r="I45" s="8">
+        <v>100</v>
+      </c>
+      <c r="J45" s="8">
+        <v>100</v>
+      </c>
+      <c r="K45" s="8">
+        <v>100</v>
+      </c>
       <c r="L45" s="8"/>
       <c r="M45" s="8"/>
       <c r="N45" s="8"/>
       <c r="O45" s="8"/>
       <c r="P45" s="7">
         <f t="shared" si="0"/>
-        <v>96.666666666666671</v>
+        <v>98.333333333333329</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
@@ -5438,16 +5972,22 @@
       <c r="H46" s="8">
         <v>100</v>
       </c>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="8"/>
+      <c r="I46" s="8">
+        <v>90</v>
+      </c>
+      <c r="J46" s="8">
+        <v>90</v>
+      </c>
+      <c r="K46" s="8">
+        <v>80</v>
+      </c>
       <c r="L46" s="8"/>
       <c r="M46" s="8"/>
       <c r="N46" s="8"/>
       <c r="O46" s="8"/>
       <c r="P46" s="7">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>93.333333333333329</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
@@ -5475,9 +6015,15 @@
       <c r="H47" s="8">
         <v>100</v>
       </c>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8"/>
+      <c r="I47" s="8">
+        <v>100</v>
+      </c>
+      <c r="J47" s="8">
+        <v>100</v>
+      </c>
+      <c r="K47" s="8">
+        <v>100</v>
+      </c>
       <c r="L47" s="8"/>
       <c r="M47" s="8"/>
       <c r="N47" s="8"/>
@@ -5512,9 +6058,15 @@
       <c r="H48" s="8">
         <v>100</v>
       </c>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="8"/>
+      <c r="I48" s="8">
+        <v>90</v>
+      </c>
+      <c r="J48" s="8">
+        <v>100</v>
+      </c>
+      <c r="K48" s="8">
+        <v>100</v>
+      </c>
       <c r="L48" s="8"/>
       <c r="M48" s="8"/>
       <c r="N48" s="8"/>
@@ -5549,9 +6101,15 @@
       <c r="H49" s="8">
         <v>100</v>
       </c>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="8"/>
+      <c r="I49" s="8">
+        <v>90</v>
+      </c>
+      <c r="J49" s="8">
+        <v>100</v>
+      </c>
+      <c r="K49" s="8">
+        <v>100</v>
+      </c>
       <c r="L49" s="8"/>
       <c r="M49" s="8"/>
       <c r="N49" s="8"/>
@@ -5586,9 +6144,15 @@
       <c r="H50" s="8">
         <v>100</v>
       </c>
-      <c r="I50" s="8"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="8"/>
+      <c r="I50" s="8">
+        <v>100</v>
+      </c>
+      <c r="J50" s="8">
+        <v>100</v>
+      </c>
+      <c r="K50" s="8">
+        <v>100</v>
+      </c>
       <c r="L50" s="8"/>
       <c r="M50" s="8"/>
       <c r="N50" s="8"/>
@@ -5623,16 +6187,22 @@
       <c r="H51" s="8">
         <v>100</v>
       </c>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="8"/>
+      <c r="I51" s="8">
+        <v>80</v>
+      </c>
+      <c r="J51" s="8">
+        <v>100</v>
+      </c>
+      <c r="K51" s="8">
+        <v>100</v>
+      </c>
       <c r="L51" s="8"/>
       <c r="M51" s="8"/>
       <c r="N51" s="8"/>
       <c r="O51" s="8"/>
       <c r="P51" s="7">
         <f t="shared" ref="P51" si="1">AVERAGE(F51:O51)</f>
-        <v>96.666666666666671</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/Grade 2018/HomeAssignment/HA_Summary_YC_2018.xlsx
+++ b/Grade 2018/HomeAssignment/HA_Summary_YC_2018.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NIIT\NIIT教案\Sept-2020---Jan-2021\Grade 2018\HomeAssignment\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C3F675-0335-4147-ABA1-78FD3BD8522F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CS1" sheetId="2" r:id="rId1"/>
@@ -24,7 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">NE!$A$2:$P$45</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">SE!$A$2:$P$45</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="392">
   <si>
     <t>No</t>
   </si>
@@ -1221,7 +1215,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="[$-804]d\-mmm"/>
     <numFmt numFmtId="177" formatCode="0.00_);\(0.00\)"/>
@@ -1480,6 +1474,9 @@
     <xf numFmtId="2" fontId="8" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="4" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1552,15 +1549,12 @@
     <xf numFmtId="16" fontId="4" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="常规 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="常规 4" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="常规 2 3" xfId="1"/>
+    <cellStyle name="常规 3" xfId="3"/>
+    <cellStyle name="常规 4" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1830,74 +1824,74 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P50"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="C24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.625" customWidth="1"/>
-    <col min="7" max="8" width="15.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="15.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="15.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" customWidth="1"/>
+    <col min="7" max="8" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="28" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A2" s="23" t="s">
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="30" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -1930,33 +1924,33 @@
       <c r="O2" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="P2" s="23" t="s">
+      <c r="P2" s="24" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="30"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="31"/>
       <c r="F3" s="3">
         <v>44094</v>
       </c>
       <c r="G3" s="3">
         <v>44101</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>22</v>
+      <c r="H3" s="3">
+        <v>44117</v>
+      </c>
+      <c r="I3" s="3">
+        <v>44124</v>
+      </c>
+      <c r="J3" s="3">
+        <v>44127</v>
+      </c>
+      <c r="K3" s="3">
+        <v>44148</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>22</v>
@@ -1970,9 +1964,9 @@
       <c r="O3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P3" s="24"/>
-    </row>
-    <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="P3" s="25"/>
+    </row>
+    <row r="4" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -1994,20 +1988,28 @@
       <c r="G4" s="8">
         <v>70</v>
       </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
+      <c r="H4" s="8">
+        <v>100</v>
+      </c>
+      <c r="I4" s="8">
+        <v>70</v>
+      </c>
+      <c r="J4" s="8">
+        <v>80</v>
+      </c>
+      <c r="K4" s="8">
+        <v>80</v>
+      </c>
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
       <c r="P4" s="7">
         <f t="shared" ref="P4:P48" si="0">AVERAGE(F4:O4)</f>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+        <v>78.333333333333329</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -2029,20 +2031,28 @@
       <c r="G5" s="8">
         <v>100</v>
       </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
+      <c r="H5" s="8">
+        <v>100</v>
+      </c>
+      <c r="I5" s="8">
+        <v>70</v>
+      </c>
+      <c r="J5" s="8">
+        <v>100</v>
+      </c>
+      <c r="K5" s="8">
+        <v>80</v>
+      </c>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
       <c r="P5" s="7">
         <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+        <v>88.333333333333329</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -2064,10 +2074,18 @@
       <c r="G6" s="8">
         <v>90</v>
       </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
+      <c r="H6" s="8">
+        <v>90</v>
+      </c>
+      <c r="I6" s="8">
+        <v>80</v>
+      </c>
+      <c r="J6" s="8">
+        <v>90</v>
+      </c>
+      <c r="K6" s="8">
+        <v>100</v>
+      </c>
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
@@ -2077,7 +2095,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -2099,20 +2117,28 @@
       <c r="G7" s="8">
         <v>100</v>
       </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
+      <c r="H7" s="8">
+        <v>100</v>
+      </c>
+      <c r="I7" s="8">
+        <v>90</v>
+      </c>
+      <c r="J7" s="8">
+        <v>100</v>
+      </c>
+      <c r="K7" s="8">
+        <v>90</v>
+      </c>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
       <c r="P7" s="7">
         <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+        <v>93.333333333333329</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -2134,10 +2160,18 @@
       <c r="G8" s="8">
         <v>100</v>
       </c>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
+      <c r="H8" s="8">
+        <v>100</v>
+      </c>
+      <c r="I8" s="8">
+        <v>100</v>
+      </c>
+      <c r="J8" s="8">
+        <v>100</v>
+      </c>
+      <c r="K8" s="8">
+        <v>100</v>
+      </c>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
@@ -2147,7 +2181,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -2169,20 +2203,28 @@
       <c r="G9" s="8">
         <v>100</v>
       </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
+      <c r="H9" s="8">
+        <v>100</v>
+      </c>
+      <c r="I9" s="8">
+        <v>100</v>
+      </c>
+      <c r="J9" s="8">
+        <v>70</v>
+      </c>
+      <c r="K9" s="8">
+        <v>100</v>
+      </c>
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
       <c r="O9" s="8"/>
       <c r="P9" s="7">
         <f t="shared" si="0"/>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -2204,10 +2246,18 @@
       <c r="G10" s="8">
         <v>90</v>
       </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
+      <c r="H10" s="8">
+        <v>90</v>
+      </c>
+      <c r="I10" s="8">
+        <v>100</v>
+      </c>
+      <c r="J10" s="8">
+        <v>70</v>
+      </c>
+      <c r="K10" s="8">
+        <v>100</v>
+      </c>
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
@@ -2217,7 +2267,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -2239,20 +2289,28 @@
       <c r="G11" s="8">
         <v>90</v>
       </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
+      <c r="H11" s="8">
+        <v>100</v>
+      </c>
+      <c r="I11" s="8">
+        <v>90</v>
+      </c>
+      <c r="J11" s="8">
+        <v>100</v>
+      </c>
+      <c r="K11" s="8">
+        <v>100</v>
+      </c>
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
       <c r="O11" s="8"/>
       <c r="P11" s="7">
         <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -2274,20 +2332,28 @@
       <c r="G12" s="8">
         <v>90</v>
       </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
+      <c r="H12" s="8">
+        <v>100</v>
+      </c>
+      <c r="I12" s="8">
+        <v>90</v>
+      </c>
+      <c r="J12" s="8">
+        <v>80</v>
+      </c>
+      <c r="K12" s="8">
+        <v>90</v>
+      </c>
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
       <c r="O12" s="8"/>
       <c r="P12" s="7">
         <f t="shared" si="0"/>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+        <v>88.333333333333329</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -2309,10 +2375,18 @@
       <c r="G13" s="8">
         <v>90</v>
       </c>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
+      <c r="H13" s="8">
+        <v>100</v>
+      </c>
+      <c r="I13" s="8">
+        <v>100</v>
+      </c>
+      <c r="J13" s="8">
+        <v>100</v>
+      </c>
+      <c r="K13" s="8">
+        <v>80</v>
+      </c>
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
@@ -2322,7 +2396,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -2344,20 +2418,28 @@
       <c r="G14" s="8">
         <v>70</v>
       </c>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
+      <c r="H14" s="8">
+        <v>100</v>
+      </c>
+      <c r="I14" s="8">
+        <v>90</v>
+      </c>
+      <c r="J14" s="8">
+        <v>100</v>
+      </c>
+      <c r="K14" s="8">
+        <v>100</v>
+      </c>
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
       <c r="N14" s="8"/>
       <c r="O14" s="8"/>
       <c r="P14" s="7">
         <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+        <v>91.666666666666671</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -2379,20 +2461,28 @@
       <c r="G15" s="8">
         <v>100</v>
       </c>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
+      <c r="H15" s="8">
+        <v>100</v>
+      </c>
+      <c r="I15" s="8">
+        <v>100</v>
+      </c>
+      <c r="J15" s="8">
+        <v>90</v>
+      </c>
+      <c r="K15" s="8">
+        <v>100</v>
+      </c>
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
       <c r="O15" s="8"/>
       <c r="P15" s="7">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+        <v>98.333333333333329</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -2414,20 +2504,28 @@
       <c r="G16" s="8">
         <v>100</v>
       </c>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
+      <c r="H16" s="8">
+        <v>100</v>
+      </c>
+      <c r="I16" s="8">
+        <v>90</v>
+      </c>
+      <c r="J16" s="8">
+        <v>100</v>
+      </c>
+      <c r="K16" s="8">
+        <v>90</v>
+      </c>
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
       <c r="O16" s="8"/>
       <c r="P16" s="7">
         <f t="shared" si="0"/>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+        <v>91.666666666666671</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -2449,20 +2547,28 @@
       <c r="G17" s="8">
         <v>100</v>
       </c>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
+      <c r="H17" s="8">
+        <v>100</v>
+      </c>
+      <c r="I17" s="8">
+        <v>100</v>
+      </c>
+      <c r="J17" s="8">
+        <v>70</v>
+      </c>
+      <c r="K17" s="8">
+        <v>80</v>
+      </c>
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
       <c r="O17" s="8"/>
       <c r="P17" s="7">
         <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+        <v>88.333333333333329</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -2484,10 +2590,18 @@
       <c r="G18" s="8">
         <v>100</v>
       </c>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
+      <c r="H18" s="8">
+        <v>100</v>
+      </c>
+      <c r="I18" s="8">
+        <v>100</v>
+      </c>
+      <c r="J18" s="8">
+        <v>100</v>
+      </c>
+      <c r="K18" s="8">
+        <v>100</v>
+      </c>
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
@@ -2497,7 +2611,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -2519,20 +2633,28 @@
       <c r="G19" s="8">
         <v>90</v>
       </c>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
+      <c r="H19" s="8">
+        <v>90</v>
+      </c>
+      <c r="I19" s="8">
+        <v>90</v>
+      </c>
+      <c r="J19" s="8">
+        <v>100</v>
+      </c>
+      <c r="K19" s="8">
+        <v>90</v>
+      </c>
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
       <c r="N19" s="8"/>
       <c r="O19" s="8"/>
       <c r="P19" s="7">
         <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+        <v>86.666666666666671</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -2554,20 +2676,28 @@
       <c r="G20" s="8">
         <v>100</v>
       </c>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
+      <c r="H20" s="8">
+        <v>100</v>
+      </c>
+      <c r="I20" s="8">
+        <v>100</v>
+      </c>
+      <c r="J20" s="8">
+        <v>90</v>
+      </c>
+      <c r="K20" s="8">
+        <v>100</v>
+      </c>
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
       <c r="N20" s="8"/>
       <c r="O20" s="8"/>
       <c r="P20" s="7">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+        <v>98.333333333333329</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -2589,10 +2719,18 @@
       <c r="G21" s="8">
         <v>90</v>
       </c>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
+      <c r="H21" s="8">
+        <v>100</v>
+      </c>
+      <c r="I21" s="8">
+        <v>100</v>
+      </c>
+      <c r="J21" s="8">
+        <v>100</v>
+      </c>
+      <c r="K21" s="8">
+        <v>80</v>
+      </c>
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
       <c r="N21" s="8"/>
@@ -2602,7 +2740,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -2624,20 +2762,28 @@
       <c r="G22" s="8">
         <v>90</v>
       </c>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
+      <c r="H22" s="8">
+        <v>100</v>
+      </c>
+      <c r="I22" s="8">
+        <v>90</v>
+      </c>
+      <c r="J22" s="8">
+        <v>100</v>
+      </c>
+      <c r="K22" s="8">
+        <v>90</v>
+      </c>
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
       <c r="N22" s="8"/>
       <c r="O22" s="8"/>
       <c r="P22" s="7">
         <f t="shared" si="0"/>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+        <v>91.666666666666671</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -2659,10 +2805,18 @@
       <c r="G23" s="8">
         <v>90</v>
       </c>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
+      <c r="H23" s="8">
+        <v>100</v>
+      </c>
+      <c r="I23" s="8">
+        <v>100</v>
+      </c>
+      <c r="J23" s="8">
+        <v>100</v>
+      </c>
+      <c r="K23" s="8">
+        <v>80</v>
+      </c>
       <c r="L23" s="8"/>
       <c r="M23" s="8"/>
       <c r="N23" s="8"/>
@@ -2672,7 +2826,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -2694,20 +2848,28 @@
       <c r="G24" s="8">
         <v>100</v>
       </c>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
+      <c r="H24" s="8">
+        <v>80</v>
+      </c>
+      <c r="I24" s="8">
+        <v>90</v>
+      </c>
+      <c r="J24" s="8">
+        <v>100</v>
+      </c>
+      <c r="K24" s="8">
+        <v>90</v>
+      </c>
       <c r="L24" s="8"/>
       <c r="M24" s="8"/>
       <c r="N24" s="8"/>
       <c r="O24" s="8"/>
       <c r="P24" s="7">
         <f t="shared" si="0"/>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+        <v>91.666666666666671</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -2729,10 +2891,18 @@
       <c r="G25" s="8">
         <v>100</v>
       </c>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
+      <c r="H25" s="8">
+        <v>100</v>
+      </c>
+      <c r="I25" s="8">
+        <v>100</v>
+      </c>
+      <c r="J25" s="8">
+        <v>100</v>
+      </c>
+      <c r="K25" s="8">
+        <v>100</v>
+      </c>
       <c r="L25" s="8"/>
       <c r="M25" s="8"/>
       <c r="N25" s="8"/>
@@ -2742,7 +2912,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -2764,10 +2934,18 @@
       <c r="G26" s="8">
         <v>90</v>
       </c>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
+      <c r="H26" s="8">
+        <v>100</v>
+      </c>
+      <c r="I26" s="8">
+        <v>100</v>
+      </c>
+      <c r="J26" s="8">
+        <v>100</v>
+      </c>
+      <c r="K26" s="8">
+        <v>80</v>
+      </c>
       <c r="L26" s="8"/>
       <c r="M26" s="8"/>
       <c r="N26" s="8"/>
@@ -2777,7 +2955,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -2799,20 +2977,28 @@
       <c r="G27" s="8">
         <v>90</v>
       </c>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
+      <c r="H27" s="8">
+        <v>100</v>
+      </c>
+      <c r="I27" s="8">
+        <v>70</v>
+      </c>
+      <c r="J27" s="8">
+        <v>90</v>
+      </c>
+      <c r="K27" s="8">
+        <v>90</v>
+      </c>
       <c r="L27" s="8"/>
       <c r="M27" s="8"/>
       <c r="N27" s="8"/>
       <c r="O27" s="8"/>
       <c r="P27" s="7">
         <f t="shared" si="0"/>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -2834,20 +3020,28 @@
       <c r="G28" s="8">
         <v>90</v>
       </c>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
+      <c r="H28" s="8">
+        <v>100</v>
+      </c>
+      <c r="I28" s="8">
+        <v>100</v>
+      </c>
+      <c r="J28" s="8">
+        <v>70</v>
+      </c>
+      <c r="K28" s="8">
+        <v>90</v>
+      </c>
       <c r="L28" s="8"/>
       <c r="M28" s="8"/>
       <c r="N28" s="8"/>
       <c r="O28" s="8"/>
       <c r="P28" s="7">
         <f t="shared" si="0"/>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+        <v>88.333333333333329</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -2869,20 +3063,28 @@
       <c r="G29" s="8">
         <v>100</v>
       </c>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
+      <c r="H29" s="8">
+        <v>100</v>
+      </c>
+      <c r="I29" s="8">
+        <v>90</v>
+      </c>
+      <c r="J29" s="8">
+        <v>70</v>
+      </c>
+      <c r="K29" s="8">
+        <v>80</v>
+      </c>
       <c r="L29" s="8"/>
       <c r="M29" s="8"/>
       <c r="N29" s="8"/>
       <c r="O29" s="8"/>
       <c r="P29" s="7">
         <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+        <v>86.666666666666671</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -2904,20 +3106,28 @@
       <c r="G30" s="8">
         <v>100</v>
       </c>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
+      <c r="H30" s="8">
+        <v>100</v>
+      </c>
+      <c r="I30" s="8">
+        <v>100</v>
+      </c>
+      <c r="J30" s="8">
+        <v>100</v>
+      </c>
+      <c r="K30" s="8">
+        <v>80</v>
+      </c>
       <c r="L30" s="8"/>
       <c r="M30" s="8"/>
       <c r="N30" s="8"/>
       <c r="O30" s="8"/>
       <c r="P30" s="7">
         <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+        <v>93.333333333333329</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>28</v>
       </c>
@@ -2939,20 +3149,28 @@
       <c r="G31" s="8">
         <v>100</v>
       </c>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
+      <c r="H31" s="8">
+        <v>100</v>
+      </c>
+      <c r="I31" s="8">
+        <v>100</v>
+      </c>
+      <c r="J31" s="8">
+        <v>100</v>
+      </c>
+      <c r="K31" s="8">
+        <v>100</v>
+      </c>
       <c r="L31" s="8"/>
       <c r="M31" s="8"/>
       <c r="N31" s="8"/>
       <c r="O31" s="8"/>
       <c r="P31" s="7">
         <f t="shared" si="0"/>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+        <v>98.333333333333329</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>29</v>
       </c>
@@ -2974,20 +3192,28 @@
       <c r="G32" s="8">
         <v>100</v>
       </c>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
+      <c r="H32" s="8">
+        <v>100</v>
+      </c>
+      <c r="I32" s="8">
+        <v>70</v>
+      </c>
+      <c r="J32" s="8">
+        <v>70</v>
+      </c>
+      <c r="K32" s="8">
+        <v>100</v>
+      </c>
       <c r="L32" s="8"/>
       <c r="M32" s="8"/>
       <c r="N32" s="8"/>
       <c r="O32" s="8"/>
       <c r="P32" s="7">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>30</v>
       </c>
@@ -3009,20 +3235,28 @@
       <c r="G33" s="8">
         <v>100</v>
       </c>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
+      <c r="H33" s="8">
+        <v>100</v>
+      </c>
+      <c r="I33" s="8">
+        <v>90</v>
+      </c>
+      <c r="J33" s="8">
+        <v>100</v>
+      </c>
+      <c r="K33" s="8">
+        <v>100</v>
+      </c>
       <c r="L33" s="8"/>
       <c r="M33" s="8"/>
       <c r="N33" s="8"/>
       <c r="O33" s="8"/>
       <c r="P33" s="7">
         <f t="shared" si="0"/>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+        <v>96.666666666666671</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>31</v>
       </c>
@@ -3044,10 +3278,18 @@
       <c r="G34" s="8">
         <v>100</v>
       </c>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
+      <c r="H34" s="8">
+        <v>90</v>
+      </c>
+      <c r="I34" s="8">
+        <v>90</v>
+      </c>
+      <c r="J34" s="8">
+        <v>100</v>
+      </c>
+      <c r="K34" s="8">
+        <v>100</v>
+      </c>
       <c r="L34" s="8"/>
       <c r="M34" s="8"/>
       <c r="N34" s="8"/>
@@ -3057,7 +3299,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>32</v>
       </c>
@@ -3079,20 +3321,28 @@
       <c r="G35" s="8">
         <v>100</v>
       </c>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
+      <c r="H35" s="8">
+        <v>100</v>
+      </c>
+      <c r="I35" s="8">
+        <v>100</v>
+      </c>
+      <c r="J35" s="8">
+        <v>70</v>
+      </c>
+      <c r="K35" s="8">
+        <v>100</v>
+      </c>
       <c r="L35" s="8"/>
       <c r="M35" s="8"/>
       <c r="N35" s="8"/>
       <c r="O35" s="8"/>
       <c r="P35" s="7">
         <f t="shared" si="0"/>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>33</v>
       </c>
@@ -3114,20 +3364,28 @@
       <c r="G36" s="8">
         <v>100</v>
       </c>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
+      <c r="H36" s="8">
+        <v>100</v>
+      </c>
+      <c r="I36" s="8">
+        <v>100</v>
+      </c>
+      <c r="J36" s="8">
+        <v>90</v>
+      </c>
+      <c r="K36" s="8">
+        <v>100</v>
+      </c>
       <c r="L36" s="8"/>
       <c r="M36" s="8"/>
       <c r="N36" s="8"/>
       <c r="O36" s="8"/>
       <c r="P36" s="7">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+        <v>98.333333333333329</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>34</v>
       </c>
@@ -3149,20 +3407,28 @@
       <c r="G37" s="8">
         <v>100</v>
       </c>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
+      <c r="H37" s="8">
+        <v>100</v>
+      </c>
+      <c r="I37" s="8">
+        <v>100</v>
+      </c>
+      <c r="J37" s="8">
+        <v>90</v>
+      </c>
+      <c r="K37" s="8">
+        <v>100</v>
+      </c>
       <c r="L37" s="8"/>
       <c r="M37" s="8"/>
       <c r="N37" s="8"/>
       <c r="O37" s="8"/>
       <c r="P37" s="7">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+        <v>98.333333333333329</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>35</v>
       </c>
@@ -3184,20 +3450,28 @@
       <c r="G38" s="8">
         <v>100</v>
       </c>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
+      <c r="H38" s="8">
+        <v>100</v>
+      </c>
+      <c r="I38" s="8">
+        <v>90</v>
+      </c>
+      <c r="J38" s="8">
+        <v>100</v>
+      </c>
+      <c r="K38" s="8">
+        <v>100</v>
+      </c>
       <c r="L38" s="8"/>
       <c r="M38" s="8"/>
       <c r="N38" s="8"/>
       <c r="O38" s="8"/>
       <c r="P38" s="7">
         <f t="shared" si="0"/>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+        <v>96.666666666666671</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>36</v>
       </c>
@@ -3219,20 +3493,28 @@
       <c r="G39" s="8">
         <v>90</v>
       </c>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
+      <c r="H39" s="8">
+        <v>100</v>
+      </c>
+      <c r="I39" s="8">
+        <v>90</v>
+      </c>
+      <c r="J39" s="8">
+        <v>100</v>
+      </c>
+      <c r="K39" s="8">
+        <v>100</v>
+      </c>
       <c r="L39" s="8"/>
       <c r="M39" s="8"/>
       <c r="N39" s="8"/>
       <c r="O39" s="8"/>
       <c r="P39" s="7">
         <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>37</v>
       </c>
@@ -3254,10 +3536,18 @@
       <c r="G40" s="8">
         <v>90</v>
       </c>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
+      <c r="H40" s="8">
+        <v>100</v>
+      </c>
+      <c r="I40" s="8">
+        <v>100</v>
+      </c>
+      <c r="J40" s="8">
+        <v>100</v>
+      </c>
+      <c r="K40" s="8">
+        <v>80</v>
+      </c>
       <c r="L40" s="8"/>
       <c r="M40" s="8"/>
       <c r="N40" s="8"/>
@@ -3267,7 +3557,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>38</v>
       </c>
@@ -3289,10 +3579,18 @@
       <c r="G41" s="8">
         <v>100</v>
       </c>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
+      <c r="H41" s="8">
+        <v>100</v>
+      </c>
+      <c r="I41" s="8">
+        <v>100</v>
+      </c>
+      <c r="J41" s="8">
+        <v>100</v>
+      </c>
+      <c r="K41" s="8">
+        <v>100</v>
+      </c>
       <c r="L41" s="8"/>
       <c r="M41" s="8"/>
       <c r="N41" s="8"/>
@@ -3302,7 +3600,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>39</v>
       </c>
@@ -3324,20 +3622,28 @@
       <c r="G42" s="8">
         <v>100</v>
       </c>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
+      <c r="H42" s="8">
+        <v>100</v>
+      </c>
+      <c r="I42" s="8">
+        <v>80</v>
+      </c>
+      <c r="J42" s="8">
+        <v>70</v>
+      </c>
+      <c r="K42" s="8">
+        <v>100</v>
+      </c>
       <c r="L42" s="8"/>
       <c r="M42" s="8"/>
       <c r="N42" s="8"/>
       <c r="O42" s="8"/>
       <c r="P42" s="7">
         <f t="shared" si="0"/>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>40</v>
       </c>
@@ -3359,10 +3665,18 @@
       <c r="G43" s="8">
         <v>100</v>
       </c>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
+      <c r="H43" s="8">
+        <v>100</v>
+      </c>
+      <c r="I43" s="8">
+        <v>100</v>
+      </c>
+      <c r="J43" s="8">
+        <v>80</v>
+      </c>
+      <c r="K43" s="8">
+        <v>100</v>
+      </c>
       <c r="L43" s="8"/>
       <c r="M43" s="8"/>
       <c r="N43" s="8"/>
@@ -3372,7 +3686,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>41</v>
       </c>
@@ -3394,10 +3708,18 @@
       <c r="G44" s="8">
         <v>90</v>
       </c>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
+      <c r="H44" s="8">
+        <v>100</v>
+      </c>
+      <c r="I44" s="8">
+        <v>90</v>
+      </c>
+      <c r="J44" s="8">
+        <v>100</v>
+      </c>
+      <c r="K44" s="8">
+        <v>90</v>
+      </c>
       <c r="L44" s="8"/>
       <c r="M44" s="8"/>
       <c r="N44" s="8"/>
@@ -3407,7 +3729,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>42</v>
       </c>
@@ -3429,20 +3751,28 @@
       <c r="G45" s="8">
         <v>90</v>
       </c>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
+      <c r="H45" s="8">
+        <v>100</v>
+      </c>
+      <c r="I45" s="8">
+        <v>100</v>
+      </c>
+      <c r="J45" s="8">
+        <v>70</v>
+      </c>
+      <c r="K45" s="8">
+        <v>100</v>
+      </c>
       <c r="L45" s="8"/>
       <c r="M45" s="8"/>
       <c r="N45" s="8"/>
       <c r="O45" s="8"/>
       <c r="P45" s="7">
         <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+        <v>91.666666666666671</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>43</v>
       </c>
@@ -3464,20 +3794,28 @@
       <c r="G46" s="8">
         <v>100</v>
       </c>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="8"/>
+      <c r="H46" s="8">
+        <v>100</v>
+      </c>
+      <c r="I46" s="8">
+        <v>100</v>
+      </c>
+      <c r="J46" s="8">
+        <v>70</v>
+      </c>
+      <c r="K46" s="8">
+        <v>100</v>
+      </c>
       <c r="L46" s="8"/>
       <c r="M46" s="8"/>
       <c r="N46" s="8"/>
       <c r="O46" s="8"/>
       <c r="P46" s="7">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>44</v>
       </c>
@@ -3499,20 +3837,28 @@
       <c r="G47" s="8">
         <v>100</v>
       </c>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8"/>
+      <c r="H47" s="8">
+        <v>100</v>
+      </c>
+      <c r="I47" s="8">
+        <v>90</v>
+      </c>
+      <c r="J47" s="8">
+        <v>100</v>
+      </c>
+      <c r="K47" s="8">
+        <v>100</v>
+      </c>
       <c r="L47" s="8"/>
       <c r="M47" s="8"/>
       <c r="N47" s="8"/>
       <c r="O47" s="8"/>
       <c r="P47" s="7">
         <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>45</v>
       </c>
@@ -3534,20 +3880,28 @@
       <c r="G48" s="8">
         <v>80</v>
       </c>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="8"/>
+      <c r="H48" s="8">
+        <v>100</v>
+      </c>
+      <c r="I48" s="8">
+        <v>100</v>
+      </c>
+      <c r="J48" s="8">
+        <v>40</v>
+      </c>
+      <c r="K48" s="8">
+        <v>90</v>
+      </c>
       <c r="L48" s="8"/>
       <c r="M48" s="8"/>
       <c r="N48" s="8"/>
       <c r="O48" s="8"/>
       <c r="P48" s="7">
         <f t="shared" si="0"/>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+        <v>83.333333333333329</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>46</v>
       </c>
@@ -3569,20 +3923,28 @@
       <c r="G49" s="8">
         <v>100</v>
       </c>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="8"/>
+      <c r="H49" s="8">
+        <v>100</v>
+      </c>
+      <c r="I49" s="8">
+        <v>90</v>
+      </c>
+      <c r="J49" s="8">
+        <v>90</v>
+      </c>
+      <c r="K49" s="8">
+        <v>80</v>
+      </c>
       <c r="L49" s="8"/>
       <c r="M49" s="8"/>
       <c r="N49" s="8"/>
       <c r="O49" s="8"/>
       <c r="P49" s="7">
         <f t="shared" ref="P49:P50" si="1">AVERAGE(F49:O49)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+        <v>93.333333333333329</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>47</v>
       </c>
@@ -3604,22 +3966,30 @@
       <c r="G50" s="8">
         <v>90</v>
       </c>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="8"/>
+      <c r="H50" s="8">
+        <v>100</v>
+      </c>
+      <c r="I50" s="8">
+        <v>100</v>
+      </c>
+      <c r="J50" s="8">
+        <v>100</v>
+      </c>
+      <c r="K50" s="8">
+        <v>90</v>
+      </c>
       <c r="L50" s="8"/>
       <c r="M50" s="8"/>
       <c r="N50" s="8"/>
       <c r="O50" s="8"/>
       <c r="P50" s="7">
         <f t="shared" si="1"/>
-        <v>95</v>
+        <v>96.666666666666671</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:P50" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:R44">
+  <autoFilter ref="A2:P50">
+    <sortState ref="A5:R44">
       <sortCondition ref="C2:C3"/>
     </sortState>
   </autoFilter>
@@ -3635,9 +4005,9 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations xWindow="519" yWindow="339" count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Input Score" sqref="N4:O50 K4:K50" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Assignment Number" sqref="F2:O2" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:O3" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Input Score" sqref="N4:O50 K4:K50"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Assignment Number" sqref="F2:O2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:O3"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3645,67 +4015,67 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="15.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="15.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="15.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="28" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A2" s="23" t="s">
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="30" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -3738,33 +4108,33 @@
       <c r="O2" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="P2" s="23" t="s">
+      <c r="P2" s="24" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="30"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="31"/>
       <c r="F3" s="3">
         <v>40441</v>
       </c>
       <c r="G3" s="3">
         <v>44101</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>22</v>
+      <c r="H3" s="3">
+        <v>44117</v>
+      </c>
+      <c r="I3" s="3">
+        <v>44124</v>
+      </c>
+      <c r="J3" s="3">
+        <v>44127</v>
+      </c>
+      <c r="K3" s="3">
+        <v>44148</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>22</v>
@@ -3778,9 +4148,9 @@
       <c r="O3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P3" s="24"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P3" s="25"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -3802,20 +4172,28 @@
       <c r="G4" s="8">
         <v>100</v>
       </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
+      <c r="H4" s="8">
+        <v>100</v>
+      </c>
+      <c r="I4" s="8">
+        <v>90</v>
+      </c>
+      <c r="J4" s="8">
+        <v>90</v>
+      </c>
+      <c r="K4" s="8">
+        <v>80</v>
+      </c>
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
       <c r="P4" s="7">
         <f t="shared" ref="P4:P50" si="0">AVERAGE(F4:O4)</f>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+        <v>88.333333333333329</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -3837,20 +4215,28 @@
       <c r="G5" s="8">
         <v>100</v>
       </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
+      <c r="H5" s="8">
+        <v>100</v>
+      </c>
+      <c r="I5" s="8">
+        <v>80</v>
+      </c>
+      <c r="J5" s="8">
+        <v>100</v>
+      </c>
+      <c r="K5" s="8">
+        <v>100</v>
+      </c>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
       <c r="P5" s="7">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+        <v>96.666666666666671</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -3872,20 +4258,28 @@
       <c r="G6" s="8">
         <v>80</v>
       </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
+      <c r="H6" s="8">
+        <v>100</v>
+      </c>
+      <c r="I6" s="8">
+        <v>100</v>
+      </c>
+      <c r="J6" s="8">
+        <v>90</v>
+      </c>
+      <c r="K6" s="8">
+        <v>80</v>
+      </c>
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
       <c r="P6" s="7">
         <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -3907,10 +4301,18 @@
       <c r="G7" s="8">
         <v>100</v>
       </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
+      <c r="H7" s="8">
+        <v>100</v>
+      </c>
+      <c r="I7" s="8">
+        <v>100</v>
+      </c>
+      <c r="J7" s="8">
+        <v>100</v>
+      </c>
+      <c r="K7" s="8">
+        <v>100</v>
+      </c>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
@@ -3920,7 +4322,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -3942,20 +4344,28 @@
       <c r="G8" s="8">
         <v>100</v>
       </c>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
+      <c r="H8" s="8">
+        <v>100</v>
+      </c>
+      <c r="I8" s="8">
+        <v>80</v>
+      </c>
+      <c r="J8" s="8">
+        <v>100</v>
+      </c>
+      <c r="K8" s="8">
+        <v>100</v>
+      </c>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
       <c r="P8" s="7">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+        <v>96.666666666666671</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -3977,20 +4387,28 @@
       <c r="G9" s="8">
         <v>80</v>
       </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
+      <c r="H9" s="8">
+        <v>100</v>
+      </c>
+      <c r="I9" s="8">
+        <v>100</v>
+      </c>
+      <c r="J9" s="8">
+        <v>100</v>
+      </c>
+      <c r="K9" s="8">
+        <v>100</v>
+      </c>
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
       <c r="O9" s="8"/>
       <c r="P9" s="7">
         <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+        <v>96.666666666666671</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -4012,20 +4430,28 @@
       <c r="G10" s="8">
         <v>90</v>
       </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
+      <c r="H10" s="8">
+        <v>100</v>
+      </c>
+      <c r="I10" s="8">
+        <v>100</v>
+      </c>
+      <c r="J10" s="8">
+        <v>90</v>
+      </c>
+      <c r="K10" s="8">
+        <v>100</v>
+      </c>
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
       <c r="O10" s="8"/>
       <c r="P10" s="7">
         <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -4047,20 +4473,28 @@
       <c r="G11" s="8">
         <v>100</v>
       </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
+      <c r="H11" s="8">
+        <v>100</v>
+      </c>
+      <c r="I11" s="8">
+        <v>80</v>
+      </c>
+      <c r="J11" s="8">
+        <v>100</v>
+      </c>
+      <c r="K11" s="8">
+        <v>100</v>
+      </c>
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
       <c r="O11" s="8"/>
       <c r="P11" s="7">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+        <v>96.666666666666671</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -4082,10 +4516,18 @@
       <c r="G12" s="8">
         <v>100</v>
       </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
+      <c r="H12" s="8">
+        <v>100</v>
+      </c>
+      <c r="I12" s="8">
+        <v>100</v>
+      </c>
+      <c r="J12" s="8">
+        <v>100</v>
+      </c>
+      <c r="K12" s="8">
+        <v>100</v>
+      </c>
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
@@ -4095,7 +4537,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -4117,20 +4559,28 @@
       <c r="G13" s="8">
         <v>100</v>
       </c>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
+      <c r="H13" s="8">
+        <v>100</v>
+      </c>
+      <c r="I13" s="8">
+        <v>100</v>
+      </c>
+      <c r="J13" s="8">
+        <v>90</v>
+      </c>
+      <c r="K13" s="8">
+        <v>100</v>
+      </c>
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
       <c r="O13" s="8"/>
       <c r="P13" s="7">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+        <v>98.333333333333329</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -4152,20 +4602,28 @@
       <c r="G14" s="8">
         <v>80</v>
       </c>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
+      <c r="H14" s="8">
+        <v>100</v>
+      </c>
+      <c r="I14" s="8">
+        <v>90</v>
+      </c>
+      <c r="J14" s="8">
+        <v>80</v>
+      </c>
+      <c r="K14" s="8">
+        <v>100</v>
+      </c>
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
       <c r="N14" s="8"/>
       <c r="O14" s="8"/>
       <c r="P14" s="7">
         <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+        <v>91.666666666666671</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -4187,20 +4645,28 @@
       <c r="G15" s="8">
         <v>100</v>
       </c>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
+      <c r="H15" s="8">
+        <v>100</v>
+      </c>
+      <c r="I15" s="8">
+        <v>90</v>
+      </c>
+      <c r="J15" s="8">
+        <v>100</v>
+      </c>
+      <c r="K15" s="8">
+        <v>100</v>
+      </c>
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
       <c r="O15" s="8"/>
       <c r="P15" s="7">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+        <v>98.333333333333329</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -4222,20 +4688,28 @@
       <c r="G16" s="8">
         <v>100</v>
       </c>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
+      <c r="H16" s="8">
+        <v>100</v>
+      </c>
+      <c r="I16" s="8">
+        <v>90</v>
+      </c>
+      <c r="J16" s="8">
+        <v>100</v>
+      </c>
+      <c r="K16" s="8">
+        <v>100</v>
+      </c>
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
       <c r="O16" s="8"/>
       <c r="P16" s="7">
         <f t="shared" si="0"/>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+        <v>96.666666666666671</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -4257,20 +4731,28 @@
       <c r="G17" s="8">
         <v>90</v>
       </c>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
+      <c r="H17" s="8">
+        <v>90</v>
+      </c>
+      <c r="I17" s="8">
+        <v>80</v>
+      </c>
+      <c r="J17" s="8">
+        <v>100</v>
+      </c>
+      <c r="K17" s="8">
+        <v>100</v>
+      </c>
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
       <c r="O17" s="8"/>
       <c r="P17" s="7">
         <f t="shared" si="0"/>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+        <v>93.333333333333329</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -4292,20 +4774,28 @@
       <c r="G18" s="8">
         <v>100</v>
       </c>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
+      <c r="H18" s="8">
+        <v>100</v>
+      </c>
+      <c r="I18" s="8">
+        <v>90</v>
+      </c>
+      <c r="J18" s="8">
+        <v>100</v>
+      </c>
+      <c r="K18" s="8">
+        <v>100</v>
+      </c>
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
       <c r="O18" s="8"/>
       <c r="P18" s="7">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+        <v>98.333333333333329</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -4327,10 +4817,18 @@
       <c r="G19" s="8">
         <v>100</v>
       </c>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
+      <c r="H19" s="8">
+        <v>100</v>
+      </c>
+      <c r="I19" s="8">
+        <v>100</v>
+      </c>
+      <c r="J19" s="8">
+        <v>100</v>
+      </c>
+      <c r="K19" s="8">
+        <v>100</v>
+      </c>
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
       <c r="N19" s="8"/>
@@ -4340,7 +4838,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -4362,20 +4860,28 @@
       <c r="G20" s="8">
         <v>90</v>
       </c>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
+      <c r="H20" s="8">
+        <v>100</v>
+      </c>
+      <c r="I20" s="8">
+        <v>100</v>
+      </c>
+      <c r="J20" s="8">
+        <v>100</v>
+      </c>
+      <c r="K20" s="8">
+        <v>100</v>
+      </c>
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
       <c r="N20" s="8"/>
       <c r="O20" s="8"/>
       <c r="P20" s="7">
         <f t="shared" si="0"/>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+        <v>98.333333333333329</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -4397,20 +4903,28 @@
       <c r="G21" s="8">
         <v>90</v>
       </c>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
+      <c r="H21" s="8">
+        <v>100</v>
+      </c>
+      <c r="I21" s="8">
+        <v>90</v>
+      </c>
+      <c r="J21" s="8">
+        <v>100</v>
+      </c>
+      <c r="K21" s="8">
+        <v>100</v>
+      </c>
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
       <c r="N21" s="8"/>
       <c r="O21" s="8"/>
       <c r="P21" s="7">
         <f t="shared" si="0"/>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+        <v>96.666666666666671</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -4432,20 +4946,28 @@
       <c r="G22" s="8">
         <v>90</v>
       </c>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
+      <c r="H22" s="8">
+        <v>100</v>
+      </c>
+      <c r="I22" s="8">
+        <v>70</v>
+      </c>
+      <c r="J22" s="8">
+        <v>90</v>
+      </c>
+      <c r="K22" s="8">
+        <v>90</v>
+      </c>
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
       <c r="N22" s="8"/>
       <c r="O22" s="8"/>
       <c r="P22" s="7">
         <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+        <v>88.333333333333329</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -4467,20 +4989,28 @@
       <c r="G23" s="8">
         <v>90</v>
       </c>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
+      <c r="H23" s="8">
+        <v>90</v>
+      </c>
+      <c r="I23" s="8">
+        <v>80</v>
+      </c>
+      <c r="J23" s="8">
+        <v>100</v>
+      </c>
+      <c r="K23" s="8">
+        <v>100</v>
+      </c>
       <c r="L23" s="8"/>
       <c r="M23" s="8"/>
       <c r="N23" s="8"/>
       <c r="O23" s="8"/>
       <c r="P23" s="7">
         <f t="shared" si="0"/>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+        <v>93.333333333333329</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -4502,10 +5032,18 @@
       <c r="G24" s="8">
         <v>100</v>
       </c>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
+      <c r="H24" s="8">
+        <v>100</v>
+      </c>
+      <c r="I24" s="8">
+        <v>100</v>
+      </c>
+      <c r="J24" s="8">
+        <v>100</v>
+      </c>
+      <c r="K24" s="8">
+        <v>100</v>
+      </c>
       <c r="L24" s="8"/>
       <c r="M24" s="8"/>
       <c r="N24" s="8"/>
@@ -4515,7 +5053,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -4537,20 +5075,28 @@
       <c r="G25" s="8">
         <v>80</v>
       </c>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
+      <c r="H25" s="8">
+        <v>100</v>
+      </c>
+      <c r="I25" s="8">
+        <v>100</v>
+      </c>
+      <c r="J25" s="8">
+        <v>100</v>
+      </c>
+      <c r="K25" s="8">
+        <v>100</v>
+      </c>
       <c r="L25" s="8"/>
       <c r="M25" s="8"/>
       <c r="N25" s="8"/>
       <c r="O25" s="8"/>
       <c r="P25" s="7">
         <f t="shared" si="0"/>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -4572,20 +5118,28 @@
       <c r="G26" s="8">
         <v>80</v>
       </c>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
+      <c r="H26" s="8">
+        <v>100</v>
+      </c>
+      <c r="I26" s="8">
+        <v>100</v>
+      </c>
+      <c r="J26" s="8">
+        <v>100</v>
+      </c>
+      <c r="K26" s="8">
+        <v>100</v>
+      </c>
       <c r="L26" s="8"/>
       <c r="M26" s="8"/>
       <c r="N26" s="8"/>
       <c r="O26" s="8"/>
       <c r="P26" s="7">
         <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+        <v>96.666666666666671</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -4607,20 +5161,28 @@
       <c r="G27" s="8">
         <v>90</v>
       </c>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
+      <c r="H27" s="8">
+        <v>100</v>
+      </c>
+      <c r="I27" s="8">
+        <v>100</v>
+      </c>
+      <c r="J27" s="8">
+        <v>100</v>
+      </c>
+      <c r="K27" s="8">
+        <v>100</v>
+      </c>
       <c r="L27" s="8"/>
       <c r="M27" s="8"/>
       <c r="N27" s="8"/>
       <c r="O27" s="8"/>
       <c r="P27" s="7">
         <f t="shared" si="0"/>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+        <v>98.333333333333329</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -4642,20 +5204,28 @@
       <c r="G28" s="8">
         <v>100</v>
       </c>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
+      <c r="H28" s="8">
+        <v>100</v>
+      </c>
+      <c r="I28" s="8">
+        <v>90</v>
+      </c>
+      <c r="J28" s="8">
+        <v>100</v>
+      </c>
+      <c r="K28" s="8">
+        <v>100</v>
+      </c>
       <c r="L28" s="8"/>
       <c r="M28" s="8"/>
       <c r="N28" s="8"/>
       <c r="O28" s="8"/>
       <c r="P28" s="7">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+        <v>98.333333333333329</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -4677,10 +5247,18 @@
       <c r="G29" s="8">
         <v>90</v>
       </c>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
+      <c r="H29" s="8">
+        <v>100</v>
+      </c>
+      <c r="I29" s="8">
+        <v>80</v>
+      </c>
+      <c r="J29" s="8">
+        <v>100</v>
+      </c>
+      <c r="K29" s="8">
+        <v>100</v>
+      </c>
       <c r="L29" s="8"/>
       <c r="M29" s="8"/>
       <c r="N29" s="8"/>
@@ -4690,7 +5268,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -4712,20 +5290,28 @@
       <c r="G30" s="8">
         <v>80</v>
       </c>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
+      <c r="H30" s="8">
+        <v>100</v>
+      </c>
+      <c r="I30" s="8">
+        <v>100</v>
+      </c>
+      <c r="J30" s="8">
+        <v>100</v>
+      </c>
+      <c r="K30" s="8">
+        <v>100</v>
+      </c>
       <c r="L30" s="8"/>
       <c r="M30" s="8"/>
       <c r="N30" s="8"/>
       <c r="O30" s="8"/>
       <c r="P30" s="7">
         <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+        <v>96.666666666666671</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>28</v>
       </c>
@@ -4747,20 +5333,28 @@
       <c r="G31" s="8">
         <v>80</v>
       </c>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
+      <c r="H31" s="8">
+        <v>100</v>
+      </c>
+      <c r="I31" s="8">
+        <v>100</v>
+      </c>
+      <c r="J31" s="8">
+        <v>100</v>
+      </c>
+      <c r="K31" s="8">
+        <v>100</v>
+      </c>
       <c r="L31" s="8"/>
       <c r="M31" s="8"/>
       <c r="N31" s="8"/>
       <c r="O31" s="8"/>
       <c r="P31" s="7">
         <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+        <v>96.666666666666671</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>29</v>
       </c>
@@ -4782,20 +5376,28 @@
       <c r="G32" s="8">
         <v>70</v>
       </c>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
+      <c r="H32" s="8">
+        <v>100</v>
+      </c>
+      <c r="I32" s="8">
+        <v>100</v>
+      </c>
+      <c r="J32" s="8">
+        <v>90</v>
+      </c>
+      <c r="K32" s="8">
+        <v>90</v>
+      </c>
       <c r="L32" s="8"/>
       <c r="M32" s="8"/>
       <c r="N32" s="8"/>
       <c r="O32" s="8"/>
       <c r="P32" s="7">
         <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>30</v>
       </c>
@@ -4817,20 +5419,28 @@
       <c r="G33" s="8">
         <v>90</v>
       </c>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
+      <c r="H33" s="8">
+        <v>100</v>
+      </c>
+      <c r="I33" s="8">
+        <v>100</v>
+      </c>
+      <c r="J33" s="8">
+        <v>90</v>
+      </c>
+      <c r="K33" s="8">
+        <v>100</v>
+      </c>
       <c r="L33" s="8"/>
       <c r="M33" s="8"/>
       <c r="N33" s="8"/>
       <c r="O33" s="8"/>
       <c r="P33" s="7">
         <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+        <v>91.666666666666671</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>31</v>
       </c>
@@ -4852,20 +5462,28 @@
       <c r="G34" s="8">
         <v>100</v>
       </c>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
+      <c r="H34" s="8">
+        <v>100</v>
+      </c>
+      <c r="I34" s="8">
+        <v>90</v>
+      </c>
+      <c r="J34" s="8">
+        <v>100</v>
+      </c>
+      <c r="K34" s="8">
+        <v>100</v>
+      </c>
       <c r="L34" s="8"/>
       <c r="M34" s="8"/>
       <c r="N34" s="8"/>
       <c r="O34" s="8"/>
       <c r="P34" s="7">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+        <v>98.333333333333329</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>32</v>
       </c>
@@ -4887,20 +5505,28 @@
       <c r="G35" s="8">
         <v>100</v>
       </c>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
+      <c r="H35" s="8">
+        <v>100</v>
+      </c>
+      <c r="I35" s="8">
+        <v>80</v>
+      </c>
+      <c r="J35" s="8">
+        <v>100</v>
+      </c>
+      <c r="K35" s="8">
+        <v>100</v>
+      </c>
       <c r="L35" s="8"/>
       <c r="M35" s="8"/>
       <c r="N35" s="8"/>
       <c r="O35" s="8"/>
       <c r="P35" s="7">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+        <v>96.666666666666671</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>33</v>
       </c>
@@ -4922,20 +5548,28 @@
       <c r="G36" s="8">
         <v>100</v>
       </c>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
+      <c r="H36" s="8">
+        <v>100</v>
+      </c>
+      <c r="I36" s="8">
+        <v>90</v>
+      </c>
+      <c r="J36" s="8">
+        <v>100</v>
+      </c>
+      <c r="K36" s="8">
+        <v>100</v>
+      </c>
       <c r="L36" s="8"/>
       <c r="M36" s="8"/>
       <c r="N36" s="8"/>
       <c r="O36" s="8"/>
       <c r="P36" s="7">
         <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>34</v>
       </c>
@@ -4957,20 +5591,28 @@
       <c r="G37" s="8">
         <v>100</v>
       </c>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
+      <c r="H37" s="8">
+        <v>100</v>
+      </c>
+      <c r="I37" s="8">
+        <v>90</v>
+      </c>
+      <c r="J37" s="8">
+        <v>100</v>
+      </c>
+      <c r="K37" s="8">
+        <v>80</v>
+      </c>
       <c r="L37" s="8"/>
       <c r="M37" s="8"/>
       <c r="N37" s="8"/>
       <c r="O37" s="8"/>
       <c r="P37" s="7">
         <f t="shared" si="0"/>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+        <v>93.333333333333329</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>35</v>
       </c>
@@ -4992,20 +5634,28 @@
       <c r="G38" s="8">
         <v>100</v>
       </c>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
+      <c r="H38" s="8">
+        <v>100</v>
+      </c>
+      <c r="I38" s="8">
+        <v>90</v>
+      </c>
+      <c r="J38" s="8">
+        <v>100</v>
+      </c>
+      <c r="K38" s="8">
+        <v>100</v>
+      </c>
       <c r="L38" s="8"/>
       <c r="M38" s="8"/>
       <c r="N38" s="8"/>
       <c r="O38" s="8"/>
       <c r="P38" s="7">
         <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>36</v>
       </c>
@@ -5027,20 +5677,28 @@
       <c r="G39" s="8">
         <v>100</v>
       </c>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
+      <c r="H39" s="8">
+        <v>100</v>
+      </c>
+      <c r="I39" s="8">
+        <v>100</v>
+      </c>
+      <c r="J39" s="8">
+        <v>90</v>
+      </c>
+      <c r="K39" s="8">
+        <v>100</v>
+      </c>
       <c r="L39" s="8"/>
       <c r="M39" s="8"/>
       <c r="N39" s="8"/>
       <c r="O39" s="8"/>
       <c r="P39" s="7">
         <f t="shared" si="0"/>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
+        <v>93.333333333333329</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>37</v>
       </c>
@@ -5062,10 +5720,18 @@
       <c r="G40" s="8">
         <v>100</v>
       </c>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
+      <c r="H40" s="8">
+        <v>100</v>
+      </c>
+      <c r="I40" s="8">
+        <v>100</v>
+      </c>
+      <c r="J40" s="8">
+        <v>100</v>
+      </c>
+      <c r="K40" s="8">
+        <v>100</v>
+      </c>
       <c r="L40" s="8"/>
       <c r="M40" s="8"/>
       <c r="N40" s="8"/>
@@ -5075,7 +5741,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>38</v>
       </c>
@@ -5097,20 +5763,28 @@
       <c r="G41" s="8">
         <v>90</v>
       </c>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
+      <c r="H41" s="8">
+        <v>100</v>
+      </c>
+      <c r="I41" s="8">
+        <v>60</v>
+      </c>
+      <c r="J41" s="8">
+        <v>90</v>
+      </c>
+      <c r="K41" s="8">
+        <v>100</v>
+      </c>
       <c r="L41" s="8"/>
       <c r="M41" s="8"/>
       <c r="N41" s="8"/>
       <c r="O41" s="8"/>
       <c r="P41" s="7">
         <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.15">
+        <v>88.333333333333329</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>39</v>
       </c>
@@ -5132,10 +5806,18 @@
       <c r="G42" s="8">
         <v>100</v>
       </c>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
+      <c r="H42" s="8">
+        <v>100</v>
+      </c>
+      <c r="I42" s="8">
+        <v>100</v>
+      </c>
+      <c r="J42" s="8">
+        <v>100</v>
+      </c>
+      <c r="K42" s="8">
+        <v>100</v>
+      </c>
       <c r="L42" s="8"/>
       <c r="M42" s="8"/>
       <c r="N42" s="8"/>
@@ -5145,7 +5827,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>40</v>
       </c>
@@ -5167,10 +5849,18 @@
       <c r="G43" s="8">
         <v>100</v>
       </c>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
+      <c r="H43" s="8">
+        <v>100</v>
+      </c>
+      <c r="I43" s="8">
+        <v>100</v>
+      </c>
+      <c r="J43" s="8">
+        <v>100</v>
+      </c>
+      <c r="K43" s="8">
+        <v>100</v>
+      </c>
       <c r="L43" s="8"/>
       <c r="M43" s="8"/>
       <c r="N43" s="8"/>
@@ -5180,7 +5870,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>41</v>
       </c>
@@ -5202,10 +5892,18 @@
       <c r="G44" s="8">
         <v>100</v>
       </c>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
+      <c r="H44" s="8">
+        <v>100</v>
+      </c>
+      <c r="I44" s="8">
+        <v>100</v>
+      </c>
+      <c r="J44" s="8">
+        <v>100</v>
+      </c>
+      <c r="K44" s="8">
+        <v>100</v>
+      </c>
       <c r="L44" s="8"/>
       <c r="M44" s="8"/>
       <c r="N44" s="8"/>
@@ -5215,7 +5913,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>42</v>
       </c>
@@ -5237,20 +5935,28 @@
       <c r="G45" s="8">
         <v>100</v>
       </c>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
+      <c r="H45" s="8">
+        <v>100</v>
+      </c>
+      <c r="I45" s="8">
+        <v>100</v>
+      </c>
+      <c r="J45" s="8">
+        <v>100</v>
+      </c>
+      <c r="K45" s="8">
+        <v>100</v>
+      </c>
       <c r="L45" s="8"/>
       <c r="M45" s="8"/>
       <c r="N45" s="8"/>
       <c r="O45" s="8"/>
       <c r="P45" s="7">
         <f t="shared" si="0"/>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.15">
+        <v>98.333333333333329</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>43</v>
       </c>
@@ -5272,20 +5978,28 @@
       <c r="G46" s="8">
         <v>100</v>
       </c>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="8"/>
+      <c r="H46" s="8">
+        <v>100</v>
+      </c>
+      <c r="I46" s="8">
+        <v>90</v>
+      </c>
+      <c r="J46" s="8">
+        <v>90</v>
+      </c>
+      <c r="K46" s="8">
+        <v>80</v>
+      </c>
       <c r="L46" s="8"/>
       <c r="M46" s="8"/>
       <c r="N46" s="8"/>
       <c r="O46" s="8"/>
       <c r="P46" s="7">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.15">
+        <v>93.333333333333329</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>44</v>
       </c>
@@ -5307,10 +6021,18 @@
       <c r="G47" s="8">
         <v>100</v>
       </c>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8"/>
+      <c r="H47" s="8">
+        <v>100</v>
+      </c>
+      <c r="I47" s="8">
+        <v>100</v>
+      </c>
+      <c r="J47" s="8">
+        <v>100</v>
+      </c>
+      <c r="K47" s="8">
+        <v>100</v>
+      </c>
       <c r="L47" s="8"/>
       <c r="M47" s="8"/>
       <c r="N47" s="8"/>
@@ -5320,7 +6042,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>45</v>
       </c>
@@ -5342,20 +6064,28 @@
       <c r="G48" s="8">
         <v>100</v>
       </c>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="8"/>
+      <c r="H48" s="8">
+        <v>100</v>
+      </c>
+      <c r="I48" s="8">
+        <v>90</v>
+      </c>
+      <c r="J48" s="8">
+        <v>100</v>
+      </c>
+      <c r="K48" s="8">
+        <v>100</v>
+      </c>
       <c r="L48" s="8"/>
       <c r="M48" s="8"/>
       <c r="N48" s="8"/>
       <c r="O48" s="8"/>
       <c r="P48" s="7">
         <f t="shared" si="0"/>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.15">
+        <v>96.666666666666671</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>46</v>
       </c>
@@ -5377,20 +6107,28 @@
       <c r="G49" s="8">
         <v>100</v>
       </c>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="8"/>
+      <c r="H49" s="8">
+        <v>100</v>
+      </c>
+      <c r="I49" s="8">
+        <v>90</v>
+      </c>
+      <c r="J49" s="8">
+        <v>100</v>
+      </c>
+      <c r="K49" s="8">
+        <v>100</v>
+      </c>
       <c r="L49" s="8"/>
       <c r="M49" s="8"/>
       <c r="N49" s="8"/>
       <c r="O49" s="8"/>
       <c r="P49" s="7">
         <f t="shared" si="0"/>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.15">
+        <v>96.666666666666671</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>47</v>
       </c>
@@ -5412,10 +6150,18 @@
       <c r="G50" s="8">
         <v>100</v>
       </c>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="8"/>
+      <c r="H50" s="8">
+        <v>100</v>
+      </c>
+      <c r="I50" s="8">
+        <v>100</v>
+      </c>
+      <c r="J50" s="8">
+        <v>100</v>
+      </c>
+      <c r="K50" s="8">
+        <v>100</v>
+      </c>
       <c r="L50" s="8"/>
       <c r="M50" s="8"/>
       <c r="N50" s="8"/>
@@ -5425,7 +6171,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>48</v>
       </c>
@@ -5447,10 +6193,18 @@
       <c r="G51" s="8">
         <v>100</v>
       </c>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="8"/>
+      <c r="H51" s="8">
+        <v>100</v>
+      </c>
+      <c r="I51" s="8">
+        <v>80</v>
+      </c>
+      <c r="J51" s="8">
+        <v>100</v>
+      </c>
+      <c r="K51" s="8">
+        <v>100</v>
+      </c>
       <c r="L51" s="8"/>
       <c r="M51" s="8"/>
       <c r="N51" s="8"/>
@@ -5461,8 +6215,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:P51" xr:uid="{00000000-0009-0000-0000-000001000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:R44">
+  <autoFilter ref="A2:P51">
+    <sortState ref="A5:R44">
       <sortCondition ref="C2:C3"/>
     </sortState>
   </autoFilter>
@@ -5478,9 +6232,9 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations xWindow="1225" yWindow="391" count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Input Score" sqref="F4:O51" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:O3" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Assignment Number" sqref="F2:O2" xr:uid="{00000000-0002-0000-0100-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Input Score" sqref="F4:O51"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:O3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Assignment Number" sqref="F2:O2"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5488,7 +6242,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:P51"/>
   <sheetViews>
@@ -5496,58 +6250,58 @@
       <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="11.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="11.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="11.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="11.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="32" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A2" s="33" t="s">
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="38" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="16" t="s">
@@ -5580,16 +6334,16 @@
       <c r="O2" s="16" t="s">
         <v>362</v>
       </c>
-      <c r="P2" s="33" t="s">
+      <c r="P2" s="34" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A3" s="34"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="38"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="39"/>
       <c r="F3" s="17">
         <v>44095</v>
       </c>
@@ -5620,9 +6374,9 @@
       <c r="O3" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="P3" s="34"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P3" s="35"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="18">
         <v>1</v>
       </c>
@@ -5661,7 +6415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="18">
         <v>2</v>
       </c>
@@ -5700,7 +6454,7 @@
         <v>71.25</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="18">
         <v>3</v>
       </c>
@@ -5739,7 +6493,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="18">
         <v>4</v>
       </c>
@@ -5778,7 +6532,7 @@
         <v>98.75</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="18">
         <v>5</v>
       </c>
@@ -5817,7 +6571,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="18">
         <v>6</v>
       </c>
@@ -5856,7 +6610,7 @@
         <v>76.25</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="18">
         <v>7</v>
       </c>
@@ -5895,7 +6649,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="18">
         <v>8</v>
       </c>
@@ -5934,7 +6688,7 @@
         <v>91.25</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="18">
         <v>9</v>
       </c>
@@ -5973,7 +6727,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="18">
         <v>10</v>
       </c>
@@ -6012,7 +6766,7 @@
         <v>86.25</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="18">
         <v>11</v>
       </c>
@@ -6051,7 +6805,7 @@
         <v>67.5</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="18">
         <v>12</v>
       </c>
@@ -6090,7 +6844,7 @@
         <v>96.25</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="18">
         <v>13</v>
       </c>
@@ -6129,7 +6883,7 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="18">
         <v>14</v>
       </c>
@@ -6168,7 +6922,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="18">
         <v>15</v>
       </c>
@@ -6207,7 +6961,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="18">
         <v>16</v>
       </c>
@@ -6246,7 +7000,7 @@
         <v>98.75</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="18">
         <v>17</v>
       </c>
@@ -6285,7 +7039,7 @@
         <v>93.75</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="18">
         <v>18</v>
       </c>
@@ -6324,7 +7078,7 @@
         <v>78.75</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="18">
         <v>19</v>
       </c>
@@ -6363,7 +7117,7 @@
         <v>87.5</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="18">
         <v>20</v>
       </c>
@@ -6402,7 +7156,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="18">
         <v>21</v>
       </c>
@@ -6441,7 +7195,7 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="18">
         <v>22</v>
       </c>
@@ -6480,7 +7234,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="18">
         <v>23</v>
       </c>
@@ -6519,7 +7273,7 @@
         <v>66.25</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="18">
         <v>24</v>
       </c>
@@ -6558,7 +7312,7 @@
         <v>98.75</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="18">
         <v>25</v>
       </c>
@@ -6597,7 +7351,7 @@
         <v>98.75</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="18">
         <v>26</v>
       </c>
@@ -6636,7 +7390,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="18">
         <v>27</v>
       </c>
@@ -6675,7 +7429,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="18">
         <v>28</v>
       </c>
@@ -6714,7 +7468,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="18">
         <v>29</v>
       </c>
@@ -6753,7 +7507,7 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="18">
         <v>30</v>
       </c>
@@ -6792,7 +7546,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="18">
         <v>31</v>
       </c>
@@ -6831,7 +7585,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="18">
         <v>32</v>
       </c>
@@ -6870,7 +7624,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="18">
         <v>33</v>
       </c>
@@ -6909,7 +7663,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="18">
         <v>34</v>
       </c>
@@ -6948,7 +7702,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="18">
         <v>35</v>
       </c>
@@ -6987,7 +7741,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="18">
         <v>36</v>
       </c>
@@ -7026,7 +7780,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="18">
         <v>37</v>
       </c>
@@ -7065,7 +7819,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="18">
         <v>38</v>
       </c>
@@ -7104,7 +7858,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="18">
         <v>39</v>
       </c>
@@ -7143,7 +7897,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="18">
         <v>40</v>
       </c>
@@ -7182,7 +7936,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="18">
         <v>41</v>
       </c>
@@ -7221,7 +7975,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="18">
         <v>42</v>
       </c>
@@ -7260,7 +8014,7 @@
         <v>96.25</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="18">
         <v>43</v>
       </c>
@@ -7299,7 +8053,7 @@
         <v>67.5</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="18">
         <v>44</v>
       </c>
@@ -7338,7 +8092,7 @@
         <v>82.5</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="18">
         <v>45</v>
       </c>
@@ -7377,7 +8131,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="18">
         <v>46</v>
       </c>
@@ -7416,7 +8170,7 @@
         <v>86.25</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="18">
         <v>47</v>
       </c>
@@ -7455,7 +8209,7 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="18">
         <v>48</v>
       </c>
@@ -7495,8 +8249,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:P45" xr:uid="{00000000-0009-0000-0000-000002000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:R44">
+  <autoFilter ref="A2:P45">
+    <sortState ref="A5:R44">
       <sortCondition ref="C2:C3"/>
     </sortState>
   </autoFilter>
@@ -7512,9 +8266,9 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:O3" xr:uid="{00000000-0002-0000-0200-000001000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Assignment Number" sqref="F2:O2" xr:uid="{00000000-0002-0000-0200-000002000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Input Score" sqref="F4:O51" xr:uid="{00000000-0002-0000-0200-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:O3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Assignment Number" sqref="F2:O2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Input Score" sqref="F4:O51"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7522,7 +8276,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:P51"/>
   <sheetViews>
@@ -7530,61 +8284,61 @@
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="9.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.875" style="4" customWidth="1"/>
-    <col min="13" max="14" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.88671875" style="4" customWidth="1"/>
+    <col min="13" max="14" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.88671875" style="4" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="25" style="4" customWidth="1"/>
-    <col min="27" max="27" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="40" t="s">
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A2" s="41" t="s">
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="E2" s="46" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="12" t="s">
@@ -7617,16 +8371,16 @@
       <c r="O2" s="12" t="s">
         <v>362</v>
       </c>
-      <c r="P2" s="41" t="s">
+      <c r="P2" s="42" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A3" s="42"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="46"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="43"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="47"/>
       <c r="F3" s="9">
         <v>45191</v>
       </c>
@@ -7657,9 +8411,9 @@
       <c r="O3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="P3" s="42"/>
-    </row>
-    <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="P3" s="43"/>
+    </row>
+    <row r="4" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -7698,7 +8452,7 @@
         <v>98.75</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -7737,7 +8491,7 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -7776,7 +8530,7 @@
         <v>92.5</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -7801,7 +8555,7 @@
       <c r="H7" s="15">
         <v>100</v>
       </c>
-      <c r="I7" s="47">
+      <c r="I7" s="23">
         <v>0</v>
       </c>
       <c r="J7" s="15"/>
@@ -7815,7 +8569,7 @@
         <v>72.5</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -7840,7 +8594,7 @@
       <c r="H8" s="15">
         <v>60</v>
       </c>
-      <c r="I8" s="47">
+      <c r="I8" s="23">
         <v>0</v>
       </c>
       <c r="J8" s="15"/>
@@ -7854,7 +8608,7 @@
         <v>58.75</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -7893,7 +8647,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -7932,7 +8686,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -7971,7 +8725,7 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -8010,7 +8764,7 @@
         <v>96.25</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -8049,7 +8803,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -8088,7 +8842,7 @@
         <v>98.75</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -8127,7 +8881,7 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -8166,7 +8920,7 @@
         <v>77.5</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -8205,7 +8959,7 @@
         <v>91.25</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -8244,7 +8998,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -8283,7 +9037,7 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -8322,7 +9076,7 @@
         <v>98.75</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -8347,7 +9101,7 @@
       <c r="H21" s="15">
         <v>100</v>
       </c>
-      <c r="I21" s="47">
+      <c r="I21" s="23">
         <v>0</v>
       </c>
       <c r="J21" s="15"/>
@@ -8361,7 +9115,7 @@
         <v>72.5</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -8400,7 +9154,7 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -8439,7 +9193,7 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -8464,7 +9218,7 @@
       <c r="H24" s="15">
         <v>60</v>
       </c>
-      <c r="I24" s="47">
+      <c r="I24" s="23">
         <v>0</v>
       </c>
       <c r="J24" s="15"/>
@@ -8478,7 +9232,7 @@
         <v>62.5</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -8517,7 +9271,7 @@
         <v>98.75</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -8556,7 +9310,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -8595,7 +9349,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -8634,7 +9388,7 @@
         <v>98.75</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -8673,7 +9427,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -8712,7 +9466,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>28</v>
       </c>
@@ -8751,7 +9505,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>29</v>
       </c>
@@ -8790,7 +9544,7 @@
         <v>97.25</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>30</v>
       </c>
@@ -8829,7 +9583,7 @@
         <v>92.5</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>31</v>
       </c>
@@ -8868,7 +9622,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>32</v>
       </c>
@@ -8893,7 +9647,7 @@
       <c r="H35" s="15">
         <v>100</v>
       </c>
-      <c r="I35" s="47">
+      <c r="I35" s="23">
         <v>0</v>
       </c>
       <c r="J35" s="15"/>
@@ -8907,7 +9661,7 @@
         <v>71.25</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>33</v>
       </c>
@@ -8946,7 +9700,7 @@
         <v>71.25</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>34</v>
       </c>
@@ -8985,7 +9739,7 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>35</v>
       </c>
@@ -9010,7 +9764,7 @@
       <c r="H38" s="15">
         <v>100</v>
       </c>
-      <c r="I38" s="47">
+      <c r="I38" s="23">
         <v>0</v>
       </c>
       <c r="J38" s="15"/>
@@ -9024,7 +9778,7 @@
         <v>62.5</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>36</v>
       </c>
@@ -9063,7 +9817,7 @@
         <v>91.25</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>37</v>
       </c>
@@ -9088,7 +9842,7 @@
       <c r="H40" s="15">
         <v>100</v>
       </c>
-      <c r="I40" s="47">
+      <c r="I40" s="23">
         <v>0</v>
       </c>
       <c r="J40" s="15"/>
@@ -9102,7 +9856,7 @@
         <v>68.75</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>38</v>
       </c>
@@ -9141,7 +9895,7 @@
         <v>96.25</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>39</v>
       </c>
@@ -9180,7 +9934,7 @@
         <v>98.75</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>40</v>
       </c>
@@ -9205,7 +9959,7 @@
       <c r="H43" s="15">
         <v>100</v>
       </c>
-      <c r="I43" s="47">
+      <c r="I43" s="23">
         <v>0</v>
       </c>
       <c r="J43" s="15"/>
@@ -9219,7 +9973,7 @@
         <v>72.5</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>41</v>
       </c>
@@ -9258,7 +10012,7 @@
         <v>98.75</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>42</v>
       </c>
@@ -9297,7 +10051,7 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>43</v>
       </c>
@@ -9336,7 +10090,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>44</v>
       </c>
@@ -9361,7 +10115,7 @@
       <c r="H47" s="15">
         <v>100</v>
       </c>
-      <c r="I47" s="47">
+      <c r="I47" s="23">
         <v>0</v>
       </c>
       <c r="J47" s="15"/>
@@ -9375,7 +10129,7 @@
         <v>72.5</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>45</v>
       </c>
@@ -9414,7 +10168,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>46</v>
       </c>
@@ -9453,7 +10207,7 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>47</v>
       </c>
@@ -9492,7 +10246,7 @@
         <v>96.25</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>48</v>
       </c>
@@ -9532,8 +10286,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:P45" xr:uid="{00000000-0009-0000-0000-000003000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:T44">
+  <autoFilter ref="A2:P45">
+    <sortState ref="A5:T44">
       <sortCondition ref="C2:C3"/>
     </sortState>
   </autoFilter>
@@ -9549,9 +10303,9 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Assignment Number" sqref="F2:O2" xr:uid="{00000000-0002-0000-0300-000000000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:O3" xr:uid="{00000000-0002-0000-0300-000001000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Input Score" sqref="F4:O51" xr:uid="{00000000-0002-0000-0300-000002000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Assignment Number" sqref="F2:O2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:O3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Input Score" sqref="F4:O51">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/Grade 2018/HomeAssignment/HA_Summary_YC_2018.xlsx
+++ b/Grade 2018/HomeAssignment/HA_Summary_YC_2018.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NIIT\NIIT教案\Sept-2020---Jan-2021\Grade 2018\HomeAssignment\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F08914DA-2B17-4488-9530-9F4BBA23CBB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CS1" sheetId="2" r:id="rId1"/>
@@ -18,7 +24,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">NE!$A$2:$P$45</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">SE!$A$2:$P$45</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1215,7 +1221,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="[$-804]d\-mmm"/>
     <numFmt numFmtId="177" formatCode="0.00_);\(0.00\)"/>
@@ -1408,7 +1414,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1472,9 +1478,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="8" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1552,9 +1555,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2 3" xfId="1"/>
-    <cellStyle name="常规 3" xfId="3"/>
-    <cellStyle name="常规 4" xfId="2"/>
+    <cellStyle name="常规 2 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="常规 4" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1824,14 +1827,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P50"/>
   <sheetViews>
@@ -1839,59 +1842,59 @@
       <selection activeCell="C24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" customWidth="1"/>
-    <col min="7" max="8" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.625" customWidth="1"/>
+    <col min="7" max="8" width="15.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="15.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="15.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A1" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="29" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="29" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -1924,16 +1927,16 @@
       <c r="O2" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="P2" s="24" t="s">
+      <c r="P2" s="23" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="31"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="30"/>
       <c r="F3" s="3">
         <v>44094</v>
       </c>
@@ -1964,9 +1967,9 @@
       <c r="O3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P3" s="25"/>
-    </row>
-    <row r="4" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="P3" s="24"/>
+    </row>
+    <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -2009,7 +2012,7 @@
         <v>78.333333333333329</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -2052,7 +2055,7 @@
         <v>88.333333333333329</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -2095,7 +2098,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -2138,7 +2141,7 @@
         <v>93.333333333333329</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -2181,7 +2184,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -2224,7 +2227,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -2267,7 +2270,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -2310,7 +2313,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -2353,7 +2356,7 @@
         <v>88.333333333333329</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -2396,7 +2399,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -2439,7 +2442,7 @@
         <v>91.666666666666671</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -2482,7 +2485,7 @@
         <v>98.333333333333329</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -2525,7 +2528,7 @@
         <v>91.666666666666671</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -2568,7 +2571,7 @@
         <v>88.333333333333329</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -2611,7 +2614,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -2654,7 +2657,7 @@
         <v>86.666666666666671</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -2697,7 +2700,7 @@
         <v>98.333333333333329</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -2740,7 +2743,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -2783,7 +2786,7 @@
         <v>91.666666666666671</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -2826,7 +2829,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -2869,7 +2872,7 @@
         <v>91.666666666666671</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -2912,7 +2915,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -2955,7 +2958,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -2998,7 +3001,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -3041,7 +3044,7 @@
         <v>88.333333333333329</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -3084,7 +3087,7 @@
         <v>86.666666666666671</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -3127,7 +3130,7 @@
         <v>93.333333333333329</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>28</v>
       </c>
@@ -3170,7 +3173,7 @@
         <v>98.333333333333329</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>29</v>
       </c>
@@ -3213,7 +3216,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>30</v>
       </c>
@@ -3256,7 +3259,7 @@
         <v>96.666666666666671</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
         <v>31</v>
       </c>
@@ -3299,7 +3302,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
         <v>32</v>
       </c>
@@ -3342,7 +3345,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
         <v>33</v>
       </c>
@@ -3385,7 +3388,7 @@
         <v>98.333333333333329</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
         <v>34</v>
       </c>
@@ -3428,7 +3431,7 @@
         <v>98.333333333333329</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
         <v>35</v>
       </c>
@@ -3471,7 +3474,7 @@
         <v>96.666666666666671</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
         <v>36</v>
       </c>
@@ -3514,7 +3517,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
         <v>37</v>
       </c>
@@ -3557,7 +3560,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
         <v>38</v>
       </c>
@@ -3600,7 +3603,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A42" s="2">
         <v>39</v>
       </c>
@@ -3643,7 +3646,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
         <v>40</v>
       </c>
@@ -3686,7 +3689,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A44" s="2">
         <v>41</v>
       </c>
@@ -3729,7 +3732,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
         <v>42</v>
       </c>
@@ -3772,7 +3775,7 @@
         <v>91.666666666666671</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A46" s="2">
         <v>43</v>
       </c>
@@ -3815,7 +3818,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
         <v>44</v>
       </c>
@@ -3858,7 +3861,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A48" s="2">
         <v>45</v>
       </c>
@@ -3901,7 +3904,7 @@
         <v>83.333333333333329</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
         <v>46</v>
       </c>
@@ -3944,7 +3947,7 @@
         <v>93.333333333333329</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A50" s="2">
         <v>47</v>
       </c>
@@ -3988,8 +3991,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:P50">
-    <sortState ref="A5:R44">
+  <autoFilter ref="A2:P50" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:R44">
       <sortCondition ref="C2:C3"/>
     </sortState>
   </autoFilter>
@@ -4005,9 +4008,9 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations xWindow="519" yWindow="339" count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Input Score" sqref="N4:O50 K4:K50"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Assignment Number" sqref="F2:O2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:O3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Input Score" sqref="N4:O50 K4:K50" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Assignment Number" sqref="F2:O2" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:O3" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4015,7 +4018,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:P51"/>
   <sheetViews>
@@ -4023,59 +4026,59 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="15.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="15.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="15.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A1" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="29" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="29" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -4108,16 +4111,16 @@
       <c r="O2" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="P2" s="24" t="s">
+      <c r="P2" s="23" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="31"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="30"/>
       <c r="F3" s="3">
         <v>40441</v>
       </c>
@@ -4148,9 +4151,9 @@
       <c r="O3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P3" s="25"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P3" s="24"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -4193,7 +4196,7 @@
         <v>88.333333333333329</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -4236,7 +4239,7 @@
         <v>96.666666666666671</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -4279,7 +4282,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -4322,7 +4325,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -4365,7 +4368,7 @@
         <v>96.666666666666671</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -4408,7 +4411,7 @@
         <v>96.666666666666671</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -4451,7 +4454,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -4494,7 +4497,7 @@
         <v>96.666666666666671</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -4537,7 +4540,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -4580,7 +4583,7 @@
         <v>98.333333333333329</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -4623,7 +4626,7 @@
         <v>91.666666666666671</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -4666,7 +4669,7 @@
         <v>98.333333333333329</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -4709,7 +4712,7 @@
         <v>96.666666666666671</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -4752,7 +4755,7 @@
         <v>93.333333333333329</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -4795,7 +4798,7 @@
         <v>98.333333333333329</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -4838,7 +4841,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -4881,7 +4884,7 @@
         <v>98.333333333333329</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -4924,7 +4927,7 @@
         <v>96.666666666666671</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -4967,7 +4970,7 @@
         <v>88.333333333333329</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -5010,7 +5013,7 @@
         <v>93.333333333333329</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -5053,7 +5056,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -5096,7 +5099,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -5139,7 +5142,7 @@
         <v>96.666666666666671</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -5182,7 +5185,7 @@
         <v>98.333333333333329</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -5225,7 +5228,7 @@
         <v>98.333333333333329</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -5268,7 +5271,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -5311,7 +5314,7 @@
         <v>96.666666666666671</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>28</v>
       </c>
@@ -5354,7 +5357,7 @@
         <v>96.666666666666671</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>29</v>
       </c>
@@ -5397,7 +5400,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>30</v>
       </c>
@@ -5440,7 +5443,7 @@
         <v>91.666666666666671</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
         <v>31</v>
       </c>
@@ -5483,7 +5486,7 @@
         <v>98.333333333333329</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
         <v>32</v>
       </c>
@@ -5526,7 +5529,7 @@
         <v>96.666666666666671</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
         <v>33</v>
       </c>
@@ -5569,7 +5572,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
         <v>34</v>
       </c>
@@ -5612,7 +5615,7 @@
         <v>93.333333333333329</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
         <v>35</v>
       </c>
@@ -5655,7 +5658,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
         <v>36</v>
       </c>
@@ -5698,7 +5701,7 @@
         <v>93.333333333333329</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
         <v>37</v>
       </c>
@@ -5741,7 +5744,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
         <v>38</v>
       </c>
@@ -5784,7 +5787,7 @@
         <v>88.333333333333329</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A42" s="2">
         <v>39</v>
       </c>
@@ -5827,7 +5830,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
         <v>40</v>
       </c>
@@ -5870,7 +5873,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A44" s="2">
         <v>41</v>
       </c>
@@ -5913,7 +5916,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
         <v>42</v>
       </c>
@@ -5956,7 +5959,7 @@
         <v>98.333333333333329</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A46" s="2">
         <v>43</v>
       </c>
@@ -5999,7 +6002,7 @@
         <v>93.333333333333329</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
         <v>44</v>
       </c>
@@ -6042,7 +6045,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A48" s="2">
         <v>45</v>
       </c>
@@ -6085,7 +6088,7 @@
         <v>96.666666666666671</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
         <v>46</v>
       </c>
@@ -6128,7 +6131,7 @@
         <v>96.666666666666671</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A50" s="2">
         <v>47</v>
       </c>
@@ -6171,7 +6174,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A51" s="2">
         <v>48</v>
       </c>
@@ -6215,8 +6218,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:P51">
-    <sortState ref="A5:R44">
+  <autoFilter ref="A2:P51" xr:uid="{00000000-0009-0000-0000-000001000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:R44">
       <sortCondition ref="C2:C3"/>
     </sortState>
   </autoFilter>
@@ -6232,9 +6235,9 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations xWindow="1225" yWindow="391" count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Input Score" sqref="F4:O51"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:O3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Assignment Number" sqref="F2:O2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Input Score" sqref="F4:O51" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:O3" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Assignment Number" sqref="F2:O2" xr:uid="{00000000-0002-0000-0100-000002000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6242,66 +6245,66 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="11.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="11.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.77734375" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="11.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="11.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A1" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="33" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="E2" s="37" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="16" t="s">
@@ -6334,16 +6337,16 @@
       <c r="O2" s="16" t="s">
         <v>362</v>
       </c>
-      <c r="P2" s="34" t="s">
+      <c r="P2" s="33" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="35"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="39"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A3" s="34"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="38"/>
       <c r="F3" s="17">
         <v>44095</v>
       </c>
@@ -6374,9 +6377,9 @@
       <c r="O3" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="P3" s="35"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P3" s="34"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="18">
         <v>1</v>
       </c>
@@ -6415,7 +6418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="18">
         <v>2</v>
       </c>
@@ -6440,8 +6443,8 @@
       <c r="H5" s="20">
         <v>100</v>
       </c>
-      <c r="I5" s="22">
-        <v>0</v>
+      <c r="I5" s="20">
+        <v>70</v>
       </c>
       <c r="J5" s="20"/>
       <c r="K5" s="20"/>
@@ -6451,10 +6454,10 @@
       <c r="O5" s="20"/>
       <c r="P5" s="21">
         <f t="shared" si="0"/>
-        <v>71.25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+        <v>88.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="18">
         <v>3</v>
       </c>
@@ -6493,7 +6496,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="18">
         <v>4</v>
       </c>
@@ -6532,7 +6535,7 @@
         <v>98.75</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="18">
         <v>5</v>
       </c>
@@ -6571,7 +6574,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="18">
         <v>6</v>
       </c>
@@ -6610,7 +6613,7 @@
         <v>76.25</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="18">
         <v>7</v>
       </c>
@@ -6649,7 +6652,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="18">
         <v>8</v>
       </c>
@@ -6688,7 +6691,7 @@
         <v>91.25</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="18">
         <v>9</v>
       </c>
@@ -6727,7 +6730,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="18">
         <v>10</v>
       </c>
@@ -6766,7 +6769,7 @@
         <v>86.25</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="18">
         <v>11</v>
       </c>
@@ -6791,8 +6794,8 @@
       <c r="H14" s="20">
         <v>100</v>
       </c>
-      <c r="I14" s="22">
-        <v>0</v>
+      <c r="I14" s="20">
+        <v>60</v>
       </c>
       <c r="J14" s="20"/>
       <c r="K14" s="20"/>
@@ -6802,10 +6805,10 @@
       <c r="O14" s="20"/>
       <c r="P14" s="21">
         <f t="shared" si="0"/>
-        <v>67.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+        <v>82.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="18">
         <v>12</v>
       </c>
@@ -6844,7 +6847,7 @@
         <v>96.25</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="18">
         <v>13</v>
       </c>
@@ -6883,7 +6886,7 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17" s="18">
         <v>14</v>
       </c>
@@ -6908,8 +6911,8 @@
       <c r="H17" s="20">
         <v>100</v>
       </c>
-      <c r="I17" s="22">
-        <v>0</v>
+      <c r="I17" s="20">
+        <v>70</v>
       </c>
       <c r="J17" s="20"/>
       <c r="K17" s="20"/>
@@ -6919,10 +6922,10 @@
       <c r="O17" s="20"/>
       <c r="P17" s="21">
         <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+        <v>82.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18" s="18">
         <v>15</v>
       </c>
@@ -6961,7 +6964,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19" s="18">
         <v>16</v>
       </c>
@@ -7000,7 +7003,7 @@
         <v>98.75</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20" s="18">
         <v>17</v>
       </c>
@@ -7039,7 +7042,7 @@
         <v>93.75</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21" s="18">
         <v>18</v>
       </c>
@@ -7078,7 +7081,7 @@
         <v>78.75</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22" s="18">
         <v>19</v>
       </c>
@@ -7117,7 +7120,7 @@
         <v>87.5</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" s="18">
         <v>20</v>
       </c>
@@ -7156,7 +7159,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24" s="18">
         <v>21</v>
       </c>
@@ -7195,7 +7198,7 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25" s="18">
         <v>22</v>
       </c>
@@ -7234,7 +7237,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="18">
         <v>23</v>
       </c>
@@ -7273,7 +7276,7 @@
         <v>66.25</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" s="18">
         <v>24</v>
       </c>
@@ -7312,7 +7315,7 @@
         <v>98.75</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28" s="18">
         <v>25</v>
       </c>
@@ -7351,7 +7354,7 @@
         <v>98.75</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29" s="18">
         <v>26</v>
       </c>
@@ -7390,7 +7393,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A30" s="18">
         <v>27</v>
       </c>
@@ -7429,7 +7432,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A31" s="18">
         <v>28</v>
       </c>
@@ -7468,7 +7471,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A32" s="18">
         <v>29</v>
       </c>
@@ -7507,7 +7510,7 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A33" s="18">
         <v>30</v>
       </c>
@@ -7546,7 +7549,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A34" s="18">
         <v>31</v>
       </c>
@@ -7571,8 +7574,8 @@
       <c r="H34" s="20">
         <v>60</v>
       </c>
-      <c r="I34" s="22">
-        <v>0</v>
+      <c r="I34" s="20">
+        <v>70</v>
       </c>
       <c r="J34" s="20"/>
       <c r="K34" s="20"/>
@@ -7582,10 +7585,10 @@
       <c r="O34" s="20"/>
       <c r="P34" s="21">
         <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+        <v>72.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A35" s="18">
         <v>32</v>
       </c>
@@ -7624,7 +7627,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A36" s="18">
         <v>33</v>
       </c>
@@ -7663,7 +7666,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A37" s="18">
         <v>34</v>
       </c>
@@ -7702,7 +7705,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A38" s="18">
         <v>35</v>
       </c>
@@ -7741,7 +7744,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A39" s="18">
         <v>36</v>
       </c>
@@ -7780,7 +7783,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A40" s="18">
         <v>37</v>
       </c>
@@ -7819,7 +7822,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A41" s="18">
         <v>38</v>
       </c>
@@ -7858,7 +7861,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A42" s="18">
         <v>39</v>
       </c>
@@ -7897,7 +7900,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A43" s="18">
         <v>40</v>
       </c>
@@ -7936,7 +7939,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A44" s="18">
         <v>41</v>
       </c>
@@ -7975,7 +7978,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A45" s="18">
         <v>42</v>
       </c>
@@ -8014,7 +8017,7 @@
         <v>96.25</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A46" s="18">
         <v>43</v>
       </c>
@@ -8039,8 +8042,8 @@
       <c r="H46" s="20">
         <v>100</v>
       </c>
-      <c r="I46" s="22">
-        <v>0</v>
+      <c r="I46" s="20">
+        <v>60</v>
       </c>
       <c r="J46" s="20"/>
       <c r="K46" s="20"/>
@@ -8050,10 +8053,10 @@
       <c r="O46" s="20"/>
       <c r="P46" s="21">
         <f t="shared" ref="P46:P51" si="1">AVERAGE(F46:O46)</f>
-        <v>67.5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+        <v>82.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A47" s="18">
         <v>44</v>
       </c>
@@ -8092,7 +8095,7 @@
         <v>82.5</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A48" s="18">
         <v>45</v>
       </c>
@@ -8131,7 +8134,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A49" s="18">
         <v>46</v>
       </c>
@@ -8170,7 +8173,7 @@
         <v>86.25</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A50" s="18">
         <v>47</v>
       </c>
@@ -8209,7 +8212,7 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A51" s="18">
         <v>48</v>
       </c>
@@ -8234,8 +8237,8 @@
       <c r="H51" s="20">
         <v>100</v>
       </c>
-      <c r="I51" s="22">
-        <v>0</v>
+      <c r="I51" s="20">
+        <v>80</v>
       </c>
       <c r="J51" s="20"/>
       <c r="K51" s="20"/>
@@ -8245,12 +8248,12 @@
       <c r="O51" s="20"/>
       <c r="P51" s="21">
         <f t="shared" si="1"/>
-        <v>72.5</v>
+        <v>92.5</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:P45">
-    <sortState ref="A5:R44">
+  <autoFilter ref="A2:P45" xr:uid="{00000000-0009-0000-0000-000002000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:R44">
       <sortCondition ref="C2:C3"/>
     </sortState>
   </autoFilter>
@@ -8266,9 +8269,9 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:O3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Assignment Number" sqref="F2:O2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Input Score" sqref="F4:O51"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:O3" xr:uid="{00000000-0002-0000-0200-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Assignment Number" sqref="F2:O2" xr:uid="{00000000-0002-0000-0200-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Input Score" sqref="F4:O51" xr:uid="{00000000-0002-0000-0200-000002000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8276,69 +8279,69 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView topLeftCell="C4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="9.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.88671875" style="4" customWidth="1"/>
-    <col min="13" max="14" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.875" style="4" customWidth="1"/>
+    <col min="13" max="14" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.875" style="4" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="25" style="4" customWidth="1"/>
-    <col min="27" max="27" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A1" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="41" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A2" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="E2" s="45" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="12" t="s">
@@ -8371,16 +8374,16 @@
       <c r="O2" s="12" t="s">
         <v>362</v>
       </c>
-      <c r="P2" s="42" t="s">
+      <c r="P2" s="41" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="43"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="47"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A3" s="42"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="46"/>
       <c r="F3" s="9">
         <v>45191</v>
       </c>
@@ -8411,9 +8414,9 @@
       <c r="O3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="P3" s="43"/>
-    </row>
-    <row r="4" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="P3" s="42"/>
+    </row>
+    <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -8452,7 +8455,7 @@
         <v>98.75</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -8491,7 +8494,7 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -8530,7 +8533,7 @@
         <v>92.5</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -8555,8 +8558,8 @@
       <c r="H7" s="15">
         <v>100</v>
       </c>
-      <c r="I7" s="23">
-        <v>0</v>
+      <c r="I7" s="15">
+        <v>70</v>
       </c>
       <c r="J7" s="15"/>
       <c r="K7" s="15"/>
@@ -8566,10 +8569,10 @@
       <c r="O7" s="15"/>
       <c r="P7" s="11">
         <f t="shared" si="0"/>
-        <v>72.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -8594,8 +8597,8 @@
       <c r="H8" s="15">
         <v>60</v>
       </c>
-      <c r="I8" s="23">
-        <v>0</v>
+      <c r="I8" s="15">
+        <v>70</v>
       </c>
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
@@ -8605,10 +8608,10 @@
       <c r="O8" s="15"/>
       <c r="P8" s="11">
         <f t="shared" si="0"/>
-        <v>58.75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+        <v>76.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -8647,7 +8650,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -8686,7 +8689,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -8725,7 +8728,7 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -8764,7 +8767,7 @@
         <v>96.25</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -8803,7 +8806,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -8842,7 +8845,7 @@
         <v>98.75</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -8881,7 +8884,7 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -8920,7 +8923,7 @@
         <v>77.5</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -8959,7 +8962,7 @@
         <v>91.25</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -8998,7 +9001,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -9037,7 +9040,7 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -9076,7 +9079,7 @@
         <v>98.75</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -9101,8 +9104,8 @@
       <c r="H21" s="15">
         <v>100</v>
       </c>
-      <c r="I21" s="23">
-        <v>0</v>
+      <c r="I21" s="15">
+        <v>70</v>
       </c>
       <c r="J21" s="15"/>
       <c r="K21" s="15"/>
@@ -9112,10 +9115,10 @@
       <c r="O21" s="15"/>
       <c r="P21" s="11">
         <f t="shared" si="0"/>
-        <v>72.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -9154,7 +9157,7 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -9193,7 +9196,7 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -9218,8 +9221,8 @@
       <c r="H24" s="15">
         <v>60</v>
       </c>
-      <c r="I24" s="23">
-        <v>0</v>
+      <c r="I24" s="15">
+        <v>70</v>
       </c>
       <c r="J24" s="15"/>
       <c r="K24" s="15"/>
@@ -9229,10 +9232,10 @@
       <c r="O24" s="15"/>
       <c r="P24" s="11">
         <f t="shared" si="0"/>
-        <v>62.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -9271,7 +9274,7 @@
         <v>98.75</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -9310,7 +9313,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -9349,7 +9352,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -9388,7 +9391,7 @@
         <v>98.75</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -9427,7 +9430,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -9466,7 +9469,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>28</v>
       </c>
@@ -9505,7 +9508,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>29</v>
       </c>
@@ -9544,7 +9547,7 @@
         <v>97.25</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>30</v>
       </c>
@@ -9583,7 +9586,7 @@
         <v>92.5</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
         <v>31</v>
       </c>
@@ -9622,7 +9625,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
         <v>32</v>
       </c>
@@ -9647,8 +9650,8 @@
       <c r="H35" s="15">
         <v>100</v>
       </c>
-      <c r="I35" s="23">
-        <v>0</v>
+      <c r="I35" s="15">
+        <v>70</v>
       </c>
       <c r="J35" s="15"/>
       <c r="K35" s="15"/>
@@ -9658,10 +9661,10 @@
       <c r="O35" s="15"/>
       <c r="P35" s="11">
         <f t="shared" si="0"/>
-        <v>71.25</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+        <v>88.75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
         <v>33</v>
       </c>
@@ -9700,7 +9703,7 @@
         <v>71.25</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
         <v>34</v>
       </c>
@@ -9739,7 +9742,7 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
         <v>35</v>
       </c>
@@ -9764,8 +9767,8 @@
       <c r="H38" s="15">
         <v>100</v>
       </c>
-      <c r="I38" s="23">
-        <v>0</v>
+      <c r="I38" s="15">
+        <v>60</v>
       </c>
       <c r="J38" s="15"/>
       <c r="K38" s="15"/>
@@ -9775,10 +9778,10 @@
       <c r="O38" s="15"/>
       <c r="P38" s="11">
         <f t="shared" si="0"/>
-        <v>62.5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+        <v>77.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
         <v>36</v>
       </c>
@@ -9817,7 +9820,7 @@
         <v>91.25</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
         <v>37</v>
       </c>
@@ -9842,8 +9845,8 @@
       <c r="H40" s="15">
         <v>100</v>
       </c>
-      <c r="I40" s="23">
-        <v>0</v>
+      <c r="I40" s="15">
+        <v>70</v>
       </c>
       <c r="J40" s="15"/>
       <c r="K40" s="15"/>
@@ -9853,10 +9856,10 @@
       <c r="O40" s="15"/>
       <c r="P40" s="11">
         <f t="shared" si="0"/>
-        <v>68.75</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+        <v>86.25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
         <v>38</v>
       </c>
@@ -9895,7 +9898,7 @@
         <v>96.25</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A42" s="2">
         <v>39</v>
       </c>
@@ -9934,7 +9937,7 @@
         <v>98.75</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
         <v>40</v>
       </c>
@@ -9959,8 +9962,8 @@
       <c r="H43" s="15">
         <v>100</v>
       </c>
-      <c r="I43" s="23">
-        <v>0</v>
+      <c r="I43" s="15">
+        <v>60</v>
       </c>
       <c r="J43" s="15"/>
       <c r="K43" s="15"/>
@@ -9970,10 +9973,10 @@
       <c r="O43" s="15"/>
       <c r="P43" s="11">
         <f t="shared" si="0"/>
-        <v>72.5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A44" s="2">
         <v>41</v>
       </c>
@@ -10012,7 +10015,7 @@
         <v>98.75</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
         <v>42</v>
       </c>
@@ -10051,7 +10054,7 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A46" s="2">
         <v>43</v>
       </c>
@@ -10090,7 +10093,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
         <v>44</v>
       </c>
@@ -10115,8 +10118,8 @@
       <c r="H47" s="15">
         <v>100</v>
       </c>
-      <c r="I47" s="23">
-        <v>0</v>
+      <c r="I47" s="15">
+        <v>60</v>
       </c>
       <c r="J47" s="15"/>
       <c r="K47" s="15"/>
@@ -10126,10 +10129,10 @@
       <c r="O47" s="15"/>
       <c r="P47" s="11">
         <f t="shared" si="0"/>
-        <v>72.5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A48" s="2">
         <v>45</v>
       </c>
@@ -10168,7 +10171,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
         <v>46</v>
       </c>
@@ -10207,7 +10210,7 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A50" s="2">
         <v>47</v>
       </c>
@@ -10246,7 +10249,7 @@
         <v>96.25</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A51" s="2">
         <v>48</v>
       </c>
@@ -10286,8 +10289,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:P45">
-    <sortState ref="A5:T44">
+  <autoFilter ref="A2:P45" xr:uid="{00000000-0009-0000-0000-000003000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:T44">
       <sortCondition ref="C2:C3"/>
     </sortState>
   </autoFilter>
@@ -10303,9 +10306,9 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Assignment Number" sqref="F2:O2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:O3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Input Score" sqref="F4:O51">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Assignment Number" sqref="F2:O2" xr:uid="{00000000-0002-0000-0300-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Of Submission" sqref="F3:O3" xr:uid="{00000000-0002-0000-0300-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Input Score" sqref="F4:O51" xr:uid="{00000000-0002-0000-0300-000002000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/Grade 2018/HomeAssignment/HA_Summary_YC_2018.xlsx
+++ b/Grade 2018/HomeAssignment/HA_Summary_YC_2018.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CS1" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="392">
   <si>
     <t>No</t>
   </si>
@@ -1824,7 +1824,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1836,7 +1836,7 @@
   <dimension ref="A1:P50"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="A24:XFD24"/>
+      <selection activeCell="L51" sqref="L51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1952,8 +1952,8 @@
       <c r="K3" s="3">
         <v>44148</v>
       </c>
-      <c r="L3" s="3" t="s">
-        <v>22</v>
+      <c r="L3" s="3">
+        <v>44169</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>22</v>
@@ -2000,13 +2000,15 @@
       <c r="K4" s="8">
         <v>80</v>
       </c>
-      <c r="L4" s="8"/>
+      <c r="L4" s="8">
+        <v>90</v>
+      </c>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
       <c r="P4" s="7">
         <f t="shared" ref="P4:P48" si="0">AVERAGE(F4:O4)</f>
-        <v>78.333333333333329</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2043,13 +2045,15 @@
       <c r="K5" s="8">
         <v>80</v>
       </c>
-      <c r="L5" s="8"/>
+      <c r="L5" s="8">
+        <v>100</v>
+      </c>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
       <c r="P5" s="7">
         <f t="shared" si="0"/>
-        <v>88.333333333333329</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2086,7 +2090,9 @@
       <c r="K6" s="8">
         <v>100</v>
       </c>
-      <c r="L6" s="8"/>
+      <c r="L6" s="8">
+        <v>90</v>
+      </c>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
@@ -2129,13 +2135,15 @@
       <c r="K7" s="8">
         <v>90</v>
       </c>
-      <c r="L7" s="8"/>
+      <c r="L7" s="8">
+        <v>100</v>
+      </c>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
       <c r="P7" s="7">
         <f t="shared" si="0"/>
-        <v>93.333333333333329</v>
+        <v>94.285714285714292</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2172,13 +2180,15 @@
       <c r="K8" s="8">
         <v>100</v>
       </c>
-      <c r="L8" s="8"/>
+      <c r="L8" s="8">
+        <v>90</v>
+      </c>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
       <c r="P8" s="7">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>98.571428571428569</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2215,13 +2225,15 @@
       <c r="K9" s="8">
         <v>100</v>
       </c>
-      <c r="L9" s="8"/>
+      <c r="L9" s="8">
+        <v>100</v>
+      </c>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
       <c r="O9" s="8"/>
       <c r="P9" s="7">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>91.428571428571431</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2258,13 +2270,15 @@
       <c r="K10" s="8">
         <v>100</v>
       </c>
-      <c r="L10" s="8"/>
+      <c r="L10" s="8">
+        <v>100</v>
+      </c>
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
       <c r="O10" s="8"/>
       <c r="P10" s="7">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>91.428571428571431</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2301,13 +2315,15 @@
       <c r="K11" s="8">
         <v>100</v>
       </c>
-      <c r="L11" s="8"/>
+      <c r="L11" s="8">
+        <v>100</v>
+      </c>
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
       <c r="O11" s="8"/>
       <c r="P11" s="7">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>95.714285714285708</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2344,13 +2360,15 @@
       <c r="K12" s="8">
         <v>90</v>
       </c>
-      <c r="L12" s="8"/>
+      <c r="L12" s="8">
+        <v>70</v>
+      </c>
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
       <c r="O12" s="8"/>
       <c r="P12" s="7">
         <f t="shared" si="0"/>
-        <v>88.333333333333329</v>
+        <v>85.714285714285708</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2387,13 +2405,15 @@
       <c r="K13" s="8">
         <v>80</v>
       </c>
-      <c r="L13" s="8"/>
+      <c r="L13" s="8">
+        <v>100</v>
+      </c>
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
       <c r="O13" s="8"/>
       <c r="P13" s="7">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>95.714285714285708</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2430,13 +2450,15 @@
       <c r="K14" s="8">
         <v>100</v>
       </c>
-      <c r="L14" s="8"/>
+      <c r="L14" s="8">
+        <v>100</v>
+      </c>
       <c r="M14" s="8"/>
       <c r="N14" s="8"/>
       <c r="O14" s="8"/>
       <c r="P14" s="7">
         <f t="shared" si="0"/>
-        <v>91.666666666666671</v>
+        <v>92.857142857142861</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2473,13 +2495,15 @@
       <c r="K15" s="8">
         <v>100</v>
       </c>
-      <c r="L15" s="8"/>
+      <c r="L15" s="8">
+        <v>100</v>
+      </c>
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
       <c r="O15" s="8"/>
       <c r="P15" s="7">
         <f t="shared" si="0"/>
-        <v>98.333333333333329</v>
+        <v>98.571428571428569</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2516,13 +2540,15 @@
       <c r="K16" s="8">
         <v>90</v>
       </c>
-      <c r="L16" s="8"/>
+      <c r="L16" s="8">
+        <v>100</v>
+      </c>
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
       <c r="O16" s="8"/>
       <c r="P16" s="7">
         <f t="shared" si="0"/>
-        <v>91.666666666666671</v>
+        <v>92.857142857142861</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2559,13 +2585,15 @@
       <c r="K17" s="8">
         <v>80</v>
       </c>
-      <c r="L17" s="8"/>
+      <c r="L17" s="8">
+        <v>100</v>
+      </c>
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
       <c r="O17" s="8"/>
       <c r="P17" s="7">
         <f t="shared" si="0"/>
-        <v>88.333333333333329</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2602,7 +2630,9 @@
       <c r="K18" s="8">
         <v>100</v>
       </c>
-      <c r="L18" s="8"/>
+      <c r="L18" s="8">
+        <v>100</v>
+      </c>
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
       <c r="O18" s="8"/>
@@ -2645,13 +2675,15 @@
       <c r="K19" s="8">
         <v>90</v>
       </c>
-      <c r="L19" s="8"/>
+      <c r="L19" s="8">
+        <v>70</v>
+      </c>
       <c r="M19" s="8"/>
       <c r="N19" s="8"/>
       <c r="O19" s="8"/>
       <c r="P19" s="7">
         <f t="shared" si="0"/>
-        <v>86.666666666666671</v>
+        <v>84.285714285714292</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2688,13 +2720,15 @@
       <c r="K20" s="8">
         <v>100</v>
       </c>
-      <c r="L20" s="8"/>
+      <c r="L20" s="8">
+        <v>90</v>
+      </c>
       <c r="M20" s="8"/>
       <c r="N20" s="8"/>
       <c r="O20" s="8"/>
       <c r="P20" s="7">
         <f t="shared" si="0"/>
-        <v>98.333333333333329</v>
+        <v>97.142857142857139</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2731,13 +2765,15 @@
       <c r="K21" s="8">
         <v>80</v>
       </c>
-      <c r="L21" s="8"/>
+      <c r="L21" s="8">
+        <v>100</v>
+      </c>
       <c r="M21" s="8"/>
       <c r="N21" s="8"/>
       <c r="O21" s="8"/>
       <c r="P21" s="7">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>95.714285714285708</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2774,13 +2810,15 @@
       <c r="K22" s="8">
         <v>90</v>
       </c>
-      <c r="L22" s="8"/>
+      <c r="L22" s="8">
+        <v>90</v>
+      </c>
       <c r="M22" s="8"/>
       <c r="N22" s="8"/>
       <c r="O22" s="8"/>
       <c r="P22" s="7">
         <f t="shared" si="0"/>
-        <v>91.666666666666671</v>
+        <v>91.428571428571431</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2817,13 +2855,15 @@
       <c r="K23" s="8">
         <v>80</v>
       </c>
-      <c r="L23" s="8"/>
+      <c r="L23" s="8">
+        <v>100</v>
+      </c>
       <c r="M23" s="8"/>
       <c r="N23" s="8"/>
       <c r="O23" s="8"/>
       <c r="P23" s="7">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>95.714285714285708</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2860,13 +2900,15 @@
       <c r="K24" s="8">
         <v>90</v>
       </c>
-      <c r="L24" s="8"/>
+      <c r="L24" s="8">
+        <v>100</v>
+      </c>
       <c r="M24" s="8"/>
       <c r="N24" s="8"/>
       <c r="O24" s="8"/>
       <c r="P24" s="7">
         <f t="shared" si="0"/>
-        <v>91.666666666666671</v>
+        <v>92.857142857142861</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2903,13 +2945,15 @@
       <c r="K25" s="8">
         <v>100</v>
       </c>
-      <c r="L25" s="8"/>
+      <c r="L25" s="8">
+        <v>90</v>
+      </c>
       <c r="M25" s="8"/>
       <c r="N25" s="8"/>
       <c r="O25" s="8"/>
       <c r="P25" s="7">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>98.571428571428569</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2946,13 +2990,15 @@
       <c r="K26" s="8">
         <v>80</v>
       </c>
-      <c r="L26" s="8"/>
+      <c r="L26" s="8">
+        <v>100</v>
+      </c>
       <c r="M26" s="8"/>
       <c r="N26" s="8"/>
       <c r="O26" s="8"/>
       <c r="P26" s="7">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>95.714285714285708</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -2989,13 +3035,15 @@
       <c r="K27" s="8">
         <v>90</v>
       </c>
-      <c r="L27" s="8"/>
+      <c r="L27" s="8">
+        <v>100</v>
+      </c>
       <c r="M27" s="8"/>
       <c r="N27" s="8"/>
       <c r="O27" s="8"/>
       <c r="P27" s="7">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>91.428571428571431</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -3032,13 +3080,15 @@
       <c r="K28" s="8">
         <v>90</v>
       </c>
-      <c r="L28" s="8"/>
+      <c r="L28" s="8">
+        <v>100</v>
+      </c>
       <c r="M28" s="8"/>
       <c r="N28" s="8"/>
       <c r="O28" s="8"/>
       <c r="P28" s="7">
         <f t="shared" si="0"/>
-        <v>88.333333333333329</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -3075,13 +3125,15 @@
       <c r="K29" s="8">
         <v>80</v>
       </c>
-      <c r="L29" s="8"/>
+      <c r="L29" s="8">
+        <v>70</v>
+      </c>
       <c r="M29" s="8"/>
       <c r="N29" s="8"/>
       <c r="O29" s="8"/>
       <c r="P29" s="7">
         <f t="shared" si="0"/>
-        <v>86.666666666666671</v>
+        <v>84.285714285714292</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -3118,13 +3170,15 @@
       <c r="K30" s="8">
         <v>80</v>
       </c>
-      <c r="L30" s="8"/>
+      <c r="L30" s="8">
+        <v>70</v>
+      </c>
       <c r="M30" s="8"/>
       <c r="N30" s="8"/>
       <c r="O30" s="8"/>
       <c r="P30" s="7">
         <f t="shared" si="0"/>
-        <v>93.333333333333329</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -3161,13 +3215,15 @@
       <c r="K31" s="8">
         <v>100</v>
       </c>
-      <c r="L31" s="8"/>
+      <c r="L31" s="8">
+        <v>100</v>
+      </c>
       <c r="M31" s="8"/>
       <c r="N31" s="8"/>
       <c r="O31" s="8"/>
       <c r="P31" s="7">
         <f t="shared" si="0"/>
-        <v>98.333333333333329</v>
+        <v>98.571428571428569</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -3204,13 +3260,15 @@
       <c r="K32" s="8">
         <v>100</v>
       </c>
-      <c r="L32" s="8"/>
+      <c r="L32" s="8">
+        <v>100</v>
+      </c>
       <c r="M32" s="8"/>
       <c r="N32" s="8"/>
       <c r="O32" s="8"/>
       <c r="P32" s="7">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>91.428571428571431</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -3247,13 +3305,15 @@
       <c r="K33" s="8">
         <v>100</v>
       </c>
-      <c r="L33" s="8"/>
+      <c r="L33" s="8">
+        <v>100</v>
+      </c>
       <c r="M33" s="8"/>
       <c r="N33" s="8"/>
       <c r="O33" s="8"/>
       <c r="P33" s="7">
         <f t="shared" si="0"/>
-        <v>96.666666666666671</v>
+        <v>97.142857142857139</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -3290,13 +3350,15 @@
       <c r="K34" s="8">
         <v>100</v>
       </c>
-      <c r="L34" s="8"/>
+      <c r="L34" s="8">
+        <v>100</v>
+      </c>
       <c r="M34" s="8"/>
       <c r="N34" s="8"/>
       <c r="O34" s="8"/>
       <c r="P34" s="7">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>95.714285714285708</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -3333,13 +3395,15 @@
       <c r="K35" s="8">
         <v>100</v>
       </c>
-      <c r="L35" s="8"/>
+      <c r="L35" s="8">
+        <v>100</v>
+      </c>
       <c r="M35" s="8"/>
       <c r="N35" s="8"/>
       <c r="O35" s="8"/>
       <c r="P35" s="7">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>91.428571428571431</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -3376,13 +3440,15 @@
       <c r="K36" s="8">
         <v>100</v>
       </c>
-      <c r="L36" s="8"/>
+      <c r="L36" s="8">
+        <v>90</v>
+      </c>
       <c r="M36" s="8"/>
       <c r="N36" s="8"/>
       <c r="O36" s="8"/>
       <c r="P36" s="7">
         <f t="shared" si="0"/>
-        <v>98.333333333333329</v>
+        <v>97.142857142857139</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -3419,13 +3485,15 @@
       <c r="K37" s="8">
         <v>100</v>
       </c>
-      <c r="L37" s="8"/>
+      <c r="L37" s="8">
+        <v>100</v>
+      </c>
       <c r="M37" s="8"/>
       <c r="N37" s="8"/>
       <c r="O37" s="8"/>
       <c r="P37" s="7">
         <f t="shared" si="0"/>
-        <v>98.333333333333329</v>
+        <v>98.571428571428569</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -3462,13 +3530,15 @@
       <c r="K38" s="8">
         <v>100</v>
       </c>
-      <c r="L38" s="8"/>
+      <c r="L38" s="8">
+        <v>100</v>
+      </c>
       <c r="M38" s="8"/>
       <c r="N38" s="8"/>
       <c r="O38" s="8"/>
       <c r="P38" s="7">
         <f t="shared" si="0"/>
-        <v>96.666666666666671</v>
+        <v>97.142857142857139</v>
       </c>
     </row>
     <row r="39" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -3505,13 +3575,15 @@
       <c r="K39" s="8">
         <v>100</v>
       </c>
-      <c r="L39" s="8"/>
+      <c r="L39" s="8">
+        <v>100</v>
+      </c>
       <c r="M39" s="8"/>
       <c r="N39" s="8"/>
       <c r="O39" s="8"/>
       <c r="P39" s="7">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>95.714285714285708</v>
       </c>
     </row>
     <row r="40" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -3548,13 +3620,15 @@
       <c r="K40" s="8">
         <v>80</v>
       </c>
-      <c r="L40" s="8"/>
+      <c r="L40" s="8">
+        <v>100</v>
+      </c>
       <c r="M40" s="8"/>
       <c r="N40" s="8"/>
       <c r="O40" s="8"/>
       <c r="P40" s="7">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>95.714285714285708</v>
       </c>
     </row>
     <row r="41" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -3591,13 +3665,15 @@
       <c r="K41" s="8">
         <v>100</v>
       </c>
-      <c r="L41" s="8"/>
+      <c r="L41" s="8">
+        <v>90</v>
+      </c>
       <c r="M41" s="8"/>
       <c r="N41" s="8"/>
       <c r="O41" s="8"/>
       <c r="P41" s="7">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>98.571428571428569</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -3634,13 +3710,15 @@
       <c r="K42" s="8">
         <v>100</v>
       </c>
-      <c r="L42" s="8"/>
+      <c r="L42" s="8">
+        <v>100</v>
+      </c>
       <c r="M42" s="8"/>
       <c r="N42" s="8"/>
       <c r="O42" s="8"/>
       <c r="P42" s="7">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>91.428571428571431</v>
       </c>
     </row>
     <row r="43" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -3677,13 +3755,15 @@
       <c r="K43" s="8">
         <v>100</v>
       </c>
-      <c r="L43" s="8"/>
+      <c r="L43" s="8">
+        <v>100</v>
+      </c>
       <c r="M43" s="8"/>
       <c r="N43" s="8"/>
       <c r="O43" s="8"/>
       <c r="P43" s="7">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>95.714285714285708</v>
       </c>
     </row>
     <row r="44" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -3720,13 +3800,15 @@
       <c r="K44" s="8">
         <v>90</v>
       </c>
-      <c r="L44" s="8"/>
+      <c r="L44" s="8">
+        <v>100</v>
+      </c>
       <c r="M44" s="8"/>
       <c r="N44" s="8"/>
       <c r="O44" s="8"/>
       <c r="P44" s="7">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>95.714285714285708</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -3763,13 +3845,15 @@
       <c r="K45" s="8">
         <v>100</v>
       </c>
-      <c r="L45" s="8"/>
+      <c r="L45" s="8">
+        <v>100</v>
+      </c>
       <c r="M45" s="8"/>
       <c r="N45" s="8"/>
       <c r="O45" s="8"/>
       <c r="P45" s="7">
         <f t="shared" si="0"/>
-        <v>91.666666666666671</v>
+        <v>92.857142857142861</v>
       </c>
     </row>
     <row r="46" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -3806,13 +3890,15 @@
       <c r="K46" s="8">
         <v>100</v>
       </c>
-      <c r="L46" s="8"/>
+      <c r="L46" s="8">
+        <v>100</v>
+      </c>
       <c r="M46" s="8"/>
       <c r="N46" s="8"/>
       <c r="O46" s="8"/>
       <c r="P46" s="7">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>95.714285714285708</v>
       </c>
     </row>
     <row r="47" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -3849,13 +3935,15 @@
       <c r="K47" s="8">
         <v>100</v>
       </c>
-      <c r="L47" s="8"/>
+      <c r="L47" s="8">
+        <v>100</v>
+      </c>
       <c r="M47" s="8"/>
       <c r="N47" s="8"/>
       <c r="O47" s="8"/>
       <c r="P47" s="7">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>95.714285714285708</v>
       </c>
     </row>
     <row r="48" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -3892,13 +3980,15 @@
       <c r="K48" s="8">
         <v>90</v>
       </c>
-      <c r="L48" s="8"/>
+      <c r="L48" s="8">
+        <v>100</v>
+      </c>
       <c r="M48" s="8"/>
       <c r="N48" s="8"/>
       <c r="O48" s="8"/>
       <c r="P48" s="7">
         <f t="shared" si="0"/>
-        <v>83.333333333333329</v>
+        <v>85.714285714285708</v>
       </c>
     </row>
     <row r="49" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -3935,13 +4025,15 @@
       <c r="K49" s="8">
         <v>80</v>
       </c>
-      <c r="L49" s="8"/>
+      <c r="L49" s="8">
+        <v>100</v>
+      </c>
       <c r="M49" s="8"/>
       <c r="N49" s="8"/>
       <c r="O49" s="8"/>
       <c r="P49" s="7">
         <f t="shared" ref="P49:P50" si="1">AVERAGE(F49:O49)</f>
-        <v>93.333333333333329</v>
+        <v>94.285714285714292</v>
       </c>
     </row>
     <row r="50" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
@@ -3978,13 +4070,15 @@
       <c r="K50" s="8">
         <v>90</v>
       </c>
-      <c r="L50" s="8"/>
+      <c r="L50" s="8">
+        <v>100</v>
+      </c>
       <c r="M50" s="8"/>
       <c r="N50" s="8"/>
       <c r="O50" s="8"/>
       <c r="P50" s="7">
         <f t="shared" si="1"/>
-        <v>96.666666666666671</v>
+        <v>97.142857142857139</v>
       </c>
     </row>
   </sheetData>
@@ -4019,17 +4113,17 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L52" sqref="L52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" customWidth="1"/>
     <col min="3" max="3" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" style="6" customWidth="1"/>
+    <col min="5" max="5" width="8.5546875" customWidth="1"/>
     <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
@@ -4136,8 +4230,8 @@
       <c r="K3" s="3">
         <v>44148</v>
       </c>
-      <c r="L3" s="3" t="s">
-        <v>22</v>
+      <c r="L3" s="3">
+        <v>44169</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>22</v>
@@ -4184,13 +4278,15 @@
       <c r="K4" s="8">
         <v>80</v>
       </c>
-      <c r="L4" s="8"/>
+      <c r="L4" s="8">
+        <v>90</v>
+      </c>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
       <c r="P4" s="7">
         <f t="shared" ref="P4:P50" si="0">AVERAGE(F4:O4)</f>
-        <v>88.333333333333329</v>
+        <v>88.571428571428569</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -4227,13 +4323,15 @@
       <c r="K5" s="8">
         <v>100</v>
       </c>
-      <c r="L5" s="8"/>
+      <c r="L5" s="8">
+        <v>80</v>
+      </c>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
       <c r="P5" s="7">
         <f t="shared" si="0"/>
-        <v>96.666666666666671</v>
+        <v>94.285714285714292</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -4270,13 +4368,15 @@
       <c r="K6" s="8">
         <v>80</v>
       </c>
-      <c r="L6" s="8"/>
+      <c r="L6" s="8">
+        <v>100</v>
+      </c>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
       <c r="P6" s="7">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>87.142857142857139</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -4313,7 +4413,9 @@
       <c r="K7" s="8">
         <v>100</v>
       </c>
-      <c r="L7" s="8"/>
+      <c r="L7" s="8">
+        <v>100</v>
+      </c>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
@@ -4356,13 +4458,15 @@
       <c r="K8" s="8">
         <v>100</v>
       </c>
-      <c r="L8" s="8"/>
+      <c r="L8" s="8">
+        <v>80</v>
+      </c>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
       <c r="P8" s="7">
         <f t="shared" si="0"/>
-        <v>96.666666666666671</v>
+        <v>94.285714285714292</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -4399,13 +4503,15 @@
       <c r="K9" s="8">
         <v>100</v>
       </c>
-      <c r="L9" s="8"/>
+      <c r="L9" s="8">
+        <v>80</v>
+      </c>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
       <c r="O9" s="8"/>
       <c r="P9" s="7">
         <f t="shared" si="0"/>
-        <v>96.666666666666671</v>
+        <v>94.285714285714292</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -4442,13 +4548,15 @@
       <c r="K10" s="8">
         <v>100</v>
       </c>
-      <c r="L10" s="8"/>
+      <c r="L10" s="8">
+        <v>100</v>
+      </c>
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
       <c r="O10" s="8"/>
       <c r="P10" s="7">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>91.428571428571431</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -4485,13 +4593,15 @@
       <c r="K11" s="8">
         <v>100</v>
       </c>
-      <c r="L11" s="8"/>
+      <c r="L11" s="8">
+        <v>80</v>
+      </c>
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
       <c r="O11" s="8"/>
       <c r="P11" s="7">
         <f t="shared" si="0"/>
-        <v>96.666666666666671</v>
+        <v>94.285714285714292</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -4528,7 +4638,9 @@
       <c r="K12" s="8">
         <v>100</v>
       </c>
-      <c r="L12" s="8"/>
+      <c r="L12" s="8">
+        <v>100</v>
+      </c>
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
       <c r="O12" s="8"/>
@@ -4571,13 +4683,15 @@
       <c r="K13" s="8">
         <v>100</v>
       </c>
-      <c r="L13" s="8"/>
+      <c r="L13" s="8">
+        <v>100</v>
+      </c>
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
       <c r="O13" s="8"/>
       <c r="P13" s="7">
         <f t="shared" si="0"/>
-        <v>98.333333333333329</v>
+        <v>98.571428571428569</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -4614,13 +4728,15 @@
       <c r="K14" s="8">
         <v>100</v>
       </c>
-      <c r="L14" s="8"/>
+      <c r="L14" s="8">
+        <v>100</v>
+      </c>
       <c r="M14" s="8"/>
       <c r="N14" s="8"/>
       <c r="O14" s="8"/>
       <c r="P14" s="7">
         <f t="shared" si="0"/>
-        <v>91.666666666666671</v>
+        <v>92.857142857142861</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -4657,13 +4773,15 @@
       <c r="K15" s="8">
         <v>100</v>
       </c>
-      <c r="L15" s="8"/>
+      <c r="L15" s="8">
+        <v>100</v>
+      </c>
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
       <c r="O15" s="8"/>
       <c r="P15" s="7">
         <f t="shared" si="0"/>
-        <v>98.333333333333329</v>
+        <v>98.571428571428569</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -4700,13 +4818,15 @@
       <c r="K16" s="8">
         <v>100</v>
       </c>
-      <c r="L16" s="8"/>
+      <c r="L16" s="8">
+        <v>100</v>
+      </c>
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
       <c r="O16" s="8"/>
       <c r="P16" s="7">
         <f t="shared" si="0"/>
-        <v>96.666666666666671</v>
+        <v>97.142857142857139</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
@@ -4743,13 +4863,15 @@
       <c r="K17" s="8">
         <v>100</v>
       </c>
-      <c r="L17" s="8"/>
+      <c r="L17" s="8">
+        <v>90</v>
+      </c>
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
       <c r="O17" s="8"/>
       <c r="P17" s="7">
         <f t="shared" si="0"/>
-        <v>93.333333333333329</v>
+        <v>92.857142857142861</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -4786,13 +4908,15 @@
       <c r="K18" s="8">
         <v>100</v>
       </c>
-      <c r="L18" s="8"/>
+      <c r="L18" s="8">
+        <v>100</v>
+      </c>
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
       <c r="O18" s="8"/>
       <c r="P18" s="7">
         <f t="shared" si="0"/>
-        <v>98.333333333333329</v>
+        <v>98.571428571428569</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
@@ -4829,7 +4953,9 @@
       <c r="K19" s="8">
         <v>100</v>
       </c>
-      <c r="L19" s="8"/>
+      <c r="L19" s="8">
+        <v>100</v>
+      </c>
       <c r="M19" s="8"/>
       <c r="N19" s="8"/>
       <c r="O19" s="8"/>
@@ -4872,13 +4998,15 @@
       <c r="K20" s="8">
         <v>100</v>
       </c>
-      <c r="L20" s="8"/>
+      <c r="L20" s="8">
+        <v>100</v>
+      </c>
       <c r="M20" s="8"/>
       <c r="N20" s="8"/>
       <c r="O20" s="8"/>
       <c r="P20" s="7">
         <f t="shared" si="0"/>
-        <v>98.333333333333329</v>
+        <v>98.571428571428569</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
@@ -4915,13 +5043,15 @@
       <c r="K21" s="8">
         <v>100</v>
       </c>
-      <c r="L21" s="8"/>
+      <c r="L21" s="8">
+        <v>100</v>
+      </c>
       <c r="M21" s="8"/>
       <c r="N21" s="8"/>
       <c r="O21" s="8"/>
       <c r="P21" s="7">
         <f t="shared" si="0"/>
-        <v>96.666666666666671</v>
+        <v>97.142857142857139</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
@@ -4958,13 +5088,15 @@
       <c r="K22" s="8">
         <v>90</v>
       </c>
-      <c r="L22" s="8"/>
+      <c r="L22" s="8">
+        <v>100</v>
+      </c>
       <c r="M22" s="8"/>
       <c r="N22" s="8"/>
       <c r="O22" s="8"/>
       <c r="P22" s="7">
         <f t="shared" si="0"/>
-        <v>88.333333333333329</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
@@ -5001,13 +5133,15 @@
       <c r="K23" s="8">
         <v>100</v>
       </c>
-      <c r="L23" s="8"/>
+      <c r="L23" s="8">
+        <v>100</v>
+      </c>
       <c r="M23" s="8"/>
       <c r="N23" s="8"/>
       <c r="O23" s="8"/>
       <c r="P23" s="7">
         <f t="shared" si="0"/>
-        <v>93.333333333333329</v>
+        <v>94.285714285714292</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
@@ -5044,7 +5178,9 @@
       <c r="K24" s="8">
         <v>100</v>
       </c>
-      <c r="L24" s="8"/>
+      <c r="L24" s="8">
+        <v>100</v>
+      </c>
       <c r="M24" s="8"/>
       <c r="N24" s="8"/>
       <c r="O24" s="8"/>
@@ -5087,13 +5223,15 @@
       <c r="K25" s="8">
         <v>100</v>
       </c>
-      <c r="L25" s="8"/>
+      <c r="L25" s="8">
+        <v>100</v>
+      </c>
       <c r="M25" s="8"/>
       <c r="N25" s="8"/>
       <c r="O25" s="8"/>
       <c r="P25" s="7">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>95.714285714285708</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
@@ -5130,13 +5268,15 @@
       <c r="K26" s="8">
         <v>100</v>
       </c>
-      <c r="L26" s="8"/>
+      <c r="L26" s="8">
+        <v>100</v>
+      </c>
       <c r="M26" s="8"/>
       <c r="N26" s="8"/>
       <c r="O26" s="8"/>
       <c r="P26" s="7">
         <f t="shared" si="0"/>
-        <v>96.666666666666671</v>
+        <v>97.142857142857139</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
@@ -5173,13 +5313,15 @@
       <c r="K27" s="8">
         <v>100</v>
       </c>
-      <c r="L27" s="8"/>
+      <c r="L27" s="8">
+        <v>100</v>
+      </c>
       <c r="M27" s="8"/>
       <c r="N27" s="8"/>
       <c r="O27" s="8"/>
       <c r="P27" s="7">
         <f t="shared" si="0"/>
-        <v>98.333333333333329</v>
+        <v>98.571428571428569</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
@@ -5216,13 +5358,15 @@
       <c r="K28" s="8">
         <v>100</v>
       </c>
-      <c r="L28" s="8"/>
+      <c r="L28" s="8">
+        <v>100</v>
+      </c>
       <c r="M28" s="8"/>
       <c r="N28" s="8"/>
       <c r="O28" s="8"/>
       <c r="P28" s="7">
         <f t="shared" si="0"/>
-        <v>98.333333333333329</v>
+        <v>98.571428571428569</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
@@ -5259,13 +5403,15 @@
       <c r="K29" s="8">
         <v>100</v>
       </c>
-      <c r="L29" s="8"/>
+      <c r="L29" s="8">
+        <v>100</v>
+      </c>
       <c r="M29" s="8"/>
       <c r="N29" s="8"/>
       <c r="O29" s="8"/>
       <c r="P29" s="7">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>95.714285714285708</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
@@ -5302,13 +5448,15 @@
       <c r="K30" s="8">
         <v>100</v>
       </c>
-      <c r="L30" s="8"/>
+      <c r="L30" s="8">
+        <v>100</v>
+      </c>
       <c r="M30" s="8"/>
       <c r="N30" s="8"/>
       <c r="O30" s="8"/>
       <c r="P30" s="7">
         <f t="shared" si="0"/>
-        <v>96.666666666666671</v>
+        <v>97.142857142857139</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
@@ -5345,13 +5493,15 @@
       <c r="K31" s="8">
         <v>100</v>
       </c>
-      <c r="L31" s="8"/>
+      <c r="L31" s="8">
+        <v>80</v>
+      </c>
       <c r="M31" s="8"/>
       <c r="N31" s="8"/>
       <c r="O31" s="8"/>
       <c r="P31" s="7">
         <f t="shared" si="0"/>
-        <v>96.666666666666671</v>
+        <v>94.285714285714292</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
@@ -5388,13 +5538,15 @@
       <c r="K32" s="8">
         <v>90</v>
       </c>
-      <c r="L32" s="8"/>
+      <c r="L32" s="8">
+        <v>100</v>
+      </c>
       <c r="M32" s="8"/>
       <c r="N32" s="8"/>
       <c r="O32" s="8"/>
       <c r="P32" s="7">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>87.142857142857139</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
@@ -5431,13 +5583,15 @@
       <c r="K33" s="8">
         <v>100</v>
       </c>
-      <c r="L33" s="8"/>
+      <c r="L33" s="8">
+        <v>100</v>
+      </c>
       <c r="M33" s="8"/>
       <c r="N33" s="8"/>
       <c r="O33" s="8"/>
       <c r="P33" s="7">
         <f t="shared" si="0"/>
-        <v>91.666666666666671</v>
+        <v>92.857142857142861</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
@@ -5474,13 +5628,15 @@
       <c r="K34" s="8">
         <v>100</v>
       </c>
-      <c r="L34" s="8"/>
+      <c r="L34" s="8">
+        <v>90</v>
+      </c>
       <c r="M34" s="8"/>
       <c r="N34" s="8"/>
       <c r="O34" s="8"/>
       <c r="P34" s="7">
         <f t="shared" si="0"/>
-        <v>98.333333333333329</v>
+        <v>97.142857142857139</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
@@ -5517,13 +5673,15 @@
       <c r="K35" s="8">
         <v>100</v>
       </c>
-      <c r="L35" s="8"/>
+      <c r="L35" s="8">
+        <v>80</v>
+      </c>
       <c r="M35" s="8"/>
       <c r="N35" s="8"/>
       <c r="O35" s="8"/>
       <c r="P35" s="7">
         <f t="shared" si="0"/>
-        <v>96.666666666666671</v>
+        <v>94.285714285714292</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
@@ -5560,13 +5718,15 @@
       <c r="K36" s="8">
         <v>100</v>
       </c>
-      <c r="L36" s="8"/>
+      <c r="L36" s="8">
+        <v>100</v>
+      </c>
       <c r="M36" s="8"/>
       <c r="N36" s="8"/>
       <c r="O36" s="8"/>
       <c r="P36" s="7">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>91.428571428571431</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
@@ -5603,13 +5763,15 @@
       <c r="K37" s="8">
         <v>80</v>
       </c>
-      <c r="L37" s="8"/>
+      <c r="L37" s="8">
+        <v>100</v>
+      </c>
       <c r="M37" s="8"/>
       <c r="N37" s="8"/>
       <c r="O37" s="8"/>
       <c r="P37" s="7">
         <f t="shared" si="0"/>
-        <v>93.333333333333329</v>
+        <v>94.285714285714292</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
@@ -5646,13 +5808,15 @@
       <c r="K38" s="8">
         <v>100</v>
       </c>
-      <c r="L38" s="8"/>
+      <c r="L38" s="8">
+        <v>100</v>
+      </c>
       <c r="M38" s="8"/>
       <c r="N38" s="8"/>
       <c r="O38" s="8"/>
       <c r="P38" s="7">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>95.714285714285708</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
@@ -5689,13 +5853,15 @@
       <c r="K39" s="8">
         <v>100</v>
       </c>
-      <c r="L39" s="8"/>
+      <c r="L39" s="8">
+        <v>100</v>
+      </c>
       <c r="M39" s="8"/>
       <c r="N39" s="8"/>
       <c r="O39" s="8"/>
       <c r="P39" s="7">
         <f t="shared" si="0"/>
-        <v>93.333333333333329</v>
+        <v>94.285714285714292</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
@@ -5732,7 +5898,9 @@
       <c r="K40" s="8">
         <v>100</v>
       </c>
-      <c r="L40" s="8"/>
+      <c r="L40" s="8">
+        <v>100</v>
+      </c>
       <c r="M40" s="8"/>
       <c r="N40" s="8"/>
       <c r="O40" s="8"/>
@@ -5775,13 +5943,15 @@
       <c r="K41" s="8">
         <v>100</v>
       </c>
-      <c r="L41" s="8"/>
+      <c r="L41" s="8">
+        <v>100</v>
+      </c>
       <c r="M41" s="8"/>
       <c r="N41" s="8"/>
       <c r="O41" s="8"/>
       <c r="P41" s="7">
         <f t="shared" si="0"/>
-        <v>88.333333333333329</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
@@ -5818,13 +5988,15 @@
       <c r="K42" s="8">
         <v>100</v>
       </c>
-      <c r="L42" s="8"/>
+      <c r="L42" s="8">
+        <v>90</v>
+      </c>
       <c r="M42" s="8"/>
       <c r="N42" s="8"/>
       <c r="O42" s="8"/>
       <c r="P42" s="7">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>98.571428571428569</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
@@ -5861,13 +6033,15 @@
       <c r="K43" s="8">
         <v>100</v>
       </c>
-      <c r="L43" s="8"/>
+      <c r="L43" s="8">
+        <v>90</v>
+      </c>
       <c r="M43" s="8"/>
       <c r="N43" s="8"/>
       <c r="O43" s="8"/>
       <c r="P43" s="7">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>98.571428571428569</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
@@ -5904,13 +6078,15 @@
       <c r="K44" s="8">
         <v>100</v>
       </c>
-      <c r="L44" s="8"/>
+      <c r="L44" s="8">
+        <v>90</v>
+      </c>
       <c r="M44" s="8"/>
       <c r="N44" s="8"/>
       <c r="O44" s="8"/>
       <c r="P44" s="7">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>98.571428571428569</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
@@ -5947,13 +6123,15 @@
       <c r="K45" s="8">
         <v>100</v>
       </c>
-      <c r="L45" s="8"/>
+      <c r="L45" s="8">
+        <v>100</v>
+      </c>
       <c r="M45" s="8"/>
       <c r="N45" s="8"/>
       <c r="O45" s="8"/>
       <c r="P45" s="7">
         <f t="shared" si="0"/>
-        <v>98.333333333333329</v>
+        <v>98.571428571428569</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
@@ -5990,13 +6168,15 @@
       <c r="K46" s="8">
         <v>80</v>
       </c>
-      <c r="L46" s="8"/>
+      <c r="L46" s="8">
+        <v>90</v>
+      </c>
       <c r="M46" s="8"/>
       <c r="N46" s="8"/>
       <c r="O46" s="8"/>
       <c r="P46" s="7">
         <f t="shared" si="0"/>
-        <v>93.333333333333329</v>
+        <v>92.857142857142861</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
@@ -6033,13 +6213,15 @@
       <c r="K47" s="8">
         <v>100</v>
       </c>
-      <c r="L47" s="8"/>
+      <c r="L47" s="8">
+        <v>90</v>
+      </c>
       <c r="M47" s="8"/>
       <c r="N47" s="8"/>
       <c r="O47" s="8"/>
       <c r="P47" s="7">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>98.571428571428569</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
@@ -6076,13 +6258,15 @@
       <c r="K48" s="8">
         <v>100</v>
       </c>
-      <c r="L48" s="8"/>
+      <c r="L48" s="8">
+        <v>100</v>
+      </c>
       <c r="M48" s="8"/>
       <c r="N48" s="8"/>
       <c r="O48" s="8"/>
       <c r="P48" s="7">
         <f t="shared" si="0"/>
-        <v>96.666666666666671</v>
+        <v>97.142857142857139</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
@@ -6119,13 +6303,15 @@
       <c r="K49" s="8">
         <v>100</v>
       </c>
-      <c r="L49" s="8"/>
+      <c r="L49" s="8">
+        <v>100</v>
+      </c>
       <c r="M49" s="8"/>
       <c r="N49" s="8"/>
       <c r="O49" s="8"/>
       <c r="P49" s="7">
         <f t="shared" si="0"/>
-        <v>96.666666666666671</v>
+        <v>97.142857142857139</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
@@ -6162,13 +6348,15 @@
       <c r="K50" s="8">
         <v>100</v>
       </c>
-      <c r="L50" s="8"/>
+      <c r="L50" s="8">
+        <v>90</v>
+      </c>
       <c r="M50" s="8"/>
       <c r="N50" s="8"/>
       <c r="O50" s="8"/>
       <c r="P50" s="7">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>98.571428571428569</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
@@ -6205,13 +6393,15 @@
       <c r="K51" s="8">
         <v>100</v>
       </c>
-      <c r="L51" s="8"/>
+      <c r="L51" s="8">
+        <v>100</v>
+      </c>
       <c r="M51" s="8"/>
       <c r="N51" s="8"/>
       <c r="O51" s="8"/>
       <c r="P51" s="7">
         <f t="shared" ref="P51" si="1">AVERAGE(F51:O51)</f>
-        <v>95</v>
+        <v>95.714285714285708</v>
       </c>
     </row>
   </sheetData>
@@ -6246,7 +6436,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>

--- a/Grade 2018/HomeAssignment/HA_Summary_YC_2018.xlsx
+++ b/Grade 2018/HomeAssignment/HA_Summary_YC_2018.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NIIT\NIIT教案\Sept-2020---Jan-2021\Grade 2018\HomeAssignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F08914DA-2B17-4488-9530-9F4BBA23CBB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3FD6935-C8B2-48A1-88AC-A67B0EDCCC05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CS1" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="392">
   <si>
     <t>No</t>
   </si>
@@ -6249,8 +6249,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6359,8 +6359,8 @@
       <c r="I3" s="17">
         <v>44147</v>
       </c>
-      <c r="J3" s="17" t="s">
-        <v>22</v>
+      <c r="J3" s="17">
+        <v>44183</v>
       </c>
       <c r="K3" s="17" t="s">
         <v>22</v>
@@ -6407,7 +6407,9 @@
       <c r="I4" s="22">
         <v>0</v>
       </c>
-      <c r="J4" s="20"/>
+      <c r="J4" s="22">
+        <v>0</v>
+      </c>
       <c r="K4" s="20"/>
       <c r="L4" s="20"/>
       <c r="M4" s="20"/>
@@ -6446,7 +6448,9 @@
       <c r="I5" s="20">
         <v>70</v>
       </c>
-      <c r="J5" s="20"/>
+      <c r="J5" s="20">
+        <v>100</v>
+      </c>
       <c r="K5" s="20"/>
       <c r="L5" s="20"/>
       <c r="M5" s="20"/>
@@ -6454,7 +6458,7 @@
       <c r="O5" s="20"/>
       <c r="P5" s="21">
         <f t="shared" si="0"/>
-        <v>88.75</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
@@ -6485,7 +6489,9 @@
       <c r="I6" s="20">
         <v>100</v>
       </c>
-      <c r="J6" s="20"/>
+      <c r="J6" s="20">
+        <v>100</v>
+      </c>
       <c r="K6" s="20"/>
       <c r="L6" s="20"/>
       <c r="M6" s="20"/>
@@ -6493,7 +6499,7 @@
       <c r="O6" s="20"/>
       <c r="P6" s="21">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
@@ -6524,7 +6530,9 @@
       <c r="I7" s="20">
         <v>100</v>
       </c>
-      <c r="J7" s="20"/>
+      <c r="J7" s="20">
+        <v>100</v>
+      </c>
       <c r="K7" s="20"/>
       <c r="L7" s="20"/>
       <c r="M7" s="20"/>
@@ -6532,7 +6540,7 @@
       <c r="O7" s="20"/>
       <c r="P7" s="21">
         <f t="shared" si="0"/>
-        <v>98.75</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
@@ -6563,7 +6571,9 @@
       <c r="I8" s="20">
         <v>100</v>
       </c>
-      <c r="J8" s="20"/>
+      <c r="J8" s="20">
+        <v>100</v>
+      </c>
       <c r="K8" s="20"/>
       <c r="L8" s="20"/>
       <c r="M8" s="20"/>
@@ -6602,7 +6612,9 @@
       <c r="I9" s="20">
         <v>70</v>
       </c>
-      <c r="J9" s="20"/>
+      <c r="J9" s="20">
+        <v>100</v>
+      </c>
       <c r="K9" s="20"/>
       <c r="L9" s="20"/>
       <c r="M9" s="20"/>
@@ -6610,7 +6622,7 @@
       <c r="O9" s="20"/>
       <c r="P9" s="21">
         <f t="shared" si="0"/>
-        <v>76.25</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
@@ -6641,7 +6653,9 @@
       <c r="I10" s="20">
         <v>100</v>
       </c>
-      <c r="J10" s="20"/>
+      <c r="J10" s="20">
+        <v>100</v>
+      </c>
       <c r="K10" s="20"/>
       <c r="L10" s="20"/>
       <c r="M10" s="20"/>
@@ -6649,7 +6663,7 @@
       <c r="O10" s="20"/>
       <c r="P10" s="21">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.15">
@@ -6680,7 +6694,9 @@
       <c r="I11" s="20">
         <v>100</v>
       </c>
-      <c r="J11" s="20"/>
+      <c r="J11" s="20">
+        <v>100</v>
+      </c>
       <c r="K11" s="20"/>
       <c r="L11" s="20"/>
       <c r="M11" s="20"/>
@@ -6688,7 +6704,7 @@
       <c r="O11" s="20"/>
       <c r="P11" s="21">
         <f t="shared" si="0"/>
-        <v>91.25</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
@@ -6719,7 +6735,9 @@
       <c r="I12" s="20">
         <v>100</v>
       </c>
-      <c r="J12" s="20"/>
+      <c r="J12" s="20">
+        <v>100</v>
+      </c>
       <c r="K12" s="20"/>
       <c r="L12" s="20"/>
       <c r="M12" s="20"/>
@@ -6727,7 +6745,7 @@
       <c r="O12" s="20"/>
       <c r="P12" s="21">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.15">
@@ -6758,7 +6776,9 @@
       <c r="I13" s="20">
         <v>100</v>
       </c>
-      <c r="J13" s="20"/>
+      <c r="J13" s="20">
+        <v>100</v>
+      </c>
       <c r="K13" s="20"/>
       <c r="L13" s="20"/>
       <c r="M13" s="20"/>
@@ -6766,7 +6786,7 @@
       <c r="O13" s="20"/>
       <c r="P13" s="21">
         <f t="shared" si="0"/>
-        <v>86.25</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
@@ -6797,7 +6817,9 @@
       <c r="I14" s="20">
         <v>60</v>
       </c>
-      <c r="J14" s="20"/>
+      <c r="J14" s="20">
+        <v>100</v>
+      </c>
       <c r="K14" s="20"/>
       <c r="L14" s="20"/>
       <c r="M14" s="20"/>
@@ -6805,7 +6827,7 @@
       <c r="O14" s="20"/>
       <c r="P14" s="21">
         <f t="shared" si="0"/>
-        <v>82.5</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.15">
@@ -6836,7 +6858,9 @@
       <c r="I15" s="20">
         <v>100</v>
       </c>
-      <c r="J15" s="20"/>
+      <c r="J15" s="20">
+        <v>100</v>
+      </c>
       <c r="K15" s="20"/>
       <c r="L15" s="20"/>
       <c r="M15" s="20"/>
@@ -6844,7 +6868,7 @@
       <c r="O15" s="20"/>
       <c r="P15" s="21">
         <f t="shared" si="0"/>
-        <v>96.25</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.15">
@@ -6875,7 +6899,9 @@
       <c r="I16" s="20">
         <v>100</v>
       </c>
-      <c r="J16" s="20"/>
+      <c r="J16" s="20">
+        <v>100</v>
+      </c>
       <c r="K16" s="20"/>
       <c r="L16" s="20"/>
       <c r="M16" s="20"/>
@@ -6883,7 +6909,7 @@
       <c r="O16" s="20"/>
       <c r="P16" s="21">
         <f t="shared" si="0"/>
-        <v>97.5</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.15">
@@ -6914,7 +6940,9 @@
       <c r="I17" s="20">
         <v>70</v>
       </c>
-      <c r="J17" s="20"/>
+      <c r="J17" s="20">
+        <v>100</v>
+      </c>
       <c r="K17" s="20"/>
       <c r="L17" s="20"/>
       <c r="M17" s="20"/>
@@ -6922,7 +6950,7 @@
       <c r="O17" s="20"/>
       <c r="P17" s="21">
         <f t="shared" si="0"/>
-        <v>82.5</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.15">
@@ -6953,7 +6981,9 @@
       <c r="I18" s="20">
         <v>100</v>
       </c>
-      <c r="J18" s="20"/>
+      <c r="J18" s="20">
+        <v>100</v>
+      </c>
       <c r="K18" s="20"/>
       <c r="L18" s="20"/>
       <c r="M18" s="20"/>
@@ -6961,7 +6991,7 @@
       <c r="O18" s="20"/>
       <c r="P18" s="21">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.15">
@@ -6992,7 +7022,9 @@
       <c r="I19" s="20">
         <v>100</v>
       </c>
-      <c r="J19" s="20"/>
+      <c r="J19" s="20">
+        <v>100</v>
+      </c>
       <c r="K19" s="20"/>
       <c r="L19" s="20"/>
       <c r="M19" s="20"/>
@@ -7000,7 +7032,7 @@
       <c r="O19" s="20"/>
       <c r="P19" s="21">
         <f t="shared" si="0"/>
-        <v>98.75</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.15">
@@ -7031,7 +7063,9 @@
       <c r="I20" s="20">
         <v>100</v>
       </c>
-      <c r="J20" s="20"/>
+      <c r="J20" s="20">
+        <v>100</v>
+      </c>
       <c r="K20" s="20"/>
       <c r="L20" s="20"/>
       <c r="M20" s="20"/>
@@ -7039,7 +7073,7 @@
       <c r="O20" s="20"/>
       <c r="P20" s="21">
         <f t="shared" si="0"/>
-        <v>93.75</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.15">
@@ -7070,7 +7104,9 @@
       <c r="I21" s="20">
         <v>70</v>
       </c>
-      <c r="J21" s="20"/>
+      <c r="J21" s="20">
+        <v>100</v>
+      </c>
       <c r="K21" s="20"/>
       <c r="L21" s="20"/>
       <c r="M21" s="20"/>
@@ -7078,7 +7114,7 @@
       <c r="O21" s="20"/>
       <c r="P21" s="21">
         <f t="shared" si="0"/>
-        <v>78.75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.15">
@@ -7109,7 +7145,9 @@
       <c r="I22" s="20">
         <v>100</v>
       </c>
-      <c r="J22" s="20"/>
+      <c r="J22" s="20">
+        <v>100</v>
+      </c>
       <c r="K22" s="20"/>
       <c r="L22" s="20"/>
       <c r="M22" s="20"/>
@@ -7117,7 +7155,7 @@
       <c r="O22" s="20"/>
       <c r="P22" s="21">
         <f t="shared" si="0"/>
-        <v>87.5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.15">
@@ -7148,7 +7186,9 @@
       <c r="I23" s="20">
         <v>100</v>
       </c>
-      <c r="J23" s="20"/>
+      <c r="J23" s="20">
+        <v>100</v>
+      </c>
       <c r="K23" s="20"/>
       <c r="L23" s="20"/>
       <c r="M23" s="20"/>
@@ -7156,7 +7196,7 @@
       <c r="O23" s="20"/>
       <c r="P23" s="21">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.15">
@@ -7187,7 +7227,9 @@
       <c r="I24" s="20">
         <v>100</v>
       </c>
-      <c r="J24" s="20"/>
+      <c r="J24" s="20">
+        <v>100</v>
+      </c>
       <c r="K24" s="20"/>
       <c r="L24" s="20"/>
       <c r="M24" s="20"/>
@@ -7195,7 +7237,7 @@
       <c r="O24" s="20"/>
       <c r="P24" s="21">
         <f t="shared" si="0"/>
-        <v>97.5</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.15">
@@ -7226,7 +7268,9 @@
       <c r="I25" s="20">
         <v>100</v>
       </c>
-      <c r="J25" s="20"/>
+      <c r="J25" s="20">
+        <v>100</v>
+      </c>
       <c r="K25" s="20"/>
       <c r="L25" s="20"/>
       <c r="M25" s="20"/>
@@ -7234,7 +7278,7 @@
       <c r="O25" s="20"/>
       <c r="P25" s="21">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.15">
@@ -7265,7 +7309,9 @@
       <c r="I26" s="20">
         <v>100</v>
       </c>
-      <c r="J26" s="20"/>
+      <c r="J26" s="20">
+        <v>100</v>
+      </c>
       <c r="K26" s="20"/>
       <c r="L26" s="20"/>
       <c r="M26" s="20"/>
@@ -7273,7 +7319,7 @@
       <c r="O26" s="20"/>
       <c r="P26" s="21">
         <f t="shared" si="0"/>
-        <v>66.25</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.15">
@@ -7304,7 +7350,9 @@
       <c r="I27" s="20">
         <v>100</v>
       </c>
-      <c r="J27" s="20"/>
+      <c r="J27" s="20">
+        <v>100</v>
+      </c>
       <c r="K27" s="20"/>
       <c r="L27" s="20"/>
       <c r="M27" s="20"/>
@@ -7312,7 +7360,7 @@
       <c r="O27" s="20"/>
       <c r="P27" s="21">
         <f t="shared" si="0"/>
-        <v>98.75</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.15">
@@ -7343,7 +7391,9 @@
       <c r="I28" s="20">
         <v>100</v>
       </c>
-      <c r="J28" s="20"/>
+      <c r="J28" s="20">
+        <v>100</v>
+      </c>
       <c r="K28" s="20"/>
       <c r="L28" s="20"/>
       <c r="M28" s="20"/>
@@ -7351,7 +7401,7 @@
       <c r="O28" s="20"/>
       <c r="P28" s="21">
         <f t="shared" si="0"/>
-        <v>98.75</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.15">
@@ -7382,7 +7432,9 @@
       <c r="I29" s="20">
         <v>100</v>
       </c>
-      <c r="J29" s="20"/>
+      <c r="J29" s="20">
+        <v>100</v>
+      </c>
       <c r="K29" s="20"/>
       <c r="L29" s="20"/>
       <c r="M29" s="20"/>
@@ -7421,7 +7473,9 @@
       <c r="I30" s="20">
         <v>100</v>
       </c>
-      <c r="J30" s="20"/>
+      <c r="J30" s="20">
+        <v>100</v>
+      </c>
       <c r="K30" s="20"/>
       <c r="L30" s="20"/>
       <c r="M30" s="20"/>
@@ -7429,7 +7483,7 @@
       <c r="O30" s="20"/>
       <c r="P30" s="21">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.15">
@@ -7460,7 +7514,9 @@
       <c r="I31" s="20">
         <v>100</v>
       </c>
-      <c r="J31" s="20"/>
+      <c r="J31" s="20">
+        <v>100</v>
+      </c>
       <c r="K31" s="20"/>
       <c r="L31" s="20"/>
       <c r="M31" s="20"/>
@@ -7468,7 +7524,7 @@
       <c r="O31" s="20"/>
       <c r="P31" s="21">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.15">
@@ -7499,7 +7555,9 @@
       <c r="I32" s="20">
         <v>100</v>
       </c>
-      <c r="J32" s="20"/>
+      <c r="J32" s="20">
+        <v>100</v>
+      </c>
       <c r="K32" s="20"/>
       <c r="L32" s="20"/>
       <c r="M32" s="20"/>
@@ -7507,7 +7565,7 @@
       <c r="O32" s="20"/>
       <c r="P32" s="21">
         <f t="shared" si="0"/>
-        <v>97.5</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.15">
@@ -7538,7 +7596,9 @@
       <c r="I33" s="20">
         <v>100</v>
       </c>
-      <c r="J33" s="20"/>
+      <c r="J33" s="20">
+        <v>100</v>
+      </c>
       <c r="K33" s="20"/>
       <c r="L33" s="20"/>
       <c r="M33" s="20"/>
@@ -7546,7 +7606,7 @@
       <c r="O33" s="20"/>
       <c r="P33" s="21">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.15">
@@ -7577,7 +7637,9 @@
       <c r="I34" s="20">
         <v>70</v>
       </c>
-      <c r="J34" s="20"/>
+      <c r="J34" s="20">
+        <v>100</v>
+      </c>
       <c r="K34" s="20"/>
       <c r="L34" s="20"/>
       <c r="M34" s="20"/>
@@ -7585,7 +7647,7 @@
       <c r="O34" s="20"/>
       <c r="P34" s="21">
         <f t="shared" si="0"/>
-        <v>72.5</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.15">
@@ -7616,7 +7678,9 @@
       <c r="I35" s="20">
         <v>100</v>
       </c>
-      <c r="J35" s="20"/>
+      <c r="J35" s="20">
+        <v>100</v>
+      </c>
       <c r="K35" s="20"/>
       <c r="L35" s="20"/>
       <c r="M35" s="20"/>
@@ -7624,7 +7688,7 @@
       <c r="O35" s="20"/>
       <c r="P35" s="21">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.15">
@@ -7655,7 +7719,9 @@
       <c r="I36" s="20">
         <v>100</v>
       </c>
-      <c r="J36" s="20"/>
+      <c r="J36" s="20">
+        <v>100</v>
+      </c>
       <c r="K36" s="20"/>
       <c r="L36" s="20"/>
       <c r="M36" s="20"/>
@@ -7694,7 +7760,9 @@
       <c r="I37" s="20">
         <v>100</v>
       </c>
-      <c r="J37" s="20"/>
+      <c r="J37" s="20">
+        <v>100</v>
+      </c>
       <c r="K37" s="20"/>
       <c r="L37" s="20"/>
       <c r="M37" s="20"/>
@@ -7733,7 +7801,9 @@
       <c r="I38" s="20">
         <v>100</v>
       </c>
-      <c r="J38" s="20"/>
+      <c r="J38" s="20">
+        <v>100</v>
+      </c>
       <c r="K38" s="20"/>
       <c r="L38" s="20"/>
       <c r="M38" s="20"/>
@@ -7741,7 +7811,7 @@
       <c r="O38" s="20"/>
       <c r="P38" s="21">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.15">
@@ -7772,7 +7842,9 @@
       <c r="I39" s="20">
         <v>100</v>
       </c>
-      <c r="J39" s="20"/>
+      <c r="J39" s="20">
+        <v>100</v>
+      </c>
       <c r="K39" s="20"/>
       <c r="L39" s="20"/>
       <c r="M39" s="20"/>
@@ -7811,7 +7883,9 @@
       <c r="I40" s="20">
         <v>100</v>
       </c>
-      <c r="J40" s="20"/>
+      <c r="J40" s="20">
+        <v>100</v>
+      </c>
       <c r="K40" s="20"/>
       <c r="L40" s="20"/>
       <c r="M40" s="20"/>
@@ -7850,7 +7924,9 @@
       <c r="I41" s="20">
         <v>100</v>
       </c>
-      <c r="J41" s="20"/>
+      <c r="J41" s="20">
+        <v>100</v>
+      </c>
       <c r="K41" s="20"/>
       <c r="L41" s="20"/>
       <c r="M41" s="20"/>
@@ -7889,7 +7965,9 @@
       <c r="I42" s="20">
         <v>100</v>
       </c>
-      <c r="J42" s="20"/>
+      <c r="J42" s="20">
+        <v>100</v>
+      </c>
       <c r="K42" s="20"/>
       <c r="L42" s="20"/>
       <c r="M42" s="20"/>
@@ -7897,7 +7975,7 @@
       <c r="O42" s="20"/>
       <c r="P42" s="21">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.15">
@@ -7928,7 +8006,9 @@
       <c r="I43" s="20">
         <v>100</v>
       </c>
-      <c r="J43" s="20"/>
+      <c r="J43" s="20">
+        <v>100</v>
+      </c>
       <c r="K43" s="20"/>
       <c r="L43" s="20"/>
       <c r="M43" s="20"/>
@@ -7936,7 +8016,7 @@
       <c r="O43" s="20"/>
       <c r="P43" s="21">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.15">
@@ -7967,7 +8047,9 @@
       <c r="I44" s="20">
         <v>100</v>
       </c>
-      <c r="J44" s="20"/>
+      <c r="J44" s="20">
+        <v>100</v>
+      </c>
       <c r="K44" s="20"/>
       <c r="L44" s="20"/>
       <c r="M44" s="20"/>
@@ -7975,7 +8057,7 @@
       <c r="O44" s="20"/>
       <c r="P44" s="21">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.15">
@@ -8006,7 +8088,9 @@
       <c r="I45" s="20">
         <v>100</v>
       </c>
-      <c r="J45" s="20"/>
+      <c r="J45" s="20">
+        <v>100</v>
+      </c>
       <c r="K45" s="20"/>
       <c r="L45" s="20"/>
       <c r="M45" s="20"/>
@@ -8014,7 +8098,7 @@
       <c r="O45" s="20"/>
       <c r="P45" s="21">
         <f t="shared" si="0"/>
-        <v>96.25</v>
+        <v>97</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.15">
@@ -8045,7 +8129,9 @@
       <c r="I46" s="20">
         <v>60</v>
       </c>
-      <c r="J46" s="20"/>
+      <c r="J46" s="20">
+        <v>100</v>
+      </c>
       <c r="K46" s="20"/>
       <c r="L46" s="20"/>
       <c r="M46" s="20"/>
@@ -8053,7 +8139,7 @@
       <c r="O46" s="20"/>
       <c r="P46" s="21">
         <f t="shared" ref="P46:P51" si="1">AVERAGE(F46:O46)</f>
-        <v>82.5</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.15">
@@ -8084,7 +8170,9 @@
       <c r="I47" s="20">
         <v>100</v>
       </c>
-      <c r="J47" s="20"/>
+      <c r="J47" s="20">
+        <v>100</v>
+      </c>
       <c r="K47" s="20"/>
       <c r="L47" s="20"/>
       <c r="M47" s="20"/>
@@ -8092,7 +8180,7 @@
       <c r="O47" s="20"/>
       <c r="P47" s="21">
         <f t="shared" si="1"/>
-        <v>82.5</v>
+        <v>86</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.15">
@@ -8123,7 +8211,9 @@
       <c r="I48" s="20">
         <v>100</v>
       </c>
-      <c r="J48" s="20"/>
+      <c r="J48" s="20">
+        <v>100</v>
+      </c>
       <c r="K48" s="20"/>
       <c r="L48" s="20"/>
       <c r="M48" s="20"/>
@@ -8162,7 +8252,9 @@
       <c r="I49" s="20">
         <v>100</v>
       </c>
-      <c r="J49" s="20"/>
+      <c r="J49" s="20">
+        <v>100</v>
+      </c>
       <c r="K49" s="20"/>
       <c r="L49" s="20"/>
       <c r="M49" s="20"/>
@@ -8170,7 +8262,7 @@
       <c r="O49" s="20"/>
       <c r="P49" s="21">
         <f t="shared" si="1"/>
-        <v>86.25</v>
+        <v>89</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.15">
@@ -8201,7 +8293,9 @@
       <c r="I50" s="20">
         <v>100</v>
       </c>
-      <c r="J50" s="20"/>
+      <c r="J50" s="20">
+        <v>100</v>
+      </c>
       <c r="K50" s="20"/>
       <c r="L50" s="20"/>
       <c r="M50" s="20"/>
@@ -8209,7 +8303,7 @@
       <c r="O50" s="20"/>
       <c r="P50" s="21">
         <f t="shared" si="1"/>
-        <v>97.5</v>
+        <v>98</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.15">
@@ -8240,7 +8334,9 @@
       <c r="I51" s="20">
         <v>80</v>
       </c>
-      <c r="J51" s="20"/>
+      <c r="J51" s="20">
+        <v>100</v>
+      </c>
       <c r="K51" s="20"/>
       <c r="L51" s="20"/>
       <c r="M51" s="20"/>
@@ -8248,7 +8344,7 @@
       <c r="O51" s="20"/>
       <c r="P51" s="21">
         <f t="shared" si="1"/>
-        <v>92.5</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -8283,8 +8379,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" topLeftCell="C28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8396,8 +8492,8 @@
       <c r="I3" s="9">
         <v>44147</v>
       </c>
-      <c r="J3" s="9" t="s">
-        <v>22</v>
+      <c r="J3" s="9">
+        <v>44183</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>22</v>
@@ -8444,7 +8540,9 @@
       <c r="I4" s="15">
         <v>100</v>
       </c>
-      <c r="J4" s="15"/>
+      <c r="J4" s="15">
+        <v>100</v>
+      </c>
       <c r="K4" s="15"/>
       <c r="L4" s="15"/>
       <c r="M4" s="15"/>
@@ -8452,7 +8550,7 @@
       <c r="O4" s="15"/>
       <c r="P4" s="11">
         <f t="shared" ref="P4:P51" si="0">AVERAGE(F4:O4)</f>
-        <v>98.75</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -8483,7 +8581,9 @@
       <c r="I5" s="15">
         <v>100</v>
       </c>
-      <c r="J5" s="15"/>
+      <c r="J5" s="15">
+        <v>100</v>
+      </c>
       <c r="K5" s="15"/>
       <c r="L5" s="15"/>
       <c r="M5" s="15"/>
@@ -8491,7 +8591,7 @@
       <c r="O5" s="15"/>
       <c r="P5" s="11">
         <f t="shared" si="0"/>
-        <v>97.5</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -8522,7 +8622,9 @@
       <c r="I6" s="15">
         <v>100</v>
       </c>
-      <c r="J6" s="15"/>
+      <c r="J6" s="15">
+        <v>100</v>
+      </c>
       <c r="K6" s="15"/>
       <c r="L6" s="15"/>
       <c r="M6" s="15"/>
@@ -8530,7 +8632,7 @@
       <c r="O6" s="15"/>
       <c r="P6" s="11">
         <f t="shared" si="0"/>
-        <v>92.5</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -8561,7 +8663,9 @@
       <c r="I7" s="15">
         <v>70</v>
       </c>
-      <c r="J7" s="15"/>
+      <c r="J7" s="15">
+        <v>100</v>
+      </c>
       <c r="K7" s="15"/>
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
@@ -8569,7 +8673,7 @@
       <c r="O7" s="15"/>
       <c r="P7" s="11">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -8600,7 +8704,9 @@
       <c r="I8" s="15">
         <v>70</v>
       </c>
-      <c r="J8" s="15"/>
+      <c r="J8" s="15">
+        <v>100</v>
+      </c>
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
       <c r="M8" s="15"/>
@@ -8608,7 +8714,7 @@
       <c r="O8" s="15"/>
       <c r="P8" s="11">
         <f t="shared" si="0"/>
-        <v>76.25</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -8639,7 +8745,9 @@
       <c r="I9" s="15">
         <v>100</v>
       </c>
-      <c r="J9" s="15"/>
+      <c r="J9" s="15">
+        <v>100</v>
+      </c>
       <c r="K9" s="15"/>
       <c r="L9" s="15"/>
       <c r="M9" s="15"/>
@@ -8647,7 +8755,7 @@
       <c r="O9" s="15"/>
       <c r="P9" s="11">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -8678,7 +8786,9 @@
       <c r="I10" s="15">
         <v>100</v>
       </c>
-      <c r="J10" s="15"/>
+      <c r="J10" s="15">
+        <v>100</v>
+      </c>
       <c r="K10" s="15"/>
       <c r="L10" s="15"/>
       <c r="M10" s="15"/>
@@ -8686,7 +8796,7 @@
       <c r="O10" s="15"/>
       <c r="P10" s="11">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -8717,7 +8827,9 @@
       <c r="I11" s="15">
         <v>100</v>
       </c>
-      <c r="J11" s="15"/>
+      <c r="J11" s="15">
+        <v>100</v>
+      </c>
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
       <c r="M11" s="15"/>
@@ -8725,7 +8837,7 @@
       <c r="O11" s="15"/>
       <c r="P11" s="11">
         <f t="shared" si="0"/>
-        <v>97.5</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -8756,7 +8868,9 @@
       <c r="I12" s="15">
         <v>100</v>
       </c>
-      <c r="J12" s="15"/>
+      <c r="J12" s="15">
+        <v>100</v>
+      </c>
       <c r="K12" s="15"/>
       <c r="L12" s="15"/>
       <c r="M12" s="15"/>
@@ -8764,7 +8878,7 @@
       <c r="O12" s="15"/>
       <c r="P12" s="11">
         <f t="shared" si="0"/>
-        <v>96.25</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -8795,7 +8909,9 @@
       <c r="I13" s="15">
         <v>100</v>
       </c>
-      <c r="J13" s="15"/>
+      <c r="J13" s="15">
+        <v>100</v>
+      </c>
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
       <c r="M13" s="15"/>
@@ -8803,7 +8919,7 @@
       <c r="O13" s="15"/>
       <c r="P13" s="11">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -8834,7 +8950,9 @@
       <c r="I14" s="15">
         <v>100</v>
       </c>
-      <c r="J14" s="15"/>
+      <c r="J14" s="15">
+        <v>100</v>
+      </c>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
       <c r="M14" s="15"/>
@@ -8842,7 +8960,7 @@
       <c r="O14" s="15"/>
       <c r="P14" s="11">
         <f t="shared" si="0"/>
-        <v>98.75</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -8873,7 +8991,9 @@
       <c r="I15" s="15">
         <v>100</v>
       </c>
-      <c r="J15" s="15"/>
+      <c r="J15" s="15">
+        <v>100</v>
+      </c>
       <c r="K15" s="15"/>
       <c r="L15" s="15"/>
       <c r="M15" s="15"/>
@@ -8881,7 +9001,7 @@
       <c r="O15" s="15"/>
       <c r="P15" s="11">
         <f t="shared" si="0"/>
-        <v>97.5</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -8912,7 +9032,9 @@
       <c r="I16" s="15">
         <v>100</v>
       </c>
-      <c r="J16" s="15"/>
+      <c r="J16" s="15">
+        <v>100</v>
+      </c>
       <c r="K16" s="15"/>
       <c r="L16" s="15"/>
       <c r="M16" s="15"/>
@@ -8920,7 +9042,7 @@
       <c r="O16" s="15"/>
       <c r="P16" s="11">
         <f t="shared" si="0"/>
-        <v>77.5</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -8951,7 +9073,9 @@
       <c r="I17" s="15">
         <v>100</v>
       </c>
-      <c r="J17" s="15"/>
+      <c r="J17" s="15">
+        <v>100</v>
+      </c>
       <c r="K17" s="15"/>
       <c r="L17" s="15"/>
       <c r="M17" s="15"/>
@@ -8959,7 +9083,7 @@
       <c r="O17" s="15"/>
       <c r="P17" s="11">
         <f t="shared" si="0"/>
-        <v>91.25</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -8990,7 +9114,9 @@
       <c r="I18" s="15">
         <v>100</v>
       </c>
-      <c r="J18" s="15"/>
+      <c r="J18" s="15">
+        <v>100</v>
+      </c>
       <c r="K18" s="15"/>
       <c r="L18" s="15"/>
       <c r="M18" s="15"/>
@@ -8998,7 +9124,7 @@
       <c r="O18" s="15"/>
       <c r="P18" s="11">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -9029,7 +9155,9 @@
       <c r="I19" s="15">
         <v>100</v>
       </c>
-      <c r="J19" s="15"/>
+      <c r="J19" s="15">
+        <v>100</v>
+      </c>
       <c r="K19" s="15"/>
       <c r="L19" s="15"/>
       <c r="M19" s="15"/>
@@ -9037,7 +9165,7 @@
       <c r="O19" s="15"/>
       <c r="P19" s="11">
         <f t="shared" si="0"/>
-        <v>97.5</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -9068,7 +9196,9 @@
       <c r="I20" s="15">
         <v>100</v>
       </c>
-      <c r="J20" s="15"/>
+      <c r="J20" s="15">
+        <v>100</v>
+      </c>
       <c r="K20" s="15"/>
       <c r="L20" s="15"/>
       <c r="M20" s="15"/>
@@ -9076,7 +9206,7 @@
       <c r="O20" s="15"/>
       <c r="P20" s="11">
         <f t="shared" si="0"/>
-        <v>98.75</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -9107,7 +9237,9 @@
       <c r="I21" s="15">
         <v>70</v>
       </c>
-      <c r="J21" s="15"/>
+      <c r="J21" s="15">
+        <v>100</v>
+      </c>
       <c r="K21" s="15"/>
       <c r="L21" s="15"/>
       <c r="M21" s="15"/>
@@ -9115,7 +9247,7 @@
       <c r="O21" s="15"/>
       <c r="P21" s="11">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -9146,7 +9278,9 @@
       <c r="I22" s="15">
         <v>100</v>
       </c>
-      <c r="J22" s="15"/>
+      <c r="J22" s="15">
+        <v>100</v>
+      </c>
       <c r="K22" s="15"/>
       <c r="L22" s="15"/>
       <c r="M22" s="15"/>
@@ -9154,7 +9288,7 @@
       <c r="O22" s="15"/>
       <c r="P22" s="11">
         <f t="shared" si="0"/>
-        <v>97.5</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -9185,7 +9319,9 @@
       <c r="I23" s="15">
         <v>100</v>
       </c>
-      <c r="J23" s="15"/>
+      <c r="J23" s="15">
+        <v>100</v>
+      </c>
       <c r="K23" s="15"/>
       <c r="L23" s="15"/>
       <c r="M23" s="15"/>
@@ -9193,7 +9329,7 @@
       <c r="O23" s="15"/>
       <c r="P23" s="11">
         <f t="shared" si="0"/>
-        <v>97.5</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -9224,7 +9360,9 @@
       <c r="I24" s="15">
         <v>70</v>
       </c>
-      <c r="J24" s="15"/>
+      <c r="J24" s="15">
+        <v>100</v>
+      </c>
       <c r="K24" s="15"/>
       <c r="L24" s="15"/>
       <c r="M24" s="15"/>
@@ -9232,7 +9370,7 @@
       <c r="O24" s="15"/>
       <c r="P24" s="11">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -9263,7 +9401,9 @@
       <c r="I25" s="15">
         <v>100</v>
       </c>
-      <c r="J25" s="15"/>
+      <c r="J25" s="15">
+        <v>100</v>
+      </c>
       <c r="K25" s="15"/>
       <c r="L25" s="15"/>
       <c r="M25" s="15"/>
@@ -9271,7 +9411,7 @@
       <c r="O25" s="15"/>
       <c r="P25" s="11">
         <f t="shared" si="0"/>
-        <v>98.75</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -9302,7 +9442,9 @@
       <c r="I26" s="15">
         <v>100</v>
       </c>
-      <c r="J26" s="15"/>
+      <c r="J26" s="15">
+        <v>100</v>
+      </c>
       <c r="K26" s="15"/>
       <c r="L26" s="15"/>
       <c r="M26" s="15"/>
@@ -9310,7 +9452,7 @@
       <c r="O26" s="15"/>
       <c r="P26" s="11">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -9341,7 +9483,9 @@
       <c r="I27" s="15">
         <v>100</v>
       </c>
-      <c r="J27" s="15"/>
+      <c r="J27" s="15">
+        <v>100</v>
+      </c>
       <c r="K27" s="15"/>
       <c r="L27" s="15"/>
       <c r="M27" s="15"/>
@@ -9349,7 +9493,7 @@
       <c r="O27" s="15"/>
       <c r="P27" s="11">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -9380,7 +9524,9 @@
       <c r="I28" s="15">
         <v>100</v>
       </c>
-      <c r="J28" s="15"/>
+      <c r="J28" s="15">
+        <v>100</v>
+      </c>
       <c r="K28" s="15"/>
       <c r="L28" s="15"/>
       <c r="M28" s="15"/>
@@ -9388,7 +9534,7 @@
       <c r="O28" s="15"/>
       <c r="P28" s="11">
         <f t="shared" si="0"/>
-        <v>98.75</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -9419,7 +9565,9 @@
       <c r="I29" s="15">
         <v>100</v>
       </c>
-      <c r="J29" s="15"/>
+      <c r="J29" s="15">
+        <v>100</v>
+      </c>
       <c r="K29" s="15"/>
       <c r="L29" s="15"/>
       <c r="M29" s="15"/>
@@ -9427,7 +9575,7 @@
       <c r="O29" s="15"/>
       <c r="P29" s="11">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -9458,7 +9606,9 @@
       <c r="I30" s="15">
         <v>100</v>
       </c>
-      <c r="J30" s="15"/>
+      <c r="J30" s="15">
+        <v>100</v>
+      </c>
       <c r="K30" s="15"/>
       <c r="L30" s="15"/>
       <c r="M30" s="15"/>
@@ -9466,7 +9616,7 @@
       <c r="O30" s="15"/>
       <c r="P30" s="11">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -9497,7 +9647,9 @@
       <c r="I31" s="15">
         <v>100</v>
       </c>
-      <c r="J31" s="15"/>
+      <c r="J31" s="15">
+        <v>100</v>
+      </c>
       <c r="K31" s="15"/>
       <c r="L31" s="15"/>
       <c r="M31" s="15"/>
@@ -9505,7 +9657,7 @@
       <c r="O31" s="15"/>
       <c r="P31" s="11">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -9536,7 +9688,9 @@
       <c r="I32" s="15">
         <v>100</v>
       </c>
-      <c r="J32" s="15"/>
+      <c r="J32" s="15">
+        <v>100</v>
+      </c>
       <c r="K32" s="15"/>
       <c r="L32" s="15"/>
       <c r="M32" s="15"/>
@@ -9544,7 +9698,7 @@
       <c r="O32" s="15"/>
       <c r="P32" s="11">
         <f t="shared" si="0"/>
-        <v>97.25</v>
+        <v>97.8</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -9575,7 +9729,9 @@
       <c r="I33" s="15">
         <v>100</v>
       </c>
-      <c r="J33" s="15"/>
+      <c r="J33" s="15">
+        <v>100</v>
+      </c>
       <c r="K33" s="15"/>
       <c r="L33" s="15"/>
       <c r="M33" s="15"/>
@@ -9583,7 +9739,7 @@
       <c r="O33" s="15"/>
       <c r="P33" s="11">
         <f t="shared" si="0"/>
-        <v>92.5</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -9614,7 +9770,9 @@
       <c r="I34" s="15">
         <v>100</v>
       </c>
-      <c r="J34" s="15"/>
+      <c r="J34" s="15">
+        <v>100</v>
+      </c>
       <c r="K34" s="15"/>
       <c r="L34" s="15"/>
       <c r="M34" s="15"/>
@@ -9622,7 +9780,7 @@
       <c r="O34" s="15"/>
       <c r="P34" s="11">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -9653,7 +9811,9 @@
       <c r="I35" s="15">
         <v>70</v>
       </c>
-      <c r="J35" s="15"/>
+      <c r="J35" s="15">
+        <v>100</v>
+      </c>
       <c r="K35" s="15"/>
       <c r="L35" s="15"/>
       <c r="M35" s="15"/>
@@ -9661,7 +9821,7 @@
       <c r="O35" s="15"/>
       <c r="P35" s="11">
         <f t="shared" si="0"/>
-        <v>88.75</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -9692,7 +9852,9 @@
       <c r="I36" s="15">
         <v>100</v>
       </c>
-      <c r="J36" s="15"/>
+      <c r="J36" s="15">
+        <v>100</v>
+      </c>
       <c r="K36" s="15"/>
       <c r="L36" s="15"/>
       <c r="M36" s="15"/>
@@ -9700,7 +9862,7 @@
       <c r="O36" s="15"/>
       <c r="P36" s="11">
         <f t="shared" si="0"/>
-        <v>71.25</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -9731,7 +9893,9 @@
       <c r="I37" s="15">
         <v>100</v>
       </c>
-      <c r="J37" s="15"/>
+      <c r="J37" s="15">
+        <v>100</v>
+      </c>
       <c r="K37" s="15"/>
       <c r="L37" s="15"/>
       <c r="M37" s="15"/>
@@ -9739,7 +9903,7 @@
       <c r="O37" s="15"/>
       <c r="P37" s="11">
         <f t="shared" si="0"/>
-        <v>97.5</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -9770,7 +9934,9 @@
       <c r="I38" s="15">
         <v>60</v>
       </c>
-      <c r="J38" s="15"/>
+      <c r="J38" s="15">
+        <v>100</v>
+      </c>
       <c r="K38" s="15"/>
       <c r="L38" s="15"/>
       <c r="M38" s="15"/>
@@ -9778,7 +9944,7 @@
       <c r="O38" s="15"/>
       <c r="P38" s="11">
         <f t="shared" si="0"/>
-        <v>77.5</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -9809,7 +9975,9 @@
       <c r="I39" s="15">
         <v>100</v>
       </c>
-      <c r="J39" s="15"/>
+      <c r="J39" s="15">
+        <v>100</v>
+      </c>
       <c r="K39" s="15"/>
       <c r="L39" s="15"/>
       <c r="M39" s="15"/>
@@ -9817,7 +9985,7 @@
       <c r="O39" s="15"/>
       <c r="P39" s="11">
         <f t="shared" si="0"/>
-        <v>91.25</v>
+        <v>93</v>
       </c>
     </row>
     <row r="40" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -9848,7 +10016,9 @@
       <c r="I40" s="15">
         <v>70</v>
       </c>
-      <c r="J40" s="15"/>
+      <c r="J40" s="15">
+        <v>100</v>
+      </c>
       <c r="K40" s="15"/>
       <c r="L40" s="15"/>
       <c r="M40" s="15"/>
@@ -9856,7 +10026,7 @@
       <c r="O40" s="15"/>
       <c r="P40" s="11">
         <f t="shared" si="0"/>
-        <v>86.25</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -9887,7 +10057,9 @@
       <c r="I41" s="15">
         <v>100</v>
       </c>
-      <c r="J41" s="15"/>
+      <c r="J41" s="15">
+        <v>100</v>
+      </c>
       <c r="K41" s="15"/>
       <c r="L41" s="15"/>
       <c r="M41" s="15"/>
@@ -9895,7 +10067,7 @@
       <c r="O41" s="15"/>
       <c r="P41" s="11">
         <f t="shared" si="0"/>
-        <v>96.25</v>
+        <v>97</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -9926,7 +10098,9 @@
       <c r="I42" s="15">
         <v>100</v>
       </c>
-      <c r="J42" s="15"/>
+      <c r="J42" s="15">
+        <v>100</v>
+      </c>
       <c r="K42" s="15"/>
       <c r="L42" s="15"/>
       <c r="M42" s="15"/>
@@ -9934,7 +10108,7 @@
       <c r="O42" s="15"/>
       <c r="P42" s="11">
         <f t="shared" si="0"/>
-        <v>98.75</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -9965,7 +10139,9 @@
       <c r="I43" s="15">
         <v>60</v>
       </c>
-      <c r="J43" s="15"/>
+      <c r="J43" s="15">
+        <v>100</v>
+      </c>
       <c r="K43" s="15"/>
       <c r="L43" s="15"/>
       <c r="M43" s="15"/>
@@ -9973,7 +10149,7 @@
       <c r="O43" s="15"/>
       <c r="P43" s="11">
         <f t="shared" si="0"/>
-        <v>87.5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -10004,7 +10180,9 @@
       <c r="I44" s="15">
         <v>100</v>
       </c>
-      <c r="J44" s="15"/>
+      <c r="J44" s="15">
+        <v>100</v>
+      </c>
       <c r="K44" s="15"/>
       <c r="L44" s="15"/>
       <c r="M44" s="15"/>
@@ -10012,7 +10190,7 @@
       <c r="O44" s="15"/>
       <c r="P44" s="11">
         <f t="shared" si="0"/>
-        <v>98.75</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -10043,7 +10221,9 @@
       <c r="I45" s="15">
         <v>100</v>
       </c>
-      <c r="J45" s="15"/>
+      <c r="J45" s="15">
+        <v>100</v>
+      </c>
       <c r="K45" s="15"/>
       <c r="L45" s="15"/>
       <c r="M45" s="15"/>
@@ -10051,7 +10231,7 @@
       <c r="O45" s="15"/>
       <c r="P45" s="11">
         <f t="shared" si="0"/>
-        <v>97.5</v>
+        <v>98</v>
       </c>
     </row>
     <row r="46" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -10082,7 +10262,9 @@
       <c r="I46" s="15">
         <v>100</v>
       </c>
-      <c r="J46" s="15"/>
+      <c r="J46" s="15">
+        <v>100</v>
+      </c>
       <c r="K46" s="15"/>
       <c r="L46" s="15"/>
       <c r="M46" s="15"/>
@@ -10090,7 +10272,7 @@
       <c r="O46" s="15"/>
       <c r="P46" s="11">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="47" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -10121,7 +10303,9 @@
       <c r="I47" s="15">
         <v>60</v>
       </c>
-      <c r="J47" s="15"/>
+      <c r="J47" s="15">
+        <v>100</v>
+      </c>
       <c r="K47" s="15"/>
       <c r="L47" s="15"/>
       <c r="M47" s="15"/>
@@ -10129,7 +10313,7 @@
       <c r="O47" s="15"/>
       <c r="P47" s="11">
         <f t="shared" si="0"/>
-        <v>87.5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -10160,7 +10344,9 @@
       <c r="I48" s="15">
         <v>100</v>
       </c>
-      <c r="J48" s="15"/>
+      <c r="J48" s="15">
+        <v>100</v>
+      </c>
       <c r="K48" s="15"/>
       <c r="L48" s="15"/>
       <c r="M48" s="15"/>
@@ -10168,7 +10354,7 @@
       <c r="O48" s="15"/>
       <c r="P48" s="11">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="49" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -10199,7 +10385,9 @@
       <c r="I49" s="15">
         <v>100</v>
       </c>
-      <c r="J49" s="15"/>
+      <c r="J49" s="15">
+        <v>100</v>
+      </c>
       <c r="K49" s="15"/>
       <c r="L49" s="15"/>
       <c r="M49" s="15"/>
@@ -10207,7 +10395,7 @@
       <c r="O49" s="15"/>
       <c r="P49" s="11">
         <f t="shared" si="0"/>
-        <v>97.5</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -10238,7 +10426,9 @@
       <c r="I50" s="15">
         <v>100</v>
       </c>
-      <c r="J50" s="15"/>
+      <c r="J50" s="15">
+        <v>100</v>
+      </c>
       <c r="K50" s="15"/>
       <c r="L50" s="15"/>
       <c r="M50" s="15"/>
@@ -10246,7 +10436,7 @@
       <c r="O50" s="15"/>
       <c r="P50" s="11">
         <f t="shared" si="0"/>
-        <v>96.25</v>
+        <v>97</v>
       </c>
     </row>
     <row r="51" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
@@ -10277,7 +10467,9 @@
       <c r="I51" s="15">
         <v>100</v>
       </c>
-      <c r="J51" s="15"/>
+      <c r="J51" s="15">
+        <v>100</v>
+      </c>
       <c r="K51" s="15"/>
       <c r="L51" s="15"/>
       <c r="M51" s="15"/>
@@ -10285,7 +10477,7 @@
       <c r="O51" s="15"/>
       <c r="P51" s="11">
         <f t="shared" si="0"/>
-        <v>87.5</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
